--- a/AAII_Financials/Yearly/RICOY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/RICOY_YR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Yearly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Yearly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="92">
   <si>
     <t>RICOY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:L102"/>
+  <dimension ref="A5:M102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,141 +665,153 @@
     <col min="1" max="1" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E7" s="2">
         <v>43555</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43190</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>42825</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>42460</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42094</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>41729</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>41364</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>40999</v>
       </c>
-      <c r="L7" s="2"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M7" s="2"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>18300200</v>
+        <v>18659700</v>
       </c>
       <c r="E8" s="3">
-        <v>18756000</v>
+        <v>18702900</v>
       </c>
       <c r="F8" s="3">
-        <v>18442700</v>
+        <v>19168600</v>
       </c>
       <c r="G8" s="3">
-        <v>20080100</v>
+        <v>18848500</v>
       </c>
       <c r="H8" s="3">
-        <v>19556300</v>
+        <v>20521900</v>
       </c>
       <c r="I8" s="3">
-        <v>19958900</v>
+        <v>19986500</v>
       </c>
       <c r="J8" s="3">
+        <v>20398000</v>
+      </c>
+      <c r="K8" s="3">
         <v>17143700</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>17207400</v>
       </c>
-      <c r="L8" s="3"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M8" s="3"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>11329300</v>
+        <v>11956300</v>
       </c>
       <c r="E9" s="3">
-        <v>11565700</v>
+        <v>11578500</v>
       </c>
       <c r="F9" s="3">
-        <v>11274100</v>
+        <v>11820200</v>
       </c>
       <c r="G9" s="3">
-        <v>12063000</v>
+        <v>11522100</v>
       </c>
       <c r="H9" s="3">
-        <v>11312400</v>
+        <v>12328400</v>
       </c>
       <c r="I9" s="3">
-        <v>12021300</v>
+        <v>11561300</v>
       </c>
       <c r="J9" s="3">
+        <v>12285800</v>
+      </c>
+      <c r="K9" s="3">
         <v>20836800</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>10403700</v>
       </c>
-      <c r="L9" s="3"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M9" s="3"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>6971000</v>
+        <v>6703500</v>
       </c>
       <c r="E10" s="3">
-        <v>7190200</v>
+        <v>7124300</v>
       </c>
       <c r="F10" s="3">
-        <v>7168600</v>
+        <v>7348400</v>
       </c>
       <c r="G10" s="3">
-        <v>8017100</v>
+        <v>7326400</v>
       </c>
       <c r="H10" s="3">
-        <v>8243900</v>
+        <v>8193400</v>
       </c>
       <c r="I10" s="3">
-        <v>7937600</v>
+        <v>8425300</v>
       </c>
       <c r="J10" s="3">
+        <v>8112300</v>
+      </c>
+      <c r="K10" s="3">
         <v>-3693100</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>6803700</v>
       </c>
-      <c r="L10" s="3"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M10" s="3"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -812,38 +824,42 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D12" s="3">
-        <v>854700</v>
+      <c r="D12" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="E12" s="3">
-        <v>854400</v>
+        <v>873500</v>
       </c>
       <c r="F12" s="3">
-        <v>912500</v>
+        <v>873200</v>
       </c>
       <c r="G12" s="3">
-        <v>927600</v>
+        <v>932600</v>
       </c>
       <c r="H12" s="3">
-        <v>893400</v>
+        <v>948000</v>
       </c>
       <c r="I12" s="3">
-        <v>857800</v>
+        <v>913100</v>
       </c>
       <c r="J12" s="3">
+        <v>876700</v>
+      </c>
+      <c r="K12" s="3">
         <v>1831000</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>1076000</v>
       </c>
-      <c r="L12" s="3"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M12" s="3"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -871,69 +887,78 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-      <c r="L13" s="3"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+      <c r="M13" s="3"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>194700</v>
+        <v>100</v>
       </c>
       <c r="E14" s="3">
-        <v>1833600</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>10</v>
+        <v>199000</v>
+      </c>
+      <c r="F14" s="3">
+        <v>1873900</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H14" s="3">
-        <v>9200</v>
+      <c r="H14" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="I14" s="3">
-        <v>102900</v>
+        <v>9400</v>
       </c>
       <c r="J14" s="3">
-        <v>0</v>
+        <v>105200</v>
       </c>
       <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3">
         <v>293800</v>
       </c>
-      <c r="L14" s="3"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M14" s="3"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="3">
-        <v>226000</v>
+      <c r="D15" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="E15" s="3">
-        <v>364400</v>
+        <v>231000</v>
       </c>
       <c r="F15" s="3">
-        <v>366200</v>
+        <v>372500</v>
       </c>
       <c r="G15" s="3">
-        <v>337600</v>
+        <v>374300</v>
       </c>
       <c r="H15" s="3">
-        <v>339100</v>
+        <v>345000</v>
       </c>
       <c r="I15" s="3">
-        <v>337300</v>
+        <v>346500</v>
       </c>
       <c r="J15" s="3">
+        <v>344800</v>
+      </c>
+      <c r="K15" s="3">
         <v>321800</v>
       </c>
-      <c r="K15" s="3" t="s">
+      <c r="L15" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L15" s="3"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M15" s="3"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -943,68 +968,75 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
-    </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>17510900</v>
+        <v>17925400</v>
       </c>
       <c r="E17" s="3">
-        <v>19807500</v>
+        <v>17896200</v>
       </c>
       <c r="F17" s="3">
-        <v>18134700</v>
+        <v>20243300</v>
       </c>
       <c r="G17" s="3">
-        <v>19150200</v>
+        <v>18533700</v>
       </c>
       <c r="H17" s="3">
-        <v>18504000</v>
+        <v>19571500</v>
       </c>
       <c r="I17" s="3">
-        <v>18864900</v>
+        <v>18911100</v>
       </c>
       <c r="J17" s="3">
+        <v>19280000</v>
+      </c>
+      <c r="K17" s="3">
         <v>16475100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>17416100</v>
       </c>
-      <c r="L17" s="3"/>
-    </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M17" s="3"/>
+    </row>
+    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>789400</v>
+        <v>734300</v>
       </c>
       <c r="E18" s="3">
-        <v>-1051500</v>
+        <v>806700</v>
       </c>
       <c r="F18" s="3">
-        <v>308000</v>
+        <v>-1074600</v>
       </c>
       <c r="G18" s="3">
-        <v>929900</v>
+        <v>314700</v>
       </c>
       <c r="H18" s="3">
-        <v>1052300</v>
+        <v>950300</v>
       </c>
       <c r="I18" s="3">
-        <v>1093900</v>
+        <v>1075500</v>
       </c>
       <c r="J18" s="3">
+        <v>1118000</v>
+      </c>
+      <c r="K18" s="3">
         <v>668600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-208600</v>
       </c>
-      <c r="L18" s="3"/>
-    </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M18" s="3"/>
+    </row>
+    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1017,158 +1049,174 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
-    </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>28100</v>
+        <v>-29300</v>
       </c>
       <c r="E20" s="3">
-        <v>-16200</v>
+        <v>28700</v>
       </c>
       <c r="F20" s="3">
-        <v>33000</v>
+        <v>-16500</v>
       </c>
       <c r="G20" s="3">
+        <v>33700</v>
+      </c>
+      <c r="H20" s="3">
         <v>-600</v>
       </c>
-      <c r="H20" s="3">
-        <v>33100</v>
-      </c>
       <c r="I20" s="3">
-        <v>47000</v>
+        <v>33800</v>
       </c>
       <c r="J20" s="3">
+        <v>48000</v>
+      </c>
+      <c r="K20" s="3">
         <v>84400</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-17000</v>
       </c>
-      <c r="L20" s="3"/>
-    </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M20" s="3"/>
+    </row>
+    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>1676400</v>
+        <v>1825000</v>
       </c>
       <c r="E21" s="3">
-        <v>-80800</v>
+        <v>1710400</v>
       </c>
       <c r="F21" s="3">
-        <v>1314700</v>
+        <v>-85900</v>
       </c>
       <c r="G21" s="3">
-        <v>1907300</v>
+        <v>1340400</v>
       </c>
       <c r="H21" s="3">
-        <v>2067800</v>
+        <v>1946000</v>
       </c>
       <c r="I21" s="3">
-        <v>2108700</v>
+        <v>2110000</v>
       </c>
       <c r="J21" s="3">
+        <v>2151900</v>
+      </c>
+      <c r="K21" s="3">
         <v>1626800</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>599200</v>
       </c>
-      <c r="L21" s="3"/>
-    </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M21" s="3"/>
+    </row>
+    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3">
-        <v>54200</v>
+      <c r="D22" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="E22" s="3">
-        <v>61100</v>
+        <v>55400</v>
       </c>
       <c r="F22" s="3">
-        <v>68600</v>
+        <v>62500</v>
       </c>
       <c r="G22" s="3">
-        <v>59500</v>
+        <v>70200</v>
       </c>
       <c r="H22" s="3">
-        <v>64600</v>
+        <v>60800</v>
       </c>
       <c r="I22" s="3">
-        <v>67700</v>
+        <v>66100</v>
       </c>
       <c r="J22" s="3">
+        <v>69200</v>
+      </c>
+      <c r="K22" s="3">
         <v>134100</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>63100</v>
       </c>
-      <c r="L22" s="3"/>
-    </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M22" s="3"/>
+    </row>
+    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>763200</v>
+        <v>705000</v>
       </c>
       <c r="E23" s="3">
-        <v>-1128800</v>
+        <v>780000</v>
       </c>
       <c r="F23" s="3">
-        <v>272300</v>
+        <v>-1153700</v>
       </c>
       <c r="G23" s="3">
-        <v>869800</v>
+        <v>278300</v>
       </c>
       <c r="H23" s="3">
-        <v>1020800</v>
+        <v>888900</v>
       </c>
       <c r="I23" s="3">
-        <v>1073200</v>
+        <v>1043200</v>
       </c>
       <c r="J23" s="3">
+        <v>1096800</v>
+      </c>
+      <c r="K23" s="3">
         <v>618900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-288700</v>
       </c>
-      <c r="L23" s="3"/>
-    </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M23" s="3"/>
+    </row>
+    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>259900</v>
+        <v>292400</v>
       </c>
       <c r="E24" s="3">
-        <v>37700</v>
+        <v>265600</v>
       </c>
       <c r="F24" s="3">
-        <v>186500</v>
+        <v>38500</v>
       </c>
       <c r="G24" s="3">
-        <v>258000</v>
+        <v>190600</v>
       </c>
       <c r="H24" s="3">
-        <v>350900</v>
+        <v>263600</v>
       </c>
       <c r="I24" s="3">
-        <v>360100</v>
+        <v>358600</v>
       </c>
       <c r="J24" s="3">
+        <v>368000</v>
+      </c>
+      <c r="K24" s="3">
         <v>220600</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>74300</v>
       </c>
-      <c r="L24" s="3"/>
-    </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M24" s="3"/>
+    </row>
+    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1196,69 +1244,78 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-      <c r="L25" s="3"/>
-    </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+      <c r="M25" s="3"/>
+    </row>
+    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>503400</v>
+        <v>412600</v>
       </c>
       <c r="E26" s="3">
-        <v>-1166500</v>
+        <v>514500</v>
       </c>
       <c r="F26" s="3">
-        <v>85800</v>
+        <v>-1192200</v>
       </c>
       <c r="G26" s="3">
-        <v>611800</v>
+        <v>87700</v>
       </c>
       <c r="H26" s="3">
-        <v>669900</v>
+        <v>625300</v>
       </c>
       <c r="I26" s="3">
-        <v>713100</v>
+        <v>684700</v>
       </c>
       <c r="J26" s="3">
+        <v>728800</v>
+      </c>
+      <c r="K26" s="3">
         <v>398300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-363000</v>
       </c>
-      <c r="L26" s="3"/>
-    </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M26" s="3"/>
+    </row>
+    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>450200</v>
+        <v>367400</v>
       </c>
       <c r="E27" s="3">
-        <v>-1218600</v>
+        <v>460100</v>
       </c>
       <c r="F27" s="3">
-        <v>31700</v>
+        <v>-1245400</v>
       </c>
       <c r="G27" s="3">
-        <v>572400</v>
+        <v>32400</v>
       </c>
       <c r="H27" s="3">
-        <v>623200</v>
+        <v>585000</v>
       </c>
       <c r="I27" s="3">
-        <v>661900</v>
+        <v>636900</v>
       </c>
       <c r="J27" s="3">
+        <v>676500</v>
+      </c>
+      <c r="K27" s="3">
         <v>309500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-402800</v>
       </c>
-      <c r="L27" s="3"/>
-    </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M27" s="3"/>
+    </row>
+    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1286,20 +1343,23 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-      <c r="L28" s="3"/>
-    </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+      <c r="M28" s="3"/>
+    </row>
+    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E29" s="3">
-        <v>-11900</v>
-      </c>
-      <c r="F29" s="3" t="s">
+      <c r="E29" s="3" t="s">
         <v>10</v>
+      </c>
+      <c r="F29" s="3">
+        <v>-12200</v>
       </c>
       <c r="G29" s="3" t="s">
         <v>10</v>
@@ -1316,9 +1376,12 @@
       <c r="K29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L29" s="3"/>
-    </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L29" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="M29" s="3"/>
+    </row>
+    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1346,9 +1409,12 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-      <c r="L30" s="3"/>
-    </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+      <c r="M30" s="3"/>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1376,69 +1442,78 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-      <c r="L31" s="3"/>
-    </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+      <c r="M31" s="3"/>
+    </row>
+    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-28100</v>
+        <v>29300</v>
       </c>
       <c r="E32" s="3">
-        <v>16200</v>
+        <v>-28700</v>
       </c>
       <c r="F32" s="3">
-        <v>-33000</v>
+        <v>16500</v>
       </c>
       <c r="G32" s="3">
+        <v>-33700</v>
+      </c>
+      <c r="H32" s="3">
         <v>600</v>
       </c>
-      <c r="H32" s="3">
-        <v>-33100</v>
-      </c>
       <c r="I32" s="3">
-        <v>-47000</v>
+        <v>-33800</v>
       </c>
       <c r="J32" s="3">
+        <v>-48000</v>
+      </c>
+      <c r="K32" s="3">
         <v>-84400</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>17000</v>
       </c>
-      <c r="L32" s="3"/>
-    </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M32" s="3"/>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>450200</v>
+        <v>367400</v>
       </c>
       <c r="E33" s="3">
-        <v>-1230500</v>
+        <v>460100</v>
       </c>
       <c r="F33" s="3">
-        <v>31700</v>
+        <v>-1257600</v>
       </c>
       <c r="G33" s="3">
-        <v>572400</v>
+        <v>32400</v>
       </c>
       <c r="H33" s="3">
-        <v>623200</v>
+        <v>585000</v>
       </c>
       <c r="I33" s="3">
-        <v>661900</v>
+        <v>636900</v>
       </c>
       <c r="J33" s="3">
+        <v>676500</v>
+      </c>
+      <c r="K33" s="3">
         <v>309500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-402800</v>
       </c>
-      <c r="L33" s="3"/>
-    </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M33" s="3"/>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1466,74 +1541,83 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-      <c r="L34" s="3"/>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+      <c r="M34" s="3"/>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>450200</v>
+        <v>367400</v>
       </c>
       <c r="E35" s="3">
-        <v>-1230500</v>
+        <v>460100</v>
       </c>
       <c r="F35" s="3">
-        <v>31700</v>
+        <v>-1257600</v>
       </c>
       <c r="G35" s="3">
-        <v>572400</v>
+        <v>32400</v>
       </c>
       <c r="H35" s="3">
-        <v>623200</v>
+        <v>585000</v>
       </c>
       <c r="I35" s="3">
-        <v>661900</v>
+        <v>636900</v>
       </c>
       <c r="J35" s="3">
+        <v>676500</v>
+      </c>
+      <c r="K35" s="3">
         <v>309500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-402800</v>
       </c>
-      <c r="L35" s="3"/>
-    </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M35" s="3"/>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E38" s="2">
         <v>43555</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43190</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>42825</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>42460</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42094</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>41729</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>41364</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>40999</v>
       </c>
-      <c r="L38" s="2"/>
-    </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M38" s="2"/>
+    </row>
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1546,8 +1630,9 @@
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
-    </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M39" s="3"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1560,278 +1645,306 @@
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
-    </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M40" s="3"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>2183100</v>
+        <v>2439600</v>
       </c>
       <c r="E41" s="3">
-        <v>1460200</v>
+        <v>2228800</v>
       </c>
       <c r="F41" s="3">
-        <v>1228000</v>
+        <v>1490700</v>
       </c>
       <c r="G41" s="3">
-        <v>1531800</v>
+        <v>1253600</v>
       </c>
       <c r="H41" s="3">
-        <v>1260300</v>
+        <v>1563900</v>
       </c>
       <c r="I41" s="3">
-        <v>1309900</v>
+        <v>1286700</v>
       </c>
       <c r="J41" s="3">
+        <v>1337300</v>
+      </c>
+      <c r="K41" s="3">
         <v>2187600</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1412100</v>
       </c>
-      <c r="L41" s="3"/>
-    </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M41" s="3"/>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>2675700</v>
+        <v>809500</v>
       </c>
       <c r="E42" s="3">
-        <v>3154800</v>
+        <v>2731600</v>
       </c>
       <c r="F42" s="3">
-        <v>2514100</v>
+        <v>3220800</v>
       </c>
       <c r="G42" s="3">
-        <v>2475600</v>
+        <v>2566600</v>
       </c>
       <c r="H42" s="3">
-        <v>2363900</v>
+        <v>2527400</v>
       </c>
       <c r="I42" s="3">
-        <v>2269600</v>
+        <v>2413300</v>
       </c>
       <c r="J42" s="3">
+        <v>2317000</v>
+      </c>
+      <c r="K42" s="3">
         <v>2103200</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>22200</v>
       </c>
-      <c r="L42" s="3"/>
-    </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M42" s="3"/>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>5497700</v>
+        <v>3645000</v>
       </c>
       <c r="E43" s="3">
-        <v>5360700</v>
+        <v>5612600</v>
       </c>
       <c r="F43" s="3">
-        <v>5147800</v>
+        <v>5472800</v>
       </c>
       <c r="G43" s="3">
-        <v>5128600</v>
+        <v>5255400</v>
       </c>
       <c r="H43" s="3">
-        <v>5031600</v>
+        <v>5235800</v>
       </c>
       <c r="I43" s="3">
-        <v>9903100</v>
+        <v>5136800</v>
       </c>
       <c r="J43" s="3">
+        <v>10110100</v>
+      </c>
+      <c r="K43" s="3">
         <v>8964400</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>6209800</v>
       </c>
-      <c r="L43" s="3"/>
-    </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M43" s="3"/>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>1888400</v>
+        <v>1867600</v>
       </c>
       <c r="E44" s="3">
-        <v>1640600</v>
+        <v>1927900</v>
       </c>
       <c r="F44" s="3">
-        <v>1841200</v>
+        <v>1674900</v>
       </c>
       <c r="G44" s="3">
-        <v>1882500</v>
+        <v>1879700</v>
       </c>
       <c r="H44" s="3">
-        <v>2040500</v>
+        <v>1921800</v>
       </c>
       <c r="I44" s="3">
-        <v>1765000</v>
+        <v>2083200</v>
       </c>
       <c r="J44" s="3">
+        <v>1801900</v>
+      </c>
+      <c r="K44" s="3">
         <v>3563900</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>1762900</v>
       </c>
-      <c r="L44" s="3"/>
-    </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M44" s="3"/>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>388100</v>
+        <v>10783500</v>
       </c>
       <c r="E45" s="3">
-        <v>455000</v>
+        <v>396200</v>
       </c>
       <c r="F45" s="3">
-        <v>533400</v>
+        <v>464500</v>
       </c>
       <c r="G45" s="3">
-        <v>554800</v>
+        <v>544600</v>
       </c>
       <c r="H45" s="3">
-        <v>360500</v>
+        <v>566400</v>
       </c>
       <c r="I45" s="3">
-        <v>311900</v>
+        <v>368100</v>
       </c>
       <c r="J45" s="3">
+        <v>318500</v>
+      </c>
+      <c r="K45" s="3">
         <v>3011200</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>595700</v>
       </c>
-      <c r="L45" s="3"/>
-    </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M45" s="3"/>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>12632900</v>
+        <v>19545100</v>
       </c>
       <c r="E46" s="3">
-        <v>12071300</v>
+        <v>12897000</v>
       </c>
       <c r="F46" s="3">
-        <v>11264500</v>
+        <v>12323600</v>
       </c>
       <c r="G46" s="3">
-        <v>11573300</v>
+        <v>11499900</v>
       </c>
       <c r="H46" s="3">
-        <v>11056900</v>
+        <v>11815200</v>
       </c>
       <c r="I46" s="3">
-        <v>10608000</v>
+        <v>11288000</v>
       </c>
       <c r="J46" s="3">
+        <v>10829800</v>
+      </c>
+      <c r="K46" s="3">
         <v>9593000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>10002800</v>
       </c>
-      <c r="L46" s="3"/>
-    </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M46" s="3"/>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>6756200</v>
+        <v>1563100</v>
       </c>
       <c r="E47" s="3">
-        <v>6547700</v>
+        <v>6897400</v>
       </c>
       <c r="F47" s="3">
-        <v>6706100</v>
+        <v>6684500</v>
       </c>
       <c r="G47" s="3">
-        <v>6255600</v>
+        <v>6846200</v>
       </c>
       <c r="H47" s="3">
-        <v>6003800</v>
+        <v>6386400</v>
       </c>
       <c r="I47" s="3">
-        <v>5569400</v>
+        <v>6129300</v>
       </c>
       <c r="J47" s="3">
+        <v>5685800</v>
+      </c>
+      <c r="K47" s="3">
         <v>5473000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>4645800</v>
       </c>
-      <c r="L47" s="3"/>
-    </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M47" s="3"/>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>2275100</v>
+        <v>2422000</v>
       </c>
       <c r="E48" s="3">
-        <v>2272500</v>
+        <v>2322700</v>
       </c>
       <c r="F48" s="3">
-        <v>2465700</v>
+        <v>2320000</v>
       </c>
       <c r="G48" s="3">
-        <v>2513800</v>
+        <v>2517300</v>
       </c>
       <c r="H48" s="3">
-        <v>2514400</v>
+        <v>2566400</v>
       </c>
       <c r="I48" s="3">
-        <v>2872600</v>
+        <v>2567000</v>
       </c>
       <c r="J48" s="3">
+        <v>2932600</v>
+      </c>
+      <c r="K48" s="3">
         <v>5065200</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>2427500</v>
       </c>
-      <c r="L48" s="3"/>
-    </row>
-    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M48" s="3"/>
+    </row>
+    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>1998000</v>
+        <v>2152000</v>
       </c>
       <c r="E49" s="3">
-        <v>1973700</v>
+        <v>2039800</v>
       </c>
       <c r="F49" s="3">
-        <v>3528500</v>
+        <v>2015000</v>
       </c>
       <c r="G49" s="3">
-        <v>3761800</v>
+        <v>3602300</v>
       </c>
       <c r="H49" s="3">
-        <v>3961000</v>
+        <v>3840400</v>
       </c>
       <c r="I49" s="3">
-        <v>3630100</v>
+        <v>4043800</v>
       </c>
       <c r="J49" s="3">
+        <v>3706000</v>
+      </c>
+      <c r="K49" s="3">
         <v>4520200</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>2785800</v>
       </c>
-      <c r="L49" s="3"/>
-    </row>
-    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M49" s="3"/>
+    </row>
+    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1859,9 +1972,12 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-      <c r="L50" s="3"/>
-    </row>
-    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+      <c r="M50" s="3"/>
+    </row>
+    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1889,39 +2005,45 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-      <c r="L51" s="3"/>
-    </row>
-    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+      <c r="M51" s="3"/>
+    </row>
+    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>1109100</v>
+        <v>929600</v>
       </c>
       <c r="E52" s="3">
-        <v>1141700</v>
+        <v>1132300</v>
       </c>
       <c r="F52" s="3">
-        <v>1117100</v>
+        <v>1165600</v>
       </c>
       <c r="G52" s="3">
-        <v>1133400</v>
+        <v>1140500</v>
       </c>
       <c r="H52" s="3">
-        <v>1281400</v>
+        <v>1157100</v>
       </c>
       <c r="I52" s="3">
-        <v>1335100</v>
+        <v>1308200</v>
       </c>
       <c r="J52" s="3">
+        <v>1363000</v>
+      </c>
+      <c r="K52" s="3">
         <v>6546100</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>833900</v>
       </c>
-      <c r="L52" s="3"/>
-    </row>
-    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M52" s="3"/>
+    </row>
+    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1949,39 +2071,45 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-      <c r="L53" s="3"/>
-    </row>
-    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+      <c r="M53" s="3"/>
+    </row>
+    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>24771400</v>
+        <v>26611700</v>
       </c>
       <c r="E54" s="3">
-        <v>24007000</v>
+        <v>25289200</v>
       </c>
       <c r="F54" s="3">
-        <v>25081900</v>
+        <v>24508800</v>
       </c>
       <c r="G54" s="3">
-        <v>25238000</v>
+        <v>25606200</v>
       </c>
       <c r="H54" s="3">
-        <v>24817600</v>
+        <v>25765600</v>
       </c>
       <c r="I54" s="3">
-        <v>23603300</v>
+        <v>25336300</v>
       </c>
       <c r="J54" s="3">
+        <v>24096600</v>
+      </c>
+      <c r="K54" s="3">
         <v>21735700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>20695800</v>
       </c>
-      <c r="L54" s="3"/>
-    </row>
-    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M54" s="3"/>
+    </row>
+    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1994,8 +2122,9 @@
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
-    </row>
-    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M55" s="3"/>
+    </row>
+    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2008,188 +2137,207 @@
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
-    </row>
-    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M56" s="3"/>
+    </row>
+    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>1892800</v>
+        <v>2283400</v>
       </c>
       <c r="E57" s="3">
-        <v>1767200</v>
+        <v>1932400</v>
       </c>
       <c r="F57" s="3">
-        <v>1774600</v>
+        <v>1804200</v>
       </c>
       <c r="G57" s="3">
-        <v>1802300</v>
+        <v>1811700</v>
       </c>
       <c r="H57" s="3">
-        <v>1812500</v>
+        <v>1840000</v>
       </c>
       <c r="I57" s="3">
-        <v>1950200</v>
+        <v>1850400</v>
       </c>
       <c r="J57" s="3">
+        <v>1991000</v>
+      </c>
+      <c r="K57" s="3">
         <v>3862300</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>2175500</v>
       </c>
-      <c r="L57" s="3"/>
-    </row>
-    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M57" s="3"/>
+    </row>
+    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>2426600</v>
+        <v>730500</v>
       </c>
       <c r="E58" s="3">
-        <v>2028800</v>
+        <v>2477400</v>
       </c>
       <c r="F58" s="3">
-        <v>2090200</v>
+        <v>2071200</v>
       </c>
       <c r="G58" s="3">
-        <v>2370300</v>
+        <v>2133900</v>
       </c>
       <c r="H58" s="3">
-        <v>2018600</v>
+        <v>2419800</v>
       </c>
       <c r="I58" s="3">
-        <v>2470400</v>
+        <v>2060800</v>
       </c>
       <c r="J58" s="3">
+        <v>2522000</v>
+      </c>
+      <c r="K58" s="3">
         <v>4128200</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>2061000</v>
       </c>
-      <c r="L58" s="3"/>
-    </row>
-    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M58" s="3"/>
+    </row>
+    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>3354300</v>
+        <v>11359800</v>
       </c>
       <c r="E59" s="3">
-        <v>3371600</v>
+        <v>3424400</v>
       </c>
       <c r="F59" s="3">
-        <v>3470200</v>
+        <v>3442100</v>
       </c>
       <c r="G59" s="3">
-        <v>3161900</v>
+        <v>3542700</v>
       </c>
       <c r="H59" s="3">
-        <v>3187700</v>
+        <v>3228000</v>
       </c>
       <c r="I59" s="3">
-        <v>3175800</v>
+        <v>3254300</v>
       </c>
       <c r="J59" s="3">
+        <v>3242200</v>
+      </c>
+      <c r="K59" s="3">
         <v>4746300</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1847600</v>
       </c>
-      <c r="L59" s="3"/>
-    </row>
-    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M59" s="3"/>
+    </row>
+    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>7673800</v>
+        <v>14373800</v>
       </c>
       <c r="E60" s="3">
-        <v>7167700</v>
+        <v>7834200</v>
       </c>
       <c r="F60" s="3">
-        <v>7334900</v>
+        <v>7317500</v>
       </c>
       <c r="G60" s="3">
-        <v>7334400</v>
+        <v>7488300</v>
       </c>
       <c r="H60" s="3">
-        <v>7018700</v>
+        <v>7487700</v>
       </c>
       <c r="I60" s="3">
-        <v>7596400</v>
+        <v>7165400</v>
       </c>
       <c r="J60" s="3">
+        <v>7755200</v>
+      </c>
+      <c r="K60" s="3">
         <v>6370500</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>6084100</v>
       </c>
-      <c r="L60" s="3"/>
-    </row>
-    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M60" s="3"/>
+    </row>
+    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>6058100</v>
+        <v>1549000</v>
       </c>
       <c r="E61" s="3">
-        <v>5987600</v>
+        <v>6184800</v>
       </c>
       <c r="F61" s="3">
-        <v>5724900</v>
+        <v>6112800</v>
       </c>
       <c r="G61" s="3">
-        <v>5381700</v>
+        <v>5844500</v>
       </c>
       <c r="H61" s="3">
-        <v>5167800</v>
+        <v>5494200</v>
       </c>
       <c r="I61" s="3">
-        <v>4112300</v>
+        <v>5275800</v>
       </c>
       <c r="J61" s="3">
+        <v>4198200</v>
+      </c>
+      <c r="K61" s="3">
         <v>4314000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>4749900</v>
       </c>
-      <c r="L61" s="3"/>
-    </row>
-    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M61" s="3"/>
+    </row>
+    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1776900</v>
+        <v>1329900</v>
       </c>
       <c r="E62" s="3">
-        <v>1863900</v>
+        <v>1814100</v>
       </c>
       <c r="F62" s="3">
-        <v>1869700</v>
+        <v>1902800</v>
       </c>
       <c r="G62" s="3">
-        <v>2088700</v>
+        <v>1908800</v>
       </c>
       <c r="H62" s="3">
-        <v>2138300</v>
+        <v>2132400</v>
       </c>
       <c r="I62" s="3">
-        <v>1946500</v>
+        <v>2183000</v>
       </c>
       <c r="J62" s="3">
+        <v>1987200</v>
+      </c>
+      <c r="K62" s="3">
         <v>4245400</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>1915400</v>
       </c>
-      <c r="L62" s="3"/>
-    </row>
-    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M62" s="3"/>
+    </row>
+    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2217,9 +2365,12 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-      <c r="L63" s="3"/>
-    </row>
-    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+      <c r="M63" s="3"/>
+    </row>
+    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2247,9 +2398,12 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-      <c r="L64" s="3"/>
-    </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+      <c r="M64" s="3"/>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2277,39 +2431,45 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-      <c r="L65" s="3"/>
-    </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+      <c r="M65" s="3"/>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>16294300</v>
+        <v>18070700</v>
       </c>
       <c r="E66" s="3">
-        <v>15739000</v>
+        <v>16634900</v>
       </c>
       <c r="F66" s="3">
-        <v>15609200</v>
+        <v>16068000</v>
       </c>
       <c r="G66" s="3">
-        <v>15440700</v>
+        <v>15935400</v>
       </c>
       <c r="H66" s="3">
-        <v>14962500</v>
+        <v>15763500</v>
       </c>
       <c r="I66" s="3">
-        <v>14245900</v>
+        <v>15275300</v>
       </c>
       <c r="J66" s="3">
+        <v>14543700</v>
+      </c>
+      <c r="K66" s="3">
         <v>13430100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>13258600</v>
       </c>
-      <c r="L66" s="3"/>
-    </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M66" s="3"/>
+    </row>
+    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2322,8 +2482,9 @@
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
-    </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M67" s="3"/>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2351,9 +2512,12 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-      <c r="L68" s="3"/>
-    </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+      <c r="M68" s="3"/>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2381,9 +2545,12 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-      <c r="L69" s="3"/>
-    </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+      <c r="M69" s="3"/>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2411,9 +2578,12 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-      <c r="L70" s="3"/>
-    </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+      <c r="M70" s="3"/>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2441,39 +2611,45 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-      <c r="L71" s="3"/>
-    </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+      <c r="M71" s="3"/>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>5225600</v>
+        <v>5519100</v>
       </c>
       <c r="E72" s="3">
-        <v>4636900</v>
+        <v>5334800</v>
       </c>
       <c r="F72" s="3">
-        <v>5976200</v>
+        <v>4733800</v>
       </c>
       <c r="G72" s="3">
-        <v>6166900</v>
+        <v>6101100</v>
       </c>
       <c r="H72" s="3">
-        <v>5876400</v>
+        <v>6295800</v>
       </c>
       <c r="I72" s="3">
-        <v>5684300</v>
+        <v>5999200</v>
       </c>
       <c r="J72" s="3">
+        <v>5803200</v>
+      </c>
+      <c r="K72" s="3">
         <v>12094900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>6712600</v>
       </c>
-      <c r="L72" s="3"/>
-    </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M72" s="3"/>
+    </row>
+    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2501,9 +2677,12 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-      <c r="L73" s="3"/>
-    </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+      <c r="M73" s="3"/>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2531,9 +2710,12 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-      <c r="L74" s="3"/>
-    </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+      <c r="M74" s="3"/>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2561,39 +2743,45 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-      <c r="L75" s="3"/>
-    </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+      <c r="M75" s="3"/>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>8477100</v>
+        <v>8541000</v>
       </c>
       <c r="E76" s="3">
-        <v>8267900</v>
+        <v>8654300</v>
       </c>
       <c r="F76" s="3">
-        <v>9472700</v>
+        <v>8440800</v>
       </c>
       <c r="G76" s="3">
-        <v>9797300</v>
+        <v>9670700</v>
       </c>
       <c r="H76" s="3">
-        <v>9855100</v>
+        <v>10002100</v>
       </c>
       <c r="I76" s="3">
-        <v>9357400</v>
+        <v>10061100</v>
       </c>
       <c r="J76" s="3">
+        <v>9553000</v>
+      </c>
+      <c r="K76" s="3">
         <v>8305600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>7437200</v>
       </c>
-      <c r="L76" s="3"/>
-    </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M76" s="3"/>
+    </row>
+    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2621,74 +2809,83 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-      <c r="L77" s="3"/>
-    </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+      <c r="M77" s="3"/>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E80" s="2">
         <v>43555</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43190</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>42825</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>42460</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42094</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>41729</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>41364</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>40999</v>
       </c>
-      <c r="L80" s="2"/>
-    </row>
-    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M80" s="2"/>
+    </row>
+    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>450200</v>
+        <v>367400</v>
       </c>
       <c r="E81" s="3">
-        <v>-1230500</v>
+        <v>460100</v>
       </c>
       <c r="F81" s="3">
-        <v>31700</v>
+        <v>-1257600</v>
       </c>
       <c r="G81" s="3">
-        <v>572400</v>
+        <v>32400</v>
       </c>
       <c r="H81" s="3">
-        <v>623200</v>
+        <v>585000</v>
       </c>
       <c r="I81" s="3">
-        <v>661900</v>
+        <v>636900</v>
       </c>
       <c r="J81" s="3">
+        <v>676500</v>
+      </c>
+      <c r="K81" s="3">
         <v>309500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-402800</v>
       </c>
-      <c r="L81" s="3"/>
-    </row>
-    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M81" s="3"/>
+    </row>
+    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2701,38 +2898,42 @@
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
-    </row>
-    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M82" s="3"/>
+    </row>
+    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>857100</v>
+        <v>1121200</v>
       </c>
       <c r="E83" s="3">
-        <v>984700</v>
+        <v>875900</v>
       </c>
       <c r="F83" s="3">
-        <v>971600</v>
+        <v>1006400</v>
       </c>
       <c r="G83" s="3">
-        <v>976000</v>
+        <v>993000</v>
       </c>
       <c r="H83" s="3">
-        <v>980200</v>
+        <v>997400</v>
       </c>
       <c r="I83" s="3">
-        <v>965600</v>
+        <v>1001800</v>
       </c>
       <c r="J83" s="3">
+        <v>986900</v>
+      </c>
+      <c r="K83" s="3">
         <v>871900</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>823900</v>
       </c>
-      <c r="L83" s="3"/>
-    </row>
-    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M83" s="3"/>
+    </row>
+    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2760,9 +2961,12 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-      <c r="L84" s="3"/>
-    </row>
-    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+      <c r="M84" s="3"/>
+    </row>
+    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2790,9 +2994,12 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-      <c r="L85" s="3"/>
-    </row>
-    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+      <c r="M85" s="3"/>
+    </row>
+    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2820,9 +3027,12 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-      <c r="L86" s="3"/>
-    </row>
-    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+      <c r="M86" s="3"/>
+    </row>
+    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2850,9 +3060,12 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-      <c r="L87" s="3"/>
-    </row>
-    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+      <c r="M87" s="3"/>
+    </row>
+    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2880,39 +3093,45 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-      <c r="L88" s="3"/>
-    </row>
-    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+      <c r="M88" s="3"/>
+    </row>
+    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>744900</v>
+        <v>1084200</v>
       </c>
       <c r="E89" s="3">
-        <v>1002500</v>
+        <v>761300</v>
       </c>
       <c r="F89" s="3">
-        <v>802600</v>
+        <v>1024600</v>
       </c>
       <c r="G89" s="3">
-        <v>907700</v>
+        <v>820300</v>
       </c>
       <c r="H89" s="3">
-        <v>932100</v>
+        <v>927700</v>
       </c>
       <c r="I89" s="3">
-        <v>1335300</v>
+        <v>952600</v>
       </c>
       <c r="J89" s="3">
+        <v>1364600</v>
+      </c>
+      <c r="K89" s="3">
         <v>1248200</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>101300</v>
       </c>
-      <c r="L89" s="3"/>
-    </row>
-    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M89" s="3"/>
+    </row>
+    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2925,38 +3144,42 @@
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
-    </row>
-    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M90" s="3"/>
+    </row>
+    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-658700</v>
+        <v>-804500</v>
       </c>
       <c r="E91" s="3">
-        <v>-657100</v>
+        <v>-673200</v>
       </c>
       <c r="F91" s="3">
-        <v>-685800</v>
+        <v>-671500</v>
       </c>
       <c r="G91" s="3">
-        <v>-761500</v>
+        <v>-700900</v>
       </c>
       <c r="H91" s="3">
-        <v>-690600</v>
+        <v>-778300</v>
       </c>
       <c r="I91" s="3">
-        <v>-663500</v>
+        <v>-705800</v>
       </c>
       <c r="J91" s="3">
+        <v>-678100</v>
+      </c>
+      <c r="K91" s="3">
         <v>-1507600</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-662400</v>
       </c>
-      <c r="L91" s="3"/>
-    </row>
-    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M91" s="3"/>
+    </row>
+    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2984,9 +3207,12 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-      <c r="L92" s="3"/>
-    </row>
-    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+      <c r="M92" s="3"/>
+    </row>
+    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3014,39 +3240,45 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-      <c r="L93" s="3"/>
-    </row>
-    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+      <c r="M93" s="3"/>
+    </row>
+    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-417500</v>
+        <v>-1529100</v>
       </c>
       <c r="E94" s="3">
-        <v>-737000</v>
+        <v>-426700</v>
       </c>
       <c r="F94" s="3">
-        <v>-970000</v>
+        <v>-753200</v>
       </c>
       <c r="G94" s="3">
-        <v>-946600</v>
+        <v>-991400</v>
       </c>
       <c r="H94" s="3">
-        <v>-1304000</v>
+        <v>-967400</v>
       </c>
       <c r="I94" s="3">
-        <v>-1117500</v>
+        <v>-1332700</v>
       </c>
       <c r="J94" s="3">
+        <v>-1142100</v>
+      </c>
+      <c r="K94" s="3">
         <v>-1106600</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-1016500</v>
       </c>
-      <c r="L94" s="3"/>
-    </row>
-    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M94" s="3"/>
+    </row>
+    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3059,38 +3291,42 @@
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
-    </row>
-    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M95" s="3"/>
+    </row>
+    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-115300</v>
+        <v>-175000</v>
       </c>
       <c r="E96" s="3">
-        <v>-131800</v>
+        <v>-117800</v>
       </c>
       <c r="F96" s="3">
-        <v>-263600</v>
+        <v>-134700</v>
       </c>
       <c r="G96" s="3">
-        <v>-227300</v>
+        <v>-269400</v>
       </c>
       <c r="H96" s="3">
-        <v>-220800</v>
+        <v>-232300</v>
       </c>
       <c r="I96" s="3">
-        <v>-217500</v>
+        <v>-225600</v>
       </c>
       <c r="J96" s="3">
+        <v>-222300</v>
+      </c>
+      <c r="K96" s="3">
         <v>-138400</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-216400</v>
       </c>
-      <c r="L96" s="3"/>
-    </row>
-    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M96" s="3"/>
+    </row>
+    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3118,9 +3354,12 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-      <c r="L97" s="3"/>
-    </row>
-    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+      <c r="M97" s="3"/>
+    </row>
+    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3148,9 +3387,12 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-      <c r="L98" s="3"/>
-    </row>
-    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+      <c r="M98" s="3"/>
+    </row>
+    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3178,97 +3420,109 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-      <c r="L99" s="3"/>
-    </row>
-    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+      <c r="M99" s="3"/>
+    </row>
+    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>385600</v>
+        <v>703800</v>
       </c>
       <c r="E100" s="3">
-        <v>58200</v>
+        <v>394100</v>
       </c>
       <c r="F100" s="3">
-        <v>-181100</v>
+        <v>59500</v>
       </c>
       <c r="G100" s="3">
-        <v>387900</v>
+        <v>-185100</v>
       </c>
       <c r="H100" s="3">
-        <v>272100</v>
+        <v>396400</v>
       </c>
       <c r="I100" s="3">
-        <v>-84000</v>
+        <v>278100</v>
       </c>
       <c r="J100" s="3">
+        <v>-85800</v>
+      </c>
+      <c r="K100" s="3">
         <v>-562100</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>793900</v>
       </c>
-      <c r="L100" s="3"/>
-    </row>
-    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M100" s="3"/>
+    </row>
+    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>9900</v>
+        <v>-39700</v>
       </c>
       <c r="E101" s="3">
-        <v>-13400</v>
+        <v>10100</v>
       </c>
       <c r="F101" s="3">
-        <v>-25300</v>
+        <v>-13700</v>
       </c>
       <c r="G101" s="3">
-        <v>-77800</v>
+        <v>-25800</v>
       </c>
       <c r="H101" s="3">
-        <v>78600</v>
+        <v>-79600</v>
       </c>
       <c r="I101" s="3">
-        <v>75200</v>
+        <v>80400</v>
       </c>
       <c r="J101" s="3">
+        <v>76900</v>
+      </c>
+      <c r="K101" s="3">
         <v>64600</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-23500</v>
       </c>
-      <c r="L101" s="3"/>
-    </row>
-    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M101" s="3"/>
+    </row>
+    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>722900</v>
+        <v>219100</v>
       </c>
       <c r="E102" s="3">
-        <v>310300</v>
+        <v>738800</v>
       </c>
       <c r="F102" s="3">
-        <v>-373800</v>
+        <v>317200</v>
       </c>
       <c r="G102" s="3">
-        <v>271100</v>
+        <v>-382000</v>
       </c>
       <c r="H102" s="3">
-        <v>-21100</v>
+        <v>277100</v>
       </c>
       <c r="I102" s="3">
-        <v>209000</v>
+        <v>-21600</v>
       </c>
       <c r="J102" s="3">
+        <v>213600</v>
+      </c>
+      <c r="K102" s="3">
         <v>-356000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-144700</v>
       </c>
-      <c r="L102" s="3"/>
+      <c r="M102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/RICOY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/RICOY_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="92">
   <si>
     <t>RICOY</t>
   </si>
@@ -717,25 +717,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>18659700</v>
+        <v>18961000</v>
       </c>
       <c r="E8" s="3">
-        <v>18702900</v>
+        <v>19004900</v>
       </c>
       <c r="F8" s="3">
-        <v>19168600</v>
+        <v>19478100</v>
       </c>
       <c r="G8" s="3">
-        <v>18848500</v>
+        <v>19152800</v>
       </c>
       <c r="H8" s="3">
-        <v>20521900</v>
+        <v>20853200</v>
       </c>
       <c r="I8" s="3">
-        <v>19986500</v>
+        <v>20309300</v>
       </c>
       <c r="J8" s="3">
-        <v>20398000</v>
+        <v>20727400</v>
       </c>
       <c r="K8" s="3">
         <v>17143700</v>
@@ -750,25 +750,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>11956300</v>
+        <v>12147100</v>
       </c>
       <c r="E9" s="3">
-        <v>11578500</v>
+        <v>11765500</v>
       </c>
       <c r="F9" s="3">
-        <v>11820200</v>
+        <v>12011100</v>
       </c>
       <c r="G9" s="3">
-        <v>11522100</v>
+        <v>11708200</v>
       </c>
       <c r="H9" s="3">
-        <v>12328400</v>
+        <v>12527500</v>
       </c>
       <c r="I9" s="3">
-        <v>11561300</v>
+        <v>11747900</v>
       </c>
       <c r="J9" s="3">
-        <v>12285800</v>
+        <v>12484100</v>
       </c>
       <c r="K9" s="3">
         <v>20836800</v>
@@ -783,25 +783,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>6703500</v>
+        <v>6813900</v>
       </c>
       <c r="E10" s="3">
-        <v>7124300</v>
+        <v>7239400</v>
       </c>
       <c r="F10" s="3">
-        <v>7348400</v>
+        <v>7467100</v>
       </c>
       <c r="G10" s="3">
-        <v>7326400</v>
+        <v>7444600</v>
       </c>
       <c r="H10" s="3">
-        <v>8193400</v>
+        <v>8325700</v>
       </c>
       <c r="I10" s="3">
-        <v>8425300</v>
+        <v>8561300</v>
       </c>
       <c r="J10" s="3">
-        <v>8112300</v>
+        <v>8243200</v>
       </c>
       <c r="K10" s="3">
         <v>-3693100</v>
@@ -830,26 +830,26 @@
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D12" s="3" t="s">
-        <v>10</v>
+      <c r="D12" s="3">
+        <v>832800</v>
       </c>
       <c r="E12" s="3">
-        <v>873500</v>
+        <v>887600</v>
       </c>
       <c r="F12" s="3">
-        <v>873200</v>
+        <v>887300</v>
       </c>
       <c r="G12" s="3">
-        <v>932600</v>
+        <v>947600</v>
       </c>
       <c r="H12" s="3">
-        <v>948000</v>
+        <v>963300</v>
       </c>
       <c r="I12" s="3">
-        <v>913100</v>
+        <v>927800</v>
       </c>
       <c r="J12" s="3">
-        <v>876700</v>
+        <v>890900</v>
       </c>
       <c r="K12" s="3">
         <v>1831000</v>
@@ -897,13 +897,13 @@
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>100</v>
+        <v>106300</v>
       </c>
       <c r="E14" s="3">
-        <v>199000</v>
+        <v>202200</v>
       </c>
       <c r="F14" s="3">
-        <v>1873900</v>
+        <v>1904200</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>10</v>
@@ -912,10 +912,10 @@
         <v>10</v>
       </c>
       <c r="I14" s="3">
-        <v>9400</v>
+        <v>9500</v>
       </c>
       <c r="J14" s="3">
-        <v>105200</v>
+        <v>106900</v>
       </c>
       <c r="K14" s="3">
         <v>0</v>
@@ -929,26 +929,26 @@
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="3" t="s">
-        <v>10</v>
+      <c r="D15" s="3">
+        <v>503500</v>
       </c>
       <c r="E15" s="3">
-        <v>231000</v>
+        <v>234700</v>
       </c>
       <c r="F15" s="3">
-        <v>372500</v>
+        <v>378500</v>
       </c>
       <c r="G15" s="3">
-        <v>374300</v>
+        <v>380300</v>
       </c>
       <c r="H15" s="3">
-        <v>345000</v>
+        <v>350600</v>
       </c>
       <c r="I15" s="3">
-        <v>346500</v>
+        <v>352100</v>
       </c>
       <c r="J15" s="3">
-        <v>344800</v>
+        <v>350300</v>
       </c>
       <c r="K15" s="3">
         <v>321800</v>
@@ -975,25 +975,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>17925400</v>
+        <v>18214900</v>
       </c>
       <c r="E17" s="3">
-        <v>17896200</v>
+        <v>18185100</v>
       </c>
       <c r="F17" s="3">
-        <v>20243300</v>
+        <v>20570100</v>
       </c>
       <c r="G17" s="3">
-        <v>18533700</v>
+        <v>18833000</v>
       </c>
       <c r="H17" s="3">
-        <v>19571500</v>
+        <v>19887600</v>
       </c>
       <c r="I17" s="3">
-        <v>18911100</v>
+        <v>19216400</v>
       </c>
       <c r="J17" s="3">
-        <v>19280000</v>
+        <v>19591300</v>
       </c>
       <c r="K17" s="3">
         <v>16475100</v>
@@ -1008,25 +1008,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>734300</v>
+        <v>746100</v>
       </c>
       <c r="E18" s="3">
-        <v>806700</v>
+        <v>819800</v>
       </c>
       <c r="F18" s="3">
-        <v>-1074600</v>
+        <v>-1092000</v>
       </c>
       <c r="G18" s="3">
-        <v>314700</v>
+        <v>319800</v>
       </c>
       <c r="H18" s="3">
-        <v>950300</v>
+        <v>965700</v>
       </c>
       <c r="I18" s="3">
-        <v>1075500</v>
+        <v>1092800</v>
       </c>
       <c r="J18" s="3">
-        <v>1118000</v>
+        <v>1136100</v>
       </c>
       <c r="K18" s="3">
         <v>668600</v>
@@ -1056,25 +1056,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-29300</v>
+        <v>24700</v>
       </c>
       <c r="E20" s="3">
-        <v>28700</v>
+        <v>29200</v>
       </c>
       <c r="F20" s="3">
-        <v>-16500</v>
+        <v>-16800</v>
       </c>
       <c r="G20" s="3">
-        <v>33700</v>
+        <v>34200</v>
       </c>
       <c r="H20" s="3">
-        <v>-600</v>
+        <v>-700</v>
       </c>
       <c r="I20" s="3">
-        <v>33800</v>
+        <v>34400</v>
       </c>
       <c r="J20" s="3">
-        <v>48000</v>
+        <v>48800</v>
       </c>
       <c r="K20" s="3">
         <v>84400</v>
@@ -1089,25 +1089,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>1825000</v>
+        <v>1905300</v>
       </c>
       <c r="E21" s="3">
-        <v>1710400</v>
+        <v>1735200</v>
       </c>
       <c r="F21" s="3">
-        <v>-85900</v>
+        <v>-90500</v>
       </c>
       <c r="G21" s="3">
-        <v>1340400</v>
+        <v>1358800</v>
       </c>
       <c r="H21" s="3">
-        <v>1946000</v>
+        <v>1974300</v>
       </c>
       <c r="I21" s="3">
-        <v>2110000</v>
+        <v>2140900</v>
       </c>
       <c r="J21" s="3">
-        <v>2151900</v>
+        <v>2183400</v>
       </c>
       <c r="K21" s="3">
         <v>1626800</v>
@@ -1121,26 +1121,26 @@
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3" t="s">
-        <v>10</v>
+      <c r="D22" s="3">
+        <v>54500</v>
       </c>
       <c r="E22" s="3">
-        <v>55400</v>
+        <v>56300</v>
       </c>
       <c r="F22" s="3">
-        <v>62500</v>
+        <v>63500</v>
       </c>
       <c r="G22" s="3">
-        <v>70200</v>
+        <v>71300</v>
       </c>
       <c r="H22" s="3">
-        <v>60800</v>
+        <v>61800</v>
       </c>
       <c r="I22" s="3">
-        <v>66100</v>
+        <v>67100</v>
       </c>
       <c r="J22" s="3">
-        <v>69200</v>
+        <v>70400</v>
       </c>
       <c r="K22" s="3">
         <v>134100</v>
@@ -1155,25 +1155,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>705000</v>
+        <v>716400</v>
       </c>
       <c r="E23" s="3">
-        <v>780000</v>
+        <v>792600</v>
       </c>
       <c r="F23" s="3">
-        <v>-1153700</v>
+        <v>-1172300</v>
       </c>
       <c r="G23" s="3">
-        <v>278300</v>
+        <v>282800</v>
       </c>
       <c r="H23" s="3">
-        <v>888900</v>
+        <v>903300</v>
       </c>
       <c r="I23" s="3">
-        <v>1043200</v>
+        <v>1060100</v>
       </c>
       <c r="J23" s="3">
-        <v>1096800</v>
+        <v>1114500</v>
       </c>
       <c r="K23" s="3">
         <v>618900</v>
@@ -1188,25 +1188,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>292400</v>
+        <v>297200</v>
       </c>
       <c r="E24" s="3">
-        <v>265600</v>
+        <v>269900</v>
       </c>
       <c r="F24" s="3">
-        <v>38500</v>
+        <v>39100</v>
       </c>
       <c r="G24" s="3">
-        <v>190600</v>
+        <v>193700</v>
       </c>
       <c r="H24" s="3">
-        <v>263600</v>
+        <v>267900</v>
       </c>
       <c r="I24" s="3">
-        <v>358600</v>
+        <v>364400</v>
       </c>
       <c r="J24" s="3">
-        <v>368000</v>
+        <v>373900</v>
       </c>
       <c r="K24" s="3">
         <v>220600</v>
@@ -1254,25 +1254,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>412600</v>
+        <v>419300</v>
       </c>
       <c r="E26" s="3">
-        <v>514500</v>
+        <v>522800</v>
       </c>
       <c r="F26" s="3">
-        <v>-1192200</v>
+        <v>-1211400</v>
       </c>
       <c r="G26" s="3">
-        <v>87700</v>
+        <v>89100</v>
       </c>
       <c r="H26" s="3">
-        <v>625300</v>
+        <v>635400</v>
       </c>
       <c r="I26" s="3">
-        <v>684700</v>
+        <v>695700</v>
       </c>
       <c r="J26" s="3">
-        <v>728800</v>
+        <v>740600</v>
       </c>
       <c r="K26" s="3">
         <v>398300</v>
@@ -1287,25 +1287,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>367400</v>
+        <v>373300</v>
       </c>
       <c r="E27" s="3">
-        <v>460100</v>
+        <v>467500</v>
       </c>
       <c r="F27" s="3">
-        <v>-1245400</v>
+        <v>-1265500</v>
       </c>
       <c r="G27" s="3">
-        <v>32400</v>
+        <v>32900</v>
       </c>
       <c r="H27" s="3">
-        <v>585000</v>
+        <v>594500</v>
       </c>
       <c r="I27" s="3">
-        <v>636900</v>
+        <v>647200</v>
       </c>
       <c r="J27" s="3">
-        <v>676500</v>
+        <v>687400</v>
       </c>
       <c r="K27" s="3">
         <v>309500</v>
@@ -1359,7 +1359,7 @@
         <v>10</v>
       </c>
       <c r="F29" s="3">
-        <v>-12200</v>
+        <v>-12400</v>
       </c>
       <c r="G29" s="3" t="s">
         <v>10</v>
@@ -1452,25 +1452,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>29300</v>
+        <v>-24700</v>
       </c>
       <c r="E32" s="3">
-        <v>-28700</v>
+        <v>-29200</v>
       </c>
       <c r="F32" s="3">
-        <v>16500</v>
+        <v>16800</v>
       </c>
       <c r="G32" s="3">
-        <v>-33700</v>
+        <v>-34200</v>
       </c>
       <c r="H32" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="I32" s="3">
-        <v>-33800</v>
+        <v>-34400</v>
       </c>
       <c r="J32" s="3">
-        <v>-48000</v>
+        <v>-48800</v>
       </c>
       <c r="K32" s="3">
         <v>-84400</v>
@@ -1485,25 +1485,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>367400</v>
+        <v>373300</v>
       </c>
       <c r="E33" s="3">
-        <v>460100</v>
+        <v>467500</v>
       </c>
       <c r="F33" s="3">
-        <v>-1257600</v>
+        <v>-1277900</v>
       </c>
       <c r="G33" s="3">
-        <v>32400</v>
+        <v>32900</v>
       </c>
       <c r="H33" s="3">
-        <v>585000</v>
+        <v>594500</v>
       </c>
       <c r="I33" s="3">
-        <v>636900</v>
+        <v>647200</v>
       </c>
       <c r="J33" s="3">
-        <v>676500</v>
+        <v>687400</v>
       </c>
       <c r="K33" s="3">
         <v>309500</v>
@@ -1551,25 +1551,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>367400</v>
+        <v>373300</v>
       </c>
       <c r="E35" s="3">
-        <v>460100</v>
+        <v>467500</v>
       </c>
       <c r="F35" s="3">
-        <v>-1257600</v>
+        <v>-1277900</v>
       </c>
       <c r="G35" s="3">
-        <v>32400</v>
+        <v>32900</v>
       </c>
       <c r="H35" s="3">
-        <v>585000</v>
+        <v>594500</v>
       </c>
       <c r="I35" s="3">
-        <v>636900</v>
+        <v>647200</v>
       </c>
       <c r="J35" s="3">
-        <v>676500</v>
+        <v>687400</v>
       </c>
       <c r="K35" s="3">
         <v>309500</v>
@@ -1652,25 +1652,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>2439600</v>
+        <v>2481600</v>
       </c>
       <c r="E41" s="3">
-        <v>2228800</v>
+        <v>2267200</v>
       </c>
       <c r="F41" s="3">
-        <v>1490700</v>
+        <v>1516400</v>
       </c>
       <c r="G41" s="3">
-        <v>1253600</v>
+        <v>1275300</v>
       </c>
       <c r="H41" s="3">
-        <v>1563900</v>
+        <v>1590800</v>
       </c>
       <c r="I41" s="3">
-        <v>1286700</v>
+        <v>1308800</v>
       </c>
       <c r="J41" s="3">
-        <v>1337300</v>
+        <v>1360300</v>
       </c>
       <c r="K41" s="3">
         <v>2187600</v>
@@ -1685,25 +1685,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>809500</v>
+        <v>823400</v>
       </c>
       <c r="E42" s="3">
-        <v>2731600</v>
+        <v>2778700</v>
       </c>
       <c r="F42" s="3">
-        <v>3220800</v>
+        <v>3276300</v>
       </c>
       <c r="G42" s="3">
-        <v>2566600</v>
+        <v>2610900</v>
       </c>
       <c r="H42" s="3">
-        <v>2527400</v>
+        <v>2571000</v>
       </c>
       <c r="I42" s="3">
-        <v>2413300</v>
+        <v>2454900</v>
       </c>
       <c r="J42" s="3">
-        <v>2317000</v>
+        <v>2357000</v>
       </c>
       <c r="K42" s="3">
         <v>2103200</v>
@@ -1718,25 +1718,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>3645000</v>
+        <v>3707800</v>
       </c>
       <c r="E43" s="3">
-        <v>5612600</v>
+        <v>5709300</v>
       </c>
       <c r="F43" s="3">
-        <v>5472800</v>
+        <v>5567200</v>
       </c>
       <c r="G43" s="3">
-        <v>5255400</v>
+        <v>5346000</v>
       </c>
       <c r="H43" s="3">
-        <v>5235800</v>
+        <v>5326100</v>
       </c>
       <c r="I43" s="3">
-        <v>5136800</v>
+        <v>5225400</v>
       </c>
       <c r="J43" s="3">
-        <v>10110100</v>
+        <v>10284400</v>
       </c>
       <c r="K43" s="3">
         <v>8964400</v>
@@ -1751,25 +1751,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>1867600</v>
+        <v>1899800</v>
       </c>
       <c r="E44" s="3">
-        <v>1927900</v>
+        <v>1961100</v>
       </c>
       <c r="F44" s="3">
-        <v>1674900</v>
+        <v>1703800</v>
       </c>
       <c r="G44" s="3">
-        <v>1879700</v>
+        <v>1912100</v>
       </c>
       <c r="H44" s="3">
-        <v>1921800</v>
+        <v>1954900</v>
       </c>
       <c r="I44" s="3">
-        <v>2083200</v>
+        <v>2119100</v>
       </c>
       <c r="J44" s="3">
-        <v>1801900</v>
+        <v>1833000</v>
       </c>
       <c r="K44" s="3">
         <v>3563900</v>
@@ -1784,25 +1784,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>10783500</v>
+        <v>10969400</v>
       </c>
       <c r="E45" s="3">
-        <v>396200</v>
+        <v>403000</v>
       </c>
       <c r="F45" s="3">
-        <v>464500</v>
+        <v>472500</v>
       </c>
       <c r="G45" s="3">
-        <v>544600</v>
+        <v>554000</v>
       </c>
       <c r="H45" s="3">
-        <v>566400</v>
+        <v>576100</v>
       </c>
       <c r="I45" s="3">
-        <v>368100</v>
+        <v>374400</v>
       </c>
       <c r="J45" s="3">
-        <v>318500</v>
+        <v>324000</v>
       </c>
       <c r="K45" s="3">
         <v>3011200</v>
@@ -1817,25 +1817,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>19545100</v>
+        <v>19882000</v>
       </c>
       <c r="E46" s="3">
-        <v>12897000</v>
+        <v>13119400</v>
       </c>
       <c r="F46" s="3">
-        <v>12323600</v>
+        <v>12536100</v>
       </c>
       <c r="G46" s="3">
-        <v>11499900</v>
+        <v>11698200</v>
       </c>
       <c r="H46" s="3">
-        <v>11815200</v>
+        <v>12019000</v>
       </c>
       <c r="I46" s="3">
-        <v>11288000</v>
+        <v>11482600</v>
       </c>
       <c r="J46" s="3">
-        <v>10829800</v>
+        <v>11016500</v>
       </c>
       <c r="K46" s="3">
         <v>9593000</v>
@@ -1850,25 +1850,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>1563100</v>
+        <v>1590000</v>
       </c>
       <c r="E47" s="3">
-        <v>6897400</v>
+        <v>7016400</v>
       </c>
       <c r="F47" s="3">
-        <v>6684500</v>
+        <v>6799800</v>
       </c>
       <c r="G47" s="3">
-        <v>6846200</v>
+        <v>6964300</v>
       </c>
       <c r="H47" s="3">
-        <v>6386400</v>
+        <v>6496500</v>
       </c>
       <c r="I47" s="3">
-        <v>6129300</v>
+        <v>6235000</v>
       </c>
       <c r="J47" s="3">
-        <v>5685800</v>
+        <v>5783800</v>
       </c>
       <c r="K47" s="3">
         <v>5473000</v>
@@ -1883,25 +1883,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>2422000</v>
+        <v>2463800</v>
       </c>
       <c r="E48" s="3">
-        <v>2322700</v>
+        <v>2362700</v>
       </c>
       <c r="F48" s="3">
-        <v>2320000</v>
+        <v>2360000</v>
       </c>
       <c r="G48" s="3">
-        <v>2517300</v>
+        <v>2560700</v>
       </c>
       <c r="H48" s="3">
-        <v>2566400</v>
+        <v>2610600</v>
       </c>
       <c r="I48" s="3">
-        <v>2567000</v>
+        <v>2611300</v>
       </c>
       <c r="J48" s="3">
-        <v>2932600</v>
+        <v>2983200</v>
       </c>
       <c r="K48" s="3">
         <v>5065200</v>
@@ -1916,25 +1916,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>2152000</v>
+        <v>2189100</v>
       </c>
       <c r="E49" s="3">
-        <v>2039800</v>
+        <v>2075000</v>
       </c>
       <c r="F49" s="3">
-        <v>2015000</v>
+        <v>2049700</v>
       </c>
       <c r="G49" s="3">
-        <v>3602300</v>
+        <v>3664400</v>
       </c>
       <c r="H49" s="3">
-        <v>3840400</v>
+        <v>3906600</v>
       </c>
       <c r="I49" s="3">
-        <v>4043800</v>
+        <v>4113500</v>
       </c>
       <c r="J49" s="3">
-        <v>3706000</v>
+        <v>3769900</v>
       </c>
       <c r="K49" s="3">
         <v>4520200</v>
@@ -2015,25 +2015,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>929600</v>
+        <v>945600</v>
       </c>
       <c r="E52" s="3">
-        <v>1132300</v>
+        <v>1151800</v>
       </c>
       <c r="F52" s="3">
-        <v>1165600</v>
+        <v>1185700</v>
       </c>
       <c r="G52" s="3">
-        <v>1140500</v>
+        <v>1160100</v>
       </c>
       <c r="H52" s="3">
-        <v>1157100</v>
+        <v>1177100</v>
       </c>
       <c r="I52" s="3">
-        <v>1308200</v>
+        <v>1330800</v>
       </c>
       <c r="J52" s="3">
-        <v>1363000</v>
+        <v>1386500</v>
       </c>
       <c r="K52" s="3">
         <v>6546100</v>
@@ -2081,25 +2081,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>26611700</v>
+        <v>27070600</v>
       </c>
       <c r="E54" s="3">
-        <v>25289200</v>
+        <v>25725200</v>
       </c>
       <c r="F54" s="3">
-        <v>24508800</v>
+        <v>24931300</v>
       </c>
       <c r="G54" s="3">
-        <v>25606200</v>
+        <v>26047700</v>
       </c>
       <c r="H54" s="3">
-        <v>25765600</v>
+        <v>26209800</v>
       </c>
       <c r="I54" s="3">
-        <v>25336300</v>
+        <v>25773200</v>
       </c>
       <c r="J54" s="3">
-        <v>24096600</v>
+        <v>24512100</v>
       </c>
       <c r="K54" s="3">
         <v>21735700</v>
@@ -2144,25 +2144,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>2283400</v>
+        <v>1693800</v>
       </c>
       <c r="E57" s="3">
-        <v>1932400</v>
+        <v>1965700</v>
       </c>
       <c r="F57" s="3">
-        <v>1804200</v>
+        <v>1835300</v>
       </c>
       <c r="G57" s="3">
-        <v>1811700</v>
+        <v>1842900</v>
       </c>
       <c r="H57" s="3">
-        <v>1840000</v>
+        <v>1871700</v>
       </c>
       <c r="I57" s="3">
-        <v>1850400</v>
+        <v>1882300</v>
       </c>
       <c r="J57" s="3">
-        <v>1991000</v>
+        <v>2025300</v>
       </c>
       <c r="K57" s="3">
         <v>3862300</v>
@@ -2177,25 +2177,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>730500</v>
+        <v>743100</v>
       </c>
       <c r="E58" s="3">
-        <v>2477400</v>
+        <v>2520100</v>
       </c>
       <c r="F58" s="3">
-        <v>2071200</v>
+        <v>2107000</v>
       </c>
       <c r="G58" s="3">
-        <v>2133900</v>
+        <v>2170700</v>
       </c>
       <c r="H58" s="3">
-        <v>2419800</v>
+        <v>2461500</v>
       </c>
       <c r="I58" s="3">
-        <v>2060800</v>
+        <v>2096300</v>
       </c>
       <c r="J58" s="3">
-        <v>2522000</v>
+        <v>2565500</v>
       </c>
       <c r="K58" s="3">
         <v>4128200</v>
@@ -2210,25 +2210,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>11359800</v>
+        <v>12184600</v>
       </c>
       <c r="E59" s="3">
-        <v>3424400</v>
+        <v>3483400</v>
       </c>
       <c r="F59" s="3">
-        <v>3442100</v>
+        <v>3501400</v>
       </c>
       <c r="G59" s="3">
-        <v>3542700</v>
+        <v>3603800</v>
       </c>
       <c r="H59" s="3">
-        <v>3228000</v>
+        <v>3283600</v>
       </c>
       <c r="I59" s="3">
-        <v>3254300</v>
+        <v>3310400</v>
       </c>
       <c r="J59" s="3">
-        <v>3242200</v>
+        <v>3298100</v>
       </c>
       <c r="K59" s="3">
         <v>4746300</v>
@@ -2243,25 +2243,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>14373800</v>
+        <v>14621600</v>
       </c>
       <c r="E60" s="3">
-        <v>7834200</v>
+        <v>7969200</v>
       </c>
       <c r="F60" s="3">
-        <v>7317500</v>
+        <v>7443600</v>
       </c>
       <c r="G60" s="3">
-        <v>7488300</v>
+        <v>7617400</v>
       </c>
       <c r="H60" s="3">
-        <v>7487700</v>
+        <v>7616800</v>
       </c>
       <c r="I60" s="3">
-        <v>7165400</v>
+        <v>7289000</v>
       </c>
       <c r="J60" s="3">
-        <v>7755200</v>
+        <v>7888900</v>
       </c>
       <c r="K60" s="3">
         <v>6370500</v>
@@ -2276,25 +2276,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>1549000</v>
+        <v>1575700</v>
       </c>
       <c r="E61" s="3">
-        <v>6184800</v>
+        <v>6291400</v>
       </c>
       <c r="F61" s="3">
-        <v>6112800</v>
+        <v>6218200</v>
       </c>
       <c r="G61" s="3">
-        <v>5844500</v>
+        <v>5945300</v>
       </c>
       <c r="H61" s="3">
-        <v>5494200</v>
+        <v>5588900</v>
       </c>
       <c r="I61" s="3">
-        <v>5275800</v>
+        <v>5366800</v>
       </c>
       <c r="J61" s="3">
-        <v>4198200</v>
+        <v>4270600</v>
       </c>
       <c r="K61" s="3">
         <v>4314000</v>
@@ -2309,25 +2309,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1329900</v>
+        <v>1352800</v>
       </c>
       <c r="E62" s="3">
-        <v>1814100</v>
+        <v>1845400</v>
       </c>
       <c r="F62" s="3">
-        <v>1902800</v>
+        <v>1935600</v>
       </c>
       <c r="G62" s="3">
-        <v>1908800</v>
+        <v>1941700</v>
       </c>
       <c r="H62" s="3">
-        <v>2132400</v>
+        <v>2169200</v>
       </c>
       <c r="I62" s="3">
-        <v>2183000</v>
+        <v>2220700</v>
       </c>
       <c r="J62" s="3">
-        <v>1987200</v>
+        <v>2021400</v>
       </c>
       <c r="K62" s="3">
         <v>4245400</v>
@@ -2441,25 +2441,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>18070700</v>
+        <v>18382300</v>
       </c>
       <c r="E66" s="3">
-        <v>16634900</v>
+        <v>16921700</v>
       </c>
       <c r="F66" s="3">
-        <v>16068000</v>
+        <v>16345000</v>
       </c>
       <c r="G66" s="3">
-        <v>15935400</v>
+        <v>16210200</v>
       </c>
       <c r="H66" s="3">
-        <v>15763500</v>
+        <v>16035200</v>
       </c>
       <c r="I66" s="3">
-        <v>15275300</v>
+        <v>15538600</v>
       </c>
       <c r="J66" s="3">
-        <v>14543700</v>
+        <v>14794400</v>
       </c>
       <c r="K66" s="3">
         <v>13430100</v>
@@ -2621,25 +2621,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>5519100</v>
+        <v>5614300</v>
       </c>
       <c r="E72" s="3">
-        <v>5334800</v>
+        <v>5426800</v>
       </c>
       <c r="F72" s="3">
-        <v>4733800</v>
+        <v>4815500</v>
       </c>
       <c r="G72" s="3">
-        <v>6101100</v>
+        <v>6206300</v>
       </c>
       <c r="H72" s="3">
-        <v>6295800</v>
+        <v>6404300</v>
       </c>
       <c r="I72" s="3">
-        <v>5999200</v>
+        <v>6102700</v>
       </c>
       <c r="J72" s="3">
-        <v>5803200</v>
+        <v>5903200</v>
       </c>
       <c r="K72" s="3">
         <v>12094900</v>
@@ -2753,25 +2753,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>8541000</v>
+        <v>8688300</v>
       </c>
       <c r="E76" s="3">
-        <v>8654300</v>
+        <v>8803500</v>
       </c>
       <c r="F76" s="3">
-        <v>8440800</v>
+        <v>8586300</v>
       </c>
       <c r="G76" s="3">
-        <v>9670700</v>
+        <v>9837500</v>
       </c>
       <c r="H76" s="3">
-        <v>10002100</v>
+        <v>10174600</v>
       </c>
       <c r="I76" s="3">
-        <v>10061100</v>
+        <v>10234500</v>
       </c>
       <c r="J76" s="3">
-        <v>9553000</v>
+        <v>9717700</v>
       </c>
       <c r="K76" s="3">
         <v>8305600</v>
@@ -2857,25 +2857,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>367400</v>
+        <v>373300</v>
       </c>
       <c r="E81" s="3">
-        <v>460100</v>
+        <v>467500</v>
       </c>
       <c r="F81" s="3">
-        <v>-1257600</v>
+        <v>-1277900</v>
       </c>
       <c r="G81" s="3">
-        <v>32400</v>
+        <v>32900</v>
       </c>
       <c r="H81" s="3">
-        <v>585000</v>
+        <v>594500</v>
       </c>
       <c r="I81" s="3">
-        <v>636900</v>
+        <v>647200</v>
       </c>
       <c r="J81" s="3">
-        <v>676500</v>
+        <v>687400</v>
       </c>
       <c r="K81" s="3">
         <v>309500</v>
@@ -2905,25 +2905,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>1121200</v>
+        <v>1139300</v>
       </c>
       <c r="E83" s="3">
-        <v>875900</v>
+        <v>890100</v>
       </c>
       <c r="F83" s="3">
-        <v>1006400</v>
+        <v>1022600</v>
       </c>
       <c r="G83" s="3">
-        <v>993000</v>
+        <v>1009000</v>
       </c>
       <c r="H83" s="3">
-        <v>997400</v>
+        <v>1013500</v>
       </c>
       <c r="I83" s="3">
-        <v>1001800</v>
+        <v>1018000</v>
       </c>
       <c r="J83" s="3">
-        <v>986900</v>
+        <v>1002800</v>
       </c>
       <c r="K83" s="3">
         <v>871900</v>
@@ -3103,25 +3103,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>1084200</v>
+        <v>1101700</v>
       </c>
       <c r="E89" s="3">
-        <v>761300</v>
+        <v>773600</v>
       </c>
       <c r="F89" s="3">
-        <v>1024600</v>
+        <v>1041100</v>
       </c>
       <c r="G89" s="3">
-        <v>820300</v>
+        <v>833500</v>
       </c>
       <c r="H89" s="3">
-        <v>927700</v>
+        <v>942700</v>
       </c>
       <c r="I89" s="3">
-        <v>952600</v>
+        <v>968000</v>
       </c>
       <c r="J89" s="3">
-        <v>1364600</v>
+        <v>1386700</v>
       </c>
       <c r="K89" s="3">
         <v>1248200</v>
@@ -3151,25 +3151,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-804500</v>
+        <v>-817500</v>
       </c>
       <c r="E91" s="3">
-        <v>-673200</v>
+        <v>-684000</v>
       </c>
       <c r="F91" s="3">
-        <v>-671500</v>
+        <v>-682400</v>
       </c>
       <c r="G91" s="3">
-        <v>-700900</v>
+        <v>-712200</v>
       </c>
       <c r="H91" s="3">
-        <v>-778300</v>
+        <v>-790900</v>
       </c>
       <c r="I91" s="3">
-        <v>-705800</v>
+        <v>-717200</v>
       </c>
       <c r="J91" s="3">
-        <v>-678100</v>
+        <v>-689100</v>
       </c>
       <c r="K91" s="3">
         <v>-1507600</v>
@@ -3250,25 +3250,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-1529100</v>
+        <v>-1553700</v>
       </c>
       <c r="E94" s="3">
-        <v>-426700</v>
+        <v>-433600</v>
       </c>
       <c r="F94" s="3">
-        <v>-753200</v>
+        <v>-765400</v>
       </c>
       <c r="G94" s="3">
-        <v>-991400</v>
+        <v>-1007400</v>
       </c>
       <c r="H94" s="3">
-        <v>-967400</v>
+        <v>-983100</v>
       </c>
       <c r="I94" s="3">
-        <v>-1332700</v>
+        <v>-1354200</v>
       </c>
       <c r="J94" s="3">
-        <v>-1142100</v>
+        <v>-1160500</v>
       </c>
       <c r="K94" s="3">
         <v>-1106600</v>
@@ -3298,25 +3298,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-175000</v>
+        <v>-177900</v>
       </c>
       <c r="E96" s="3">
-        <v>-117800</v>
+        <v>-119700</v>
       </c>
       <c r="F96" s="3">
-        <v>-134700</v>
+        <v>-136900</v>
       </c>
       <c r="G96" s="3">
-        <v>-269400</v>
+        <v>-273700</v>
       </c>
       <c r="H96" s="3">
-        <v>-232300</v>
+        <v>-236100</v>
       </c>
       <c r="I96" s="3">
-        <v>-225600</v>
+        <v>-229300</v>
       </c>
       <c r="J96" s="3">
-        <v>-222300</v>
+        <v>-225900</v>
       </c>
       <c r="K96" s="3">
         <v>-138400</v>
@@ -3430,25 +3430,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>703800</v>
+        <v>715100</v>
       </c>
       <c r="E100" s="3">
-        <v>394100</v>
+        <v>400500</v>
       </c>
       <c r="F100" s="3">
-        <v>59500</v>
+        <v>60500</v>
       </c>
       <c r="G100" s="3">
-        <v>-185100</v>
+        <v>-188100</v>
       </c>
       <c r="H100" s="3">
-        <v>396400</v>
+        <v>402800</v>
       </c>
       <c r="I100" s="3">
-        <v>278100</v>
+        <v>282600</v>
       </c>
       <c r="J100" s="3">
-        <v>-85800</v>
+        <v>-87200</v>
       </c>
       <c r="K100" s="3">
         <v>-562100</v>
@@ -3463,25 +3463,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-39700</v>
+        <v>-40400</v>
       </c>
       <c r="E101" s="3">
-        <v>10100</v>
+        <v>10300</v>
       </c>
       <c r="F101" s="3">
-        <v>-13700</v>
+        <v>-14000</v>
       </c>
       <c r="G101" s="3">
-        <v>-25800</v>
+        <v>-26300</v>
       </c>
       <c r="H101" s="3">
-        <v>-79600</v>
+        <v>-80800</v>
       </c>
       <c r="I101" s="3">
-        <v>80400</v>
+        <v>81700</v>
       </c>
       <c r="J101" s="3">
-        <v>76900</v>
+        <v>78100</v>
       </c>
       <c r="K101" s="3">
         <v>64600</v>
@@ -3496,25 +3496,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>219100</v>
+        <v>222700</v>
       </c>
       <c r="E102" s="3">
-        <v>738800</v>
+        <v>750800</v>
       </c>
       <c r="F102" s="3">
-        <v>317200</v>
+        <v>322300</v>
       </c>
       <c r="G102" s="3">
-        <v>-382000</v>
+        <v>-388200</v>
       </c>
       <c r="H102" s="3">
-        <v>277100</v>
+        <v>281500</v>
       </c>
       <c r="I102" s="3">
-        <v>-21600</v>
+        <v>-21900</v>
       </c>
       <c r="J102" s="3">
-        <v>213600</v>
+        <v>217100</v>
       </c>
       <c r="K102" s="3">
         <v>-356000</v>

--- a/AAII_Financials/Yearly/RICOY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/RICOY_YR_FIN.xlsx
@@ -717,25 +717,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>18961000</v>
+        <v>19302500</v>
       </c>
       <c r="E8" s="3">
-        <v>19004900</v>
+        <v>19347100</v>
       </c>
       <c r="F8" s="3">
-        <v>19478100</v>
+        <v>19828900</v>
       </c>
       <c r="G8" s="3">
-        <v>19152800</v>
+        <v>19497700</v>
       </c>
       <c r="H8" s="3">
-        <v>20853200</v>
+        <v>21228800</v>
       </c>
       <c r="I8" s="3">
-        <v>20309300</v>
+        <v>20675000</v>
       </c>
       <c r="J8" s="3">
-        <v>20727400</v>
+        <v>21100600</v>
       </c>
       <c r="K8" s="3">
         <v>17143700</v>
@@ -750,25 +750,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>12147100</v>
+        <v>12365900</v>
       </c>
       <c r="E9" s="3">
-        <v>11765500</v>
+        <v>11977400</v>
       </c>
       <c r="F9" s="3">
-        <v>12011100</v>
+        <v>12227400</v>
       </c>
       <c r="G9" s="3">
-        <v>11708200</v>
+        <v>11919000</v>
       </c>
       <c r="H9" s="3">
-        <v>12527500</v>
+        <v>12753100</v>
       </c>
       <c r="I9" s="3">
-        <v>11747900</v>
+        <v>11959500</v>
       </c>
       <c r="J9" s="3">
-        <v>12484100</v>
+        <v>12708900</v>
       </c>
       <c r="K9" s="3">
         <v>20836800</v>
@@ -783,25 +783,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>6813900</v>
+        <v>6936600</v>
       </c>
       <c r="E10" s="3">
-        <v>7239400</v>
+        <v>7369700</v>
       </c>
       <c r="F10" s="3">
-        <v>7467100</v>
+        <v>7601600</v>
       </c>
       <c r="G10" s="3">
-        <v>7444600</v>
+        <v>7578700</v>
       </c>
       <c r="H10" s="3">
-        <v>8325700</v>
+        <v>8475700</v>
       </c>
       <c r="I10" s="3">
-        <v>8561300</v>
+        <v>8715500</v>
       </c>
       <c r="J10" s="3">
-        <v>8243200</v>
+        <v>8391700</v>
       </c>
       <c r="K10" s="3">
         <v>-3693100</v>
@@ -831,25 +831,25 @@
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>832800</v>
+        <v>847800</v>
       </c>
       <c r="E12" s="3">
-        <v>887600</v>
+        <v>903600</v>
       </c>
       <c r="F12" s="3">
-        <v>887300</v>
+        <v>903200</v>
       </c>
       <c r="G12" s="3">
-        <v>947600</v>
+        <v>964700</v>
       </c>
       <c r="H12" s="3">
-        <v>963300</v>
+        <v>980700</v>
       </c>
       <c r="I12" s="3">
-        <v>927800</v>
+        <v>944500</v>
       </c>
       <c r="J12" s="3">
-        <v>890900</v>
+        <v>906900</v>
       </c>
       <c r="K12" s="3">
         <v>1831000</v>
@@ -897,13 +897,13 @@
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>106300</v>
+        <v>108200</v>
       </c>
       <c r="E14" s="3">
-        <v>202200</v>
+        <v>205900</v>
       </c>
       <c r="F14" s="3">
-        <v>1904200</v>
+        <v>1938500</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>10</v>
@@ -912,10 +912,10 @@
         <v>10</v>
       </c>
       <c r="I14" s="3">
-        <v>9500</v>
+        <v>9700</v>
       </c>
       <c r="J14" s="3">
-        <v>106900</v>
+        <v>108800</v>
       </c>
       <c r="K14" s="3">
         <v>0</v>
@@ -930,25 +930,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>503500</v>
+        <v>512500</v>
       </c>
       <c r="E15" s="3">
-        <v>234700</v>
+        <v>239000</v>
       </c>
       <c r="F15" s="3">
-        <v>378500</v>
+        <v>385300</v>
       </c>
       <c r="G15" s="3">
-        <v>380300</v>
+        <v>387200</v>
       </c>
       <c r="H15" s="3">
-        <v>350600</v>
+        <v>356900</v>
       </c>
       <c r="I15" s="3">
-        <v>352100</v>
+        <v>358500</v>
       </c>
       <c r="J15" s="3">
-        <v>350300</v>
+        <v>356600</v>
       </c>
       <c r="K15" s="3">
         <v>321800</v>
@@ -975,25 +975,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>18214900</v>
+        <v>18542900</v>
       </c>
       <c r="E17" s="3">
-        <v>18185100</v>
+        <v>18512600</v>
       </c>
       <c r="F17" s="3">
-        <v>20570100</v>
+        <v>20940600</v>
       </c>
       <c r="G17" s="3">
-        <v>18833000</v>
+        <v>19172100</v>
       </c>
       <c r="H17" s="3">
-        <v>19887600</v>
+        <v>20245700</v>
       </c>
       <c r="I17" s="3">
-        <v>19216400</v>
+        <v>19562500</v>
       </c>
       <c r="J17" s="3">
-        <v>19591300</v>
+        <v>19944100</v>
       </c>
       <c r="K17" s="3">
         <v>16475100</v>
@@ -1008,25 +1008,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>746100</v>
+        <v>759600</v>
       </c>
       <c r="E18" s="3">
-        <v>819800</v>
+        <v>834500</v>
       </c>
       <c r="F18" s="3">
-        <v>-1092000</v>
+        <v>-1111600</v>
       </c>
       <c r="G18" s="3">
-        <v>319800</v>
+        <v>325600</v>
       </c>
       <c r="H18" s="3">
-        <v>965700</v>
+        <v>983100</v>
       </c>
       <c r="I18" s="3">
-        <v>1092800</v>
+        <v>1112500</v>
       </c>
       <c r="J18" s="3">
-        <v>1136100</v>
+        <v>1156500</v>
       </c>
       <c r="K18" s="3">
         <v>668600</v>
@@ -1056,25 +1056,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>24700</v>
+        <v>25200</v>
       </c>
       <c r="E20" s="3">
-        <v>29200</v>
+        <v>29700</v>
       </c>
       <c r="F20" s="3">
-        <v>-16800</v>
+        <v>-17100</v>
       </c>
       <c r="G20" s="3">
-        <v>34200</v>
+        <v>34900</v>
       </c>
       <c r="H20" s="3">
         <v>-700</v>
       </c>
       <c r="I20" s="3">
-        <v>34400</v>
+        <v>35000</v>
       </c>
       <c r="J20" s="3">
-        <v>48800</v>
+        <v>49700</v>
       </c>
       <c r="K20" s="3">
         <v>84400</v>
@@ -1089,25 +1089,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>1905300</v>
+        <v>1942200</v>
       </c>
       <c r="E21" s="3">
-        <v>1735200</v>
+        <v>1768400</v>
       </c>
       <c r="F21" s="3">
-        <v>-90500</v>
+        <v>-89900</v>
       </c>
       <c r="G21" s="3">
-        <v>1358800</v>
+        <v>1385500</v>
       </c>
       <c r="H21" s="3">
-        <v>1974300</v>
+        <v>2012000</v>
       </c>
       <c r="I21" s="3">
-        <v>2140900</v>
+        <v>2181700</v>
       </c>
       <c r="J21" s="3">
-        <v>2183400</v>
+        <v>2225000</v>
       </c>
       <c r="K21" s="3">
         <v>1626800</v>
@@ -1122,25 +1122,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>54500</v>
+        <v>55400</v>
       </c>
       <c r="E22" s="3">
-        <v>56300</v>
+        <v>57300</v>
       </c>
       <c r="F22" s="3">
-        <v>63500</v>
+        <v>64600</v>
       </c>
       <c r="G22" s="3">
-        <v>71300</v>
+        <v>72600</v>
       </c>
       <c r="H22" s="3">
-        <v>61800</v>
+        <v>62900</v>
       </c>
       <c r="I22" s="3">
-        <v>67100</v>
+        <v>68300</v>
       </c>
       <c r="J22" s="3">
-        <v>70400</v>
+        <v>71600</v>
       </c>
       <c r="K22" s="3">
         <v>134100</v>
@@ -1155,25 +1155,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>716400</v>
+        <v>729300</v>
       </c>
       <c r="E23" s="3">
-        <v>792600</v>
+        <v>806900</v>
       </c>
       <c r="F23" s="3">
-        <v>-1172300</v>
+        <v>-1193400</v>
       </c>
       <c r="G23" s="3">
-        <v>282800</v>
+        <v>287900</v>
       </c>
       <c r="H23" s="3">
-        <v>903300</v>
+        <v>919500</v>
       </c>
       <c r="I23" s="3">
-        <v>1060100</v>
+        <v>1079200</v>
       </c>
       <c r="J23" s="3">
-        <v>1114500</v>
+        <v>1134600</v>
       </c>
       <c r="K23" s="3">
         <v>618900</v>
@@ -1188,25 +1188,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>297200</v>
+        <v>302500</v>
       </c>
       <c r="E24" s="3">
-        <v>269900</v>
+        <v>274700</v>
       </c>
       <c r="F24" s="3">
-        <v>39100</v>
+        <v>39800</v>
       </c>
       <c r="G24" s="3">
-        <v>193700</v>
+        <v>197200</v>
       </c>
       <c r="H24" s="3">
-        <v>267900</v>
+        <v>272700</v>
       </c>
       <c r="I24" s="3">
-        <v>364400</v>
+        <v>370900</v>
       </c>
       <c r="J24" s="3">
-        <v>373900</v>
+        <v>380700</v>
       </c>
       <c r="K24" s="3">
         <v>220600</v>
@@ -1254,25 +1254,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>419300</v>
+        <v>426800</v>
       </c>
       <c r="E26" s="3">
-        <v>522800</v>
+        <v>532200</v>
       </c>
       <c r="F26" s="3">
-        <v>-1211400</v>
+        <v>-1233200</v>
       </c>
       <c r="G26" s="3">
-        <v>89100</v>
+        <v>90700</v>
       </c>
       <c r="H26" s="3">
-        <v>635400</v>
+        <v>646800</v>
       </c>
       <c r="I26" s="3">
-        <v>695700</v>
+        <v>708200</v>
       </c>
       <c r="J26" s="3">
-        <v>740600</v>
+        <v>753900</v>
       </c>
       <c r="K26" s="3">
         <v>398300</v>
@@ -1287,25 +1287,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>373300</v>
+        <v>380000</v>
       </c>
       <c r="E27" s="3">
-        <v>467500</v>
+        <v>475900</v>
       </c>
       <c r="F27" s="3">
-        <v>-1265500</v>
+        <v>-1288300</v>
       </c>
       <c r="G27" s="3">
-        <v>32900</v>
+        <v>33500</v>
       </c>
       <c r="H27" s="3">
-        <v>594500</v>
+        <v>605200</v>
       </c>
       <c r="I27" s="3">
-        <v>647200</v>
+        <v>658900</v>
       </c>
       <c r="J27" s="3">
-        <v>687400</v>
+        <v>699800</v>
       </c>
       <c r="K27" s="3">
         <v>309500</v>
@@ -1359,7 +1359,7 @@
         <v>10</v>
       </c>
       <c r="F29" s="3">
-        <v>-12400</v>
+        <v>-12600</v>
       </c>
       <c r="G29" s="3" t="s">
         <v>10</v>
@@ -1452,25 +1452,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-24700</v>
+        <v>-25200</v>
       </c>
       <c r="E32" s="3">
-        <v>-29200</v>
+        <v>-29700</v>
       </c>
       <c r="F32" s="3">
-        <v>16800</v>
+        <v>17100</v>
       </c>
       <c r="G32" s="3">
-        <v>-34200</v>
+        <v>-34900</v>
       </c>
       <c r="H32" s="3">
         <v>700</v>
       </c>
       <c r="I32" s="3">
-        <v>-34400</v>
+        <v>-35000</v>
       </c>
       <c r="J32" s="3">
-        <v>-48800</v>
+        <v>-49700</v>
       </c>
       <c r="K32" s="3">
         <v>-84400</v>
@@ -1485,25 +1485,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>373300</v>
+        <v>380000</v>
       </c>
       <c r="E33" s="3">
-        <v>467500</v>
+        <v>475900</v>
       </c>
       <c r="F33" s="3">
-        <v>-1277900</v>
+        <v>-1300900</v>
       </c>
       <c r="G33" s="3">
-        <v>32900</v>
+        <v>33500</v>
       </c>
       <c r="H33" s="3">
-        <v>594500</v>
+        <v>605200</v>
       </c>
       <c r="I33" s="3">
-        <v>647200</v>
+        <v>658900</v>
       </c>
       <c r="J33" s="3">
-        <v>687400</v>
+        <v>699800</v>
       </c>
       <c r="K33" s="3">
         <v>309500</v>
@@ -1551,25 +1551,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>373300</v>
+        <v>380000</v>
       </c>
       <c r="E35" s="3">
-        <v>467500</v>
+        <v>475900</v>
       </c>
       <c r="F35" s="3">
-        <v>-1277900</v>
+        <v>-1300900</v>
       </c>
       <c r="G35" s="3">
-        <v>32900</v>
+        <v>33500</v>
       </c>
       <c r="H35" s="3">
-        <v>594500</v>
+        <v>605200</v>
       </c>
       <c r="I35" s="3">
-        <v>647200</v>
+        <v>658900</v>
       </c>
       <c r="J35" s="3">
-        <v>687400</v>
+        <v>699800</v>
       </c>
       <c r="K35" s="3">
         <v>309500</v>
@@ -1652,25 +1652,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>2481600</v>
+        <v>2526300</v>
       </c>
       <c r="E41" s="3">
-        <v>2267200</v>
+        <v>2308000</v>
       </c>
       <c r="F41" s="3">
-        <v>1516400</v>
+        <v>1543700</v>
       </c>
       <c r="G41" s="3">
-        <v>1275300</v>
+        <v>1298200</v>
       </c>
       <c r="H41" s="3">
-        <v>1590800</v>
+        <v>1619500</v>
       </c>
       <c r="I41" s="3">
-        <v>1308800</v>
+        <v>1332400</v>
       </c>
       <c r="J41" s="3">
-        <v>1360300</v>
+        <v>1384800</v>
       </c>
       <c r="K41" s="3">
         <v>2187600</v>
@@ -1685,25 +1685,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>823400</v>
+        <v>838200</v>
       </c>
       <c r="E42" s="3">
-        <v>2778700</v>
+        <v>2828700</v>
       </c>
       <c r="F42" s="3">
-        <v>3276300</v>
+        <v>3335300</v>
       </c>
       <c r="G42" s="3">
-        <v>2610900</v>
+        <v>2657900</v>
       </c>
       <c r="H42" s="3">
-        <v>2571000</v>
+        <v>2617300</v>
       </c>
       <c r="I42" s="3">
-        <v>2454900</v>
+        <v>2499100</v>
       </c>
       <c r="J42" s="3">
-        <v>2357000</v>
+        <v>2399400</v>
       </c>
       <c r="K42" s="3">
         <v>2103200</v>
@@ -1718,25 +1718,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>3707800</v>
+        <v>3774600</v>
       </c>
       <c r="E43" s="3">
-        <v>5709300</v>
+        <v>5812200</v>
       </c>
       <c r="F43" s="3">
-        <v>5567200</v>
+        <v>5667400</v>
       </c>
       <c r="G43" s="3">
-        <v>5346000</v>
+        <v>5442300</v>
       </c>
       <c r="H43" s="3">
-        <v>5326100</v>
+        <v>5422000</v>
       </c>
       <c r="I43" s="3">
-        <v>5225400</v>
+        <v>5319500</v>
       </c>
       <c r="J43" s="3">
-        <v>10284400</v>
+        <v>10469600</v>
       </c>
       <c r="K43" s="3">
         <v>8964400</v>
@@ -1751,25 +1751,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>1899800</v>
+        <v>1934000</v>
       </c>
       <c r="E44" s="3">
-        <v>1961100</v>
+        <v>1996500</v>
       </c>
       <c r="F44" s="3">
-        <v>1703800</v>
+        <v>1734500</v>
       </c>
       <c r="G44" s="3">
-        <v>1912100</v>
+        <v>1946500</v>
       </c>
       <c r="H44" s="3">
-        <v>1954900</v>
+        <v>1990200</v>
       </c>
       <c r="I44" s="3">
-        <v>2119100</v>
+        <v>2157300</v>
       </c>
       <c r="J44" s="3">
-        <v>1833000</v>
+        <v>1866000</v>
       </c>
       <c r="K44" s="3">
         <v>3563900</v>
@@ -1784,25 +1784,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>10969400</v>
+        <v>11166900</v>
       </c>
       <c r="E45" s="3">
-        <v>403000</v>
+        <v>410300</v>
       </c>
       <c r="F45" s="3">
-        <v>472500</v>
+        <v>481000</v>
       </c>
       <c r="G45" s="3">
-        <v>554000</v>
+        <v>563900</v>
       </c>
       <c r="H45" s="3">
-        <v>576100</v>
+        <v>586500</v>
       </c>
       <c r="I45" s="3">
-        <v>374400</v>
+        <v>381200</v>
       </c>
       <c r="J45" s="3">
-        <v>324000</v>
+        <v>329800</v>
       </c>
       <c r="K45" s="3">
         <v>3011200</v>
@@ -1817,25 +1817,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>19882000</v>
+        <v>20240100</v>
       </c>
       <c r="E46" s="3">
-        <v>13119400</v>
+        <v>13355600</v>
       </c>
       <c r="F46" s="3">
-        <v>12536100</v>
+        <v>12761900</v>
       </c>
       <c r="G46" s="3">
-        <v>11698200</v>
+        <v>11908800</v>
       </c>
       <c r="H46" s="3">
-        <v>12019000</v>
+        <v>12235400</v>
       </c>
       <c r="I46" s="3">
-        <v>11482600</v>
+        <v>11689400</v>
       </c>
       <c r="J46" s="3">
-        <v>11016500</v>
+        <v>11214900</v>
       </c>
       <c r="K46" s="3">
         <v>9593000</v>
@@ -1850,25 +1850,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>1590000</v>
+        <v>1618700</v>
       </c>
       <c r="E47" s="3">
-        <v>7016400</v>
+        <v>7142700</v>
       </c>
       <c r="F47" s="3">
-        <v>6799800</v>
+        <v>6922200</v>
       </c>
       <c r="G47" s="3">
-        <v>6964300</v>
+        <v>7089700</v>
       </c>
       <c r="H47" s="3">
-        <v>6496500</v>
+        <v>6613500</v>
       </c>
       <c r="I47" s="3">
-        <v>6235000</v>
+        <v>6347300</v>
       </c>
       <c r="J47" s="3">
-        <v>5783800</v>
+        <v>5888000</v>
       </c>
       <c r="K47" s="3">
         <v>5473000</v>
@@ -1883,25 +1883,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>2463800</v>
+        <v>2508200</v>
       </c>
       <c r="E48" s="3">
-        <v>2362700</v>
+        <v>2405300</v>
       </c>
       <c r="F48" s="3">
-        <v>2360000</v>
+        <v>2402500</v>
       </c>
       <c r="G48" s="3">
-        <v>2560700</v>
+        <v>2606800</v>
       </c>
       <c r="H48" s="3">
-        <v>2610600</v>
+        <v>2657700</v>
       </c>
       <c r="I48" s="3">
-        <v>2611300</v>
+        <v>2658300</v>
       </c>
       <c r="J48" s="3">
-        <v>2983200</v>
+        <v>3036900</v>
       </c>
       <c r="K48" s="3">
         <v>5065200</v>
@@ -1916,25 +1916,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>2189100</v>
+        <v>2228500</v>
       </c>
       <c r="E49" s="3">
-        <v>2075000</v>
+        <v>2112300</v>
       </c>
       <c r="F49" s="3">
-        <v>2049700</v>
+        <v>2086600</v>
       </c>
       <c r="G49" s="3">
-        <v>3664400</v>
+        <v>3730400</v>
       </c>
       <c r="H49" s="3">
-        <v>3906600</v>
+        <v>3977000</v>
       </c>
       <c r="I49" s="3">
-        <v>4113500</v>
+        <v>4187600</v>
       </c>
       <c r="J49" s="3">
-        <v>3769900</v>
+        <v>3837800</v>
       </c>
       <c r="K49" s="3">
         <v>4520200</v>
@@ -2015,25 +2015,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>945600</v>
+        <v>962600</v>
       </c>
       <c r="E52" s="3">
-        <v>1151800</v>
+        <v>1172600</v>
       </c>
       <c r="F52" s="3">
-        <v>1185700</v>
+        <v>1207000</v>
       </c>
       <c r="G52" s="3">
-        <v>1160100</v>
+        <v>1181000</v>
       </c>
       <c r="H52" s="3">
-        <v>1177100</v>
+        <v>1198300</v>
       </c>
       <c r="I52" s="3">
-        <v>1330800</v>
+        <v>1354700</v>
       </c>
       <c r="J52" s="3">
-        <v>1386500</v>
+        <v>1411400</v>
       </c>
       <c r="K52" s="3">
         <v>6546100</v>
@@ -2081,25 +2081,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>27070600</v>
+        <v>27558100</v>
       </c>
       <c r="E54" s="3">
-        <v>25725200</v>
+        <v>26188500</v>
       </c>
       <c r="F54" s="3">
-        <v>24931300</v>
+        <v>25380300</v>
       </c>
       <c r="G54" s="3">
-        <v>26047700</v>
+        <v>26516700</v>
       </c>
       <c r="H54" s="3">
-        <v>26209800</v>
+        <v>26681800</v>
       </c>
       <c r="I54" s="3">
-        <v>25773200</v>
+        <v>26237300</v>
       </c>
       <c r="J54" s="3">
-        <v>24512100</v>
+        <v>24953500</v>
       </c>
       <c r="K54" s="3">
         <v>21735700</v>
@@ -2144,25 +2144,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>1693800</v>
+        <v>1724400</v>
       </c>
       <c r="E57" s="3">
-        <v>1965700</v>
+        <v>2001100</v>
       </c>
       <c r="F57" s="3">
-        <v>1835300</v>
+        <v>1868300</v>
       </c>
       <c r="G57" s="3">
-        <v>1842900</v>
+        <v>1876100</v>
       </c>
       <c r="H57" s="3">
-        <v>1871700</v>
+        <v>1905400</v>
       </c>
       <c r="I57" s="3">
-        <v>1882300</v>
+        <v>1916200</v>
       </c>
       <c r="J57" s="3">
-        <v>2025300</v>
+        <v>2061800</v>
       </c>
       <c r="K57" s="3">
         <v>3862300</v>
@@ -2177,25 +2177,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>743100</v>
+        <v>756500</v>
       </c>
       <c r="E58" s="3">
-        <v>2520100</v>
+        <v>2565500</v>
       </c>
       <c r="F58" s="3">
-        <v>2107000</v>
+        <v>2144900</v>
       </c>
       <c r="G58" s="3">
-        <v>2170700</v>
+        <v>2209800</v>
       </c>
       <c r="H58" s="3">
-        <v>2461500</v>
+        <v>2505900</v>
       </c>
       <c r="I58" s="3">
-        <v>2096300</v>
+        <v>2134000</v>
       </c>
       <c r="J58" s="3">
-        <v>2565500</v>
+        <v>2611700</v>
       </c>
       <c r="K58" s="3">
         <v>4128200</v>
@@ -2210,25 +2210,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>12184600</v>
+        <v>12404000</v>
       </c>
       <c r="E59" s="3">
-        <v>3483400</v>
+        <v>3546200</v>
       </c>
       <c r="F59" s="3">
-        <v>3501400</v>
+        <v>3564500</v>
       </c>
       <c r="G59" s="3">
-        <v>3603800</v>
+        <v>3668700</v>
       </c>
       <c r="H59" s="3">
-        <v>3283600</v>
+        <v>3342700</v>
       </c>
       <c r="I59" s="3">
-        <v>3310400</v>
+        <v>3370000</v>
       </c>
       <c r="J59" s="3">
-        <v>3298100</v>
+        <v>3357500</v>
       </c>
       <c r="K59" s="3">
         <v>4746300</v>
@@ -2243,25 +2243,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>14621600</v>
+        <v>14884900</v>
       </c>
       <c r="E60" s="3">
-        <v>7969200</v>
+        <v>8112700</v>
       </c>
       <c r="F60" s="3">
-        <v>7443600</v>
+        <v>7577700</v>
       </c>
       <c r="G60" s="3">
-        <v>7617400</v>
+        <v>7754500</v>
       </c>
       <c r="H60" s="3">
-        <v>7616800</v>
+        <v>7754000</v>
       </c>
       <c r="I60" s="3">
-        <v>7289000</v>
+        <v>7420300</v>
       </c>
       <c r="J60" s="3">
-        <v>7888900</v>
+        <v>8031000</v>
       </c>
       <c r="K60" s="3">
         <v>6370500</v>
@@ -2276,25 +2276,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>1575700</v>
+        <v>1604000</v>
       </c>
       <c r="E61" s="3">
-        <v>6291400</v>
+        <v>6404700</v>
       </c>
       <c r="F61" s="3">
-        <v>6218200</v>
+        <v>6330200</v>
       </c>
       <c r="G61" s="3">
-        <v>5945300</v>
+        <v>6052400</v>
       </c>
       <c r="H61" s="3">
-        <v>5588900</v>
+        <v>5689600</v>
       </c>
       <c r="I61" s="3">
-        <v>5366800</v>
+        <v>5463400</v>
       </c>
       <c r="J61" s="3">
-        <v>4270600</v>
+        <v>4347500</v>
       </c>
       <c r="K61" s="3">
         <v>4314000</v>
@@ -2309,25 +2309,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1352800</v>
+        <v>1377200</v>
       </c>
       <c r="E62" s="3">
-        <v>1845400</v>
+        <v>1878600</v>
       </c>
       <c r="F62" s="3">
-        <v>1935600</v>
+        <v>1970500</v>
       </c>
       <c r="G62" s="3">
-        <v>1941700</v>
+        <v>1976700</v>
       </c>
       <c r="H62" s="3">
-        <v>2169200</v>
+        <v>2208200</v>
       </c>
       <c r="I62" s="3">
-        <v>2220700</v>
+        <v>2260700</v>
       </c>
       <c r="J62" s="3">
-        <v>2021400</v>
+        <v>2057800</v>
       </c>
       <c r="K62" s="3">
         <v>4245400</v>
@@ -2441,25 +2441,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>18382300</v>
+        <v>18713300</v>
       </c>
       <c r="E66" s="3">
-        <v>16921700</v>
+        <v>17226500</v>
       </c>
       <c r="F66" s="3">
-        <v>16345000</v>
+        <v>16639400</v>
       </c>
       <c r="G66" s="3">
-        <v>16210200</v>
+        <v>16502100</v>
       </c>
       <c r="H66" s="3">
-        <v>16035200</v>
+        <v>16324000</v>
       </c>
       <c r="I66" s="3">
-        <v>15538600</v>
+        <v>15818400</v>
       </c>
       <c r="J66" s="3">
-        <v>14794400</v>
+        <v>15060800</v>
       </c>
       <c r="K66" s="3">
         <v>13430100</v>
@@ -2621,25 +2621,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>5614300</v>
+        <v>5715400</v>
       </c>
       <c r="E72" s="3">
-        <v>5426800</v>
+        <v>5524600</v>
       </c>
       <c r="F72" s="3">
-        <v>4815500</v>
+        <v>4902200</v>
       </c>
       <c r="G72" s="3">
-        <v>6206300</v>
+        <v>6318000</v>
       </c>
       <c r="H72" s="3">
-        <v>6404300</v>
+        <v>6519700</v>
       </c>
       <c r="I72" s="3">
-        <v>6102700</v>
+        <v>6212600</v>
       </c>
       <c r="J72" s="3">
-        <v>5903200</v>
+        <v>6009500</v>
       </c>
       <c r="K72" s="3">
         <v>12094900</v>
@@ -2753,25 +2753,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>8688300</v>
+        <v>8844800</v>
       </c>
       <c r="E76" s="3">
-        <v>8803500</v>
+        <v>8962100</v>
       </c>
       <c r="F76" s="3">
-        <v>8586300</v>
+        <v>8740900</v>
       </c>
       <c r="G76" s="3">
-        <v>9837500</v>
+        <v>10014600</v>
       </c>
       <c r="H76" s="3">
-        <v>10174600</v>
+        <v>10357800</v>
       </c>
       <c r="I76" s="3">
-        <v>10234500</v>
+        <v>10418800</v>
       </c>
       <c r="J76" s="3">
-        <v>9717700</v>
+        <v>9892700</v>
       </c>
       <c r="K76" s="3">
         <v>8305600</v>
@@ -2857,25 +2857,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>373300</v>
+        <v>380000</v>
       </c>
       <c r="E81" s="3">
-        <v>467500</v>
+        <v>475900</v>
       </c>
       <c r="F81" s="3">
-        <v>-1277900</v>
+        <v>-1300900</v>
       </c>
       <c r="G81" s="3">
-        <v>32900</v>
+        <v>33500</v>
       </c>
       <c r="H81" s="3">
-        <v>594500</v>
+        <v>605200</v>
       </c>
       <c r="I81" s="3">
-        <v>647200</v>
+        <v>658900</v>
       </c>
       <c r="J81" s="3">
-        <v>687400</v>
+        <v>699800</v>
       </c>
       <c r="K81" s="3">
         <v>309500</v>
@@ -2905,25 +2905,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>1139300</v>
+        <v>1159800</v>
       </c>
       <c r="E83" s="3">
-        <v>890100</v>
+        <v>906100</v>
       </c>
       <c r="F83" s="3">
-        <v>1022600</v>
+        <v>1041000</v>
       </c>
       <c r="G83" s="3">
-        <v>1009000</v>
+        <v>1027200</v>
       </c>
       <c r="H83" s="3">
-        <v>1013500</v>
+        <v>1031800</v>
       </c>
       <c r="I83" s="3">
-        <v>1018000</v>
+        <v>1036300</v>
       </c>
       <c r="J83" s="3">
-        <v>1002800</v>
+        <v>1020900</v>
       </c>
       <c r="K83" s="3">
         <v>871900</v>
@@ -3103,25 +3103,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>1101700</v>
+        <v>1121500</v>
       </c>
       <c r="E89" s="3">
-        <v>773600</v>
+        <v>787500</v>
       </c>
       <c r="F89" s="3">
-        <v>1041100</v>
+        <v>1059900</v>
       </c>
       <c r="G89" s="3">
-        <v>833500</v>
+        <v>848600</v>
       </c>
       <c r="H89" s="3">
-        <v>942700</v>
+        <v>959600</v>
       </c>
       <c r="I89" s="3">
-        <v>968000</v>
+        <v>985400</v>
       </c>
       <c r="J89" s="3">
-        <v>1386700</v>
+        <v>1411700</v>
       </c>
       <c r="K89" s="3">
         <v>1248200</v>
@@ -3151,25 +3151,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-817500</v>
+        <v>-832200</v>
       </c>
       <c r="E91" s="3">
-        <v>-684000</v>
+        <v>-696400</v>
       </c>
       <c r="F91" s="3">
-        <v>-682400</v>
+        <v>-694700</v>
       </c>
       <c r="G91" s="3">
-        <v>-712200</v>
+        <v>-725000</v>
       </c>
       <c r="H91" s="3">
-        <v>-790900</v>
+        <v>-805100</v>
       </c>
       <c r="I91" s="3">
-        <v>-717200</v>
+        <v>-730100</v>
       </c>
       <c r="J91" s="3">
-        <v>-689100</v>
+        <v>-701500</v>
       </c>
       <c r="K91" s="3">
         <v>-1507600</v>
@@ -3250,25 +3250,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-1553700</v>
+        <v>-1581700</v>
       </c>
       <c r="E94" s="3">
-        <v>-433600</v>
+        <v>-441400</v>
       </c>
       <c r="F94" s="3">
-        <v>-765400</v>
+        <v>-779100</v>
       </c>
       <c r="G94" s="3">
-        <v>-1007400</v>
+        <v>-1025500</v>
       </c>
       <c r="H94" s="3">
-        <v>-983100</v>
+        <v>-1000800</v>
       </c>
       <c r="I94" s="3">
-        <v>-1354200</v>
+        <v>-1378600</v>
       </c>
       <c r="J94" s="3">
-        <v>-1160500</v>
+        <v>-1181400</v>
       </c>
       <c r="K94" s="3">
         <v>-1106600</v>
@@ -3298,25 +3298,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-177900</v>
+        <v>-181100</v>
       </c>
       <c r="E96" s="3">
-        <v>-119700</v>
+        <v>-121900</v>
       </c>
       <c r="F96" s="3">
-        <v>-136900</v>
+        <v>-139300</v>
       </c>
       <c r="G96" s="3">
-        <v>-273700</v>
+        <v>-278700</v>
       </c>
       <c r="H96" s="3">
-        <v>-236100</v>
+        <v>-240300</v>
       </c>
       <c r="I96" s="3">
-        <v>-229300</v>
+        <v>-233400</v>
       </c>
       <c r="J96" s="3">
-        <v>-225900</v>
+        <v>-229900</v>
       </c>
       <c r="K96" s="3">
         <v>-138400</v>
@@ -3430,25 +3430,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>715100</v>
+        <v>728000</v>
       </c>
       <c r="E100" s="3">
-        <v>400500</v>
+        <v>407700</v>
       </c>
       <c r="F100" s="3">
-        <v>60500</v>
+        <v>61600</v>
       </c>
       <c r="G100" s="3">
-        <v>-188100</v>
+        <v>-191400</v>
       </c>
       <c r="H100" s="3">
-        <v>402800</v>
+        <v>410000</v>
       </c>
       <c r="I100" s="3">
-        <v>282600</v>
+        <v>287700</v>
       </c>
       <c r="J100" s="3">
-        <v>-87200</v>
+        <v>-88800</v>
       </c>
       <c r="K100" s="3">
         <v>-562100</v>
@@ -3463,25 +3463,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-40400</v>
+        <v>-41100</v>
       </c>
       <c r="E101" s="3">
-        <v>10300</v>
+        <v>10500</v>
       </c>
       <c r="F101" s="3">
-        <v>-14000</v>
+        <v>-14200</v>
       </c>
       <c r="G101" s="3">
-        <v>-26300</v>
+        <v>-26700</v>
       </c>
       <c r="H101" s="3">
-        <v>-80800</v>
+        <v>-82300</v>
       </c>
       <c r="I101" s="3">
-        <v>81700</v>
+        <v>83100</v>
       </c>
       <c r="J101" s="3">
-        <v>78100</v>
+        <v>79500</v>
       </c>
       <c r="K101" s="3">
         <v>64600</v>
@@ -3496,25 +3496,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>222700</v>
+        <v>226700</v>
       </c>
       <c r="E102" s="3">
-        <v>750800</v>
+        <v>764300</v>
       </c>
       <c r="F102" s="3">
-        <v>322300</v>
+        <v>328100</v>
       </c>
       <c r="G102" s="3">
-        <v>-388200</v>
+        <v>-395100</v>
       </c>
       <c r="H102" s="3">
-        <v>281500</v>
+        <v>286600</v>
       </c>
       <c r="I102" s="3">
-        <v>-21900</v>
+        <v>-22300</v>
       </c>
       <c r="J102" s="3">
-        <v>217100</v>
+        <v>221000</v>
       </c>
       <c r="K102" s="3">
         <v>-356000</v>

--- a/AAII_Financials/Yearly/RICOY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/RICOY_YR_FIN.xlsx
@@ -717,25 +717,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>19302500</v>
+        <v>18398600</v>
       </c>
       <c r="E8" s="3">
-        <v>19347100</v>
+        <v>18441200</v>
       </c>
       <c r="F8" s="3">
-        <v>19828900</v>
+        <v>18900400</v>
       </c>
       <c r="G8" s="3">
-        <v>19497700</v>
+        <v>18584700</v>
       </c>
       <c r="H8" s="3">
-        <v>21228800</v>
+        <v>20234700</v>
       </c>
       <c r="I8" s="3">
-        <v>20675000</v>
+        <v>19706900</v>
       </c>
       <c r="J8" s="3">
-        <v>21100600</v>
+        <v>20112600</v>
       </c>
       <c r="K8" s="3">
         <v>17143700</v>
@@ -750,25 +750,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>12365900</v>
+        <v>11786800</v>
       </c>
       <c r="E9" s="3">
-        <v>11977400</v>
+        <v>11416500</v>
       </c>
       <c r="F9" s="3">
-        <v>12227400</v>
+        <v>11654800</v>
       </c>
       <c r="G9" s="3">
-        <v>11919000</v>
+        <v>11360900</v>
       </c>
       <c r="H9" s="3">
-        <v>12753100</v>
+        <v>12155900</v>
       </c>
       <c r="I9" s="3">
-        <v>11959500</v>
+        <v>11399500</v>
       </c>
       <c r="J9" s="3">
-        <v>12708900</v>
+        <v>12113800</v>
       </c>
       <c r="K9" s="3">
         <v>20836800</v>
@@ -783,25 +783,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>6936600</v>
+        <v>6611800</v>
       </c>
       <c r="E10" s="3">
-        <v>7369700</v>
+        <v>7024600</v>
       </c>
       <c r="F10" s="3">
-        <v>7601600</v>
+        <v>7245600</v>
       </c>
       <c r="G10" s="3">
-        <v>7578700</v>
+        <v>7223800</v>
       </c>
       <c r="H10" s="3">
-        <v>8475700</v>
+        <v>8078800</v>
       </c>
       <c r="I10" s="3">
-        <v>8715500</v>
+        <v>8307400</v>
       </c>
       <c r="J10" s="3">
-        <v>8391700</v>
+        <v>7998700</v>
       </c>
       <c r="K10" s="3">
         <v>-3693100</v>
@@ -831,25 +831,25 @@
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>847800</v>
+        <v>808100</v>
       </c>
       <c r="E12" s="3">
-        <v>903600</v>
+        <v>861300</v>
       </c>
       <c r="F12" s="3">
-        <v>903200</v>
+        <v>860900</v>
       </c>
       <c r="G12" s="3">
-        <v>964700</v>
+        <v>919500</v>
       </c>
       <c r="H12" s="3">
-        <v>980700</v>
+        <v>934700</v>
       </c>
       <c r="I12" s="3">
-        <v>944500</v>
+        <v>900300</v>
       </c>
       <c r="J12" s="3">
-        <v>906900</v>
+        <v>864400</v>
       </c>
       <c r="K12" s="3">
         <v>1831000</v>
@@ -897,13 +897,13 @@
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>108200</v>
+        <v>103100</v>
       </c>
       <c r="E14" s="3">
-        <v>205900</v>
+        <v>196200</v>
       </c>
       <c r="F14" s="3">
-        <v>1938500</v>
+        <v>1847700</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>10</v>
@@ -912,10 +912,10 @@
         <v>10</v>
       </c>
       <c r="I14" s="3">
-        <v>9700</v>
+        <v>9300</v>
       </c>
       <c r="J14" s="3">
-        <v>108800</v>
+        <v>103700</v>
       </c>
       <c r="K14" s="3">
         <v>0</v>
@@ -930,25 +930,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>512500</v>
+        <v>488500</v>
       </c>
       <c r="E15" s="3">
-        <v>239000</v>
+        <v>227800</v>
       </c>
       <c r="F15" s="3">
-        <v>385300</v>
+        <v>367300</v>
       </c>
       <c r="G15" s="3">
-        <v>387200</v>
+        <v>369000</v>
       </c>
       <c r="H15" s="3">
-        <v>356900</v>
+        <v>340200</v>
       </c>
       <c r="I15" s="3">
-        <v>358500</v>
+        <v>341700</v>
       </c>
       <c r="J15" s="3">
-        <v>356600</v>
+        <v>339900</v>
       </c>
       <c r="K15" s="3">
         <v>321800</v>
@@ -975,25 +975,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>18542900</v>
+        <v>17674600</v>
       </c>
       <c r="E17" s="3">
-        <v>18512600</v>
+        <v>17645700</v>
       </c>
       <c r="F17" s="3">
-        <v>20940600</v>
+        <v>19960000</v>
       </c>
       <c r="G17" s="3">
-        <v>19172100</v>
+        <v>18274400</v>
       </c>
       <c r="H17" s="3">
-        <v>20245700</v>
+        <v>19297700</v>
       </c>
       <c r="I17" s="3">
-        <v>19562500</v>
+        <v>18646500</v>
       </c>
       <c r="J17" s="3">
-        <v>19944100</v>
+        <v>19010200</v>
       </c>
       <c r="K17" s="3">
         <v>16475100</v>
@@ -1008,25 +1008,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>759600</v>
+        <v>724000</v>
       </c>
       <c r="E18" s="3">
-        <v>834500</v>
+        <v>795400</v>
       </c>
       <c r="F18" s="3">
-        <v>-1111600</v>
+        <v>-1059600</v>
       </c>
       <c r="G18" s="3">
-        <v>325600</v>
+        <v>310300</v>
       </c>
       <c r="H18" s="3">
-        <v>983100</v>
+        <v>937000</v>
       </c>
       <c r="I18" s="3">
-        <v>1112500</v>
+        <v>1060400</v>
       </c>
       <c r="J18" s="3">
-        <v>1156500</v>
+        <v>1102400</v>
       </c>
       <c r="K18" s="3">
         <v>668600</v>
@@ -1056,25 +1056,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>25200</v>
+        <v>24000</v>
       </c>
       <c r="E20" s="3">
-        <v>29700</v>
+        <v>28300</v>
       </c>
       <c r="F20" s="3">
-        <v>-17100</v>
+        <v>-16300</v>
       </c>
       <c r="G20" s="3">
-        <v>34900</v>
+        <v>33200</v>
       </c>
       <c r="H20" s="3">
-        <v>-700</v>
+        <v>-600</v>
       </c>
       <c r="I20" s="3">
-        <v>35000</v>
+        <v>33400</v>
       </c>
       <c r="J20" s="3">
-        <v>49700</v>
+        <v>47400</v>
       </c>
       <c r="K20" s="3">
         <v>84400</v>
@@ -1089,25 +1089,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>1942200</v>
+        <v>1858300</v>
       </c>
       <c r="E21" s="3">
-        <v>1768400</v>
+        <v>1691200</v>
       </c>
       <c r="F21" s="3">
-        <v>-89900</v>
+        <v>-79300</v>
       </c>
       <c r="G21" s="3">
-        <v>1385500</v>
+        <v>1327000</v>
       </c>
       <c r="H21" s="3">
-        <v>2012000</v>
+        <v>1924200</v>
       </c>
       <c r="I21" s="3">
-        <v>2181700</v>
+        <v>2085900</v>
       </c>
       <c r="J21" s="3">
-        <v>2225000</v>
+        <v>2127000</v>
       </c>
       <c r="K21" s="3">
         <v>1626800</v>
@@ -1122,25 +1122,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>55400</v>
+        <v>52900</v>
       </c>
       <c r="E22" s="3">
-        <v>57300</v>
+        <v>54600</v>
       </c>
       <c r="F22" s="3">
-        <v>64600</v>
+        <v>61600</v>
       </c>
       <c r="G22" s="3">
-        <v>72600</v>
+        <v>69200</v>
       </c>
       <c r="H22" s="3">
-        <v>62900</v>
+        <v>59900</v>
       </c>
       <c r="I22" s="3">
+        <v>65100</v>
+      </c>
+      <c r="J22" s="3">
         <v>68300</v>
-      </c>
-      <c r="J22" s="3">
-        <v>71600</v>
       </c>
       <c r="K22" s="3">
         <v>134100</v>
@@ -1155,25 +1155,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>729300</v>
+        <v>695200</v>
       </c>
       <c r="E23" s="3">
-        <v>806900</v>
+        <v>769100</v>
       </c>
       <c r="F23" s="3">
-        <v>-1193400</v>
+        <v>-1137500</v>
       </c>
       <c r="G23" s="3">
-        <v>287900</v>
+        <v>274400</v>
       </c>
       <c r="H23" s="3">
-        <v>919500</v>
+        <v>876500</v>
       </c>
       <c r="I23" s="3">
-        <v>1079200</v>
+        <v>1028600</v>
       </c>
       <c r="J23" s="3">
-        <v>1134600</v>
+        <v>1081500</v>
       </c>
       <c r="K23" s="3">
         <v>618900</v>
@@ -1188,25 +1188,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>302500</v>
+        <v>288300</v>
       </c>
       <c r="E24" s="3">
-        <v>274700</v>
+        <v>261900</v>
       </c>
       <c r="F24" s="3">
-        <v>39800</v>
+        <v>38000</v>
       </c>
       <c r="G24" s="3">
-        <v>197200</v>
+        <v>187900</v>
       </c>
       <c r="H24" s="3">
-        <v>272700</v>
+        <v>259900</v>
       </c>
       <c r="I24" s="3">
-        <v>370900</v>
+        <v>353600</v>
       </c>
       <c r="J24" s="3">
-        <v>380700</v>
+        <v>362800</v>
       </c>
       <c r="K24" s="3">
         <v>220600</v>
@@ -1254,25 +1254,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>426800</v>
+        <v>406800</v>
       </c>
       <c r="E26" s="3">
-        <v>532200</v>
+        <v>507300</v>
       </c>
       <c r="F26" s="3">
-        <v>-1233200</v>
+        <v>-1175500</v>
       </c>
       <c r="G26" s="3">
-        <v>90700</v>
+        <v>86400</v>
       </c>
       <c r="H26" s="3">
-        <v>646800</v>
+        <v>616500</v>
       </c>
       <c r="I26" s="3">
-        <v>708200</v>
+        <v>675100</v>
       </c>
       <c r="J26" s="3">
-        <v>753900</v>
+        <v>718600</v>
       </c>
       <c r="K26" s="3">
         <v>398300</v>
@@ -1287,25 +1287,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>380000</v>
+        <v>362200</v>
       </c>
       <c r="E27" s="3">
-        <v>475900</v>
+        <v>453700</v>
       </c>
       <c r="F27" s="3">
-        <v>-1288300</v>
+        <v>-1228000</v>
       </c>
       <c r="G27" s="3">
-        <v>33500</v>
+        <v>32000</v>
       </c>
       <c r="H27" s="3">
-        <v>605200</v>
+        <v>576900</v>
       </c>
       <c r="I27" s="3">
-        <v>658900</v>
+        <v>628000</v>
       </c>
       <c r="J27" s="3">
-        <v>699800</v>
+        <v>667000</v>
       </c>
       <c r="K27" s="3">
         <v>309500</v>
@@ -1359,7 +1359,7 @@
         <v>10</v>
       </c>
       <c r="F29" s="3">
-        <v>-12600</v>
+        <v>-12000</v>
       </c>
       <c r="G29" s="3" t="s">
         <v>10</v>
@@ -1452,25 +1452,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-25200</v>
+        <v>-24000</v>
       </c>
       <c r="E32" s="3">
-        <v>-29700</v>
+        <v>-28300</v>
       </c>
       <c r="F32" s="3">
-        <v>17100</v>
+        <v>16300</v>
       </c>
       <c r="G32" s="3">
-        <v>-34900</v>
+        <v>-33200</v>
       </c>
       <c r="H32" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="I32" s="3">
-        <v>-35000</v>
+        <v>-33400</v>
       </c>
       <c r="J32" s="3">
-        <v>-49700</v>
+        <v>-47400</v>
       </c>
       <c r="K32" s="3">
         <v>-84400</v>
@@ -1485,25 +1485,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>380000</v>
+        <v>362200</v>
       </c>
       <c r="E33" s="3">
-        <v>475900</v>
+        <v>453700</v>
       </c>
       <c r="F33" s="3">
-        <v>-1300900</v>
+        <v>-1240000</v>
       </c>
       <c r="G33" s="3">
-        <v>33500</v>
+        <v>32000</v>
       </c>
       <c r="H33" s="3">
-        <v>605200</v>
+        <v>576900</v>
       </c>
       <c r="I33" s="3">
-        <v>658900</v>
+        <v>628000</v>
       </c>
       <c r="J33" s="3">
-        <v>699800</v>
+        <v>667000</v>
       </c>
       <c r="K33" s="3">
         <v>309500</v>
@@ -1551,25 +1551,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>380000</v>
+        <v>362200</v>
       </c>
       <c r="E35" s="3">
-        <v>475900</v>
+        <v>453700</v>
       </c>
       <c r="F35" s="3">
-        <v>-1300900</v>
+        <v>-1240000</v>
       </c>
       <c r="G35" s="3">
-        <v>33500</v>
+        <v>32000</v>
       </c>
       <c r="H35" s="3">
-        <v>605200</v>
+        <v>576900</v>
       </c>
       <c r="I35" s="3">
-        <v>658900</v>
+        <v>628000</v>
       </c>
       <c r="J35" s="3">
-        <v>699800</v>
+        <v>667000</v>
       </c>
       <c r="K35" s="3">
         <v>309500</v>
@@ -1652,25 +1652,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>2526300</v>
+        <v>2408000</v>
       </c>
       <c r="E41" s="3">
-        <v>2308000</v>
+        <v>2199900</v>
       </c>
       <c r="F41" s="3">
-        <v>1543700</v>
+        <v>1471400</v>
       </c>
       <c r="G41" s="3">
-        <v>1298200</v>
+        <v>1237400</v>
       </c>
       <c r="H41" s="3">
-        <v>1619500</v>
+        <v>1543600</v>
       </c>
       <c r="I41" s="3">
-        <v>1332400</v>
+        <v>1270000</v>
       </c>
       <c r="J41" s="3">
-        <v>1384800</v>
+        <v>1320000</v>
       </c>
       <c r="K41" s="3">
         <v>2187600</v>
@@ -1685,25 +1685,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>838200</v>
+        <v>799000</v>
       </c>
       <c r="E42" s="3">
-        <v>2828700</v>
+        <v>2696300</v>
       </c>
       <c r="F42" s="3">
-        <v>3335300</v>
+        <v>3179100</v>
       </c>
       <c r="G42" s="3">
-        <v>2657900</v>
+        <v>2533400</v>
       </c>
       <c r="H42" s="3">
-        <v>2617300</v>
+        <v>2494700</v>
       </c>
       <c r="I42" s="3">
-        <v>2499100</v>
+        <v>2382100</v>
       </c>
       <c r="J42" s="3">
-        <v>2399400</v>
+        <v>2287100</v>
       </c>
       <c r="K42" s="3">
         <v>2103200</v>
@@ -1718,25 +1718,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>3774600</v>
+        <v>3597900</v>
       </c>
       <c r="E43" s="3">
-        <v>5812200</v>
+        <v>5540000</v>
       </c>
       <c r="F43" s="3">
-        <v>5667400</v>
+        <v>5402000</v>
       </c>
       <c r="G43" s="3">
-        <v>5442300</v>
+        <v>5187400</v>
       </c>
       <c r="H43" s="3">
-        <v>5422000</v>
+        <v>5168100</v>
       </c>
       <c r="I43" s="3">
-        <v>5319500</v>
+        <v>5070400</v>
       </c>
       <c r="J43" s="3">
-        <v>10469600</v>
+        <v>9979400</v>
       </c>
       <c r="K43" s="3">
         <v>8964400</v>
@@ -1751,25 +1751,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>1934000</v>
+        <v>1843400</v>
       </c>
       <c r="E44" s="3">
-        <v>1996500</v>
+        <v>1903000</v>
       </c>
       <c r="F44" s="3">
-        <v>1734500</v>
+        <v>1653200</v>
       </c>
       <c r="G44" s="3">
-        <v>1946500</v>
+        <v>1855400</v>
       </c>
       <c r="H44" s="3">
-        <v>1990200</v>
+        <v>1897000</v>
       </c>
       <c r="I44" s="3">
-        <v>2157300</v>
+        <v>2056200</v>
       </c>
       <c r="J44" s="3">
-        <v>1866000</v>
+        <v>1778600</v>
       </c>
       <c r="K44" s="3">
         <v>3563900</v>
@@ -1784,25 +1784,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>11166900</v>
+        <v>10644000</v>
       </c>
       <c r="E45" s="3">
-        <v>410300</v>
+        <v>391000</v>
       </c>
       <c r="F45" s="3">
-        <v>481000</v>
+        <v>458500</v>
       </c>
       <c r="G45" s="3">
-        <v>563900</v>
+        <v>537500</v>
       </c>
       <c r="H45" s="3">
-        <v>586500</v>
+        <v>559100</v>
       </c>
       <c r="I45" s="3">
-        <v>381200</v>
+        <v>363300</v>
       </c>
       <c r="J45" s="3">
-        <v>329800</v>
+        <v>314300</v>
       </c>
       <c r="K45" s="3">
         <v>3011200</v>
@@ -1817,25 +1817,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>20240100</v>
+        <v>19292300</v>
       </c>
       <c r="E46" s="3">
-        <v>13355600</v>
+        <v>12730200</v>
       </c>
       <c r="F46" s="3">
-        <v>12761900</v>
+        <v>12164300</v>
       </c>
       <c r="G46" s="3">
-        <v>11908800</v>
+        <v>11351200</v>
       </c>
       <c r="H46" s="3">
-        <v>12235400</v>
+        <v>11662500</v>
       </c>
       <c r="I46" s="3">
-        <v>11689400</v>
+        <v>11142100</v>
       </c>
       <c r="J46" s="3">
-        <v>11214900</v>
+        <v>10689700</v>
       </c>
       <c r="K46" s="3">
         <v>9593000</v>
@@ -1850,25 +1850,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>1618700</v>
+        <v>1542900</v>
       </c>
       <c r="E47" s="3">
-        <v>7142700</v>
+        <v>6808300</v>
       </c>
       <c r="F47" s="3">
-        <v>6922200</v>
+        <v>6598100</v>
       </c>
       <c r="G47" s="3">
-        <v>7089700</v>
+        <v>6757700</v>
       </c>
       <c r="H47" s="3">
-        <v>6613500</v>
+        <v>6303800</v>
       </c>
       <c r="I47" s="3">
-        <v>6347300</v>
+        <v>6050000</v>
       </c>
       <c r="J47" s="3">
-        <v>5888000</v>
+        <v>5612200</v>
       </c>
       <c r="K47" s="3">
         <v>5473000</v>
@@ -1883,25 +1883,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>2508200</v>
+        <v>2390700</v>
       </c>
       <c r="E48" s="3">
-        <v>2405300</v>
+        <v>2292600</v>
       </c>
       <c r="F48" s="3">
-        <v>2402500</v>
+        <v>2290000</v>
       </c>
       <c r="G48" s="3">
-        <v>2606800</v>
+        <v>2484700</v>
       </c>
       <c r="H48" s="3">
-        <v>2657700</v>
+        <v>2533200</v>
       </c>
       <c r="I48" s="3">
-        <v>2658300</v>
+        <v>2533800</v>
       </c>
       <c r="J48" s="3">
-        <v>3036900</v>
+        <v>2894700</v>
       </c>
       <c r="K48" s="3">
         <v>5065200</v>
@@ -1916,25 +1916,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>2228500</v>
+        <v>2124200</v>
       </c>
       <c r="E49" s="3">
-        <v>2112300</v>
+        <v>2013400</v>
       </c>
       <c r="F49" s="3">
-        <v>2086600</v>
+        <v>1988900</v>
       </c>
       <c r="G49" s="3">
-        <v>3730400</v>
+        <v>3555700</v>
       </c>
       <c r="H49" s="3">
-        <v>3977000</v>
+        <v>3790700</v>
       </c>
       <c r="I49" s="3">
-        <v>4187600</v>
+        <v>3991500</v>
       </c>
       <c r="J49" s="3">
-        <v>3837800</v>
+        <v>3658100</v>
       </c>
       <c r="K49" s="3">
         <v>4520200</v>
@@ -2015,25 +2015,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>962600</v>
+        <v>917500</v>
       </c>
       <c r="E52" s="3">
-        <v>1172600</v>
+        <v>1117700</v>
       </c>
       <c r="F52" s="3">
-        <v>1207000</v>
+        <v>1150500</v>
       </c>
       <c r="G52" s="3">
-        <v>1181000</v>
+        <v>1125700</v>
       </c>
       <c r="H52" s="3">
-        <v>1198300</v>
+        <v>1142200</v>
       </c>
       <c r="I52" s="3">
-        <v>1354700</v>
+        <v>1291300</v>
       </c>
       <c r="J52" s="3">
-        <v>1411400</v>
+        <v>1345400</v>
       </c>
       <c r="K52" s="3">
         <v>6546100</v>
@@ -2081,25 +2081,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>27558100</v>
+        <v>26267600</v>
       </c>
       <c r="E54" s="3">
-        <v>26188500</v>
+        <v>24962200</v>
       </c>
       <c r="F54" s="3">
-        <v>25380300</v>
+        <v>24191800</v>
       </c>
       <c r="G54" s="3">
-        <v>26516700</v>
+        <v>25275100</v>
       </c>
       <c r="H54" s="3">
-        <v>26681800</v>
+        <v>25432400</v>
       </c>
       <c r="I54" s="3">
-        <v>26237300</v>
+        <v>25008700</v>
       </c>
       <c r="J54" s="3">
-        <v>24953500</v>
+        <v>23785000</v>
       </c>
       <c r="K54" s="3">
         <v>21735700</v>
@@ -2144,25 +2144,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>1724400</v>
+        <v>1643600</v>
       </c>
       <c r="E57" s="3">
-        <v>2001100</v>
+        <v>1907400</v>
       </c>
       <c r="F57" s="3">
-        <v>1868300</v>
+        <v>1780800</v>
       </c>
       <c r="G57" s="3">
-        <v>1876100</v>
+        <v>1788300</v>
       </c>
       <c r="H57" s="3">
-        <v>1905400</v>
+        <v>1816200</v>
       </c>
       <c r="I57" s="3">
-        <v>1916200</v>
+        <v>1826500</v>
       </c>
       <c r="J57" s="3">
-        <v>2061800</v>
+        <v>1965300</v>
       </c>
       <c r="K57" s="3">
         <v>3862300</v>
@@ -2177,25 +2177,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>756500</v>
+        <v>721100</v>
       </c>
       <c r="E58" s="3">
-        <v>2565500</v>
+        <v>2445300</v>
       </c>
       <c r="F58" s="3">
-        <v>2144900</v>
+        <v>2044500</v>
       </c>
       <c r="G58" s="3">
-        <v>2209800</v>
+        <v>2106300</v>
       </c>
       <c r="H58" s="3">
-        <v>2505900</v>
+        <v>2388500</v>
       </c>
       <c r="I58" s="3">
-        <v>2134000</v>
+        <v>2034100</v>
       </c>
       <c r="J58" s="3">
-        <v>2611700</v>
+        <v>2489400</v>
       </c>
       <c r="K58" s="3">
         <v>4128200</v>
@@ -2210,25 +2210,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>12404000</v>
+        <v>11823200</v>
       </c>
       <c r="E59" s="3">
-        <v>3546200</v>
+        <v>3380100</v>
       </c>
       <c r="F59" s="3">
-        <v>3564500</v>
+        <v>3397600</v>
       </c>
       <c r="G59" s="3">
-        <v>3668700</v>
+        <v>3496900</v>
       </c>
       <c r="H59" s="3">
-        <v>3342700</v>
+        <v>3186200</v>
       </c>
       <c r="I59" s="3">
-        <v>3370000</v>
+        <v>3212200</v>
       </c>
       <c r="J59" s="3">
-        <v>3357500</v>
+        <v>3200300</v>
       </c>
       <c r="K59" s="3">
         <v>4746300</v>
@@ -2243,25 +2243,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>14884900</v>
+        <v>14187900</v>
       </c>
       <c r="E60" s="3">
-        <v>8112700</v>
+        <v>7732900</v>
       </c>
       <c r="F60" s="3">
-        <v>7577700</v>
+        <v>7222900</v>
       </c>
       <c r="G60" s="3">
-        <v>7754500</v>
+        <v>7391400</v>
       </c>
       <c r="H60" s="3">
-        <v>7754000</v>
+        <v>7390900</v>
       </c>
       <c r="I60" s="3">
-        <v>7420300</v>
+        <v>7072800</v>
       </c>
       <c r="J60" s="3">
-        <v>8031000</v>
+        <v>7654900</v>
       </c>
       <c r="K60" s="3">
         <v>6370500</v>
@@ -2276,25 +2276,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>1604000</v>
+        <v>1528900</v>
       </c>
       <c r="E61" s="3">
-        <v>6404700</v>
+        <v>6104800</v>
       </c>
       <c r="F61" s="3">
-        <v>6330200</v>
+        <v>6033800</v>
       </c>
       <c r="G61" s="3">
-        <v>6052400</v>
+        <v>5769000</v>
       </c>
       <c r="H61" s="3">
-        <v>5689600</v>
+        <v>5423100</v>
       </c>
       <c r="I61" s="3">
-        <v>5463400</v>
+        <v>5207600</v>
       </c>
       <c r="J61" s="3">
-        <v>4347500</v>
+        <v>4143900</v>
       </c>
       <c r="K61" s="3">
         <v>4314000</v>
@@ -2309,25 +2309,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1377200</v>
+        <v>1312700</v>
       </c>
       <c r="E62" s="3">
-        <v>1878600</v>
+        <v>1790600</v>
       </c>
       <c r="F62" s="3">
-        <v>1970500</v>
+        <v>1878200</v>
       </c>
       <c r="G62" s="3">
-        <v>1976700</v>
+        <v>1884100</v>
       </c>
       <c r="H62" s="3">
-        <v>2208200</v>
+        <v>2104800</v>
       </c>
       <c r="I62" s="3">
-        <v>2260700</v>
+        <v>2154800</v>
       </c>
       <c r="J62" s="3">
-        <v>2057800</v>
+        <v>1961500</v>
       </c>
       <c r="K62" s="3">
         <v>4245400</v>
@@ -2441,25 +2441,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>18713300</v>
+        <v>17837000</v>
       </c>
       <c r="E66" s="3">
-        <v>17226500</v>
+        <v>16419800</v>
       </c>
       <c r="F66" s="3">
-        <v>16639400</v>
+        <v>15860200</v>
       </c>
       <c r="G66" s="3">
-        <v>16502100</v>
+        <v>15729400</v>
       </c>
       <c r="H66" s="3">
-        <v>16324000</v>
+        <v>15559600</v>
       </c>
       <c r="I66" s="3">
-        <v>15818400</v>
+        <v>15077700</v>
       </c>
       <c r="J66" s="3">
-        <v>15060800</v>
+        <v>14355600</v>
       </c>
       <c r="K66" s="3">
         <v>13430100</v>
@@ -2621,25 +2621,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>5715400</v>
+        <v>5447700</v>
       </c>
       <c r="E72" s="3">
-        <v>5524600</v>
+        <v>5265900</v>
       </c>
       <c r="F72" s="3">
-        <v>4902200</v>
+        <v>4672600</v>
       </c>
       <c r="G72" s="3">
-        <v>6318000</v>
+        <v>6022200</v>
       </c>
       <c r="H72" s="3">
-        <v>6519700</v>
+        <v>6214400</v>
       </c>
       <c r="I72" s="3">
-        <v>6212600</v>
+        <v>5921600</v>
       </c>
       <c r="J72" s="3">
-        <v>6009500</v>
+        <v>5728100</v>
       </c>
       <c r="K72" s="3">
         <v>12094900</v>
@@ -2753,25 +2753,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>8844800</v>
+        <v>8430600</v>
       </c>
       <c r="E76" s="3">
-        <v>8962100</v>
+        <v>8542400</v>
       </c>
       <c r="F76" s="3">
-        <v>8740900</v>
+        <v>8331600</v>
       </c>
       <c r="G76" s="3">
-        <v>10014600</v>
+        <v>9545700</v>
       </c>
       <c r="H76" s="3">
-        <v>10357800</v>
+        <v>9872800</v>
       </c>
       <c r="I76" s="3">
-        <v>10418800</v>
+        <v>9931000</v>
       </c>
       <c r="J76" s="3">
-        <v>9892700</v>
+        <v>9429400</v>
       </c>
       <c r="K76" s="3">
         <v>8305600</v>
@@ -2857,25 +2857,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>380000</v>
+        <v>362200</v>
       </c>
       <c r="E81" s="3">
-        <v>475900</v>
+        <v>453700</v>
       </c>
       <c r="F81" s="3">
-        <v>-1300900</v>
+        <v>-1240000</v>
       </c>
       <c r="G81" s="3">
-        <v>33500</v>
+        <v>32000</v>
       </c>
       <c r="H81" s="3">
-        <v>605200</v>
+        <v>576900</v>
       </c>
       <c r="I81" s="3">
-        <v>658900</v>
+        <v>628000</v>
       </c>
       <c r="J81" s="3">
-        <v>699800</v>
+        <v>667000</v>
       </c>
       <c r="K81" s="3">
         <v>309500</v>
@@ -2905,25 +2905,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>1159800</v>
+        <v>1105500</v>
       </c>
       <c r="E83" s="3">
-        <v>906100</v>
+        <v>863700</v>
       </c>
       <c r="F83" s="3">
-        <v>1041000</v>
+        <v>992300</v>
       </c>
       <c r="G83" s="3">
-        <v>1027200</v>
+        <v>979100</v>
       </c>
       <c r="H83" s="3">
-        <v>1031800</v>
+        <v>983500</v>
       </c>
       <c r="I83" s="3">
-        <v>1036300</v>
+        <v>987800</v>
       </c>
       <c r="J83" s="3">
-        <v>1020900</v>
+        <v>973100</v>
       </c>
       <c r="K83" s="3">
         <v>871900</v>
@@ -3103,25 +3103,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>1121500</v>
+        <v>1069000</v>
       </c>
       <c r="E89" s="3">
-        <v>787500</v>
+        <v>750600</v>
       </c>
       <c r="F89" s="3">
-        <v>1059900</v>
+        <v>1010200</v>
       </c>
       <c r="G89" s="3">
-        <v>848600</v>
+        <v>808800</v>
       </c>
       <c r="H89" s="3">
-        <v>959600</v>
+        <v>914700</v>
       </c>
       <c r="I89" s="3">
-        <v>985400</v>
+        <v>939300</v>
       </c>
       <c r="J89" s="3">
-        <v>1411700</v>
+        <v>1345500</v>
       </c>
       <c r="K89" s="3">
         <v>1248200</v>
@@ -3151,25 +3151,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-832200</v>
+        <v>-793200</v>
       </c>
       <c r="E91" s="3">
-        <v>-696400</v>
+        <v>-663800</v>
       </c>
       <c r="F91" s="3">
-        <v>-694700</v>
+        <v>-662100</v>
       </c>
       <c r="G91" s="3">
-        <v>-725000</v>
+        <v>-691100</v>
       </c>
       <c r="H91" s="3">
-        <v>-805100</v>
+        <v>-767400</v>
       </c>
       <c r="I91" s="3">
-        <v>-730100</v>
+        <v>-695900</v>
       </c>
       <c r="J91" s="3">
-        <v>-701500</v>
+        <v>-668600</v>
       </c>
       <c r="K91" s="3">
         <v>-1507600</v>
@@ -3250,25 +3250,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-1581700</v>
+        <v>-1507700</v>
       </c>
       <c r="E94" s="3">
-        <v>-441400</v>
+        <v>-420700</v>
       </c>
       <c r="F94" s="3">
-        <v>-779100</v>
+        <v>-742700</v>
       </c>
       <c r="G94" s="3">
-        <v>-1025500</v>
+        <v>-977500</v>
       </c>
       <c r="H94" s="3">
-        <v>-1000800</v>
+        <v>-953900</v>
       </c>
       <c r="I94" s="3">
-        <v>-1378600</v>
+        <v>-1314100</v>
       </c>
       <c r="J94" s="3">
-        <v>-1181400</v>
+        <v>-1126100</v>
       </c>
       <c r="K94" s="3">
         <v>-1106600</v>
@@ -3298,25 +3298,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-181100</v>
+        <v>-172600</v>
       </c>
       <c r="E96" s="3">
-        <v>-121900</v>
+        <v>-116200</v>
       </c>
       <c r="F96" s="3">
-        <v>-139300</v>
+        <v>-132800</v>
       </c>
       <c r="G96" s="3">
-        <v>-278700</v>
+        <v>-265600</v>
       </c>
       <c r="H96" s="3">
-        <v>-240300</v>
+        <v>-229100</v>
       </c>
       <c r="I96" s="3">
-        <v>-233400</v>
+        <v>-222500</v>
       </c>
       <c r="J96" s="3">
-        <v>-229900</v>
+        <v>-219200</v>
       </c>
       <c r="K96" s="3">
         <v>-138400</v>
@@ -3430,25 +3430,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>728000</v>
+        <v>693900</v>
       </c>
       <c r="E100" s="3">
-        <v>407700</v>
+        <v>388600</v>
       </c>
       <c r="F100" s="3">
-        <v>61600</v>
+        <v>58700</v>
       </c>
       <c r="G100" s="3">
-        <v>-191400</v>
+        <v>-182500</v>
       </c>
       <c r="H100" s="3">
-        <v>410000</v>
+        <v>390800</v>
       </c>
       <c r="I100" s="3">
-        <v>287700</v>
+        <v>274200</v>
       </c>
       <c r="J100" s="3">
-        <v>-88800</v>
+        <v>-84600</v>
       </c>
       <c r="K100" s="3">
         <v>-562100</v>
@@ -3463,25 +3463,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-41100</v>
+        <v>-39200</v>
       </c>
       <c r="E101" s="3">
-        <v>10500</v>
+        <v>10000</v>
       </c>
       <c r="F101" s="3">
-        <v>-14200</v>
+        <v>-13500</v>
       </c>
       <c r="G101" s="3">
-        <v>-26700</v>
+        <v>-25500</v>
       </c>
       <c r="H101" s="3">
-        <v>-82300</v>
+        <v>-78400</v>
       </c>
       <c r="I101" s="3">
-        <v>83100</v>
+        <v>79300</v>
       </c>
       <c r="J101" s="3">
-        <v>79500</v>
+        <v>75800</v>
       </c>
       <c r="K101" s="3">
         <v>64600</v>
@@ -3496,25 +3496,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>226700</v>
+        <v>216100</v>
       </c>
       <c r="E102" s="3">
-        <v>764300</v>
+        <v>728500</v>
       </c>
       <c r="F102" s="3">
-        <v>328100</v>
+        <v>312700</v>
       </c>
       <c r="G102" s="3">
-        <v>-395100</v>
+        <v>-376600</v>
       </c>
       <c r="H102" s="3">
-        <v>286600</v>
+        <v>273200</v>
       </c>
       <c r="I102" s="3">
-        <v>-22300</v>
+        <v>-21300</v>
       </c>
       <c r="J102" s="3">
-        <v>221000</v>
+        <v>210600</v>
       </c>
       <c r="K102" s="3">
         <v>-356000</v>

--- a/AAII_Financials/Yearly/RICOY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/RICOY_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="92">
   <si>
     <t>RICOY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:M102"/>
+  <dimension ref="A5:N102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,153 +665,165 @@
     <col min="1" max="1" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E7" s="2">
         <v>43921</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43555</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43190</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>42825</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42460</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42094</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>41729</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>41364</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>40999</v>
       </c>
-      <c r="M7" s="2"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N7" s="2"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>18398600</v>
+        <v>15458200</v>
       </c>
       <c r="E8" s="3">
-        <v>18441200</v>
+        <v>18458900</v>
       </c>
       <c r="F8" s="3">
-        <v>18900400</v>
+        <v>18501600</v>
       </c>
       <c r="G8" s="3">
-        <v>18584700</v>
+        <v>18962300</v>
       </c>
       <c r="H8" s="3">
-        <v>20234700</v>
+        <v>18645600</v>
       </c>
       <c r="I8" s="3">
-        <v>19706900</v>
+        <v>20301000</v>
       </c>
       <c r="J8" s="3">
+        <v>19771400</v>
+      </c>
+      <c r="K8" s="3">
         <v>20112600</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>17143700</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>17207400</v>
       </c>
-      <c r="M8" s="3"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N8" s="3"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>11786800</v>
+        <v>10198700</v>
       </c>
       <c r="E9" s="3">
-        <v>11416500</v>
+        <v>11825400</v>
       </c>
       <c r="F9" s="3">
-        <v>11654800</v>
+        <v>11453900</v>
       </c>
       <c r="G9" s="3">
-        <v>11360900</v>
+        <v>11693000</v>
       </c>
       <c r="H9" s="3">
-        <v>12155900</v>
+        <v>11398100</v>
       </c>
       <c r="I9" s="3">
-        <v>11399500</v>
+        <v>12195700</v>
       </c>
       <c r="J9" s="3">
+        <v>11436800</v>
+      </c>
+      <c r="K9" s="3">
         <v>12113800</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>20836800</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>10403700</v>
       </c>
-      <c r="M9" s="3"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N9" s="3"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>6611800</v>
+        <v>5259500</v>
       </c>
       <c r="E10" s="3">
-        <v>7024600</v>
+        <v>6633400</v>
       </c>
       <c r="F10" s="3">
-        <v>7245600</v>
+        <v>7047700</v>
       </c>
       <c r="G10" s="3">
-        <v>7223800</v>
+        <v>7269300</v>
       </c>
       <c r="H10" s="3">
-        <v>8078800</v>
+        <v>7247500</v>
       </c>
       <c r="I10" s="3">
-        <v>8307400</v>
+        <v>8105200</v>
       </c>
       <c r="J10" s="3">
+        <v>8334600</v>
+      </c>
+      <c r="K10" s="3">
         <v>7998700</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>-3693100</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>6803700</v>
       </c>
-      <c r="M10" s="3"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N10" s="3"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -825,41 +837,45 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D12" s="3">
-        <v>808100</v>
+      <c r="D12" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="E12" s="3">
-        <v>861300</v>
+        <v>810800</v>
       </c>
       <c r="F12" s="3">
-        <v>860900</v>
+        <v>864100</v>
       </c>
       <c r="G12" s="3">
-        <v>919500</v>
+        <v>863800</v>
       </c>
       <c r="H12" s="3">
-        <v>934700</v>
+        <v>922500</v>
       </c>
       <c r="I12" s="3">
-        <v>900300</v>
+        <v>937800</v>
       </c>
       <c r="J12" s="3">
+        <v>903200</v>
+      </c>
+      <c r="K12" s="3">
         <v>864400</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>1831000</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>1076000</v>
       </c>
-      <c r="M12" s="3"/>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N12" s="3"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -890,75 +906,84 @@
       <c r="L13" s="3">
         <v>0</v>
       </c>
-      <c r="M13" s="3"/>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+      <c r="N13" s="3"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>103100</v>
+        <v>34800</v>
       </c>
       <c r="E14" s="3">
-        <v>196200</v>
+        <v>103500</v>
       </c>
       <c r="F14" s="3">
-        <v>1847700</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>10</v>
+        <v>196900</v>
+      </c>
+      <c r="G14" s="3">
+        <v>1853800</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="I14" s="3">
+      <c r="I14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J14" s="3">
         <v>9300</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>103700</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
-      </c>
       <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3">
         <v>293800</v>
       </c>
-      <c r="M14" s="3"/>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N14" s="3"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="3">
-        <v>488500</v>
+      <c r="D15" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="E15" s="3">
-        <v>227800</v>
+        <v>490100</v>
       </c>
       <c r="F15" s="3">
-        <v>367300</v>
+        <v>228500</v>
       </c>
       <c r="G15" s="3">
-        <v>369000</v>
+        <v>368500</v>
       </c>
       <c r="H15" s="3">
-        <v>340200</v>
+        <v>370200</v>
       </c>
       <c r="I15" s="3">
-        <v>341700</v>
+        <v>341300</v>
       </c>
       <c r="J15" s="3">
+        <v>342800</v>
+      </c>
+      <c r="K15" s="3">
         <v>339900</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>321800</v>
       </c>
-      <c r="L15" s="3" t="s">
+      <c r="M15" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="M15" s="3"/>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N15" s="3"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -969,74 +994,81 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>17674600</v>
+        <v>15875700</v>
       </c>
       <c r="E17" s="3">
-        <v>17645700</v>
+        <v>17732500</v>
       </c>
       <c r="F17" s="3">
-        <v>19960000</v>
+        <v>17703500</v>
       </c>
       <c r="G17" s="3">
-        <v>18274400</v>
+        <v>20025400</v>
       </c>
       <c r="H17" s="3">
-        <v>19297700</v>
+        <v>18334200</v>
       </c>
       <c r="I17" s="3">
-        <v>18646500</v>
+        <v>19360900</v>
       </c>
       <c r="J17" s="3">
+        <v>18707500</v>
+      </c>
+      <c r="K17" s="3">
         <v>19010200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>16475100</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>17416100</v>
       </c>
-      <c r="M17" s="3"/>
-    </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N17" s="3"/>
+    </row>
+    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>724000</v>
+        <v>-417500</v>
       </c>
       <c r="E18" s="3">
-        <v>795400</v>
+        <v>726400</v>
       </c>
       <c r="F18" s="3">
-        <v>-1059600</v>
+        <v>798100</v>
       </c>
       <c r="G18" s="3">
-        <v>310300</v>
+        <v>-1063100</v>
       </c>
       <c r="H18" s="3">
-        <v>937000</v>
+        <v>311400</v>
       </c>
       <c r="I18" s="3">
-        <v>1060400</v>
+        <v>940100</v>
       </c>
       <c r="J18" s="3">
+        <v>1063900</v>
+      </c>
+      <c r="K18" s="3">
         <v>1102400</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>668600</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-208600</v>
       </c>
-      <c r="M18" s="3"/>
-    </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N18" s="3"/>
+    </row>
+    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1050,173 +1082,189 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
-    </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>24000</v>
+        <v>40400</v>
       </c>
       <c r="E20" s="3">
-        <v>28300</v>
+        <v>24100</v>
       </c>
       <c r="F20" s="3">
-        <v>-16300</v>
+        <v>28400</v>
       </c>
       <c r="G20" s="3">
-        <v>33200</v>
+        <v>-16400</v>
       </c>
       <c r="H20" s="3">
+        <v>33300</v>
+      </c>
+      <c r="I20" s="3">
         <v>-600</v>
       </c>
-      <c r="I20" s="3">
-        <v>33400</v>
-      </c>
       <c r="J20" s="3">
+        <v>33500</v>
+      </c>
+      <c r="K20" s="3">
         <v>47400</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>84400</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-17000</v>
       </c>
-      <c r="M20" s="3"/>
-    </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N20" s="3"/>
+    </row>
+    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>1858300</v>
+        <v>585400</v>
       </c>
       <c r="E21" s="3">
-        <v>1691200</v>
+        <v>1860800</v>
       </c>
       <c r="F21" s="3">
-        <v>-79300</v>
+        <v>1693900</v>
       </c>
       <c r="G21" s="3">
-        <v>1327000</v>
+        <v>-82800</v>
       </c>
       <c r="H21" s="3">
-        <v>1924200</v>
+        <v>1328100</v>
       </c>
       <c r="I21" s="3">
-        <v>2085900</v>
+        <v>1927200</v>
       </c>
       <c r="J21" s="3">
+        <v>2089500</v>
+      </c>
+      <c r="K21" s="3">
         <v>2127000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>1626800</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>599200</v>
       </c>
-      <c r="M21" s="3"/>
-    </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N21" s="3"/>
+    </row>
+    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3">
-        <v>52900</v>
+      <c r="D22" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="E22" s="3">
-        <v>54600</v>
+        <v>53000</v>
       </c>
       <c r="F22" s="3">
-        <v>61600</v>
+        <v>54800</v>
       </c>
       <c r="G22" s="3">
-        <v>69200</v>
+        <v>61800</v>
       </c>
       <c r="H22" s="3">
-        <v>59900</v>
+        <v>69400</v>
       </c>
       <c r="I22" s="3">
-        <v>65100</v>
+        <v>60100</v>
       </c>
       <c r="J22" s="3">
+        <v>65400</v>
+      </c>
+      <c r="K22" s="3">
         <v>68300</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>134100</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>63100</v>
       </c>
-      <c r="M22" s="3"/>
-    </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N22" s="3"/>
+    </row>
+    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>695200</v>
+        <v>-377000</v>
       </c>
       <c r="E23" s="3">
-        <v>769100</v>
+        <v>697400</v>
       </c>
       <c r="F23" s="3">
-        <v>-1137500</v>
+        <v>771600</v>
       </c>
       <c r="G23" s="3">
-        <v>274400</v>
+        <v>-1141200</v>
       </c>
       <c r="H23" s="3">
-        <v>876500</v>
+        <v>275300</v>
       </c>
       <c r="I23" s="3">
-        <v>1028600</v>
+        <v>879300</v>
       </c>
       <c r="J23" s="3">
+        <v>1032000</v>
+      </c>
+      <c r="K23" s="3">
         <v>1081500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>618900</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-288700</v>
       </c>
-      <c r="M23" s="3"/>
-    </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N23" s="3"/>
+    </row>
+    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>288300</v>
+        <v>-76900</v>
       </c>
       <c r="E24" s="3">
-        <v>261900</v>
+        <v>289300</v>
       </c>
       <c r="F24" s="3">
-        <v>38000</v>
+        <v>262700</v>
       </c>
       <c r="G24" s="3">
-        <v>187900</v>
+        <v>38100</v>
       </c>
       <c r="H24" s="3">
-        <v>259900</v>
+        <v>188600</v>
       </c>
       <c r="I24" s="3">
-        <v>353600</v>
+        <v>260800</v>
       </c>
       <c r="J24" s="3">
+        <v>354700</v>
+      </c>
+      <c r="K24" s="3">
         <v>362800</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>220600</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>74300</v>
       </c>
-      <c r="M24" s="3"/>
-    </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N24" s="3"/>
+    </row>
+    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1247,75 +1295,84 @@
       <c r="L25" s="3">
         <v>0</v>
       </c>
-      <c r="M25" s="3"/>
-    </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+      <c r="N25" s="3"/>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>406800</v>
+        <v>-300200</v>
       </c>
       <c r="E26" s="3">
-        <v>507300</v>
+        <v>408200</v>
       </c>
       <c r="F26" s="3">
-        <v>-1175500</v>
+        <v>508900</v>
       </c>
       <c r="G26" s="3">
-        <v>86400</v>
+        <v>-1179300</v>
       </c>
       <c r="H26" s="3">
-        <v>616500</v>
+        <v>86700</v>
       </c>
       <c r="I26" s="3">
-        <v>675100</v>
+        <v>618500</v>
       </c>
       <c r="J26" s="3">
+        <v>677300</v>
+      </c>
+      <c r="K26" s="3">
         <v>718600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>398300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-363000</v>
       </c>
-      <c r="M26" s="3"/>
-    </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N26" s="3"/>
+    </row>
+    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>362200</v>
+        <v>-300800</v>
       </c>
       <c r="E27" s="3">
-        <v>453700</v>
+        <v>363400</v>
       </c>
       <c r="F27" s="3">
-        <v>-1228000</v>
+        <v>455100</v>
       </c>
       <c r="G27" s="3">
-        <v>32000</v>
+        <v>-1232000</v>
       </c>
       <c r="H27" s="3">
-        <v>576900</v>
+        <v>32100</v>
       </c>
       <c r="I27" s="3">
-        <v>628000</v>
+        <v>578700</v>
       </c>
       <c r="J27" s="3">
+        <v>630100</v>
+      </c>
+      <c r="K27" s="3">
         <v>667000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>309500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-402800</v>
       </c>
-      <c r="M27" s="3"/>
-    </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N27" s="3"/>
+    </row>
+    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1346,9 +1403,12 @@
       <c r="L28" s="3">
         <v>0</v>
       </c>
-      <c r="M28" s="3"/>
-    </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+      <c r="N28" s="3"/>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1358,11 +1418,11 @@
       <c r="E29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F29" s="3">
-        <v>-12000</v>
-      </c>
-      <c r="G29" s="3" t="s">
+      <c r="F29" s="3" t="s">
         <v>10</v>
+      </c>
+      <c r="G29" s="3">
+        <v>-12100</v>
       </c>
       <c r="H29" s="3" t="s">
         <v>10</v>
@@ -1379,9 +1439,12 @@
       <c r="L29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="M29" s="3"/>
-    </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M29" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="N29" s="3"/>
+    </row>
+    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1412,9 +1475,12 @@
       <c r="L30" s="3">
         <v>0</v>
       </c>
-      <c r="M30" s="3"/>
-    </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+      <c r="N30" s="3"/>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1445,75 +1511,84 @@
       <c r="L31" s="3">
         <v>0</v>
       </c>
-      <c r="M31" s="3"/>
-    </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+      <c r="N31" s="3"/>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-24000</v>
+        <v>-40400</v>
       </c>
       <c r="E32" s="3">
-        <v>-28300</v>
+        <v>-24100</v>
       </c>
       <c r="F32" s="3">
-        <v>16300</v>
+        <v>-28400</v>
       </c>
       <c r="G32" s="3">
-        <v>-33200</v>
+        <v>16400</v>
       </c>
       <c r="H32" s="3">
+        <v>-33300</v>
+      </c>
+      <c r="I32" s="3">
         <v>600</v>
       </c>
-      <c r="I32" s="3">
-        <v>-33400</v>
-      </c>
       <c r="J32" s="3">
+        <v>-33500</v>
+      </c>
+      <c r="K32" s="3">
         <v>-47400</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-84400</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>17000</v>
       </c>
-      <c r="M32" s="3"/>
-    </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N32" s="3"/>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>362200</v>
+        <v>-300800</v>
       </c>
       <c r="E33" s="3">
-        <v>453700</v>
+        <v>363400</v>
       </c>
       <c r="F33" s="3">
-        <v>-1240000</v>
+        <v>455100</v>
       </c>
       <c r="G33" s="3">
-        <v>32000</v>
+        <v>-1244100</v>
       </c>
       <c r="H33" s="3">
-        <v>576900</v>
+        <v>32100</v>
       </c>
       <c r="I33" s="3">
-        <v>628000</v>
+        <v>578700</v>
       </c>
       <c r="J33" s="3">
+        <v>630100</v>
+      </c>
+      <c r="K33" s="3">
         <v>667000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>309500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-402800</v>
       </c>
-      <c r="M33" s="3"/>
-    </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N33" s="3"/>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1544,80 +1619,89 @@
       <c r="L34" s="3">
         <v>0</v>
       </c>
-      <c r="M34" s="3"/>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+      <c r="N34" s="3"/>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>362200</v>
+        <v>-300800</v>
       </c>
       <c r="E35" s="3">
-        <v>453700</v>
+        <v>363400</v>
       </c>
       <c r="F35" s="3">
-        <v>-1240000</v>
+        <v>455100</v>
       </c>
       <c r="G35" s="3">
-        <v>32000</v>
+        <v>-1244100</v>
       </c>
       <c r="H35" s="3">
-        <v>576900</v>
+        <v>32100</v>
       </c>
       <c r="I35" s="3">
-        <v>628000</v>
+        <v>578700</v>
       </c>
       <c r="J35" s="3">
+        <v>630100</v>
+      </c>
+      <c r="K35" s="3">
         <v>667000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>309500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-402800</v>
       </c>
-      <c r="M35" s="3"/>
-    </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N35" s="3"/>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E38" s="2">
         <v>43921</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43555</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43190</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>42825</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42460</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42094</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>41729</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>41364</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>40999</v>
       </c>
-      <c r="M38" s="2"/>
-    </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N38" s="2"/>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1631,8 +1715,9 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N39" s="3"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1646,305 +1731,333 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N40" s="3"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>2408000</v>
+        <v>3079100</v>
       </c>
       <c r="E41" s="3">
-        <v>2199900</v>
+        <v>2415900</v>
       </c>
       <c r="F41" s="3">
-        <v>1471400</v>
+        <v>2207200</v>
       </c>
       <c r="G41" s="3">
-        <v>1237400</v>
+        <v>1476200</v>
       </c>
       <c r="H41" s="3">
-        <v>1543600</v>
+        <v>1241500</v>
       </c>
       <c r="I41" s="3">
-        <v>1270000</v>
+        <v>1548700</v>
       </c>
       <c r="J41" s="3">
+        <v>1274200</v>
+      </c>
+      <c r="K41" s="3">
         <v>1320000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>2187600</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1412100</v>
       </c>
-      <c r="M41" s="3"/>
-    </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N41" s="3"/>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>799000</v>
+        <v>853000</v>
       </c>
       <c r="E42" s="3">
-        <v>2696300</v>
+        <v>801600</v>
       </c>
       <c r="F42" s="3">
-        <v>3179100</v>
+        <v>2705100</v>
       </c>
       <c r="G42" s="3">
-        <v>2533400</v>
+        <v>3189500</v>
       </c>
       <c r="H42" s="3">
-        <v>2494700</v>
+        <v>2541700</v>
       </c>
       <c r="I42" s="3">
-        <v>2382100</v>
+        <v>2502900</v>
       </c>
       <c r="J42" s="3">
+        <v>2389900</v>
+      </c>
+      <c r="K42" s="3">
         <v>2287100</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>2103200</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>22200</v>
       </c>
-      <c r="M42" s="3"/>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N42" s="3"/>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>3597900</v>
+        <v>3603700</v>
       </c>
       <c r="E43" s="3">
-        <v>5540000</v>
+        <v>3609600</v>
       </c>
       <c r="F43" s="3">
-        <v>5402000</v>
+        <v>5558100</v>
       </c>
       <c r="G43" s="3">
-        <v>5187400</v>
+        <v>5419700</v>
       </c>
       <c r="H43" s="3">
-        <v>5168100</v>
+        <v>5204400</v>
       </c>
       <c r="I43" s="3">
-        <v>5070400</v>
+        <v>5185000</v>
       </c>
       <c r="J43" s="3">
+        <v>5087000</v>
+      </c>
+      <c r="K43" s="3">
         <v>9979400</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>8964400</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>6209800</v>
       </c>
-      <c r="M43" s="3"/>
-    </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N43" s="3"/>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>1843400</v>
+        <v>1764600</v>
       </c>
       <c r="E44" s="3">
-        <v>1903000</v>
+        <v>1849500</v>
       </c>
       <c r="F44" s="3">
-        <v>1653200</v>
+        <v>1909200</v>
       </c>
       <c r="G44" s="3">
-        <v>1855400</v>
+        <v>1658600</v>
       </c>
       <c r="H44" s="3">
-        <v>1897000</v>
+        <v>1861400</v>
       </c>
       <c r="I44" s="3">
-        <v>2056200</v>
+        <v>1903200</v>
       </c>
       <c r="J44" s="3">
+        <v>2063000</v>
+      </c>
+      <c r="K44" s="3">
         <v>1778600</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>3563900</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>1762900</v>
       </c>
-      <c r="M44" s="3"/>
-    </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N44" s="3"/>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>10644000</v>
+        <v>429400</v>
       </c>
       <c r="E45" s="3">
-        <v>391000</v>
+        <v>10678900</v>
       </c>
       <c r="F45" s="3">
-        <v>458500</v>
+        <v>392300</v>
       </c>
       <c r="G45" s="3">
-        <v>537500</v>
+        <v>460000</v>
       </c>
       <c r="H45" s="3">
-        <v>559100</v>
+        <v>539300</v>
       </c>
       <c r="I45" s="3">
-        <v>363300</v>
+        <v>560900</v>
       </c>
       <c r="J45" s="3">
+        <v>364500</v>
+      </c>
+      <c r="K45" s="3">
         <v>314300</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>3011200</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>595700</v>
       </c>
-      <c r="M45" s="3"/>
-    </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N45" s="3"/>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>19292300</v>
+        <v>9729900</v>
       </c>
       <c r="E46" s="3">
-        <v>12730200</v>
+        <v>19355500</v>
       </c>
       <c r="F46" s="3">
-        <v>12164300</v>
+        <v>12771900</v>
       </c>
       <c r="G46" s="3">
-        <v>11351200</v>
+        <v>12204100</v>
       </c>
       <c r="H46" s="3">
-        <v>11662500</v>
+        <v>11388400</v>
       </c>
       <c r="I46" s="3">
-        <v>11142100</v>
+        <v>11700700</v>
       </c>
       <c r="J46" s="3">
+        <v>11178600</v>
+      </c>
+      <c r="K46" s="3">
         <v>10689700</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>9593000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>10002800</v>
       </c>
-      <c r="M46" s="3"/>
-    </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N46" s="3"/>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>1542900</v>
+        <v>2151400</v>
       </c>
       <c r="E47" s="3">
-        <v>6808300</v>
+        <v>1547900</v>
       </c>
       <c r="F47" s="3">
-        <v>6598100</v>
+        <v>6830600</v>
       </c>
       <c r="G47" s="3">
-        <v>6757700</v>
+        <v>6619700</v>
       </c>
       <c r="H47" s="3">
-        <v>6303800</v>
+        <v>6779800</v>
       </c>
       <c r="I47" s="3">
-        <v>6050000</v>
+        <v>6324500</v>
       </c>
       <c r="J47" s="3">
+        <v>6069800</v>
+      </c>
+      <c r="K47" s="3">
         <v>5612200</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>5473000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>4645800</v>
       </c>
-      <c r="M47" s="3"/>
-    </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N47" s="3"/>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>2390700</v>
+        <v>2349100</v>
       </c>
       <c r="E48" s="3">
-        <v>2292600</v>
+        <v>2398500</v>
       </c>
       <c r="F48" s="3">
-        <v>2290000</v>
+        <v>2300100</v>
       </c>
       <c r="G48" s="3">
-        <v>2484700</v>
+        <v>2297500</v>
       </c>
       <c r="H48" s="3">
-        <v>2533200</v>
+        <v>2492900</v>
       </c>
       <c r="I48" s="3">
-        <v>2533800</v>
+        <v>2541500</v>
       </c>
       <c r="J48" s="3">
+        <v>2542100</v>
+      </c>
+      <c r="K48" s="3">
         <v>2894700</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>5065200</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>2427500</v>
       </c>
-      <c r="M48" s="3"/>
-    </row>
-    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N48" s="3"/>
+    </row>
+    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>2124200</v>
+        <v>2072400</v>
       </c>
       <c r="E49" s="3">
-        <v>2013400</v>
+        <v>2131100</v>
       </c>
       <c r="F49" s="3">
-        <v>1988900</v>
+        <v>2020000</v>
       </c>
       <c r="G49" s="3">
-        <v>3555700</v>
+        <v>1995400</v>
       </c>
       <c r="H49" s="3">
-        <v>3790700</v>
+        <v>3567300</v>
       </c>
       <c r="I49" s="3">
-        <v>3991500</v>
+        <v>3803200</v>
       </c>
       <c r="J49" s="3">
+        <v>4004600</v>
+      </c>
+      <c r="K49" s="3">
         <v>3658100</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>4520200</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>2785800</v>
       </c>
-      <c r="M49" s="3"/>
-    </row>
-    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N49" s="3"/>
+    </row>
+    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1975,9 +2088,12 @@
       <c r="L50" s="3">
         <v>0</v>
       </c>
-      <c r="M50" s="3"/>
-    </row>
-    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+      <c r="N50" s="3"/>
+    </row>
+    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2008,42 +2124,48 @@
       <c r="L51" s="3">
         <v>0</v>
       </c>
-      <c r="M51" s="3"/>
-    </row>
-    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+      <c r="N51" s="3"/>
+    </row>
+    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>917500</v>
+        <v>1046700</v>
       </c>
       <c r="E52" s="3">
-        <v>1117700</v>
+        <v>920500</v>
       </c>
       <c r="F52" s="3">
-        <v>1150500</v>
+        <v>1121300</v>
       </c>
       <c r="G52" s="3">
-        <v>1125700</v>
+        <v>1154300</v>
       </c>
       <c r="H52" s="3">
-        <v>1142200</v>
+        <v>1129400</v>
       </c>
       <c r="I52" s="3">
-        <v>1291300</v>
+        <v>1145900</v>
       </c>
       <c r="J52" s="3">
+        <v>1295500</v>
+      </c>
+      <c r="K52" s="3">
         <v>1345400</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>6546100</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>833900</v>
       </c>
-      <c r="M52" s="3"/>
-    </row>
-    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N52" s="3"/>
+    </row>
+    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2074,42 +2196,48 @@
       <c r="L53" s="3">
         <v>0</v>
       </c>
-      <c r="M53" s="3"/>
-    </row>
-    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+      <c r="N53" s="3"/>
+    </row>
+    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>26267600</v>
+        <v>17349500</v>
       </c>
       <c r="E54" s="3">
-        <v>24962200</v>
+        <v>26353700</v>
       </c>
       <c r="F54" s="3">
-        <v>24191800</v>
+        <v>25044000</v>
       </c>
       <c r="G54" s="3">
-        <v>25275100</v>
+        <v>24271100</v>
       </c>
       <c r="H54" s="3">
-        <v>25432400</v>
+        <v>25357800</v>
       </c>
       <c r="I54" s="3">
-        <v>25008700</v>
+        <v>25515700</v>
       </c>
       <c r="J54" s="3">
+        <v>25090600</v>
+      </c>
+      <c r="K54" s="3">
         <v>23785000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>21735700</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>20695800</v>
       </c>
-      <c r="M54" s="3"/>
-    </row>
-    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N54" s="3"/>
+    </row>
+    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2123,8 +2251,9 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
-    </row>
-    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N55" s="3"/>
+    </row>
+    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2138,206 +2267,225 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
-    </row>
-    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N56" s="3"/>
+    </row>
+    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>1643600</v>
+        <v>2639000</v>
       </c>
       <c r="E57" s="3">
-        <v>1907400</v>
+        <v>1649000</v>
       </c>
       <c r="F57" s="3">
-        <v>1780800</v>
+        <v>1913700</v>
       </c>
       <c r="G57" s="3">
-        <v>1788300</v>
+        <v>1786700</v>
       </c>
       <c r="H57" s="3">
-        <v>1816200</v>
+        <v>1794100</v>
       </c>
       <c r="I57" s="3">
-        <v>1826500</v>
+        <v>1822100</v>
       </c>
       <c r="J57" s="3">
+        <v>1832500</v>
+      </c>
+      <c r="K57" s="3">
         <v>1965300</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>3862300</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>2175500</v>
       </c>
-      <c r="M57" s="3"/>
-    </row>
-    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N57" s="3"/>
+    </row>
+    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>721100</v>
+        <v>994400</v>
       </c>
       <c r="E58" s="3">
-        <v>2445300</v>
+        <v>723500</v>
       </c>
       <c r="F58" s="3">
-        <v>2044500</v>
+        <v>2453300</v>
       </c>
       <c r="G58" s="3">
-        <v>2106300</v>
+        <v>2051200</v>
       </c>
       <c r="H58" s="3">
-        <v>2388500</v>
+        <v>2113200</v>
       </c>
       <c r="I58" s="3">
-        <v>2034100</v>
+        <v>2396300</v>
       </c>
       <c r="J58" s="3">
+        <v>2040800</v>
+      </c>
+      <c r="K58" s="3">
         <v>2489400</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>4128200</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>2061000</v>
       </c>
-      <c r="M58" s="3"/>
-    </row>
-    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N58" s="3"/>
+    </row>
+    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>11823200</v>
+        <v>2409200</v>
       </c>
       <c r="E59" s="3">
-        <v>3380100</v>
+        <v>11861900</v>
       </c>
       <c r="F59" s="3">
-        <v>3397600</v>
+        <v>3391200</v>
       </c>
       <c r="G59" s="3">
-        <v>3496900</v>
+        <v>3408700</v>
       </c>
       <c r="H59" s="3">
-        <v>3186200</v>
+        <v>3508300</v>
       </c>
       <c r="I59" s="3">
-        <v>3212200</v>
+        <v>3196600</v>
       </c>
       <c r="J59" s="3">
+        <v>3222700</v>
+      </c>
+      <c r="K59" s="3">
         <v>3200300</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>4746300</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>1847600</v>
       </c>
-      <c r="M59" s="3"/>
-    </row>
-    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N59" s="3"/>
+    </row>
+    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>14187900</v>
+        <v>6042600</v>
       </c>
       <c r="E60" s="3">
-        <v>7732900</v>
+        <v>14234400</v>
       </c>
       <c r="F60" s="3">
-        <v>7222900</v>
+        <v>7758200</v>
       </c>
       <c r="G60" s="3">
-        <v>7391400</v>
+        <v>7246500</v>
       </c>
       <c r="H60" s="3">
-        <v>7390900</v>
+        <v>7415600</v>
       </c>
       <c r="I60" s="3">
-        <v>7072800</v>
+        <v>7415100</v>
       </c>
       <c r="J60" s="3">
+        <v>7096000</v>
+      </c>
+      <c r="K60" s="3">
         <v>7654900</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>6370500</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>6084100</v>
       </c>
-      <c r="M60" s="3"/>
-    </row>
-    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N60" s="3"/>
+    </row>
+    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>1528900</v>
+        <v>1713100</v>
       </c>
       <c r="E61" s="3">
-        <v>6104800</v>
+        <v>1533900</v>
       </c>
       <c r="F61" s="3">
-        <v>6033800</v>
+        <v>6124800</v>
       </c>
       <c r="G61" s="3">
-        <v>5769000</v>
+        <v>6053500</v>
       </c>
       <c r="H61" s="3">
-        <v>5423100</v>
+        <v>5787900</v>
       </c>
       <c r="I61" s="3">
-        <v>5207600</v>
+        <v>5440900</v>
       </c>
       <c r="J61" s="3">
+        <v>5224700</v>
+      </c>
+      <c r="K61" s="3">
         <v>4143900</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>4314000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>4749900</v>
       </c>
-      <c r="M61" s="3"/>
-    </row>
-    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N61" s="3"/>
+    </row>
+    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1312700</v>
+        <v>1103600</v>
       </c>
       <c r="E62" s="3">
-        <v>1790600</v>
+        <v>1317000</v>
       </c>
       <c r="F62" s="3">
-        <v>1878200</v>
+        <v>1796500</v>
       </c>
       <c r="G62" s="3">
-        <v>1884100</v>
+        <v>1884400</v>
       </c>
       <c r="H62" s="3">
-        <v>2104800</v>
+        <v>1890300</v>
       </c>
       <c r="I62" s="3">
-        <v>2154800</v>
+        <v>2111700</v>
       </c>
       <c r="J62" s="3">
+        <v>2161900</v>
+      </c>
+      <c r="K62" s="3">
         <v>1961500</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>4245400</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>1915400</v>
       </c>
-      <c r="M62" s="3"/>
-    </row>
-    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N62" s="3"/>
+    </row>
+    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2368,9 +2516,12 @@
       <c r="L63" s="3">
         <v>0</v>
       </c>
-      <c r="M63" s="3"/>
-    </row>
-    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+      <c r="N63" s="3"/>
+    </row>
+    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2401,9 +2552,12 @@
       <c r="L64" s="3">
         <v>0</v>
       </c>
-      <c r="M64" s="3"/>
-    </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+      <c r="N64" s="3"/>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2434,42 +2588,48 @@
       <c r="L65" s="3">
         <v>0</v>
       </c>
-      <c r="M65" s="3"/>
-    </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+      <c r="N65" s="3"/>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>17837000</v>
+        <v>8892400</v>
       </c>
       <c r="E66" s="3">
-        <v>16419800</v>
+        <v>17895400</v>
       </c>
       <c r="F66" s="3">
-        <v>15860200</v>
+        <v>16473600</v>
       </c>
       <c r="G66" s="3">
-        <v>15729400</v>
+        <v>15912200</v>
       </c>
       <c r="H66" s="3">
-        <v>15559600</v>
+        <v>15780900</v>
       </c>
       <c r="I66" s="3">
-        <v>15077700</v>
+        <v>15610600</v>
       </c>
       <c r="J66" s="3">
+        <v>15127100</v>
+      </c>
+      <c r="K66" s="3">
         <v>14355600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>13430100</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>13258600</v>
       </c>
-      <c r="M66" s="3"/>
-    </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N66" s="3"/>
+    </row>
+    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2483,8 +2643,9 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
-    </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N67" s="3"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2515,9 +2676,12 @@
       <c r="L68" s="3">
         <v>0</v>
       </c>
-      <c r="M68" s="3"/>
-    </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+      <c r="N68" s="3"/>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2548,9 +2712,12 @@
       <c r="L69" s="3">
         <v>0</v>
       </c>
-      <c r="M69" s="3"/>
-    </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+      <c r="N69" s="3"/>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2581,9 +2748,12 @@
       <c r="L70" s="3">
         <v>0</v>
       </c>
-      <c r="M70" s="3"/>
-    </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+      <c r="N70" s="3"/>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2614,42 +2784,48 @@
       <c r="L71" s="3">
         <v>0</v>
       </c>
-      <c r="M71" s="3"/>
-    </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+      <c r="N71" s="3"/>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>5447700</v>
+        <v>5160900</v>
       </c>
       <c r="E72" s="3">
-        <v>5265900</v>
+        <v>5465600</v>
       </c>
       <c r="F72" s="3">
-        <v>4672600</v>
+        <v>5283100</v>
       </c>
       <c r="G72" s="3">
-        <v>6022200</v>
+        <v>4687900</v>
       </c>
       <c r="H72" s="3">
-        <v>6214400</v>
+        <v>6041900</v>
       </c>
       <c r="I72" s="3">
-        <v>5921600</v>
+        <v>6234700</v>
       </c>
       <c r="J72" s="3">
+        <v>5941000</v>
+      </c>
+      <c r="K72" s="3">
         <v>5728100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>12094900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>6712600</v>
       </c>
-      <c r="M72" s="3"/>
-    </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N72" s="3"/>
+    </row>
+    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2680,9 +2856,12 @@
       <c r="L73" s="3">
         <v>0</v>
       </c>
-      <c r="M73" s="3"/>
-    </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+      <c r="N73" s="3"/>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2713,9 +2892,12 @@
       <c r="L74" s="3">
         <v>0</v>
       </c>
-      <c r="M74" s="3"/>
-    </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+      <c r="N74" s="3"/>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2746,42 +2928,48 @@
       <c r="L75" s="3">
         <v>0</v>
       </c>
-      <c r="M75" s="3"/>
-    </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+      <c r="N75" s="3"/>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>8430600</v>
+        <v>8457100</v>
       </c>
       <c r="E76" s="3">
-        <v>8542400</v>
+        <v>8458200</v>
       </c>
       <c r="F76" s="3">
-        <v>8331600</v>
+        <v>8570400</v>
       </c>
       <c r="G76" s="3">
-        <v>9545700</v>
+        <v>8358900</v>
       </c>
       <c r="H76" s="3">
-        <v>9872800</v>
+        <v>9577000</v>
       </c>
       <c r="I76" s="3">
-        <v>9931000</v>
+        <v>9905100</v>
       </c>
       <c r="J76" s="3">
+        <v>9963500</v>
+      </c>
+      <c r="K76" s="3">
         <v>9429400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>8305600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>7437200</v>
       </c>
-      <c r="M76" s="3"/>
-    </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N76" s="3"/>
+    </row>
+    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2812,80 +3000,89 @@
       <c r="L77" s="3">
         <v>0</v>
       </c>
-      <c r="M77" s="3"/>
-    </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+      <c r="N77" s="3"/>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E80" s="2">
         <v>43921</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43555</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43190</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>42825</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42460</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42094</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>41729</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>41364</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>40999</v>
       </c>
-      <c r="M80" s="2"/>
-    </row>
-    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N80" s="2"/>
+    </row>
+    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>362200</v>
+        <v>-300800</v>
       </c>
       <c r="E81" s="3">
-        <v>453700</v>
+        <v>363400</v>
       </c>
       <c r="F81" s="3">
-        <v>-1240000</v>
+        <v>455100</v>
       </c>
       <c r="G81" s="3">
-        <v>32000</v>
+        <v>-1244100</v>
       </c>
       <c r="H81" s="3">
-        <v>576900</v>
+        <v>32100</v>
       </c>
       <c r="I81" s="3">
-        <v>628000</v>
+        <v>578700</v>
       </c>
       <c r="J81" s="3">
+        <v>630100</v>
+      </c>
+      <c r="K81" s="3">
         <v>667000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>309500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-402800</v>
       </c>
-      <c r="M81" s="3"/>
-    </row>
-    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N81" s="3"/>
+    </row>
+    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2899,41 +3096,45 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
-    </row>
-    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N82" s="3"/>
+    </row>
+    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>1105500</v>
+        <v>961400</v>
       </c>
       <c r="E83" s="3">
-        <v>863700</v>
+        <v>1109100</v>
       </c>
       <c r="F83" s="3">
-        <v>992300</v>
+        <v>866500</v>
       </c>
       <c r="G83" s="3">
-        <v>979100</v>
+        <v>995500</v>
       </c>
       <c r="H83" s="3">
-        <v>983500</v>
+        <v>982300</v>
       </c>
       <c r="I83" s="3">
-        <v>987800</v>
+        <v>986700</v>
       </c>
       <c r="J83" s="3">
+        <v>991000</v>
+      </c>
+      <c r="K83" s="3">
         <v>973100</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>871900</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>823900</v>
       </c>
-      <c r="M83" s="3"/>
-    </row>
-    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N83" s="3"/>
+    </row>
+    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2964,9 +3165,12 @@
       <c r="L84" s="3">
         <v>0</v>
       </c>
-      <c r="M84" s="3"/>
-    </row>
-    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+      <c r="N84" s="3"/>
+    </row>
+    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2997,9 +3201,12 @@
       <c r="L85" s="3">
         <v>0</v>
       </c>
-      <c r="M85" s="3"/>
-    </row>
-    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+      <c r="N85" s="3"/>
+    </row>
+    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3030,9 +3237,12 @@
       <c r="L86" s="3">
         <v>0</v>
       </c>
-      <c r="M86" s="3"/>
-    </row>
-    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+      <c r="N86" s="3"/>
+    </row>
+    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3063,9 +3273,12 @@
       <c r="L87" s="3">
         <v>0</v>
       </c>
-      <c r="M87" s="3"/>
-    </row>
-    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+      <c r="N87" s="3"/>
+    </row>
+    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3096,42 +3309,48 @@
       <c r="L88" s="3">
         <v>0</v>
       </c>
-      <c r="M88" s="3"/>
-    </row>
-    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+      <c r="N88" s="3"/>
+    </row>
+    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>1069000</v>
+        <v>1166800</v>
       </c>
       <c r="E89" s="3">
-        <v>750600</v>
+        <v>1072500</v>
       </c>
       <c r="F89" s="3">
-        <v>1010200</v>
+        <v>753100</v>
       </c>
       <c r="G89" s="3">
-        <v>808800</v>
+        <v>1013500</v>
       </c>
       <c r="H89" s="3">
-        <v>914700</v>
+        <v>811500</v>
       </c>
       <c r="I89" s="3">
-        <v>939300</v>
+        <v>917700</v>
       </c>
       <c r="J89" s="3">
+        <v>942400</v>
+      </c>
+      <c r="K89" s="3">
         <v>1345500</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>1248200</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>101300</v>
       </c>
-      <c r="M89" s="3"/>
-    </row>
-    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N89" s="3"/>
+    </row>
+    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3145,41 +3364,45 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
-    </row>
-    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N90" s="3"/>
+    </row>
+    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-793200</v>
+        <v>-387400</v>
       </c>
       <c r="E91" s="3">
-        <v>-663800</v>
+        <v>-795800</v>
       </c>
       <c r="F91" s="3">
-        <v>-662100</v>
+        <v>-665900</v>
       </c>
       <c r="G91" s="3">
-        <v>-691100</v>
+        <v>-664300</v>
       </c>
       <c r="H91" s="3">
-        <v>-767400</v>
+        <v>-693400</v>
       </c>
       <c r="I91" s="3">
-        <v>-695900</v>
+        <v>-769900</v>
       </c>
       <c r="J91" s="3">
+        <v>-698200</v>
+      </c>
+      <c r="K91" s="3">
         <v>-668600</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-1507600</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-662400</v>
       </c>
-      <c r="M91" s="3"/>
-    </row>
-    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N91" s="3"/>
+    </row>
+    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3210,9 +3433,12 @@
       <c r="L92" s="3">
         <v>0</v>
       </c>
-      <c r="M92" s="3"/>
-    </row>
-    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+      <c r="N92" s="3"/>
+    </row>
+    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3243,42 +3469,48 @@
       <c r="L93" s="3">
         <v>0</v>
       </c>
-      <c r="M93" s="3"/>
-    </row>
-    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+      <c r="N93" s="3"/>
+    </row>
+    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-1507700</v>
+        <v>-584100</v>
       </c>
       <c r="E94" s="3">
-        <v>-420700</v>
+        <v>-1512600</v>
       </c>
       <c r="F94" s="3">
-        <v>-742700</v>
+        <v>-422100</v>
       </c>
       <c r="G94" s="3">
-        <v>-977500</v>
+        <v>-745100</v>
       </c>
       <c r="H94" s="3">
-        <v>-953900</v>
+        <v>-980700</v>
       </c>
       <c r="I94" s="3">
-        <v>-1314100</v>
+        <v>-957000</v>
       </c>
       <c r="J94" s="3">
+        <v>-1318400</v>
+      </c>
+      <c r="K94" s="3">
         <v>-1126100</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-1106600</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-1016500</v>
       </c>
-      <c r="M94" s="3"/>
-    </row>
-    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N94" s="3"/>
+    </row>
+    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3292,41 +3524,45 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
-    </row>
-    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N95" s="3"/>
+    </row>
+    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-172600</v>
+        <v>-136500</v>
       </c>
       <c r="E96" s="3">
-        <v>-116200</v>
+        <v>-173100</v>
       </c>
       <c r="F96" s="3">
-        <v>-132800</v>
+        <v>-116600</v>
       </c>
       <c r="G96" s="3">
-        <v>-265600</v>
+        <v>-133200</v>
       </c>
       <c r="H96" s="3">
-        <v>-229100</v>
+        <v>-266500</v>
       </c>
       <c r="I96" s="3">
-        <v>-222500</v>
+        <v>-229800</v>
       </c>
       <c r="J96" s="3">
+        <v>-223200</v>
+      </c>
+      <c r="K96" s="3">
         <v>-219200</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-138400</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-216400</v>
       </c>
-      <c r="M96" s="3"/>
-    </row>
-    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N96" s="3"/>
+    </row>
+    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3357,9 +3593,12 @@
       <c r="L97" s="3">
         <v>0</v>
       </c>
-      <c r="M97" s="3"/>
-    </row>
-    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+      <c r="N97" s="3"/>
+    </row>
+    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3390,9 +3629,12 @@
       <c r="L98" s="3">
         <v>0</v>
       </c>
-      <c r="M98" s="3"/>
-    </row>
-    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+      <c r="N98" s="3"/>
+    </row>
+    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3423,106 +3665,118 @@
       <c r="L99" s="3">
         <v>0</v>
       </c>
-      <c r="M99" s="3"/>
-    </row>
-    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+      <c r="N99" s="3"/>
+    </row>
+    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>693900</v>
+        <v>-37500</v>
       </c>
       <c r="E100" s="3">
-        <v>388600</v>
+        <v>696200</v>
       </c>
       <c r="F100" s="3">
-        <v>58700</v>
+        <v>389900</v>
       </c>
       <c r="G100" s="3">
-        <v>-182500</v>
+        <v>58900</v>
       </c>
       <c r="H100" s="3">
-        <v>390800</v>
+        <v>-183100</v>
       </c>
       <c r="I100" s="3">
-        <v>274200</v>
+        <v>392100</v>
       </c>
       <c r="J100" s="3">
+        <v>275100</v>
+      </c>
+      <c r="K100" s="3">
         <v>-84600</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-562100</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>793900</v>
       </c>
-      <c r="M100" s="3"/>
-    </row>
-    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N100" s="3"/>
+    </row>
+    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-39200</v>
+        <v>67400</v>
       </c>
       <c r="E101" s="3">
+        <v>-39300</v>
+      </c>
+      <c r="F101" s="3">
         <v>10000</v>
       </c>
-      <c r="F101" s="3">
-        <v>-13500</v>
-      </c>
       <c r="G101" s="3">
-        <v>-25500</v>
+        <v>-13600</v>
       </c>
       <c r="H101" s="3">
-        <v>-78400</v>
+        <v>-25600</v>
       </c>
       <c r="I101" s="3">
-        <v>79300</v>
+        <v>-78700</v>
       </c>
       <c r="J101" s="3">
+        <v>79500</v>
+      </c>
+      <c r="K101" s="3">
         <v>75800</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>64600</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-23500</v>
       </c>
-      <c r="M101" s="3"/>
-    </row>
-    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N101" s="3"/>
+    </row>
+    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>216100</v>
+        <v>612600</v>
       </c>
       <c r="E102" s="3">
-        <v>728500</v>
+        <v>216800</v>
       </c>
       <c r="F102" s="3">
-        <v>312700</v>
+        <v>730900</v>
       </c>
       <c r="G102" s="3">
-        <v>-376600</v>
+        <v>313700</v>
       </c>
       <c r="H102" s="3">
-        <v>273200</v>
+        <v>-377900</v>
       </c>
       <c r="I102" s="3">
-        <v>-21300</v>
+        <v>274100</v>
       </c>
       <c r="J102" s="3">
+        <v>-21400</v>
+      </c>
+      <c r="K102" s="3">
         <v>210600</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-356000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-144700</v>
       </c>
-      <c r="M102" s="3"/>
+      <c r="N102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/RICOY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/RICOY_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="92">
   <si>
     <t>RICOY</t>
   </si>
@@ -720,25 +720,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>15458200</v>
+        <v>15323600</v>
       </c>
       <c r="E8" s="3">
-        <v>18458900</v>
+        <v>18298200</v>
       </c>
       <c r="F8" s="3">
-        <v>18501600</v>
+        <v>18340500</v>
       </c>
       <c r="G8" s="3">
-        <v>18962300</v>
+        <v>18797200</v>
       </c>
       <c r="H8" s="3">
-        <v>18645600</v>
+        <v>18483300</v>
       </c>
       <c r="I8" s="3">
-        <v>20301000</v>
+        <v>20124200</v>
       </c>
       <c r="J8" s="3">
-        <v>19771400</v>
+        <v>19599300</v>
       </c>
       <c r="K8" s="3">
         <v>20112600</v>
@@ -756,25 +756,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>10198700</v>
+        <v>10109900</v>
       </c>
       <c r="E9" s="3">
-        <v>11825400</v>
+        <v>11722500</v>
       </c>
       <c r="F9" s="3">
-        <v>11453900</v>
+        <v>11354200</v>
       </c>
       <c r="G9" s="3">
-        <v>11693000</v>
+        <v>11591200</v>
       </c>
       <c r="H9" s="3">
-        <v>11398100</v>
+        <v>11298900</v>
       </c>
       <c r="I9" s="3">
-        <v>12195700</v>
+        <v>12089600</v>
       </c>
       <c r="J9" s="3">
-        <v>11436800</v>
+        <v>11337300</v>
       </c>
       <c r="K9" s="3">
         <v>12113800</v>
@@ -792,25 +792,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>5259500</v>
+        <v>5213700</v>
       </c>
       <c r="E10" s="3">
-        <v>6633400</v>
+        <v>6575700</v>
       </c>
       <c r="F10" s="3">
-        <v>7047700</v>
+        <v>6986300</v>
       </c>
       <c r="G10" s="3">
-        <v>7269300</v>
+        <v>7206100</v>
       </c>
       <c r="H10" s="3">
-        <v>7247500</v>
+        <v>7184400</v>
       </c>
       <c r="I10" s="3">
-        <v>8105200</v>
+        <v>8034700</v>
       </c>
       <c r="J10" s="3">
-        <v>8334600</v>
+        <v>8262000</v>
       </c>
       <c r="K10" s="3">
         <v>7998700</v>
@@ -843,26 +843,26 @@
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D12" s="3" t="s">
-        <v>10</v>
+      <c r="D12" s="3">
+        <v>721400</v>
       </c>
       <c r="E12" s="3">
-        <v>810800</v>
+        <v>803700</v>
       </c>
       <c r="F12" s="3">
-        <v>864100</v>
+        <v>856600</v>
       </c>
       <c r="G12" s="3">
-        <v>863800</v>
+        <v>856200</v>
       </c>
       <c r="H12" s="3">
-        <v>922500</v>
+        <v>914500</v>
       </c>
       <c r="I12" s="3">
-        <v>937800</v>
+        <v>929600</v>
       </c>
       <c r="J12" s="3">
-        <v>903200</v>
+        <v>895400</v>
       </c>
       <c r="K12" s="3">
         <v>864400</v>
@@ -916,16 +916,16 @@
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>34800</v>
+        <v>453500</v>
       </c>
       <c r="E14" s="3">
-        <v>103500</v>
+        <v>102600</v>
       </c>
       <c r="F14" s="3">
-        <v>196900</v>
+        <v>195200</v>
       </c>
       <c r="G14" s="3">
-        <v>1853800</v>
+        <v>1837600</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>10</v>
@@ -934,7 +934,7 @@
         <v>10</v>
       </c>
       <c r="J14" s="3">
-        <v>9300</v>
+        <v>9200</v>
       </c>
       <c r="K14" s="3">
         <v>103700</v>
@@ -951,26 +951,26 @@
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="3" t="s">
-        <v>10</v>
+      <c r="D15" s="3">
+        <v>495800</v>
       </c>
       <c r="E15" s="3">
-        <v>490100</v>
+        <v>485900</v>
       </c>
       <c r="F15" s="3">
-        <v>228500</v>
+        <v>226500</v>
       </c>
       <c r="G15" s="3">
-        <v>368500</v>
+        <v>365200</v>
       </c>
       <c r="H15" s="3">
-        <v>370200</v>
+        <v>367000</v>
       </c>
       <c r="I15" s="3">
-        <v>341300</v>
+        <v>338300</v>
       </c>
       <c r="J15" s="3">
-        <v>342800</v>
+        <v>339800</v>
       </c>
       <c r="K15" s="3">
         <v>339900</v>
@@ -1001,25 +1001,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>15875700</v>
+        <v>15737500</v>
       </c>
       <c r="E17" s="3">
-        <v>17732500</v>
+        <v>17578100</v>
       </c>
       <c r="F17" s="3">
-        <v>17703500</v>
+        <v>17549400</v>
       </c>
       <c r="G17" s="3">
-        <v>20025400</v>
+        <v>19851000</v>
       </c>
       <c r="H17" s="3">
-        <v>18334200</v>
+        <v>18174600</v>
       </c>
       <c r="I17" s="3">
-        <v>19360900</v>
+        <v>19192300</v>
       </c>
       <c r="J17" s="3">
-        <v>18707500</v>
+        <v>18544700</v>
       </c>
       <c r="K17" s="3">
         <v>19010200</v>
@@ -1037,25 +1037,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-417500</v>
+        <v>-413900</v>
       </c>
       <c r="E18" s="3">
-        <v>726400</v>
+        <v>720100</v>
       </c>
       <c r="F18" s="3">
-        <v>798100</v>
+        <v>791100</v>
       </c>
       <c r="G18" s="3">
-        <v>-1063100</v>
+        <v>-1053800</v>
       </c>
       <c r="H18" s="3">
-        <v>311400</v>
+        <v>308600</v>
       </c>
       <c r="I18" s="3">
-        <v>940100</v>
+        <v>931900</v>
       </c>
       <c r="J18" s="3">
-        <v>1063900</v>
+        <v>1054600</v>
       </c>
       <c r="K18" s="3">
         <v>1102400</v>
@@ -1089,25 +1089,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>40400</v>
+        <v>67800</v>
       </c>
       <c r="E20" s="3">
-        <v>24100</v>
+        <v>23900</v>
       </c>
       <c r="F20" s="3">
-        <v>28400</v>
+        <v>28100</v>
       </c>
       <c r="G20" s="3">
-        <v>-16400</v>
+        <v>-16200</v>
       </c>
       <c r="H20" s="3">
-        <v>33300</v>
+        <v>33000</v>
       </c>
       <c r="I20" s="3">
         <v>-600</v>
       </c>
       <c r="J20" s="3">
-        <v>33500</v>
+        <v>33200</v>
       </c>
       <c r="K20" s="3">
         <v>47400</v>
@@ -1125,25 +1125,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>585400</v>
+        <v>607000</v>
       </c>
       <c r="E21" s="3">
-        <v>1860800</v>
+        <v>1843400</v>
       </c>
       <c r="F21" s="3">
-        <v>1693900</v>
+        <v>1678200</v>
       </c>
       <c r="G21" s="3">
-        <v>-82800</v>
+        <v>-83200</v>
       </c>
       <c r="H21" s="3">
-        <v>1328100</v>
+        <v>1315500</v>
       </c>
       <c r="I21" s="3">
-        <v>1927200</v>
+        <v>1909400</v>
       </c>
       <c r="J21" s="3">
-        <v>2089500</v>
+        <v>2070200</v>
       </c>
       <c r="K21" s="3">
         <v>2127000</v>
@@ -1160,26 +1160,26 @@
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3" t="s">
-        <v>10</v>
+      <c r="D22" s="3">
+        <v>27700</v>
       </c>
       <c r="E22" s="3">
-        <v>53000</v>
+        <v>52600</v>
       </c>
       <c r="F22" s="3">
-        <v>54800</v>
+        <v>54300</v>
       </c>
       <c r="G22" s="3">
-        <v>61800</v>
+        <v>61300</v>
       </c>
       <c r="H22" s="3">
-        <v>69400</v>
+        <v>68800</v>
       </c>
       <c r="I22" s="3">
-        <v>60100</v>
+        <v>59600</v>
       </c>
       <c r="J22" s="3">
-        <v>65400</v>
+        <v>64800</v>
       </c>
       <c r="K22" s="3">
         <v>68300</v>
@@ -1197,25 +1197,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-377000</v>
+        <v>-373800</v>
       </c>
       <c r="E23" s="3">
-        <v>697400</v>
+        <v>691400</v>
       </c>
       <c r="F23" s="3">
-        <v>771600</v>
+        <v>764900</v>
       </c>
       <c r="G23" s="3">
-        <v>-1141200</v>
+        <v>-1131300</v>
       </c>
       <c r="H23" s="3">
-        <v>275300</v>
+        <v>272900</v>
       </c>
       <c r="I23" s="3">
-        <v>879300</v>
+        <v>871700</v>
       </c>
       <c r="J23" s="3">
-        <v>1032000</v>
+        <v>1023000</v>
       </c>
       <c r="K23" s="3">
         <v>1081500</v>
@@ -1233,25 +1233,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>-76900</v>
+        <v>-76200</v>
       </c>
       <c r="E24" s="3">
-        <v>289300</v>
+        <v>286800</v>
       </c>
       <c r="F24" s="3">
-        <v>262700</v>
+        <v>260400</v>
       </c>
       <c r="G24" s="3">
-        <v>38100</v>
+        <v>37800</v>
       </c>
       <c r="H24" s="3">
-        <v>188600</v>
+        <v>186900</v>
       </c>
       <c r="I24" s="3">
-        <v>260800</v>
+        <v>258500</v>
       </c>
       <c r="J24" s="3">
-        <v>354700</v>
+        <v>351600</v>
       </c>
       <c r="K24" s="3">
         <v>362800</v>
@@ -1305,25 +1305,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-300200</v>
+        <v>-297600</v>
       </c>
       <c r="E26" s="3">
-        <v>408200</v>
+        <v>404600</v>
       </c>
       <c r="F26" s="3">
-        <v>508900</v>
+        <v>504500</v>
       </c>
       <c r="G26" s="3">
-        <v>-1179300</v>
+        <v>-1169100</v>
       </c>
       <c r="H26" s="3">
-        <v>86700</v>
+        <v>86000</v>
       </c>
       <c r="I26" s="3">
-        <v>618500</v>
+        <v>613200</v>
       </c>
       <c r="J26" s="3">
-        <v>677300</v>
+        <v>671400</v>
       </c>
       <c r="K26" s="3">
         <v>718600</v>
@@ -1341,25 +1341,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-300800</v>
+        <v>-298200</v>
       </c>
       <c r="E27" s="3">
-        <v>363400</v>
+        <v>360300</v>
       </c>
       <c r="F27" s="3">
-        <v>455100</v>
+        <v>451200</v>
       </c>
       <c r="G27" s="3">
-        <v>-1232000</v>
+        <v>-1221300</v>
       </c>
       <c r="H27" s="3">
-        <v>32100</v>
+        <v>31800</v>
       </c>
       <c r="I27" s="3">
-        <v>578700</v>
+        <v>573700</v>
       </c>
       <c r="J27" s="3">
-        <v>630100</v>
+        <v>624600</v>
       </c>
       <c r="K27" s="3">
         <v>667000</v>
@@ -1422,7 +1422,7 @@
         <v>10</v>
       </c>
       <c r="G29" s="3">
-        <v>-12100</v>
+        <v>-12000</v>
       </c>
       <c r="H29" s="3" t="s">
         <v>10</v>
@@ -1521,25 +1521,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-40400</v>
+        <v>-67800</v>
       </c>
       <c r="E32" s="3">
-        <v>-24100</v>
+        <v>-23900</v>
       </c>
       <c r="F32" s="3">
-        <v>-28400</v>
+        <v>-28100</v>
       </c>
       <c r="G32" s="3">
-        <v>16400</v>
+        <v>16200</v>
       </c>
       <c r="H32" s="3">
-        <v>-33300</v>
+        <v>-33000</v>
       </c>
       <c r="I32" s="3">
         <v>600</v>
       </c>
       <c r="J32" s="3">
-        <v>-33500</v>
+        <v>-33200</v>
       </c>
       <c r="K32" s="3">
         <v>-47400</v>
@@ -1557,25 +1557,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-300800</v>
+        <v>-298200</v>
       </c>
       <c r="E33" s="3">
-        <v>363400</v>
+        <v>360300</v>
       </c>
       <c r="F33" s="3">
-        <v>455100</v>
+        <v>451200</v>
       </c>
       <c r="G33" s="3">
-        <v>-1244100</v>
+        <v>-1233200</v>
       </c>
       <c r="H33" s="3">
-        <v>32100</v>
+        <v>31800</v>
       </c>
       <c r="I33" s="3">
-        <v>578700</v>
+        <v>573700</v>
       </c>
       <c r="J33" s="3">
-        <v>630100</v>
+        <v>624600</v>
       </c>
       <c r="K33" s="3">
         <v>667000</v>
@@ -1629,25 +1629,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-300800</v>
+        <v>-298200</v>
       </c>
       <c r="E35" s="3">
-        <v>363400</v>
+        <v>360300</v>
       </c>
       <c r="F35" s="3">
-        <v>455100</v>
+        <v>451200</v>
       </c>
       <c r="G35" s="3">
-        <v>-1244100</v>
+        <v>-1233200</v>
       </c>
       <c r="H35" s="3">
-        <v>32100</v>
+        <v>31800</v>
       </c>
       <c r="I35" s="3">
-        <v>578700</v>
+        <v>573700</v>
       </c>
       <c r="J35" s="3">
-        <v>630100</v>
+        <v>624600</v>
       </c>
       <c r="K35" s="3">
         <v>667000</v>
@@ -1738,25 +1738,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>3079100</v>
+        <v>3052300</v>
       </c>
       <c r="E41" s="3">
-        <v>2415900</v>
+        <v>2394900</v>
       </c>
       <c r="F41" s="3">
-        <v>2207200</v>
+        <v>2187900</v>
       </c>
       <c r="G41" s="3">
-        <v>1476200</v>
+        <v>1463400</v>
       </c>
       <c r="H41" s="3">
-        <v>1241500</v>
+        <v>1230700</v>
       </c>
       <c r="I41" s="3">
-        <v>1548700</v>
+        <v>1535200</v>
       </c>
       <c r="J41" s="3">
-        <v>1274200</v>
+        <v>1263100</v>
       </c>
       <c r="K41" s="3">
         <v>1320000</v>
@@ -1774,25 +1774,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>853000</v>
+        <v>845600</v>
       </c>
       <c r="E42" s="3">
-        <v>801600</v>
+        <v>794600</v>
       </c>
       <c r="F42" s="3">
-        <v>2705100</v>
+        <v>2681500</v>
       </c>
       <c r="G42" s="3">
-        <v>3189500</v>
+        <v>3161800</v>
       </c>
       <c r="H42" s="3">
-        <v>2541700</v>
+        <v>2519600</v>
       </c>
       <c r="I42" s="3">
-        <v>2502900</v>
+        <v>2481100</v>
       </c>
       <c r="J42" s="3">
-        <v>2389900</v>
+        <v>2369100</v>
       </c>
       <c r="K42" s="3">
         <v>2287100</v>
@@ -1810,25 +1810,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>3603700</v>
+        <v>3572300</v>
       </c>
       <c r="E43" s="3">
-        <v>3609600</v>
+        <v>3578200</v>
       </c>
       <c r="F43" s="3">
-        <v>5558100</v>
+        <v>5509800</v>
       </c>
       <c r="G43" s="3">
-        <v>5419700</v>
+        <v>5372500</v>
       </c>
       <c r="H43" s="3">
-        <v>5204400</v>
+        <v>5159100</v>
       </c>
       <c r="I43" s="3">
-        <v>5185000</v>
+        <v>5139900</v>
       </c>
       <c r="J43" s="3">
-        <v>5087000</v>
+        <v>5042700</v>
       </c>
       <c r="K43" s="3">
         <v>9979400</v>
@@ -1846,25 +1846,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>1764600</v>
+        <v>1749300</v>
       </c>
       <c r="E44" s="3">
-        <v>1849500</v>
+        <v>1833400</v>
       </c>
       <c r="F44" s="3">
-        <v>1909200</v>
+        <v>1892600</v>
       </c>
       <c r="G44" s="3">
-        <v>1658600</v>
+        <v>1644200</v>
       </c>
       <c r="H44" s="3">
-        <v>1861400</v>
+        <v>1845200</v>
       </c>
       <c r="I44" s="3">
-        <v>1903200</v>
+        <v>1886600</v>
       </c>
       <c r="J44" s="3">
-        <v>2063000</v>
+        <v>2045000</v>
       </c>
       <c r="K44" s="3">
         <v>1778600</v>
@@ -1882,25 +1882,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>429400</v>
+        <v>425700</v>
       </c>
       <c r="E45" s="3">
-        <v>10678900</v>
+        <v>10585900</v>
       </c>
       <c r="F45" s="3">
-        <v>392300</v>
+        <v>388900</v>
       </c>
       <c r="G45" s="3">
-        <v>460000</v>
+        <v>456000</v>
       </c>
       <c r="H45" s="3">
-        <v>539300</v>
+        <v>534600</v>
       </c>
       <c r="I45" s="3">
-        <v>560900</v>
+        <v>556000</v>
       </c>
       <c r="J45" s="3">
-        <v>364500</v>
+        <v>361300</v>
       </c>
       <c r="K45" s="3">
         <v>314300</v>
@@ -1918,25 +1918,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>9729900</v>
+        <v>9645200</v>
       </c>
       <c r="E46" s="3">
-        <v>19355500</v>
+        <v>19187000</v>
       </c>
       <c r="F46" s="3">
-        <v>12771900</v>
+        <v>12660700</v>
       </c>
       <c r="G46" s="3">
-        <v>12204100</v>
+        <v>12097900</v>
       </c>
       <c r="H46" s="3">
-        <v>11388400</v>
+        <v>11289200</v>
       </c>
       <c r="I46" s="3">
-        <v>11700700</v>
+        <v>11598800</v>
       </c>
       <c r="J46" s="3">
-        <v>11178600</v>
+        <v>11081200</v>
       </c>
       <c r="K46" s="3">
         <v>10689700</v>
@@ -1954,25 +1954,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>2151400</v>
+        <v>2132700</v>
       </c>
       <c r="E47" s="3">
-        <v>1547900</v>
+        <v>1534500</v>
       </c>
       <c r="F47" s="3">
-        <v>6830600</v>
+        <v>6771100</v>
       </c>
       <c r="G47" s="3">
-        <v>6619700</v>
+        <v>6562100</v>
       </c>
       <c r="H47" s="3">
-        <v>6779800</v>
+        <v>6720800</v>
       </c>
       <c r="I47" s="3">
-        <v>6324500</v>
+        <v>6269400</v>
       </c>
       <c r="J47" s="3">
-        <v>6069800</v>
+        <v>6017000</v>
       </c>
       <c r="K47" s="3">
         <v>5612200</v>
@@ -1990,25 +1990,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>2349100</v>
+        <v>2328700</v>
       </c>
       <c r="E48" s="3">
-        <v>2398500</v>
+        <v>2377700</v>
       </c>
       <c r="F48" s="3">
-        <v>2300100</v>
+        <v>2280100</v>
       </c>
       <c r="G48" s="3">
-        <v>2297500</v>
+        <v>2277500</v>
       </c>
       <c r="H48" s="3">
-        <v>2492900</v>
+        <v>2471200</v>
       </c>
       <c r="I48" s="3">
-        <v>2541500</v>
+        <v>2519400</v>
       </c>
       <c r="J48" s="3">
-        <v>2542100</v>
+        <v>2520000</v>
       </c>
       <c r="K48" s="3">
         <v>2894700</v>
@@ -2026,25 +2026,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>2072400</v>
+        <v>2054400</v>
       </c>
       <c r="E49" s="3">
-        <v>2131100</v>
+        <v>2112600</v>
       </c>
       <c r="F49" s="3">
-        <v>2020000</v>
+        <v>2002400</v>
       </c>
       <c r="G49" s="3">
-        <v>1995400</v>
+        <v>1978100</v>
       </c>
       <c r="H49" s="3">
-        <v>3567300</v>
+        <v>3536300</v>
       </c>
       <c r="I49" s="3">
-        <v>3803200</v>
+        <v>3770000</v>
       </c>
       <c r="J49" s="3">
-        <v>4004600</v>
+        <v>3969700</v>
       </c>
       <c r="K49" s="3">
         <v>3658100</v>
@@ -2134,25 +2134,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>1046700</v>
+        <v>1037600</v>
       </c>
       <c r="E52" s="3">
-        <v>920500</v>
+        <v>912500</v>
       </c>
       <c r="F52" s="3">
-        <v>1121300</v>
+        <v>1111600</v>
       </c>
       <c r="G52" s="3">
-        <v>1154300</v>
+        <v>1144200</v>
       </c>
       <c r="H52" s="3">
-        <v>1129400</v>
+        <v>1119600</v>
       </c>
       <c r="I52" s="3">
-        <v>1145900</v>
+        <v>1135900</v>
       </c>
       <c r="J52" s="3">
-        <v>1295500</v>
+        <v>1284300</v>
       </c>
       <c r="K52" s="3">
         <v>1345400</v>
@@ -2206,25 +2206,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>17349500</v>
+        <v>17198500</v>
       </c>
       <c r="E54" s="3">
-        <v>26353700</v>
+        <v>26124200</v>
       </c>
       <c r="F54" s="3">
-        <v>25044000</v>
+        <v>24826000</v>
       </c>
       <c r="G54" s="3">
-        <v>24271100</v>
+        <v>24059800</v>
       </c>
       <c r="H54" s="3">
-        <v>25357800</v>
+        <v>25137100</v>
       </c>
       <c r="I54" s="3">
-        <v>25515700</v>
+        <v>25293600</v>
       </c>
       <c r="J54" s="3">
-        <v>25090600</v>
+        <v>24872200</v>
       </c>
       <c r="K54" s="3">
         <v>23785000</v>
@@ -2274,25 +2274,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>2639000</v>
+        <v>2616000</v>
       </c>
       <c r="E57" s="3">
-        <v>1649000</v>
+        <v>2241600</v>
       </c>
       <c r="F57" s="3">
-        <v>1913700</v>
+        <v>2789400</v>
       </c>
       <c r="G57" s="3">
-        <v>1786700</v>
+        <v>2739600</v>
       </c>
       <c r="H57" s="3">
-        <v>1794100</v>
+        <v>2694600</v>
       </c>
       <c r="I57" s="3">
-        <v>1822100</v>
+        <v>2606600</v>
       </c>
       <c r="J57" s="3">
-        <v>1832500</v>
+        <v>2523300</v>
       </c>
       <c r="K57" s="3">
         <v>1965300</v>
@@ -2310,25 +2310,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>994400</v>
+        <v>985800</v>
       </c>
       <c r="E58" s="3">
-        <v>723500</v>
+        <v>717200</v>
       </c>
       <c r="F58" s="3">
-        <v>2453300</v>
+        <v>2432000</v>
       </c>
       <c r="G58" s="3">
-        <v>2051200</v>
+        <v>2033300</v>
       </c>
       <c r="H58" s="3">
-        <v>2113200</v>
+        <v>2094800</v>
       </c>
       <c r="I58" s="3">
-        <v>2396300</v>
+        <v>2375500</v>
       </c>
       <c r="J58" s="3">
-        <v>2040800</v>
+        <v>2023000</v>
       </c>
       <c r="K58" s="3">
         <v>2489400</v>
@@ -2346,25 +2346,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>2409200</v>
+        <v>2388200</v>
       </c>
       <c r="E59" s="3">
-        <v>11861900</v>
+        <v>11151700</v>
       </c>
       <c r="F59" s="3">
-        <v>3391200</v>
+        <v>2469300</v>
       </c>
       <c r="G59" s="3">
-        <v>3408700</v>
+        <v>2410500</v>
       </c>
       <c r="H59" s="3">
-        <v>3508300</v>
+        <v>2561700</v>
       </c>
       <c r="I59" s="3">
-        <v>3196600</v>
+        <v>2368500</v>
       </c>
       <c r="J59" s="3">
-        <v>3222700</v>
+        <v>2487800</v>
       </c>
       <c r="K59" s="3">
         <v>3200300</v>
@@ -2382,25 +2382,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>6042600</v>
+        <v>5990000</v>
       </c>
       <c r="E60" s="3">
-        <v>14234400</v>
+        <v>14110400</v>
       </c>
       <c r="F60" s="3">
-        <v>7758200</v>
+        <v>7690600</v>
       </c>
       <c r="G60" s="3">
-        <v>7246500</v>
+        <v>7183400</v>
       </c>
       <c r="H60" s="3">
-        <v>7415600</v>
+        <v>7351100</v>
       </c>
       <c r="I60" s="3">
-        <v>7415100</v>
+        <v>7350600</v>
       </c>
       <c r="J60" s="3">
-        <v>7096000</v>
+        <v>7034200</v>
       </c>
       <c r="K60" s="3">
         <v>7654900</v>
@@ -2418,25 +2418,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>1713100</v>
+        <v>1698200</v>
       </c>
       <c r="E61" s="3">
-        <v>1533900</v>
+        <v>1520600</v>
       </c>
       <c r="F61" s="3">
-        <v>6124800</v>
+        <v>6071500</v>
       </c>
       <c r="G61" s="3">
-        <v>6053500</v>
+        <v>6000800</v>
       </c>
       <c r="H61" s="3">
-        <v>5787900</v>
+        <v>5737500</v>
       </c>
       <c r="I61" s="3">
-        <v>5440900</v>
+        <v>5393500</v>
       </c>
       <c r="J61" s="3">
-        <v>5224700</v>
+        <v>5179200</v>
       </c>
       <c r="K61" s="3">
         <v>4143900</v>
@@ -2454,25 +2454,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1103600</v>
+        <v>1094000</v>
       </c>
       <c r="E62" s="3">
-        <v>1317000</v>
+        <v>1305500</v>
       </c>
       <c r="F62" s="3">
-        <v>1796500</v>
+        <v>1780900</v>
       </c>
       <c r="G62" s="3">
-        <v>1884400</v>
+        <v>1868000</v>
       </c>
       <c r="H62" s="3">
-        <v>1890300</v>
+        <v>1873800</v>
       </c>
       <c r="I62" s="3">
-        <v>2111700</v>
+        <v>2093300</v>
       </c>
       <c r="J62" s="3">
-        <v>2161900</v>
+        <v>2143000</v>
       </c>
       <c r="K62" s="3">
         <v>1961500</v>
@@ -2598,25 +2598,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>8892400</v>
+        <v>8815000</v>
       </c>
       <c r="E66" s="3">
-        <v>17895400</v>
+        <v>17739700</v>
       </c>
       <c r="F66" s="3">
-        <v>16473600</v>
+        <v>16330200</v>
       </c>
       <c r="G66" s="3">
-        <v>15912200</v>
+        <v>15773600</v>
       </c>
       <c r="H66" s="3">
-        <v>15780900</v>
+        <v>15643500</v>
       </c>
       <c r="I66" s="3">
-        <v>15610600</v>
+        <v>15474700</v>
       </c>
       <c r="J66" s="3">
-        <v>15127100</v>
+        <v>14995400</v>
       </c>
       <c r="K66" s="3">
         <v>14355600</v>
@@ -2794,25 +2794,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>5160900</v>
+        <v>5116000</v>
       </c>
       <c r="E72" s="3">
-        <v>5465600</v>
+        <v>5418000</v>
       </c>
       <c r="F72" s="3">
-        <v>5283100</v>
+        <v>5237100</v>
       </c>
       <c r="G72" s="3">
-        <v>4687900</v>
+        <v>4647100</v>
       </c>
       <c r="H72" s="3">
-        <v>6041900</v>
+        <v>5989300</v>
       </c>
       <c r="I72" s="3">
-        <v>6234700</v>
+        <v>6180400</v>
       </c>
       <c r="J72" s="3">
-        <v>5941000</v>
+        <v>5889300</v>
       </c>
       <c r="K72" s="3">
         <v>5728100</v>
@@ -2938,25 +2938,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>8457100</v>
+        <v>8383400</v>
       </c>
       <c r="E76" s="3">
-        <v>8458200</v>
+        <v>8384600</v>
       </c>
       <c r="F76" s="3">
-        <v>8570400</v>
+        <v>8495800</v>
       </c>
       <c r="G76" s="3">
-        <v>8358900</v>
+        <v>8286100</v>
       </c>
       <c r="H76" s="3">
-        <v>9577000</v>
+        <v>9493600</v>
       </c>
       <c r="I76" s="3">
-        <v>9905100</v>
+        <v>9818900</v>
       </c>
       <c r="J76" s="3">
-        <v>9963500</v>
+        <v>9876800</v>
       </c>
       <c r="K76" s="3">
         <v>9429400</v>
@@ -3051,25 +3051,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-300800</v>
+        <v>-298200</v>
       </c>
       <c r="E81" s="3">
-        <v>363400</v>
+        <v>360300</v>
       </c>
       <c r="F81" s="3">
-        <v>455100</v>
+        <v>451200</v>
       </c>
       <c r="G81" s="3">
-        <v>-1244100</v>
+        <v>-1233200</v>
       </c>
       <c r="H81" s="3">
-        <v>32100</v>
+        <v>31800</v>
       </c>
       <c r="I81" s="3">
-        <v>578700</v>
+        <v>573700</v>
       </c>
       <c r="J81" s="3">
-        <v>630100</v>
+        <v>624600</v>
       </c>
       <c r="K81" s="3">
         <v>667000</v>
@@ -3103,25 +3103,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>961400</v>
+        <v>953100</v>
       </c>
       <c r="E83" s="3">
-        <v>1109100</v>
+        <v>1099500</v>
       </c>
       <c r="F83" s="3">
-        <v>866500</v>
+        <v>859000</v>
       </c>
       <c r="G83" s="3">
-        <v>995500</v>
+        <v>986900</v>
       </c>
       <c r="H83" s="3">
-        <v>982300</v>
+        <v>973800</v>
       </c>
       <c r="I83" s="3">
-        <v>986700</v>
+        <v>978100</v>
       </c>
       <c r="J83" s="3">
-        <v>991000</v>
+        <v>982400</v>
       </c>
       <c r="K83" s="3">
         <v>973100</v>
@@ -3319,25 +3319,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>1166800</v>
+        <v>1156600</v>
       </c>
       <c r="E89" s="3">
-        <v>1072500</v>
+        <v>1063100</v>
       </c>
       <c r="F89" s="3">
-        <v>753100</v>
+        <v>746500</v>
       </c>
       <c r="G89" s="3">
-        <v>1013500</v>
+        <v>1004700</v>
       </c>
       <c r="H89" s="3">
-        <v>811500</v>
+        <v>804400</v>
       </c>
       <c r="I89" s="3">
-        <v>917700</v>
+        <v>909700</v>
       </c>
       <c r="J89" s="3">
-        <v>942400</v>
+        <v>934200</v>
       </c>
       <c r="K89" s="3">
         <v>1345500</v>
@@ -3371,25 +3371,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-387400</v>
+        <v>-384000</v>
       </c>
       <c r="E91" s="3">
-        <v>-795800</v>
+        <v>-788900</v>
       </c>
       <c r="F91" s="3">
-        <v>-665900</v>
+        <v>-660100</v>
       </c>
       <c r="G91" s="3">
-        <v>-664300</v>
+        <v>-658500</v>
       </c>
       <c r="H91" s="3">
-        <v>-693400</v>
+        <v>-687300</v>
       </c>
       <c r="I91" s="3">
-        <v>-769900</v>
+        <v>-763200</v>
       </c>
       <c r="J91" s="3">
-        <v>-698200</v>
+        <v>-692100</v>
       </c>
       <c r="K91" s="3">
         <v>-668600</v>
@@ -3479,25 +3479,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-584100</v>
+        <v>-579000</v>
       </c>
       <c r="E94" s="3">
-        <v>-1512600</v>
+        <v>-1499400</v>
       </c>
       <c r="F94" s="3">
-        <v>-422100</v>
+        <v>-418400</v>
       </c>
       <c r="G94" s="3">
-        <v>-745100</v>
+        <v>-738600</v>
       </c>
       <c r="H94" s="3">
-        <v>-980700</v>
+        <v>-972200</v>
       </c>
       <c r="I94" s="3">
-        <v>-957000</v>
+        <v>-948700</v>
       </c>
       <c r="J94" s="3">
-        <v>-1318400</v>
+        <v>-1306900</v>
       </c>
       <c r="K94" s="3">
         <v>-1126100</v>
@@ -3531,25 +3531,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-136500</v>
+        <v>-135300</v>
       </c>
       <c r="E96" s="3">
-        <v>-173100</v>
+        <v>-171600</v>
       </c>
       <c r="F96" s="3">
-        <v>-116600</v>
+        <v>-115600</v>
       </c>
       <c r="G96" s="3">
-        <v>-133200</v>
+        <v>-132100</v>
       </c>
       <c r="H96" s="3">
-        <v>-266500</v>
+        <v>-264200</v>
       </c>
       <c r="I96" s="3">
-        <v>-229800</v>
+        <v>-227800</v>
       </c>
       <c r="J96" s="3">
-        <v>-223200</v>
+        <v>-221200</v>
       </c>
       <c r="K96" s="3">
         <v>-219200</v>
@@ -3675,25 +3675,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-37500</v>
+        <v>-37200</v>
       </c>
       <c r="E100" s="3">
-        <v>696200</v>
+        <v>690100</v>
       </c>
       <c r="F100" s="3">
-        <v>389900</v>
+        <v>386500</v>
       </c>
       <c r="G100" s="3">
-        <v>58900</v>
+        <v>58400</v>
       </c>
       <c r="H100" s="3">
-        <v>-183100</v>
+        <v>-181500</v>
       </c>
       <c r="I100" s="3">
-        <v>392100</v>
+        <v>388700</v>
       </c>
       <c r="J100" s="3">
-        <v>275100</v>
+        <v>272700</v>
       </c>
       <c r="K100" s="3">
         <v>-84600</v>
@@ -3711,25 +3711,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>67400</v>
+        <v>66800</v>
       </c>
       <c r="E101" s="3">
-        <v>-39300</v>
+        <v>-39000</v>
       </c>
       <c r="F101" s="3">
-        <v>10000</v>
+        <v>9900</v>
       </c>
       <c r="G101" s="3">
-        <v>-13600</v>
+        <v>-13500</v>
       </c>
       <c r="H101" s="3">
-        <v>-25600</v>
+        <v>-25300</v>
       </c>
       <c r="I101" s="3">
-        <v>-78700</v>
+        <v>-78000</v>
       </c>
       <c r="J101" s="3">
-        <v>79500</v>
+        <v>78800</v>
       </c>
       <c r="K101" s="3">
         <v>75800</v>
@@ -3747,25 +3747,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>612600</v>
+        <v>607200</v>
       </c>
       <c r="E102" s="3">
-        <v>216800</v>
+        <v>214900</v>
       </c>
       <c r="F102" s="3">
-        <v>730900</v>
+        <v>724500</v>
       </c>
       <c r="G102" s="3">
-        <v>313700</v>
+        <v>311000</v>
       </c>
       <c r="H102" s="3">
-        <v>-377900</v>
+        <v>-374600</v>
       </c>
       <c r="I102" s="3">
-        <v>274100</v>
+        <v>271700</v>
       </c>
       <c r="J102" s="3">
-        <v>-21400</v>
+        <v>-21200</v>
       </c>
       <c r="K102" s="3">
         <v>210600</v>

--- a/AAII_Financials/Yearly/RICOY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/RICOY_YR_FIN.xlsx
@@ -720,25 +720,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>15323600</v>
+        <v>14819000</v>
       </c>
       <c r="E8" s="3">
-        <v>18298200</v>
+        <v>17695600</v>
       </c>
       <c r="F8" s="3">
-        <v>18340500</v>
+        <v>17736500</v>
       </c>
       <c r="G8" s="3">
-        <v>18797200</v>
+        <v>18178200</v>
       </c>
       <c r="H8" s="3">
-        <v>18483300</v>
+        <v>17874600</v>
       </c>
       <c r="I8" s="3">
-        <v>20124200</v>
+        <v>19461500</v>
       </c>
       <c r="J8" s="3">
-        <v>19599300</v>
+        <v>18953900</v>
       </c>
       <c r="K8" s="3">
         <v>20112600</v>
@@ -756,25 +756,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>10109900</v>
+        <v>9777000</v>
       </c>
       <c r="E9" s="3">
-        <v>11722500</v>
+        <v>11336400</v>
       </c>
       <c r="F9" s="3">
-        <v>11354200</v>
+        <v>10980300</v>
       </c>
       <c r="G9" s="3">
-        <v>11591200</v>
+        <v>11209500</v>
       </c>
       <c r="H9" s="3">
-        <v>11298900</v>
+        <v>10926800</v>
       </c>
       <c r="I9" s="3">
-        <v>12089600</v>
+        <v>11691400</v>
       </c>
       <c r="J9" s="3">
-        <v>11337300</v>
+        <v>10963900</v>
       </c>
       <c r="K9" s="3">
         <v>12113800</v>
@@ -792,25 +792,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>5213700</v>
+        <v>5042000</v>
       </c>
       <c r="E10" s="3">
-        <v>6575700</v>
+        <v>6359200</v>
       </c>
       <c r="F10" s="3">
-        <v>6986300</v>
+        <v>6756200</v>
       </c>
       <c r="G10" s="3">
-        <v>7206100</v>
+        <v>6968800</v>
       </c>
       <c r="H10" s="3">
-        <v>7184400</v>
+        <v>6947800</v>
       </c>
       <c r="I10" s="3">
-        <v>8034700</v>
+        <v>7770100</v>
       </c>
       <c r="J10" s="3">
-        <v>8262000</v>
+        <v>7989900</v>
       </c>
       <c r="K10" s="3">
         <v>7998700</v>
@@ -844,25 +844,25 @@
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>721400</v>
+        <v>697700</v>
       </c>
       <c r="E12" s="3">
-        <v>803700</v>
+        <v>777200</v>
       </c>
       <c r="F12" s="3">
-        <v>856600</v>
+        <v>828400</v>
       </c>
       <c r="G12" s="3">
-        <v>856200</v>
+        <v>828000</v>
       </c>
       <c r="H12" s="3">
-        <v>914500</v>
+        <v>884400</v>
       </c>
       <c r="I12" s="3">
-        <v>929600</v>
+        <v>899000</v>
       </c>
       <c r="J12" s="3">
-        <v>895400</v>
+        <v>865900</v>
       </c>
       <c r="K12" s="3">
         <v>864400</v>
@@ -916,16 +916,16 @@
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>453500</v>
+        <v>438500</v>
       </c>
       <c r="E14" s="3">
-        <v>102600</v>
+        <v>99200</v>
       </c>
       <c r="F14" s="3">
-        <v>195200</v>
+        <v>188700</v>
       </c>
       <c r="G14" s="3">
-        <v>1837600</v>
+        <v>1777100</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>10</v>
@@ -934,7 +934,7 @@
         <v>10</v>
       </c>
       <c r="J14" s="3">
-        <v>9200</v>
+        <v>8900</v>
       </c>
       <c r="K14" s="3">
         <v>103700</v>
@@ -952,25 +952,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>495800</v>
+        <v>479500</v>
       </c>
       <c r="E15" s="3">
-        <v>485900</v>
+        <v>469900</v>
       </c>
       <c r="F15" s="3">
-        <v>226500</v>
+        <v>219100</v>
       </c>
       <c r="G15" s="3">
-        <v>365200</v>
+        <v>353200</v>
       </c>
       <c r="H15" s="3">
-        <v>367000</v>
+        <v>354900</v>
       </c>
       <c r="I15" s="3">
-        <v>338300</v>
+        <v>327200</v>
       </c>
       <c r="J15" s="3">
-        <v>339800</v>
+        <v>328600</v>
       </c>
       <c r="K15" s="3">
         <v>339900</v>
@@ -1001,25 +1001,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>15737500</v>
+        <v>15219300</v>
       </c>
       <c r="E17" s="3">
-        <v>17578100</v>
+        <v>16999200</v>
       </c>
       <c r="F17" s="3">
-        <v>17549400</v>
+        <v>16971500</v>
       </c>
       <c r="G17" s="3">
-        <v>19851000</v>
+        <v>19197300</v>
       </c>
       <c r="H17" s="3">
-        <v>18174600</v>
+        <v>17576100</v>
       </c>
       <c r="I17" s="3">
-        <v>19192300</v>
+        <v>18560300</v>
       </c>
       <c r="J17" s="3">
-        <v>18544700</v>
+        <v>17934000</v>
       </c>
       <c r="K17" s="3">
         <v>19010200</v>
@@ -1037,25 +1037,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-413900</v>
+        <v>-400200</v>
       </c>
       <c r="E18" s="3">
-        <v>720100</v>
+        <v>696300</v>
       </c>
       <c r="F18" s="3">
-        <v>791100</v>
+        <v>765100</v>
       </c>
       <c r="G18" s="3">
-        <v>-1053800</v>
+        <v>-1019100</v>
       </c>
       <c r="H18" s="3">
-        <v>308600</v>
+        <v>298500</v>
       </c>
       <c r="I18" s="3">
-        <v>931900</v>
+        <v>901200</v>
       </c>
       <c r="J18" s="3">
-        <v>1054600</v>
+        <v>1019900</v>
       </c>
       <c r="K18" s="3">
         <v>1102400</v>
@@ -1089,25 +1089,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>67800</v>
+        <v>65600</v>
       </c>
       <c r="E20" s="3">
-        <v>23900</v>
+        <v>23100</v>
       </c>
       <c r="F20" s="3">
-        <v>28100</v>
+        <v>27200</v>
       </c>
       <c r="G20" s="3">
-        <v>-16200</v>
+        <v>-15700</v>
       </c>
       <c r="H20" s="3">
-        <v>33000</v>
+        <v>32000</v>
       </c>
       <c r="I20" s="3">
         <v>-600</v>
       </c>
       <c r="J20" s="3">
-        <v>33200</v>
+        <v>32100</v>
       </c>
       <c r="K20" s="3">
         <v>47400</v>
@@ -1125,25 +1125,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>607000</v>
+        <v>589100</v>
       </c>
       <c r="E21" s="3">
-        <v>1843400</v>
+        <v>1785100</v>
       </c>
       <c r="F21" s="3">
-        <v>1678200</v>
+        <v>1624800</v>
       </c>
       <c r="G21" s="3">
-        <v>-83200</v>
+        <v>-78300</v>
       </c>
       <c r="H21" s="3">
-        <v>1315500</v>
+        <v>1274300</v>
       </c>
       <c r="I21" s="3">
-        <v>1909400</v>
+        <v>1848700</v>
       </c>
       <c r="J21" s="3">
-        <v>2070200</v>
+        <v>2004200</v>
       </c>
       <c r="K21" s="3">
         <v>2127000</v>
@@ -1161,25 +1161,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>27700</v>
+        <v>26800</v>
       </c>
       <c r="E22" s="3">
-        <v>52600</v>
+        <v>50800</v>
       </c>
       <c r="F22" s="3">
-        <v>54300</v>
+        <v>52500</v>
       </c>
       <c r="G22" s="3">
-        <v>61300</v>
+        <v>59300</v>
       </c>
       <c r="H22" s="3">
-        <v>68800</v>
+        <v>66500</v>
       </c>
       <c r="I22" s="3">
-        <v>59600</v>
+        <v>57600</v>
       </c>
       <c r="J22" s="3">
-        <v>64800</v>
+        <v>62600</v>
       </c>
       <c r="K22" s="3">
         <v>68300</v>
@@ -1197,25 +1197,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-373800</v>
+        <v>-361500</v>
       </c>
       <c r="E23" s="3">
-        <v>691400</v>
+        <v>668600</v>
       </c>
       <c r="F23" s="3">
-        <v>764900</v>
+        <v>739700</v>
       </c>
       <c r="G23" s="3">
-        <v>-1131300</v>
+        <v>-1094000</v>
       </c>
       <c r="H23" s="3">
-        <v>272900</v>
+        <v>263900</v>
       </c>
       <c r="I23" s="3">
-        <v>871700</v>
+        <v>843000</v>
       </c>
       <c r="J23" s="3">
-        <v>1023000</v>
+        <v>989300</v>
       </c>
       <c r="K23" s="3">
         <v>1081500</v>
@@ -1233,25 +1233,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>-76200</v>
+        <v>-73700</v>
       </c>
       <c r="E24" s="3">
-        <v>286800</v>
+        <v>277300</v>
       </c>
       <c r="F24" s="3">
-        <v>260400</v>
+        <v>251900</v>
       </c>
       <c r="G24" s="3">
-        <v>37800</v>
+        <v>36500</v>
       </c>
       <c r="H24" s="3">
-        <v>186900</v>
+        <v>180800</v>
       </c>
       <c r="I24" s="3">
-        <v>258500</v>
+        <v>250000</v>
       </c>
       <c r="J24" s="3">
-        <v>351600</v>
+        <v>340000</v>
       </c>
       <c r="K24" s="3">
         <v>362800</v>
@@ -1305,25 +1305,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-297600</v>
+        <v>-287800</v>
       </c>
       <c r="E26" s="3">
-        <v>404600</v>
+        <v>391300</v>
       </c>
       <c r="F26" s="3">
-        <v>504500</v>
+        <v>487900</v>
       </c>
       <c r="G26" s="3">
-        <v>-1169100</v>
+        <v>-1130600</v>
       </c>
       <c r="H26" s="3">
-        <v>86000</v>
+        <v>83100</v>
       </c>
       <c r="I26" s="3">
-        <v>613200</v>
+        <v>593000</v>
       </c>
       <c r="J26" s="3">
-        <v>671400</v>
+        <v>649300</v>
       </c>
       <c r="K26" s="3">
         <v>718600</v>
@@ -1341,25 +1341,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-298200</v>
+        <v>-288400</v>
       </c>
       <c r="E27" s="3">
-        <v>360300</v>
+        <v>348400</v>
       </c>
       <c r="F27" s="3">
-        <v>451200</v>
+        <v>436300</v>
       </c>
       <c r="G27" s="3">
-        <v>-1221300</v>
+        <v>-1181100</v>
       </c>
       <c r="H27" s="3">
-        <v>31800</v>
+        <v>30700</v>
       </c>
       <c r="I27" s="3">
-        <v>573700</v>
+        <v>554800</v>
       </c>
       <c r="J27" s="3">
-        <v>624600</v>
+        <v>604000</v>
       </c>
       <c r="K27" s="3">
         <v>667000</v>
@@ -1422,7 +1422,7 @@
         <v>10</v>
       </c>
       <c r="G29" s="3">
-        <v>-12000</v>
+        <v>-11600</v>
       </c>
       <c r="H29" s="3" t="s">
         <v>10</v>
@@ -1521,25 +1521,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-67800</v>
+        <v>-65600</v>
       </c>
       <c r="E32" s="3">
-        <v>-23900</v>
+        <v>-23100</v>
       </c>
       <c r="F32" s="3">
-        <v>-28100</v>
+        <v>-27200</v>
       </c>
       <c r="G32" s="3">
-        <v>16200</v>
+        <v>15700</v>
       </c>
       <c r="H32" s="3">
-        <v>-33000</v>
+        <v>-32000</v>
       </c>
       <c r="I32" s="3">
         <v>600</v>
       </c>
       <c r="J32" s="3">
-        <v>-33200</v>
+        <v>-32100</v>
       </c>
       <c r="K32" s="3">
         <v>-47400</v>
@@ -1557,25 +1557,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-298200</v>
+        <v>-288400</v>
       </c>
       <c r="E33" s="3">
-        <v>360300</v>
+        <v>348400</v>
       </c>
       <c r="F33" s="3">
-        <v>451200</v>
+        <v>436300</v>
       </c>
       <c r="G33" s="3">
-        <v>-1233200</v>
+        <v>-1192600</v>
       </c>
       <c r="H33" s="3">
-        <v>31800</v>
+        <v>30700</v>
       </c>
       <c r="I33" s="3">
-        <v>573700</v>
+        <v>554800</v>
       </c>
       <c r="J33" s="3">
-        <v>624600</v>
+        <v>604000</v>
       </c>
       <c r="K33" s="3">
         <v>667000</v>
@@ -1629,25 +1629,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-298200</v>
+        <v>-288400</v>
       </c>
       <c r="E35" s="3">
-        <v>360300</v>
+        <v>348400</v>
       </c>
       <c r="F35" s="3">
-        <v>451200</v>
+        <v>436300</v>
       </c>
       <c r="G35" s="3">
-        <v>-1233200</v>
+        <v>-1192600</v>
       </c>
       <c r="H35" s="3">
-        <v>31800</v>
+        <v>30700</v>
       </c>
       <c r="I35" s="3">
-        <v>573700</v>
+        <v>554800</v>
       </c>
       <c r="J35" s="3">
-        <v>624600</v>
+        <v>604000</v>
       </c>
       <c r="K35" s="3">
         <v>667000</v>
@@ -1738,25 +1738,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>3052300</v>
+        <v>2951800</v>
       </c>
       <c r="E41" s="3">
-        <v>2394900</v>
+        <v>2316000</v>
       </c>
       <c r="F41" s="3">
-        <v>2187900</v>
+        <v>2115900</v>
       </c>
       <c r="G41" s="3">
-        <v>1463400</v>
+        <v>1415200</v>
       </c>
       <c r="H41" s="3">
-        <v>1230700</v>
+        <v>1190200</v>
       </c>
       <c r="I41" s="3">
-        <v>1535200</v>
+        <v>1484700</v>
       </c>
       <c r="J41" s="3">
-        <v>1263100</v>
+        <v>1221500</v>
       </c>
       <c r="K41" s="3">
         <v>1320000</v>
@@ -1774,25 +1774,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>845600</v>
+        <v>817800</v>
       </c>
       <c r="E42" s="3">
-        <v>794600</v>
+        <v>768500</v>
       </c>
       <c r="F42" s="3">
-        <v>2681500</v>
+        <v>2593200</v>
       </c>
       <c r="G42" s="3">
-        <v>3161800</v>
+        <v>3057600</v>
       </c>
       <c r="H42" s="3">
-        <v>2519600</v>
+        <v>2436600</v>
       </c>
       <c r="I42" s="3">
-        <v>2481100</v>
+        <v>2399400</v>
       </c>
       <c r="J42" s="3">
-        <v>2369100</v>
+        <v>2291100</v>
       </c>
       <c r="K42" s="3">
         <v>2287100</v>
@@ -1810,25 +1810,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>3572300</v>
+        <v>3454700</v>
       </c>
       <c r="E43" s="3">
-        <v>3578200</v>
+        <v>3460400</v>
       </c>
       <c r="F43" s="3">
-        <v>5509800</v>
+        <v>5328300</v>
       </c>
       <c r="G43" s="3">
-        <v>5372500</v>
+        <v>5195600</v>
       </c>
       <c r="H43" s="3">
-        <v>5159100</v>
+        <v>4989200</v>
       </c>
       <c r="I43" s="3">
-        <v>5139900</v>
+        <v>4970600</v>
       </c>
       <c r="J43" s="3">
-        <v>5042700</v>
+        <v>4876600</v>
       </c>
       <c r="K43" s="3">
         <v>9979400</v>
@@ -1846,25 +1846,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>1749300</v>
+        <v>1691700</v>
       </c>
       <c r="E44" s="3">
-        <v>1833400</v>
+        <v>1773000</v>
       </c>
       <c r="F44" s="3">
-        <v>1892600</v>
+        <v>1830300</v>
       </c>
       <c r="G44" s="3">
-        <v>1644200</v>
+        <v>1590100</v>
       </c>
       <c r="H44" s="3">
-        <v>1845200</v>
+        <v>1784500</v>
       </c>
       <c r="I44" s="3">
-        <v>1886600</v>
+        <v>1824500</v>
       </c>
       <c r="J44" s="3">
-        <v>2045000</v>
+        <v>1977700</v>
       </c>
       <c r="K44" s="3">
         <v>1778600</v>
@@ -1882,25 +1882,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>425700</v>
+        <v>411600</v>
       </c>
       <c r="E45" s="3">
-        <v>10585900</v>
+        <v>10237300</v>
       </c>
       <c r="F45" s="3">
-        <v>388900</v>
+        <v>376100</v>
       </c>
       <c r="G45" s="3">
-        <v>456000</v>
+        <v>441000</v>
       </c>
       <c r="H45" s="3">
-        <v>534600</v>
+        <v>517000</v>
       </c>
       <c r="I45" s="3">
-        <v>556000</v>
+        <v>537700</v>
       </c>
       <c r="J45" s="3">
-        <v>361300</v>
+        <v>349400</v>
       </c>
       <c r="K45" s="3">
         <v>314300</v>
@@ -1918,25 +1918,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>9645200</v>
+        <v>9327500</v>
       </c>
       <c r="E46" s="3">
-        <v>19187000</v>
+        <v>18555200</v>
       </c>
       <c r="F46" s="3">
-        <v>12660700</v>
+        <v>12243800</v>
       </c>
       <c r="G46" s="3">
-        <v>12097900</v>
+        <v>11699500</v>
       </c>
       <c r="H46" s="3">
-        <v>11289200</v>
+        <v>10917500</v>
       </c>
       <c r="I46" s="3">
-        <v>11598800</v>
+        <v>11216800</v>
       </c>
       <c r="J46" s="3">
-        <v>11081200</v>
+        <v>10716300</v>
       </c>
       <c r="K46" s="3">
         <v>10689700</v>
@@ -1954,25 +1954,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>2132700</v>
+        <v>2062400</v>
       </c>
       <c r="E47" s="3">
-        <v>1534500</v>
+        <v>1483900</v>
       </c>
       <c r="F47" s="3">
-        <v>6771100</v>
+        <v>6548100</v>
       </c>
       <c r="G47" s="3">
-        <v>6562100</v>
+        <v>6346000</v>
       </c>
       <c r="H47" s="3">
-        <v>6720800</v>
+        <v>6499500</v>
       </c>
       <c r="I47" s="3">
-        <v>6269400</v>
+        <v>6063000</v>
       </c>
       <c r="J47" s="3">
-        <v>6017000</v>
+        <v>5818900</v>
       </c>
       <c r="K47" s="3">
         <v>5612200</v>
@@ -1990,25 +1990,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>2328700</v>
+        <v>2252000</v>
       </c>
       <c r="E48" s="3">
-        <v>2377700</v>
+        <v>2299400</v>
       </c>
       <c r="F48" s="3">
-        <v>2280100</v>
+        <v>2205000</v>
       </c>
       <c r="G48" s="3">
-        <v>2277500</v>
+        <v>2202500</v>
       </c>
       <c r="H48" s="3">
-        <v>2471200</v>
+        <v>2389800</v>
       </c>
       <c r="I48" s="3">
-        <v>2519400</v>
+        <v>2436400</v>
       </c>
       <c r="J48" s="3">
-        <v>2520000</v>
+        <v>2437000</v>
       </c>
       <c r="K48" s="3">
         <v>2894700</v>
@@ -2026,25 +2026,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>2054400</v>
+        <v>1986700</v>
       </c>
       <c r="E49" s="3">
-        <v>2112600</v>
+        <v>2043000</v>
       </c>
       <c r="F49" s="3">
-        <v>2002400</v>
+        <v>1936500</v>
       </c>
       <c r="G49" s="3">
-        <v>1978100</v>
+        <v>1912900</v>
       </c>
       <c r="H49" s="3">
-        <v>3536300</v>
+        <v>3419800</v>
       </c>
       <c r="I49" s="3">
-        <v>3770000</v>
+        <v>3645900</v>
       </c>
       <c r="J49" s="3">
-        <v>3969700</v>
+        <v>3839000</v>
       </c>
       <c r="K49" s="3">
         <v>3658100</v>
@@ -2134,25 +2134,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>1037600</v>
+        <v>1003400</v>
       </c>
       <c r="E52" s="3">
-        <v>912500</v>
+        <v>882500</v>
       </c>
       <c r="F52" s="3">
-        <v>1111600</v>
+        <v>1075000</v>
       </c>
       <c r="G52" s="3">
-        <v>1144200</v>
+        <v>1106500</v>
       </c>
       <c r="H52" s="3">
-        <v>1119600</v>
+        <v>1082700</v>
       </c>
       <c r="I52" s="3">
-        <v>1135900</v>
+        <v>1098500</v>
       </c>
       <c r="J52" s="3">
-        <v>1284300</v>
+        <v>1242000</v>
       </c>
       <c r="K52" s="3">
         <v>1345400</v>
@@ -2206,25 +2206,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>17198500</v>
+        <v>16632100</v>
       </c>
       <c r="E54" s="3">
-        <v>26124200</v>
+        <v>25264000</v>
       </c>
       <c r="F54" s="3">
-        <v>24826000</v>
+        <v>24008400</v>
       </c>
       <c r="G54" s="3">
-        <v>24059800</v>
+        <v>23267500</v>
       </c>
       <c r="H54" s="3">
-        <v>25137100</v>
+        <v>24309300</v>
       </c>
       <c r="I54" s="3">
-        <v>25293600</v>
+        <v>24460600</v>
       </c>
       <c r="J54" s="3">
-        <v>24872200</v>
+        <v>24053100</v>
       </c>
       <c r="K54" s="3">
         <v>23785000</v>
@@ -2274,25 +2274,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>2616000</v>
+        <v>2529900</v>
       </c>
       <c r="E57" s="3">
-        <v>2241600</v>
+        <v>2167700</v>
       </c>
       <c r="F57" s="3">
-        <v>2789400</v>
+        <v>2697500</v>
       </c>
       <c r="G57" s="3">
-        <v>2739600</v>
+        <v>2649400</v>
       </c>
       <c r="H57" s="3">
-        <v>2694600</v>
+        <v>2605900</v>
       </c>
       <c r="I57" s="3">
-        <v>2606600</v>
+        <v>2520700</v>
       </c>
       <c r="J57" s="3">
-        <v>2523300</v>
+        <v>2440200</v>
       </c>
       <c r="K57" s="3">
         <v>1965300</v>
@@ -2310,25 +2310,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>985800</v>
+        <v>953300</v>
       </c>
       <c r="E58" s="3">
-        <v>717200</v>
+        <v>693500</v>
       </c>
       <c r="F58" s="3">
-        <v>2432000</v>
+        <v>2351900</v>
       </c>
       <c r="G58" s="3">
-        <v>2033300</v>
+        <v>1966300</v>
       </c>
       <c r="H58" s="3">
-        <v>2094800</v>
+        <v>2025800</v>
       </c>
       <c r="I58" s="3">
-        <v>2375500</v>
+        <v>2297300</v>
       </c>
       <c r="J58" s="3">
-        <v>2023000</v>
+        <v>1956400</v>
       </c>
       <c r="K58" s="3">
         <v>2489400</v>
@@ -2346,25 +2346,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>2388200</v>
+        <v>2309500</v>
       </c>
       <c r="E59" s="3">
-        <v>11151700</v>
+        <v>10784500</v>
       </c>
       <c r="F59" s="3">
-        <v>2469300</v>
+        <v>2388000</v>
       </c>
       <c r="G59" s="3">
-        <v>2410500</v>
+        <v>2331200</v>
       </c>
       <c r="H59" s="3">
-        <v>2561700</v>
+        <v>2477300</v>
       </c>
       <c r="I59" s="3">
-        <v>2368500</v>
+        <v>2290500</v>
       </c>
       <c r="J59" s="3">
-        <v>2487800</v>
+        <v>2405900</v>
       </c>
       <c r="K59" s="3">
         <v>3200300</v>
@@ -2382,25 +2382,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>5990000</v>
+        <v>5792700</v>
       </c>
       <c r="E60" s="3">
-        <v>14110400</v>
+        <v>13645800</v>
       </c>
       <c r="F60" s="3">
-        <v>7690600</v>
+        <v>7437400</v>
       </c>
       <c r="G60" s="3">
-        <v>7183400</v>
+        <v>6946900</v>
       </c>
       <c r="H60" s="3">
-        <v>7351100</v>
+        <v>7109000</v>
       </c>
       <c r="I60" s="3">
-        <v>7350600</v>
+        <v>7108500</v>
       </c>
       <c r="J60" s="3">
-        <v>7034200</v>
+        <v>6802500</v>
       </c>
       <c r="K60" s="3">
         <v>7654900</v>
@@ -2418,25 +2418,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>1698200</v>
+        <v>1642300</v>
       </c>
       <c r="E61" s="3">
-        <v>1520600</v>
+        <v>1470500</v>
       </c>
       <c r="F61" s="3">
-        <v>6071500</v>
+        <v>5871500</v>
       </c>
       <c r="G61" s="3">
-        <v>6000800</v>
+        <v>5803200</v>
       </c>
       <c r="H61" s="3">
-        <v>5737500</v>
+        <v>5548500</v>
       </c>
       <c r="I61" s="3">
-        <v>5393500</v>
+        <v>5215900</v>
       </c>
       <c r="J61" s="3">
-        <v>5179200</v>
+        <v>5008600</v>
       </c>
       <c r="K61" s="3">
         <v>4143900</v>
@@ -2454,25 +2454,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1094000</v>
+        <v>1058000</v>
       </c>
       <c r="E62" s="3">
-        <v>1305500</v>
+        <v>1262600</v>
       </c>
       <c r="F62" s="3">
-        <v>1780900</v>
+        <v>1722200</v>
       </c>
       <c r="G62" s="3">
-        <v>1868000</v>
+        <v>1806500</v>
       </c>
       <c r="H62" s="3">
-        <v>1873800</v>
+        <v>1812100</v>
       </c>
       <c r="I62" s="3">
-        <v>2093300</v>
+        <v>2024400</v>
       </c>
       <c r="J62" s="3">
-        <v>2143000</v>
+        <v>2072500</v>
       </c>
       <c r="K62" s="3">
         <v>1961500</v>
@@ -2598,25 +2598,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>8815000</v>
+        <v>8524700</v>
       </c>
       <c r="E66" s="3">
-        <v>17739700</v>
+        <v>17155500</v>
       </c>
       <c r="F66" s="3">
-        <v>16330200</v>
+        <v>15792400</v>
       </c>
       <c r="G66" s="3">
-        <v>15773600</v>
+        <v>15254200</v>
       </c>
       <c r="H66" s="3">
-        <v>15643500</v>
+        <v>15128400</v>
       </c>
       <c r="I66" s="3">
-        <v>15474700</v>
+        <v>14965100</v>
       </c>
       <c r="J66" s="3">
-        <v>14995400</v>
+        <v>14501600</v>
       </c>
       <c r="K66" s="3">
         <v>14355600</v>
@@ -2794,25 +2794,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>5116000</v>
+        <v>4947500</v>
       </c>
       <c r="E72" s="3">
-        <v>5418000</v>
+        <v>5239600</v>
       </c>
       <c r="F72" s="3">
-        <v>5237100</v>
+        <v>5064700</v>
       </c>
       <c r="G72" s="3">
-        <v>4647100</v>
+        <v>4494100</v>
       </c>
       <c r="H72" s="3">
-        <v>5989300</v>
+        <v>5792100</v>
       </c>
       <c r="I72" s="3">
-        <v>6180400</v>
+        <v>5976900</v>
       </c>
       <c r="J72" s="3">
-        <v>5889300</v>
+        <v>5695400</v>
       </c>
       <c r="K72" s="3">
         <v>5728100</v>
@@ -2938,25 +2938,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>8383400</v>
+        <v>8107400</v>
       </c>
       <c r="E76" s="3">
-        <v>8384600</v>
+        <v>8108500</v>
       </c>
       <c r="F76" s="3">
-        <v>8495800</v>
+        <v>8216000</v>
       </c>
       <c r="G76" s="3">
-        <v>8286100</v>
+        <v>8013300</v>
       </c>
       <c r="H76" s="3">
-        <v>9493600</v>
+        <v>9181000</v>
       </c>
       <c r="I76" s="3">
-        <v>9818900</v>
+        <v>9495500</v>
       </c>
       <c r="J76" s="3">
-        <v>9876800</v>
+        <v>9551500</v>
       </c>
       <c r="K76" s="3">
         <v>9429400</v>
@@ -3051,25 +3051,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-298200</v>
+        <v>-288400</v>
       </c>
       <c r="E81" s="3">
-        <v>360300</v>
+        <v>348400</v>
       </c>
       <c r="F81" s="3">
-        <v>451200</v>
+        <v>436300</v>
       </c>
       <c r="G81" s="3">
-        <v>-1233200</v>
+        <v>-1192600</v>
       </c>
       <c r="H81" s="3">
-        <v>31800</v>
+        <v>30700</v>
       </c>
       <c r="I81" s="3">
-        <v>573700</v>
+        <v>554800</v>
       </c>
       <c r="J81" s="3">
-        <v>624600</v>
+        <v>604000</v>
       </c>
       <c r="K81" s="3">
         <v>667000</v>
@@ -3103,25 +3103,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>953100</v>
+        <v>921700</v>
       </c>
       <c r="E83" s="3">
-        <v>1099500</v>
+        <v>1063300</v>
       </c>
       <c r="F83" s="3">
-        <v>859000</v>
+        <v>830700</v>
       </c>
       <c r="G83" s="3">
-        <v>986900</v>
+        <v>954400</v>
       </c>
       <c r="H83" s="3">
-        <v>973800</v>
+        <v>941700</v>
       </c>
       <c r="I83" s="3">
-        <v>978100</v>
+        <v>945900</v>
       </c>
       <c r="J83" s="3">
-        <v>982400</v>
+        <v>950000</v>
       </c>
       <c r="K83" s="3">
         <v>973100</v>
@@ -3319,25 +3319,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>1156600</v>
+        <v>1118500</v>
       </c>
       <c r="E89" s="3">
-        <v>1063100</v>
+        <v>1028100</v>
       </c>
       <c r="F89" s="3">
-        <v>746500</v>
+        <v>722000</v>
       </c>
       <c r="G89" s="3">
-        <v>1004700</v>
+        <v>971600</v>
       </c>
       <c r="H89" s="3">
-        <v>804400</v>
+        <v>777900</v>
       </c>
       <c r="I89" s="3">
-        <v>909700</v>
+        <v>879700</v>
       </c>
       <c r="J89" s="3">
-        <v>934200</v>
+        <v>903400</v>
       </c>
       <c r="K89" s="3">
         <v>1345500</v>
@@ -3371,25 +3371,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-384000</v>
+        <v>-371400</v>
       </c>
       <c r="E91" s="3">
-        <v>-788900</v>
+        <v>-762900</v>
       </c>
       <c r="F91" s="3">
-        <v>-660100</v>
+        <v>-638400</v>
       </c>
       <c r="G91" s="3">
-        <v>-658500</v>
+        <v>-636800</v>
       </c>
       <c r="H91" s="3">
-        <v>-687300</v>
+        <v>-664700</v>
       </c>
       <c r="I91" s="3">
-        <v>-763200</v>
+        <v>-738100</v>
       </c>
       <c r="J91" s="3">
-        <v>-692100</v>
+        <v>-669300</v>
       </c>
       <c r="K91" s="3">
         <v>-668600</v>
@@ -3479,25 +3479,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-579000</v>
+        <v>-560000</v>
       </c>
       <c r="E94" s="3">
-        <v>-1499400</v>
+        <v>-1450000</v>
       </c>
       <c r="F94" s="3">
-        <v>-418400</v>
+        <v>-404700</v>
       </c>
       <c r="G94" s="3">
-        <v>-738600</v>
+        <v>-714300</v>
       </c>
       <c r="H94" s="3">
-        <v>-972200</v>
+        <v>-940200</v>
       </c>
       <c r="I94" s="3">
-        <v>-948700</v>
+        <v>-917500</v>
       </c>
       <c r="J94" s="3">
-        <v>-1306900</v>
+        <v>-1263900</v>
       </c>
       <c r="K94" s="3">
         <v>-1126100</v>
@@ -3531,25 +3531,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-135300</v>
+        <v>-130800</v>
       </c>
       <c r="E96" s="3">
-        <v>-171600</v>
+        <v>-166000</v>
       </c>
       <c r="F96" s="3">
-        <v>-115600</v>
+        <v>-111800</v>
       </c>
       <c r="G96" s="3">
-        <v>-132100</v>
+        <v>-127700</v>
       </c>
       <c r="H96" s="3">
-        <v>-264200</v>
+        <v>-255500</v>
       </c>
       <c r="I96" s="3">
-        <v>-227800</v>
+        <v>-220300</v>
       </c>
       <c r="J96" s="3">
-        <v>-221200</v>
+        <v>-214000</v>
       </c>
       <c r="K96" s="3">
         <v>-219200</v>
@@ -3675,25 +3675,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-37200</v>
+        <v>-36000</v>
       </c>
       <c r="E100" s="3">
-        <v>690100</v>
+        <v>667400</v>
       </c>
       <c r="F100" s="3">
-        <v>386500</v>
+        <v>373800</v>
       </c>
       <c r="G100" s="3">
-        <v>58400</v>
+        <v>56400</v>
       </c>
       <c r="H100" s="3">
-        <v>-181500</v>
+        <v>-175500</v>
       </c>
       <c r="I100" s="3">
-        <v>388700</v>
+        <v>375900</v>
       </c>
       <c r="J100" s="3">
-        <v>272700</v>
+        <v>263700</v>
       </c>
       <c r="K100" s="3">
         <v>-84600</v>
@@ -3711,25 +3711,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>66800</v>
+        <v>64600</v>
       </c>
       <c r="E101" s="3">
-        <v>-39000</v>
+        <v>-37700</v>
       </c>
       <c r="F101" s="3">
-        <v>9900</v>
+        <v>9600</v>
       </c>
       <c r="G101" s="3">
-        <v>-13500</v>
+        <v>-13000</v>
       </c>
       <c r="H101" s="3">
-        <v>-25300</v>
+        <v>-24500</v>
       </c>
       <c r="I101" s="3">
-        <v>-78000</v>
+        <v>-75400</v>
       </c>
       <c r="J101" s="3">
-        <v>78800</v>
+        <v>76200</v>
       </c>
       <c r="K101" s="3">
         <v>75800</v>
@@ -3747,25 +3747,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>607200</v>
+        <v>587200</v>
       </c>
       <c r="E102" s="3">
-        <v>214900</v>
+        <v>207800</v>
       </c>
       <c r="F102" s="3">
-        <v>724500</v>
+        <v>700700</v>
       </c>
       <c r="G102" s="3">
-        <v>311000</v>
+        <v>300800</v>
       </c>
       <c r="H102" s="3">
-        <v>-374600</v>
+        <v>-362200</v>
       </c>
       <c r="I102" s="3">
-        <v>271700</v>
+        <v>262800</v>
       </c>
       <c r="J102" s="3">
-        <v>-21200</v>
+        <v>-20500</v>
       </c>
       <c r="K102" s="3">
         <v>210600</v>

--- a/AAII_Financials/Yearly/RICOY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/RICOY_YR_FIN.xlsx
@@ -720,25 +720,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>14819000</v>
+        <v>14348000</v>
       </c>
       <c r="E8" s="3">
-        <v>17695600</v>
+        <v>17133200</v>
       </c>
       <c r="F8" s="3">
-        <v>17736500</v>
+        <v>17172800</v>
       </c>
       <c r="G8" s="3">
-        <v>18178200</v>
+        <v>17600500</v>
       </c>
       <c r="H8" s="3">
-        <v>17874600</v>
+        <v>17306500</v>
       </c>
       <c r="I8" s="3">
-        <v>19461500</v>
+        <v>18843000</v>
       </c>
       <c r="J8" s="3">
-        <v>18953900</v>
+        <v>18351500</v>
       </c>
       <c r="K8" s="3">
         <v>20112600</v>
@@ -756,25 +756,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>9777000</v>
+        <v>9466300</v>
       </c>
       <c r="E9" s="3">
-        <v>11336400</v>
+        <v>10976100</v>
       </c>
       <c r="F9" s="3">
-        <v>10980300</v>
+        <v>10631300</v>
       </c>
       <c r="G9" s="3">
-        <v>11209500</v>
+        <v>10853200</v>
       </c>
       <c r="H9" s="3">
-        <v>10926800</v>
+        <v>10579500</v>
       </c>
       <c r="I9" s="3">
-        <v>11691400</v>
+        <v>11319900</v>
       </c>
       <c r="J9" s="3">
-        <v>10963900</v>
+        <v>10615500</v>
       </c>
       <c r="K9" s="3">
         <v>12113800</v>
@@ -792,25 +792,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>5042000</v>
+        <v>4881800</v>
       </c>
       <c r="E10" s="3">
-        <v>6359200</v>
+        <v>6157000</v>
       </c>
       <c r="F10" s="3">
-        <v>6756200</v>
+        <v>6541500</v>
       </c>
       <c r="G10" s="3">
-        <v>6968800</v>
+        <v>6747300</v>
       </c>
       <c r="H10" s="3">
-        <v>6947800</v>
+        <v>6727000</v>
       </c>
       <c r="I10" s="3">
-        <v>7770100</v>
+        <v>7523200</v>
       </c>
       <c r="J10" s="3">
-        <v>7989900</v>
+        <v>7736000</v>
       </c>
       <c r="K10" s="3">
         <v>7998700</v>
@@ -844,25 +844,25 @@
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>697700</v>
+        <v>675500</v>
       </c>
       <c r="E12" s="3">
-        <v>777200</v>
+        <v>752500</v>
       </c>
       <c r="F12" s="3">
-        <v>828400</v>
+        <v>802000</v>
       </c>
       <c r="G12" s="3">
-        <v>828000</v>
+        <v>801700</v>
       </c>
       <c r="H12" s="3">
-        <v>884400</v>
+        <v>856300</v>
       </c>
       <c r="I12" s="3">
-        <v>899000</v>
+        <v>870500</v>
       </c>
       <c r="J12" s="3">
-        <v>865900</v>
+        <v>838400</v>
       </c>
       <c r="K12" s="3">
         <v>864400</v>
@@ -916,16 +916,16 @@
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>438500</v>
+        <v>424600</v>
       </c>
       <c r="E14" s="3">
-        <v>99200</v>
+        <v>96000</v>
       </c>
       <c r="F14" s="3">
-        <v>188700</v>
+        <v>182700</v>
       </c>
       <c r="G14" s="3">
-        <v>1777100</v>
+        <v>1720600</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>10</v>
@@ -934,7 +934,7 @@
         <v>10</v>
       </c>
       <c r="J14" s="3">
-        <v>8900</v>
+        <v>8600</v>
       </c>
       <c r="K14" s="3">
         <v>103700</v>
@@ -952,25 +952,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>479500</v>
+        <v>464200</v>
       </c>
       <c r="E15" s="3">
-        <v>469900</v>
+        <v>454900</v>
       </c>
       <c r="F15" s="3">
-        <v>219100</v>
+        <v>212100</v>
       </c>
       <c r="G15" s="3">
-        <v>353200</v>
+        <v>342000</v>
       </c>
       <c r="H15" s="3">
-        <v>354900</v>
+        <v>343600</v>
       </c>
       <c r="I15" s="3">
-        <v>327200</v>
+        <v>316800</v>
       </c>
       <c r="J15" s="3">
-        <v>328600</v>
+        <v>318200</v>
       </c>
       <c r="K15" s="3">
         <v>339900</v>
@@ -1001,25 +1001,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>15219300</v>
+        <v>14735600</v>
       </c>
       <c r="E17" s="3">
-        <v>16999200</v>
+        <v>16459000</v>
       </c>
       <c r="F17" s="3">
-        <v>16971500</v>
+        <v>16432100</v>
       </c>
       <c r="G17" s="3">
-        <v>19197300</v>
+        <v>18587200</v>
       </c>
       <c r="H17" s="3">
-        <v>17576100</v>
+        <v>17017500</v>
       </c>
       <c r="I17" s="3">
-        <v>18560300</v>
+        <v>17970400</v>
       </c>
       <c r="J17" s="3">
-        <v>17934000</v>
+        <v>17364000</v>
       </c>
       <c r="K17" s="3">
         <v>19010200</v>
@@ -1037,25 +1037,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-400200</v>
+        <v>-387500</v>
       </c>
       <c r="E18" s="3">
-        <v>696300</v>
+        <v>674200</v>
       </c>
       <c r="F18" s="3">
-        <v>765100</v>
+        <v>740700</v>
       </c>
       <c r="G18" s="3">
-        <v>-1019100</v>
+        <v>-986700</v>
       </c>
       <c r="H18" s="3">
-        <v>298500</v>
+        <v>289000</v>
       </c>
       <c r="I18" s="3">
-        <v>901200</v>
+        <v>872600</v>
       </c>
       <c r="J18" s="3">
-        <v>1019900</v>
+        <v>987500</v>
       </c>
       <c r="K18" s="3">
         <v>1102400</v>
@@ -1089,25 +1089,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>65600</v>
+        <v>63500</v>
       </c>
       <c r="E20" s="3">
-        <v>23100</v>
+        <v>22400</v>
       </c>
       <c r="F20" s="3">
-        <v>27200</v>
+        <v>26300</v>
       </c>
       <c r="G20" s="3">
-        <v>-15700</v>
+        <v>-15200</v>
       </c>
       <c r="H20" s="3">
-        <v>32000</v>
+        <v>30900</v>
       </c>
       <c r="I20" s="3">
         <v>-600</v>
       </c>
       <c r="J20" s="3">
-        <v>32100</v>
+        <v>31100</v>
       </c>
       <c r="K20" s="3">
         <v>47400</v>
@@ -1125,25 +1125,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>589100</v>
+        <v>578800</v>
       </c>
       <c r="E21" s="3">
-        <v>1785100</v>
+        <v>1738100</v>
       </c>
       <c r="F21" s="3">
-        <v>1624800</v>
+        <v>1580800</v>
       </c>
       <c r="G21" s="3">
-        <v>-78300</v>
+        <v>-67000</v>
       </c>
       <c r="H21" s="3">
-        <v>1274300</v>
+        <v>1242400</v>
       </c>
       <c r="I21" s="3">
-        <v>1848700</v>
+        <v>1798600</v>
       </c>
       <c r="J21" s="3">
-        <v>2004200</v>
+        <v>1949200</v>
       </c>
       <c r="K21" s="3">
         <v>2127000</v>
@@ -1161,25 +1161,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>26800</v>
+        <v>26000</v>
       </c>
       <c r="E22" s="3">
-        <v>50800</v>
+        <v>49200</v>
       </c>
       <c r="F22" s="3">
-        <v>52500</v>
+        <v>50900</v>
       </c>
       <c r="G22" s="3">
-        <v>59300</v>
+        <v>57400</v>
       </c>
       <c r="H22" s="3">
-        <v>66500</v>
+        <v>64400</v>
       </c>
       <c r="I22" s="3">
-        <v>57600</v>
+        <v>55800</v>
       </c>
       <c r="J22" s="3">
-        <v>62600</v>
+        <v>60700</v>
       </c>
       <c r="K22" s="3">
         <v>68300</v>
@@ -1197,25 +1197,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-361500</v>
+        <v>-350000</v>
       </c>
       <c r="E23" s="3">
-        <v>668600</v>
+        <v>647400</v>
       </c>
       <c r="F23" s="3">
-        <v>739700</v>
+        <v>716200</v>
       </c>
       <c r="G23" s="3">
-        <v>-1094000</v>
+        <v>-1059300</v>
       </c>
       <c r="H23" s="3">
-        <v>263900</v>
+        <v>255500</v>
       </c>
       <c r="I23" s="3">
-        <v>843000</v>
+        <v>816200</v>
       </c>
       <c r="J23" s="3">
-        <v>989300</v>
+        <v>957900</v>
       </c>
       <c r="K23" s="3">
         <v>1081500</v>
@@ -1233,25 +1233,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>-73700</v>
+        <v>-71300</v>
       </c>
       <c r="E24" s="3">
-        <v>277300</v>
+        <v>268500</v>
       </c>
       <c r="F24" s="3">
-        <v>251900</v>
+        <v>243800</v>
       </c>
       <c r="G24" s="3">
-        <v>36500</v>
+        <v>35400</v>
       </c>
       <c r="H24" s="3">
-        <v>180800</v>
+        <v>175000</v>
       </c>
       <c r="I24" s="3">
-        <v>250000</v>
+        <v>242100</v>
       </c>
       <c r="J24" s="3">
-        <v>340000</v>
+        <v>329200</v>
       </c>
       <c r="K24" s="3">
         <v>362800</v>
@@ -1305,25 +1305,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-287800</v>
+        <v>-278600</v>
       </c>
       <c r="E26" s="3">
-        <v>391300</v>
+        <v>378800</v>
       </c>
       <c r="F26" s="3">
-        <v>487900</v>
+        <v>472400</v>
       </c>
       <c r="G26" s="3">
-        <v>-1130600</v>
+        <v>-1094600</v>
       </c>
       <c r="H26" s="3">
-        <v>83100</v>
+        <v>80500</v>
       </c>
       <c r="I26" s="3">
-        <v>593000</v>
+        <v>574100</v>
       </c>
       <c r="J26" s="3">
-        <v>649300</v>
+        <v>628700</v>
       </c>
       <c r="K26" s="3">
         <v>718600</v>
@@ -1341,25 +1341,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-288400</v>
+        <v>-279200</v>
       </c>
       <c r="E27" s="3">
-        <v>348400</v>
+        <v>337300</v>
       </c>
       <c r="F27" s="3">
-        <v>436300</v>
+        <v>422500</v>
       </c>
       <c r="G27" s="3">
-        <v>-1181100</v>
+        <v>-1143500</v>
       </c>
       <c r="H27" s="3">
-        <v>30700</v>
+        <v>29800</v>
       </c>
       <c r="I27" s="3">
-        <v>554800</v>
+        <v>537200</v>
       </c>
       <c r="J27" s="3">
-        <v>604000</v>
+        <v>584800</v>
       </c>
       <c r="K27" s="3">
         <v>667000</v>
@@ -1422,7 +1422,7 @@
         <v>10</v>
       </c>
       <c r="G29" s="3">
-        <v>-11600</v>
+        <v>-11200</v>
       </c>
       <c r="H29" s="3" t="s">
         <v>10</v>
@@ -1521,25 +1521,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-65600</v>
+        <v>-63500</v>
       </c>
       <c r="E32" s="3">
-        <v>-23100</v>
+        <v>-22400</v>
       </c>
       <c r="F32" s="3">
-        <v>-27200</v>
+        <v>-26300</v>
       </c>
       <c r="G32" s="3">
-        <v>15700</v>
+        <v>15200</v>
       </c>
       <c r="H32" s="3">
-        <v>-32000</v>
+        <v>-30900</v>
       </c>
       <c r="I32" s="3">
         <v>600</v>
       </c>
       <c r="J32" s="3">
-        <v>-32100</v>
+        <v>-31100</v>
       </c>
       <c r="K32" s="3">
         <v>-47400</v>
@@ -1557,25 +1557,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-288400</v>
+        <v>-279200</v>
       </c>
       <c r="E33" s="3">
-        <v>348400</v>
+        <v>337300</v>
       </c>
       <c r="F33" s="3">
-        <v>436300</v>
+        <v>422500</v>
       </c>
       <c r="G33" s="3">
-        <v>-1192600</v>
+        <v>-1154700</v>
       </c>
       <c r="H33" s="3">
-        <v>30700</v>
+        <v>29800</v>
       </c>
       <c r="I33" s="3">
-        <v>554800</v>
+        <v>537200</v>
       </c>
       <c r="J33" s="3">
-        <v>604000</v>
+        <v>584800</v>
       </c>
       <c r="K33" s="3">
         <v>667000</v>
@@ -1629,25 +1629,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-288400</v>
+        <v>-279200</v>
       </c>
       <c r="E35" s="3">
-        <v>348400</v>
+        <v>337300</v>
       </c>
       <c r="F35" s="3">
-        <v>436300</v>
+        <v>422500</v>
       </c>
       <c r="G35" s="3">
-        <v>-1192600</v>
+        <v>-1154700</v>
       </c>
       <c r="H35" s="3">
-        <v>30700</v>
+        <v>29800</v>
       </c>
       <c r="I35" s="3">
-        <v>554800</v>
+        <v>537200</v>
       </c>
       <c r="J35" s="3">
-        <v>604000</v>
+        <v>584800</v>
       </c>
       <c r="K35" s="3">
         <v>667000</v>
@@ -1738,25 +1738,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>2951800</v>
+        <v>2858000</v>
       </c>
       <c r="E41" s="3">
-        <v>2316000</v>
+        <v>2242400</v>
       </c>
       <c r="F41" s="3">
-        <v>2115900</v>
+        <v>2048600</v>
       </c>
       <c r="G41" s="3">
-        <v>1415200</v>
+        <v>1370200</v>
       </c>
       <c r="H41" s="3">
-        <v>1190200</v>
+        <v>1152300</v>
       </c>
       <c r="I41" s="3">
-        <v>1484700</v>
+        <v>1437500</v>
       </c>
       <c r="J41" s="3">
-        <v>1221500</v>
+        <v>1182700</v>
       </c>
       <c r="K41" s="3">
         <v>1320000</v>
@@ -1774,25 +1774,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>817800</v>
+        <v>791800</v>
       </c>
       <c r="E42" s="3">
-        <v>768500</v>
+        <v>744000</v>
       </c>
       <c r="F42" s="3">
-        <v>2593200</v>
+        <v>2510800</v>
       </c>
       <c r="G42" s="3">
-        <v>3057600</v>
+        <v>2960500</v>
       </c>
       <c r="H42" s="3">
-        <v>2436600</v>
+        <v>2359200</v>
       </c>
       <c r="I42" s="3">
-        <v>2399400</v>
+        <v>2323100</v>
       </c>
       <c r="J42" s="3">
-        <v>2291100</v>
+        <v>2218300</v>
       </c>
       <c r="K42" s="3">
         <v>2287100</v>
@@ -1810,25 +1810,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>3454700</v>
+        <v>3344900</v>
       </c>
       <c r="E43" s="3">
-        <v>3460400</v>
+        <v>3350400</v>
       </c>
       <c r="F43" s="3">
-        <v>5328300</v>
+        <v>5159000</v>
       </c>
       <c r="G43" s="3">
-        <v>5195600</v>
+        <v>5030500</v>
       </c>
       <c r="H43" s="3">
-        <v>4989200</v>
+        <v>4830700</v>
       </c>
       <c r="I43" s="3">
-        <v>4970600</v>
+        <v>4812700</v>
       </c>
       <c r="J43" s="3">
-        <v>4876600</v>
+        <v>4721600</v>
       </c>
       <c r="K43" s="3">
         <v>9979400</v>
@@ -1846,25 +1846,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>1691700</v>
+        <v>1637900</v>
       </c>
       <c r="E44" s="3">
-        <v>1773000</v>
+        <v>1716600</v>
       </c>
       <c r="F44" s="3">
-        <v>1830300</v>
+        <v>1772100</v>
       </c>
       <c r="G44" s="3">
-        <v>1590100</v>
+        <v>1539500</v>
       </c>
       <c r="H44" s="3">
-        <v>1784500</v>
+        <v>1727800</v>
       </c>
       <c r="I44" s="3">
-        <v>1824500</v>
+        <v>1766500</v>
       </c>
       <c r="J44" s="3">
-        <v>1977700</v>
+        <v>1914800</v>
       </c>
       <c r="K44" s="3">
         <v>1778600</v>
@@ -1882,25 +1882,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>411600</v>
+        <v>398600</v>
       </c>
       <c r="E45" s="3">
-        <v>10237300</v>
+        <v>9911900</v>
       </c>
       <c r="F45" s="3">
-        <v>376100</v>
+        <v>364100</v>
       </c>
       <c r="G45" s="3">
-        <v>441000</v>
+        <v>426900</v>
       </c>
       <c r="H45" s="3">
-        <v>517000</v>
+        <v>500600</v>
       </c>
       <c r="I45" s="3">
-        <v>537700</v>
+        <v>520600</v>
       </c>
       <c r="J45" s="3">
-        <v>349400</v>
+        <v>338300</v>
       </c>
       <c r="K45" s="3">
         <v>314300</v>
@@ -1918,25 +1918,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>9327500</v>
+        <v>9031100</v>
       </c>
       <c r="E46" s="3">
-        <v>18555200</v>
+        <v>17965400</v>
       </c>
       <c r="F46" s="3">
-        <v>12243800</v>
+        <v>11854700</v>
       </c>
       <c r="G46" s="3">
-        <v>11699500</v>
+        <v>11327700</v>
       </c>
       <c r="H46" s="3">
-        <v>10917500</v>
+        <v>10570500</v>
       </c>
       <c r="I46" s="3">
-        <v>11216800</v>
+        <v>10860400</v>
       </c>
       <c r="J46" s="3">
-        <v>10716300</v>
+        <v>10375700</v>
       </c>
       <c r="K46" s="3">
         <v>10689700</v>
@@ -1954,25 +1954,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>2062400</v>
+        <v>1996900</v>
       </c>
       <c r="E47" s="3">
-        <v>1483900</v>
+        <v>1436800</v>
       </c>
       <c r="F47" s="3">
-        <v>6548100</v>
+        <v>6340000</v>
       </c>
       <c r="G47" s="3">
-        <v>6346000</v>
+        <v>6144300</v>
       </c>
       <c r="H47" s="3">
-        <v>6499500</v>
+        <v>6292900</v>
       </c>
       <c r="I47" s="3">
-        <v>6063000</v>
+        <v>5870300</v>
       </c>
       <c r="J47" s="3">
-        <v>5818900</v>
+        <v>5633900</v>
       </c>
       <c r="K47" s="3">
         <v>5612200</v>
@@ -1990,25 +1990,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>2252000</v>
+        <v>2180400</v>
       </c>
       <c r="E48" s="3">
-        <v>2299400</v>
+        <v>2226300</v>
       </c>
       <c r="F48" s="3">
-        <v>2205000</v>
+        <v>2134900</v>
       </c>
       <c r="G48" s="3">
-        <v>2202500</v>
+        <v>2132500</v>
       </c>
       <c r="H48" s="3">
-        <v>2389800</v>
+        <v>2313800</v>
       </c>
       <c r="I48" s="3">
-        <v>2436400</v>
+        <v>2359000</v>
       </c>
       <c r="J48" s="3">
-        <v>2437000</v>
+        <v>2359500</v>
       </c>
       <c r="K48" s="3">
         <v>2894700</v>
@@ -2026,25 +2026,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>1986700</v>
+        <v>1923600</v>
       </c>
       <c r="E49" s="3">
-        <v>2043000</v>
+        <v>1978100</v>
       </c>
       <c r="F49" s="3">
-        <v>1936500</v>
+        <v>1874900</v>
       </c>
       <c r="G49" s="3">
-        <v>1912900</v>
+        <v>1852100</v>
       </c>
       <c r="H49" s="3">
-        <v>3419800</v>
+        <v>3311100</v>
       </c>
       <c r="I49" s="3">
-        <v>3645900</v>
+        <v>3530000</v>
       </c>
       <c r="J49" s="3">
-        <v>3839000</v>
+        <v>3717000</v>
       </c>
       <c r="K49" s="3">
         <v>3658100</v>
@@ -2134,25 +2134,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>1003400</v>
+        <v>971500</v>
       </c>
       <c r="E52" s="3">
-        <v>882500</v>
+        <v>854400</v>
       </c>
       <c r="F52" s="3">
-        <v>1075000</v>
+        <v>1040800</v>
       </c>
       <c r="G52" s="3">
-        <v>1106500</v>
+        <v>1071400</v>
       </c>
       <c r="H52" s="3">
-        <v>1082700</v>
+        <v>1048300</v>
       </c>
       <c r="I52" s="3">
-        <v>1098500</v>
+        <v>1063600</v>
       </c>
       <c r="J52" s="3">
-        <v>1242000</v>
+        <v>1202500</v>
       </c>
       <c r="K52" s="3">
         <v>1345400</v>
@@ -2206,25 +2206,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>16632100</v>
+        <v>16103500</v>
       </c>
       <c r="E54" s="3">
-        <v>25264000</v>
+        <v>24461000</v>
       </c>
       <c r="F54" s="3">
-        <v>24008400</v>
+        <v>23245400</v>
       </c>
       <c r="G54" s="3">
-        <v>23267500</v>
+        <v>22528000</v>
       </c>
       <c r="H54" s="3">
-        <v>24309300</v>
+        <v>23536700</v>
       </c>
       <c r="I54" s="3">
-        <v>24460600</v>
+        <v>23683200</v>
       </c>
       <c r="J54" s="3">
-        <v>24053100</v>
+        <v>23288700</v>
       </c>
       <c r="K54" s="3">
         <v>23785000</v>
@@ -2274,25 +2274,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>2529900</v>
+        <v>2449500</v>
       </c>
       <c r="E57" s="3">
-        <v>2167700</v>
+        <v>2098800</v>
       </c>
       <c r="F57" s="3">
-        <v>2697500</v>
+        <v>2611800</v>
       </c>
       <c r="G57" s="3">
-        <v>2649400</v>
+        <v>2565200</v>
       </c>
       <c r="H57" s="3">
-        <v>2605900</v>
+        <v>2523100</v>
       </c>
       <c r="I57" s="3">
-        <v>2520700</v>
+        <v>2440600</v>
       </c>
       <c r="J57" s="3">
-        <v>2440200</v>
+        <v>2362700</v>
       </c>
       <c r="K57" s="3">
         <v>1965300</v>
@@ -2310,25 +2310,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>953300</v>
+        <v>923000</v>
       </c>
       <c r="E58" s="3">
-        <v>693500</v>
+        <v>671500</v>
       </c>
       <c r="F58" s="3">
-        <v>2351900</v>
+        <v>2277100</v>
       </c>
       <c r="G58" s="3">
-        <v>1966300</v>
+        <v>1903800</v>
       </c>
       <c r="H58" s="3">
-        <v>2025800</v>
+        <v>1961400</v>
       </c>
       <c r="I58" s="3">
-        <v>2297300</v>
+        <v>2224200</v>
       </c>
       <c r="J58" s="3">
-        <v>1956400</v>
+        <v>1894200</v>
       </c>
       <c r="K58" s="3">
         <v>2489400</v>
@@ -2346,25 +2346,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>2309500</v>
+        <v>2236100</v>
       </c>
       <c r="E59" s="3">
-        <v>10784500</v>
+        <v>10441700</v>
       </c>
       <c r="F59" s="3">
-        <v>2388000</v>
+        <v>2312100</v>
       </c>
       <c r="G59" s="3">
-        <v>2331200</v>
+        <v>2257100</v>
       </c>
       <c r="H59" s="3">
-        <v>2477300</v>
+        <v>2398600</v>
       </c>
       <c r="I59" s="3">
-        <v>2290500</v>
+        <v>2217700</v>
       </c>
       <c r="J59" s="3">
-        <v>2405900</v>
+        <v>2329400</v>
       </c>
       <c r="K59" s="3">
         <v>3200300</v>
@@ -2382,25 +2382,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>5792700</v>
+        <v>5608600</v>
       </c>
       <c r="E60" s="3">
-        <v>13645800</v>
+        <v>13212100</v>
       </c>
       <c r="F60" s="3">
-        <v>7437400</v>
+        <v>7201000</v>
       </c>
       <c r="G60" s="3">
-        <v>6946900</v>
+        <v>6726100</v>
       </c>
       <c r="H60" s="3">
-        <v>7109000</v>
+        <v>6883100</v>
       </c>
       <c r="I60" s="3">
-        <v>7108500</v>
+        <v>6882600</v>
       </c>
       <c r="J60" s="3">
-        <v>6802500</v>
+        <v>6586300</v>
       </c>
       <c r="K60" s="3">
         <v>7654900</v>
@@ -2418,25 +2418,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>1642300</v>
+        <v>1590100</v>
       </c>
       <c r="E61" s="3">
-        <v>1470500</v>
+        <v>1423800</v>
       </c>
       <c r="F61" s="3">
-        <v>5871500</v>
+        <v>5684900</v>
       </c>
       <c r="G61" s="3">
-        <v>5803200</v>
+        <v>5618800</v>
       </c>
       <c r="H61" s="3">
-        <v>5548500</v>
+        <v>5372200</v>
       </c>
       <c r="I61" s="3">
-        <v>5215900</v>
+        <v>5050100</v>
       </c>
       <c r="J61" s="3">
-        <v>5008600</v>
+        <v>4849400</v>
       </c>
       <c r="K61" s="3">
         <v>4143900</v>
@@ -2454,25 +2454,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1058000</v>
+        <v>1024300</v>
       </c>
       <c r="E62" s="3">
-        <v>1262600</v>
+        <v>1222400</v>
       </c>
       <c r="F62" s="3">
-        <v>1722200</v>
+        <v>1667500</v>
       </c>
       <c r="G62" s="3">
-        <v>1806500</v>
+        <v>1749000</v>
       </c>
       <c r="H62" s="3">
-        <v>1812100</v>
+        <v>1754500</v>
       </c>
       <c r="I62" s="3">
-        <v>2024400</v>
+        <v>1960100</v>
       </c>
       <c r="J62" s="3">
-        <v>2072500</v>
+        <v>2006600</v>
       </c>
       <c r="K62" s="3">
         <v>1961500</v>
@@ -2598,25 +2598,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>8524700</v>
+        <v>8253800</v>
       </c>
       <c r="E66" s="3">
-        <v>17155500</v>
+        <v>16610200</v>
       </c>
       <c r="F66" s="3">
-        <v>15792400</v>
+        <v>15290500</v>
       </c>
       <c r="G66" s="3">
-        <v>15254200</v>
+        <v>14769400</v>
       </c>
       <c r="H66" s="3">
-        <v>15128400</v>
+        <v>14647600</v>
       </c>
       <c r="I66" s="3">
-        <v>14965100</v>
+        <v>14489500</v>
       </c>
       <c r="J66" s="3">
-        <v>14501600</v>
+        <v>14040700</v>
       </c>
       <c r="K66" s="3">
         <v>14355600</v>
@@ -2794,25 +2794,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>4947500</v>
+        <v>4790300</v>
       </c>
       <c r="E72" s="3">
-        <v>5239600</v>
+        <v>5073100</v>
       </c>
       <c r="F72" s="3">
-        <v>5064700</v>
+        <v>4903700</v>
       </c>
       <c r="G72" s="3">
-        <v>4494100</v>
+        <v>4351300</v>
       </c>
       <c r="H72" s="3">
-        <v>5792100</v>
+        <v>5608000</v>
       </c>
       <c r="I72" s="3">
-        <v>5976900</v>
+        <v>5787000</v>
       </c>
       <c r="J72" s="3">
-        <v>5695400</v>
+        <v>5514400</v>
       </c>
       <c r="K72" s="3">
         <v>5728100</v>
@@ -2938,25 +2938,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>8107400</v>
+        <v>7849700</v>
       </c>
       <c r="E76" s="3">
-        <v>8108500</v>
+        <v>7850800</v>
       </c>
       <c r="F76" s="3">
-        <v>8216000</v>
+        <v>7954900</v>
       </c>
       <c r="G76" s="3">
-        <v>8013300</v>
+        <v>7758600</v>
       </c>
       <c r="H76" s="3">
-        <v>9181000</v>
+        <v>8889200</v>
       </c>
       <c r="I76" s="3">
-        <v>9495500</v>
+        <v>9193700</v>
       </c>
       <c r="J76" s="3">
-        <v>9551500</v>
+        <v>9247900</v>
       </c>
       <c r="K76" s="3">
         <v>9429400</v>
@@ -3051,25 +3051,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-288400</v>
+        <v>-279200</v>
       </c>
       <c r="E81" s="3">
-        <v>348400</v>
+        <v>337300</v>
       </c>
       <c r="F81" s="3">
-        <v>436300</v>
+        <v>422500</v>
       </c>
       <c r="G81" s="3">
-        <v>-1192600</v>
+        <v>-1154700</v>
       </c>
       <c r="H81" s="3">
-        <v>30700</v>
+        <v>29800</v>
       </c>
       <c r="I81" s="3">
-        <v>554800</v>
+        <v>537200</v>
       </c>
       <c r="J81" s="3">
-        <v>604000</v>
+        <v>584800</v>
       </c>
       <c r="K81" s="3">
         <v>667000</v>
@@ -3103,25 +3103,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>921700</v>
+        <v>892400</v>
       </c>
       <c r="E83" s="3">
-        <v>1063300</v>
+        <v>1029500</v>
       </c>
       <c r="F83" s="3">
-        <v>830700</v>
+        <v>804300</v>
       </c>
       <c r="G83" s="3">
-        <v>954400</v>
+        <v>924000</v>
       </c>
       <c r="H83" s="3">
-        <v>941700</v>
+        <v>911800</v>
       </c>
       <c r="I83" s="3">
-        <v>945900</v>
+        <v>915800</v>
       </c>
       <c r="J83" s="3">
-        <v>950000</v>
+        <v>919800</v>
       </c>
       <c r="K83" s="3">
         <v>973100</v>
@@ -3319,25 +3319,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>1118500</v>
+        <v>1083000</v>
       </c>
       <c r="E89" s="3">
-        <v>1028100</v>
+        <v>995500</v>
       </c>
       <c r="F89" s="3">
-        <v>722000</v>
+        <v>699000</v>
       </c>
       <c r="G89" s="3">
-        <v>971600</v>
+        <v>940800</v>
       </c>
       <c r="H89" s="3">
-        <v>777900</v>
+        <v>753200</v>
       </c>
       <c r="I89" s="3">
-        <v>879700</v>
+        <v>851800</v>
       </c>
       <c r="J89" s="3">
-        <v>903400</v>
+        <v>874700</v>
       </c>
       <c r="K89" s="3">
         <v>1345500</v>
@@ -3371,25 +3371,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-371400</v>
+        <v>-359600</v>
       </c>
       <c r="E91" s="3">
-        <v>-762900</v>
+        <v>-738700</v>
       </c>
       <c r="F91" s="3">
-        <v>-638400</v>
+        <v>-618100</v>
       </c>
       <c r="G91" s="3">
-        <v>-636800</v>
+        <v>-616600</v>
       </c>
       <c r="H91" s="3">
-        <v>-664700</v>
+        <v>-643600</v>
       </c>
       <c r="I91" s="3">
-        <v>-738100</v>
+        <v>-714600</v>
       </c>
       <c r="J91" s="3">
-        <v>-669300</v>
+        <v>-648100</v>
       </c>
       <c r="K91" s="3">
         <v>-668600</v>
@@ -3479,25 +3479,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-560000</v>
+        <v>-542200</v>
       </c>
       <c r="E94" s="3">
-        <v>-1450000</v>
+        <v>-1404000</v>
       </c>
       <c r="F94" s="3">
-        <v>-404700</v>
+        <v>-391800</v>
       </c>
       <c r="G94" s="3">
-        <v>-714300</v>
+        <v>-691600</v>
       </c>
       <c r="H94" s="3">
-        <v>-940200</v>
+        <v>-910300</v>
       </c>
       <c r="I94" s="3">
-        <v>-917500</v>
+        <v>-888300</v>
       </c>
       <c r="J94" s="3">
-        <v>-1263900</v>
+        <v>-1223700</v>
       </c>
       <c r="K94" s="3">
         <v>-1126100</v>
@@ -3531,25 +3531,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-130800</v>
+        <v>-126700</v>
       </c>
       <c r="E96" s="3">
-        <v>-166000</v>
+        <v>-160700</v>
       </c>
       <c r="F96" s="3">
-        <v>-111800</v>
+        <v>-108200</v>
       </c>
       <c r="G96" s="3">
-        <v>-127700</v>
+        <v>-123700</v>
       </c>
       <c r="H96" s="3">
-        <v>-255500</v>
+        <v>-247300</v>
       </c>
       <c r="I96" s="3">
-        <v>-220300</v>
+        <v>-213300</v>
       </c>
       <c r="J96" s="3">
-        <v>-214000</v>
+        <v>-207200</v>
       </c>
       <c r="K96" s="3">
         <v>-219200</v>
@@ -3675,25 +3675,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-36000</v>
+        <v>-34800</v>
       </c>
       <c r="E100" s="3">
-        <v>667400</v>
+        <v>646200</v>
       </c>
       <c r="F100" s="3">
-        <v>373800</v>
+        <v>361900</v>
       </c>
       <c r="G100" s="3">
-        <v>56400</v>
+        <v>54700</v>
       </c>
       <c r="H100" s="3">
-        <v>-175500</v>
+        <v>-169900</v>
       </c>
       <c r="I100" s="3">
-        <v>375900</v>
+        <v>364000</v>
       </c>
       <c r="J100" s="3">
-        <v>263700</v>
+        <v>255400</v>
       </c>
       <c r="K100" s="3">
         <v>-84600</v>
@@ -3711,25 +3711,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>64600</v>
+        <v>62600</v>
       </c>
       <c r="E101" s="3">
-        <v>-37700</v>
+        <v>-36500</v>
       </c>
       <c r="F101" s="3">
-        <v>9600</v>
+        <v>9300</v>
       </c>
       <c r="G101" s="3">
-        <v>-13000</v>
+        <v>-12600</v>
       </c>
       <c r="H101" s="3">
-        <v>-24500</v>
+        <v>-23700</v>
       </c>
       <c r="I101" s="3">
-        <v>-75400</v>
+        <v>-73100</v>
       </c>
       <c r="J101" s="3">
-        <v>76200</v>
+        <v>73800</v>
       </c>
       <c r="K101" s="3">
         <v>75800</v>
@@ -3747,25 +3747,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>587200</v>
+        <v>568600</v>
       </c>
       <c r="E102" s="3">
-        <v>207800</v>
+        <v>201200</v>
       </c>
       <c r="F102" s="3">
-        <v>700700</v>
+        <v>678400</v>
       </c>
       <c r="G102" s="3">
-        <v>300800</v>
+        <v>291200</v>
       </c>
       <c r="H102" s="3">
-        <v>-362200</v>
+        <v>-350700</v>
       </c>
       <c r="I102" s="3">
-        <v>262800</v>
+        <v>254400</v>
       </c>
       <c r="J102" s="3">
-        <v>-20500</v>
+        <v>-19800</v>
       </c>
       <c r="K102" s="3">
         <v>210600</v>

--- a/AAII_Financials/Yearly/RICOY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/RICOY_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="92">
   <si>
     <t>RICOY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:N102"/>
+  <dimension ref="A5:O102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,165 +665,177 @@
     <col min="1" max="1" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E7" s="2">
         <v>44286</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43921</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43555</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43190</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42825</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42460</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>42094</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>41729</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>41364</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>40999</v>
       </c>
-      <c r="N7" s="2"/>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O7" s="2"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>14348000</v>
+        <v>13699400</v>
       </c>
       <c r="E8" s="3">
-        <v>17133200</v>
+        <v>13103300</v>
       </c>
       <c r="F8" s="3">
-        <v>17172800</v>
+        <v>15646800</v>
       </c>
       <c r="G8" s="3">
-        <v>17600500</v>
+        <v>15683000</v>
       </c>
       <c r="H8" s="3">
-        <v>17306500</v>
+        <v>16073600</v>
       </c>
       <c r="I8" s="3">
-        <v>18843000</v>
+        <v>15805100</v>
       </c>
       <c r="J8" s="3">
+        <v>17208300</v>
+      </c>
+      <c r="K8" s="3">
         <v>18351500</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>20112600</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>17143700</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>17207400</v>
       </c>
-      <c r="N8" s="3"/>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O8" s="3"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>9466300</v>
+        <v>8848800</v>
       </c>
       <c r="E9" s="3">
-        <v>10976100</v>
+        <v>8645000</v>
       </c>
       <c r="F9" s="3">
-        <v>10631300</v>
+        <v>10023900</v>
       </c>
       <c r="G9" s="3">
-        <v>10853200</v>
+        <v>9709000</v>
       </c>
       <c r="H9" s="3">
-        <v>10579500</v>
+        <v>9911700</v>
       </c>
       <c r="I9" s="3">
-        <v>11319900</v>
+        <v>9661700</v>
       </c>
       <c r="J9" s="3">
+        <v>10337800</v>
+      </c>
+      <c r="K9" s="3">
         <v>10615500</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>12113800</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>20836800</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>10403700</v>
       </c>
-      <c r="N9" s="3"/>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O9" s="3"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>4881800</v>
+        <v>4850600</v>
       </c>
       <c r="E10" s="3">
-        <v>6157000</v>
+        <v>4458300</v>
       </c>
       <c r="F10" s="3">
-        <v>6541500</v>
+        <v>5622900</v>
       </c>
       <c r="G10" s="3">
-        <v>6747300</v>
+        <v>5974000</v>
       </c>
       <c r="H10" s="3">
-        <v>6727000</v>
+        <v>6161900</v>
       </c>
       <c r="I10" s="3">
-        <v>7523200</v>
+        <v>6143400</v>
       </c>
       <c r="J10" s="3">
+        <v>6870500</v>
+      </c>
+      <c r="K10" s="3">
         <v>7736000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>7998700</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>-3693100</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>6803700</v>
       </c>
-      <c r="N10" s="3"/>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O10" s="3"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -838,44 +850,48 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D12" s="3">
-        <v>675500</v>
+      <c r="D12" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="E12" s="3">
-        <v>752500</v>
+        <v>616900</v>
       </c>
       <c r="F12" s="3">
-        <v>802000</v>
+        <v>687200</v>
       </c>
       <c r="G12" s="3">
-        <v>801700</v>
+        <v>732500</v>
       </c>
       <c r="H12" s="3">
-        <v>856300</v>
+        <v>732200</v>
       </c>
       <c r="I12" s="3">
-        <v>870500</v>
+        <v>782000</v>
       </c>
       <c r="J12" s="3">
+        <v>794900</v>
+      </c>
+      <c r="K12" s="3">
         <v>838400</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>864400</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>1831000</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>1076000</v>
       </c>
-      <c r="N12" s="3"/>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O12" s="3"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -909,81 +925,90 @@
       <c r="M13" s="3">
         <v>0</v>
       </c>
-      <c r="N13" s="3"/>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+      <c r="O13" s="3"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>424600</v>
+        <v>2400</v>
       </c>
       <c r="E14" s="3">
-        <v>96000</v>
+        <v>387800</v>
       </c>
       <c r="F14" s="3">
-        <v>182700</v>
+        <v>87700</v>
       </c>
       <c r="G14" s="3">
-        <v>1720600</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>10</v>
+        <v>166900</v>
+      </c>
+      <c r="H14" s="3">
+        <v>1571400</v>
       </c>
       <c r="I14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="J14" s="3">
+      <c r="J14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="K14" s="3">
         <v>8600</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>103700</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
-      </c>
       <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3">
         <v>293800</v>
       </c>
-      <c r="N14" s="3"/>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O14" s="3"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="3">
-        <v>464200</v>
+      <c r="D15" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="E15" s="3">
-        <v>454900</v>
+        <v>423900</v>
       </c>
       <c r="F15" s="3">
-        <v>212100</v>
+        <v>415500</v>
       </c>
       <c r="G15" s="3">
-        <v>342000</v>
+        <v>193700</v>
       </c>
       <c r="H15" s="3">
-        <v>343600</v>
+        <v>312300</v>
       </c>
       <c r="I15" s="3">
-        <v>316800</v>
+        <v>313800</v>
       </c>
       <c r="J15" s="3">
+        <v>289300</v>
+      </c>
+      <c r="K15" s="3">
         <v>318200</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>339900</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>321800</v>
       </c>
-      <c r="M15" s="3" t="s">
+      <c r="N15" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="N15" s="3"/>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O15" s="3"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -995,80 +1020,87 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>14735600</v>
+        <v>13387400</v>
       </c>
       <c r="E17" s="3">
-        <v>16459000</v>
+        <v>13457200</v>
       </c>
       <c r="F17" s="3">
-        <v>16432100</v>
+        <v>15031100</v>
       </c>
       <c r="G17" s="3">
-        <v>18587200</v>
+        <v>15006600</v>
       </c>
       <c r="H17" s="3">
-        <v>17017500</v>
+        <v>16974700</v>
       </c>
       <c r="I17" s="3">
-        <v>17970400</v>
+        <v>15541200</v>
       </c>
       <c r="J17" s="3">
+        <v>16411500</v>
+      </c>
+      <c r="K17" s="3">
         <v>17364000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>19010200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>16475100</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>17416100</v>
       </c>
-      <c r="N17" s="3"/>
-    </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O17" s="3"/>
+    </row>
+    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-387500</v>
+        <v>312000</v>
       </c>
       <c r="E18" s="3">
-        <v>674200</v>
+        <v>-353900</v>
       </c>
       <c r="F18" s="3">
-        <v>740700</v>
+        <v>615700</v>
       </c>
       <c r="G18" s="3">
-        <v>-986700</v>
+        <v>676500</v>
       </c>
       <c r="H18" s="3">
-        <v>289000</v>
+        <v>-901100</v>
       </c>
       <c r="I18" s="3">
-        <v>872600</v>
+        <v>263900</v>
       </c>
       <c r="J18" s="3">
+        <v>796900</v>
+      </c>
+      <c r="K18" s="3">
         <v>987500</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>1102400</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>668600</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-208600</v>
       </c>
-      <c r="N18" s="3"/>
-    </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O18" s="3"/>
+    </row>
+    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1083,188 +1115,204 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>63500</v>
+        <v>33800</v>
       </c>
       <c r="E20" s="3">
-        <v>22400</v>
+        <v>58000</v>
       </c>
       <c r="F20" s="3">
-        <v>26300</v>
+        <v>20400</v>
       </c>
       <c r="G20" s="3">
-        <v>-15200</v>
+        <v>24100</v>
       </c>
       <c r="H20" s="3">
-        <v>30900</v>
+        <v>-13900</v>
       </c>
       <c r="I20" s="3">
-        <v>-600</v>
+        <v>28300</v>
       </c>
       <c r="J20" s="3">
+        <v>-500</v>
+      </c>
+      <c r="K20" s="3">
         <v>31100</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>47400</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>84400</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-17000</v>
       </c>
-      <c r="N20" s="3"/>
-    </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O20" s="3"/>
+    </row>
+    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>578800</v>
+        <v>1041600</v>
       </c>
       <c r="E21" s="3">
-        <v>1738100</v>
+        <v>508600</v>
       </c>
       <c r="F21" s="3">
-        <v>1580800</v>
+        <v>1564200</v>
       </c>
       <c r="G21" s="3">
-        <v>-67000</v>
+        <v>1425600</v>
       </c>
       <c r="H21" s="3">
-        <v>1242400</v>
+        <v>-81900</v>
       </c>
       <c r="I21" s="3">
-        <v>1798600</v>
+        <v>1114200</v>
       </c>
       <c r="J21" s="3">
+        <v>1622000</v>
+      </c>
+      <c r="K21" s="3">
         <v>1949200</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>2127000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>1626800</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>599200</v>
       </c>
-      <c r="N21" s="3"/>
-    </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O21" s="3"/>
+    </row>
+    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3">
-        <v>26000</v>
+      <c r="D22" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="E22" s="3">
-        <v>49200</v>
+        <v>23700</v>
       </c>
       <c r="F22" s="3">
-        <v>50900</v>
+        <v>44900</v>
       </c>
       <c r="G22" s="3">
-        <v>57400</v>
+        <v>46500</v>
       </c>
       <c r="H22" s="3">
-        <v>64400</v>
+        <v>52400</v>
       </c>
       <c r="I22" s="3">
-        <v>55800</v>
+        <v>58800</v>
       </c>
       <c r="J22" s="3">
+        <v>51000</v>
+      </c>
+      <c r="K22" s="3">
         <v>60700</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>68300</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>134100</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>63100</v>
       </c>
-      <c r="N22" s="3"/>
-    </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O22" s="3"/>
+    </row>
+    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-350000</v>
+        <v>345800</v>
       </c>
       <c r="E23" s="3">
-        <v>647400</v>
+        <v>-319600</v>
       </c>
       <c r="F23" s="3">
-        <v>716200</v>
+        <v>591200</v>
       </c>
       <c r="G23" s="3">
-        <v>-1059300</v>
+        <v>654100</v>
       </c>
       <c r="H23" s="3">
-        <v>255500</v>
+        <v>-967400</v>
       </c>
       <c r="I23" s="3">
-        <v>816200</v>
+        <v>233300</v>
       </c>
       <c r="J23" s="3">
+        <v>745400</v>
+      </c>
+      <c r="K23" s="3">
         <v>957900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>1081500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>618900</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-288700</v>
       </c>
-      <c r="N23" s="3"/>
-    </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O23" s="3"/>
+    </row>
+    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>-71300</v>
+        <v>107200</v>
       </c>
       <c r="E24" s="3">
-        <v>268500</v>
+        <v>-65200</v>
       </c>
       <c r="F24" s="3">
-        <v>243800</v>
+        <v>245200</v>
       </c>
       <c r="G24" s="3">
-        <v>35400</v>
+        <v>222700</v>
       </c>
       <c r="H24" s="3">
-        <v>175000</v>
+        <v>32300</v>
       </c>
       <c r="I24" s="3">
-        <v>242100</v>
+        <v>159800</v>
       </c>
       <c r="J24" s="3">
+        <v>221100</v>
+      </c>
+      <c r="K24" s="3">
         <v>329200</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>362800</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>220600</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>74300</v>
       </c>
-      <c r="N24" s="3"/>
-    </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O24" s="3"/>
+    </row>
+    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1298,81 +1346,90 @@
       <c r="M25" s="3">
         <v>0</v>
       </c>
-      <c r="N25" s="3"/>
-    </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+      <c r="O25" s="3"/>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-278600</v>
+        <v>238600</v>
       </c>
       <c r="E26" s="3">
-        <v>378800</v>
+        <v>-254500</v>
       </c>
       <c r="F26" s="3">
-        <v>472400</v>
+        <v>346000</v>
       </c>
       <c r="G26" s="3">
-        <v>-1094600</v>
+        <v>431400</v>
       </c>
       <c r="H26" s="3">
-        <v>80500</v>
+        <v>-999700</v>
       </c>
       <c r="I26" s="3">
-        <v>574100</v>
+        <v>73500</v>
       </c>
       <c r="J26" s="3">
+        <v>524300</v>
+      </c>
+      <c r="K26" s="3">
         <v>628700</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>718600</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>398300</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-363000</v>
       </c>
-      <c r="N26" s="3"/>
-    </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O26" s="3"/>
+    </row>
+    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-279200</v>
+        <v>236600</v>
       </c>
       <c r="E27" s="3">
-        <v>337300</v>
+        <v>-255000</v>
       </c>
       <c r="F27" s="3">
-        <v>422500</v>
+        <v>308100</v>
       </c>
       <c r="G27" s="3">
-        <v>-1143500</v>
+        <v>385800</v>
       </c>
       <c r="H27" s="3">
-        <v>29800</v>
+        <v>-1044300</v>
       </c>
       <c r="I27" s="3">
-        <v>537200</v>
+        <v>27200</v>
       </c>
       <c r="J27" s="3">
+        <v>490600</v>
+      </c>
+      <c r="K27" s="3">
         <v>584800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>667000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>309500</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-402800</v>
       </c>
-      <c r="N27" s="3"/>
-    </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O27" s="3"/>
+    </row>
+    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1406,9 +1463,12 @@
       <c r="M28" s="3">
         <v>0</v>
       </c>
-      <c r="N28" s="3"/>
-    </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+      <c r="O28" s="3"/>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1421,11 +1481,11 @@
       <c r="F29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G29" s="3">
-        <v>-11200</v>
-      </c>
-      <c r="H29" s="3" t="s">
+      <c r="G29" s="3" t="s">
         <v>10</v>
+      </c>
+      <c r="H29" s="3">
+        <v>-10200</v>
       </c>
       <c r="I29" s="3" t="s">
         <v>10</v>
@@ -1442,9 +1502,12 @@
       <c r="M29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="N29" s="3"/>
-    </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N29" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="O29" s="3"/>
+    </row>
+    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1478,9 +1541,12 @@
       <c r="M30" s="3">
         <v>0</v>
       </c>
-      <c r="N30" s="3"/>
-    </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+      <c r="O30" s="3"/>
+    </row>
+    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1514,81 +1580,90 @@
       <c r="M31" s="3">
         <v>0</v>
       </c>
-      <c r="N31" s="3"/>
-    </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+      <c r="O31" s="3"/>
+    </row>
+    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-63500</v>
+        <v>-33800</v>
       </c>
       <c r="E32" s="3">
-        <v>-22400</v>
+        <v>-58000</v>
       </c>
       <c r="F32" s="3">
-        <v>-26300</v>
+        <v>-20400</v>
       </c>
       <c r="G32" s="3">
-        <v>15200</v>
+        <v>-24100</v>
       </c>
       <c r="H32" s="3">
-        <v>-30900</v>
+        <v>13900</v>
       </c>
       <c r="I32" s="3">
-        <v>600</v>
+        <v>-28300</v>
       </c>
       <c r="J32" s="3">
+        <v>500</v>
+      </c>
+      <c r="K32" s="3">
         <v>-31100</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-47400</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-84400</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>17000</v>
       </c>
-      <c r="N32" s="3"/>
-    </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O32" s="3"/>
+    </row>
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-279200</v>
+        <v>236600</v>
       </c>
       <c r="E33" s="3">
-        <v>337300</v>
+        <v>-255000</v>
       </c>
       <c r="F33" s="3">
-        <v>422500</v>
+        <v>308100</v>
       </c>
       <c r="G33" s="3">
-        <v>-1154700</v>
+        <v>385800</v>
       </c>
       <c r="H33" s="3">
-        <v>29800</v>
+        <v>-1054500</v>
       </c>
       <c r="I33" s="3">
-        <v>537200</v>
+        <v>27200</v>
       </c>
       <c r="J33" s="3">
+        <v>490600</v>
+      </c>
+      <c r="K33" s="3">
         <v>584800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>667000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>309500</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-402800</v>
       </c>
-      <c r="N33" s="3"/>
-    </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O33" s="3"/>
+    </row>
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1622,86 +1697,95 @@
       <c r="M34" s="3">
         <v>0</v>
       </c>
-      <c r="N34" s="3"/>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+      <c r="O34" s="3"/>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-279200</v>
+        <v>236600</v>
       </c>
       <c r="E35" s="3">
-        <v>337300</v>
+        <v>-255000</v>
       </c>
       <c r="F35" s="3">
-        <v>422500</v>
+        <v>308100</v>
       </c>
       <c r="G35" s="3">
-        <v>-1154700</v>
+        <v>385800</v>
       </c>
       <c r="H35" s="3">
-        <v>29800</v>
+        <v>-1054500</v>
       </c>
       <c r="I35" s="3">
-        <v>537200</v>
+        <v>27200</v>
       </c>
       <c r="J35" s="3">
+        <v>490600</v>
+      </c>
+      <c r="K35" s="3">
         <v>584800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>667000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>309500</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-402800</v>
       </c>
-      <c r="N35" s="3"/>
-    </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O35" s="3"/>
+    </row>
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E38" s="2">
         <v>44286</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43921</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43555</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43190</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42825</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42460</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>42094</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>41729</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>41364</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>40999</v>
       </c>
-      <c r="N38" s="2"/>
-    </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O38" s="2"/>
+    </row>
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1716,8 +1800,9 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O39" s="3"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1732,332 +1817,360 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O40" s="3"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>2858000</v>
+        <v>1872600</v>
       </c>
       <c r="E41" s="3">
-        <v>2242400</v>
+        <v>2610000</v>
       </c>
       <c r="F41" s="3">
-        <v>2048600</v>
+        <v>2047900</v>
       </c>
       <c r="G41" s="3">
-        <v>1370200</v>
+        <v>1870900</v>
       </c>
       <c r="H41" s="3">
-        <v>1152300</v>
+        <v>1251400</v>
       </c>
       <c r="I41" s="3">
-        <v>1437500</v>
+        <v>1052400</v>
       </c>
       <c r="J41" s="3">
+        <v>1312800</v>
+      </c>
+      <c r="K41" s="3">
         <v>1182700</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1320000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>2187600</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>1412100</v>
       </c>
-      <c r="N41" s="3"/>
-    </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O41" s="3"/>
+    </row>
+    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>791800</v>
+        <v>719000</v>
       </c>
       <c r="E42" s="3">
-        <v>744000</v>
+        <v>723100</v>
       </c>
       <c r="F42" s="3">
-        <v>2510800</v>
+        <v>679500</v>
       </c>
       <c r="G42" s="3">
-        <v>2960500</v>
+        <v>2293000</v>
       </c>
       <c r="H42" s="3">
-        <v>2359200</v>
+        <v>2703600</v>
       </c>
       <c r="I42" s="3">
-        <v>2323100</v>
+        <v>2154500</v>
       </c>
       <c r="J42" s="3">
+        <v>2121600</v>
+      </c>
+      <c r="K42" s="3">
         <v>2218300</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>2287100</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>2103200</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>22200</v>
       </c>
-      <c r="N42" s="3"/>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O42" s="3"/>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>3344900</v>
+        <v>3093800</v>
       </c>
       <c r="E43" s="3">
-        <v>3350400</v>
+        <v>3054700</v>
       </c>
       <c r="F43" s="3">
-        <v>5159000</v>
+        <v>3059800</v>
       </c>
       <c r="G43" s="3">
-        <v>5030500</v>
+        <v>4711400</v>
       </c>
       <c r="H43" s="3">
-        <v>4830700</v>
+        <v>4594100</v>
       </c>
       <c r="I43" s="3">
-        <v>4812700</v>
+        <v>4411600</v>
       </c>
       <c r="J43" s="3">
+        <v>4395100</v>
+      </c>
+      <c r="K43" s="3">
         <v>4721600</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>9979400</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>8964400</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>6209800</v>
       </c>
-      <c r="N43" s="3"/>
-    </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O43" s="3"/>
+    </row>
+    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>1637900</v>
+        <v>1811600</v>
       </c>
       <c r="E44" s="3">
-        <v>1716600</v>
+        <v>1495800</v>
       </c>
       <c r="F44" s="3">
-        <v>1772100</v>
+        <v>1567700</v>
       </c>
       <c r="G44" s="3">
-        <v>1539500</v>
+        <v>1618400</v>
       </c>
       <c r="H44" s="3">
-        <v>1727800</v>
+        <v>1406000</v>
       </c>
       <c r="I44" s="3">
-        <v>1766500</v>
+        <v>1577900</v>
       </c>
       <c r="J44" s="3">
+        <v>1613200</v>
+      </c>
+      <c r="K44" s="3">
         <v>1914800</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>1778600</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>3563900</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>1762900</v>
       </c>
-      <c r="N44" s="3"/>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O44" s="3"/>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>398600</v>
+        <v>389800</v>
       </c>
       <c r="E45" s="3">
-        <v>9911900</v>
+        <v>364000</v>
       </c>
       <c r="F45" s="3">
-        <v>364100</v>
+        <v>9052100</v>
       </c>
       <c r="G45" s="3">
-        <v>426900</v>
+        <v>332600</v>
       </c>
       <c r="H45" s="3">
-        <v>500600</v>
+        <v>389900</v>
       </c>
       <c r="I45" s="3">
-        <v>520600</v>
+        <v>457100</v>
       </c>
       <c r="J45" s="3">
+        <v>475400</v>
+      </c>
+      <c r="K45" s="3">
         <v>338300</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>314300</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>3011200</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>595700</v>
       </c>
-      <c r="N45" s="3"/>
-    </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O45" s="3"/>
+    </row>
+    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>9031100</v>
+        <v>7886800</v>
       </c>
       <c r="E46" s="3">
-        <v>17965400</v>
+        <v>8247600</v>
       </c>
       <c r="F46" s="3">
-        <v>11854700</v>
+        <v>16406900</v>
       </c>
       <c r="G46" s="3">
-        <v>11327700</v>
+        <v>10826200</v>
       </c>
       <c r="H46" s="3">
-        <v>10570500</v>
+        <v>10344900</v>
       </c>
       <c r="I46" s="3">
-        <v>10860400</v>
+        <v>9653500</v>
       </c>
       <c r="J46" s="3">
+        <v>9918200</v>
+      </c>
+      <c r="K46" s="3">
         <v>10375700</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>10689700</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>9593000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>10002800</v>
       </c>
-      <c r="N46" s="3"/>
-    </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O46" s="3"/>
+    </row>
+    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>1996900</v>
+        <v>1729700</v>
       </c>
       <c r="E47" s="3">
-        <v>1436800</v>
+        <v>1823600</v>
       </c>
       <c r="F47" s="3">
-        <v>6340000</v>
+        <v>1312100</v>
       </c>
       <c r="G47" s="3">
-        <v>6144300</v>
+        <v>5790000</v>
       </c>
       <c r="H47" s="3">
-        <v>6292900</v>
+        <v>5611300</v>
       </c>
       <c r="I47" s="3">
-        <v>5870300</v>
+        <v>5747000</v>
       </c>
       <c r="J47" s="3">
+        <v>5361000</v>
+      </c>
+      <c r="K47" s="3">
         <v>5633900</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>5612200</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>5473000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>4645800</v>
       </c>
-      <c r="N47" s="3"/>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O47" s="3"/>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>2180400</v>
+        <v>1917700</v>
       </c>
       <c r="E48" s="3">
-        <v>2226300</v>
+        <v>1991200</v>
       </c>
       <c r="F48" s="3">
-        <v>2134900</v>
+        <v>2033100</v>
       </c>
       <c r="G48" s="3">
-        <v>2132500</v>
+        <v>1949700</v>
       </c>
       <c r="H48" s="3">
-        <v>2313800</v>
+        <v>1947500</v>
       </c>
       <c r="I48" s="3">
-        <v>2359000</v>
+        <v>2113100</v>
       </c>
       <c r="J48" s="3">
+        <v>2154300</v>
+      </c>
+      <c r="K48" s="3">
         <v>2359500</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>2894700</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>5065200</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>2427500</v>
       </c>
-      <c r="N48" s="3"/>
-    </row>
-    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O48" s="3"/>
+    </row>
+    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>1923600</v>
+        <v>2021400</v>
       </c>
       <c r="E49" s="3">
-        <v>1978100</v>
+        <v>1756700</v>
       </c>
       <c r="F49" s="3">
-        <v>1874900</v>
+        <v>1806500</v>
       </c>
       <c r="G49" s="3">
-        <v>1852100</v>
+        <v>1712300</v>
       </c>
       <c r="H49" s="3">
-        <v>3311100</v>
+        <v>1691400</v>
       </c>
       <c r="I49" s="3">
-        <v>3530000</v>
+        <v>3023900</v>
       </c>
       <c r="J49" s="3">
+        <v>3223800</v>
+      </c>
+      <c r="K49" s="3">
         <v>3717000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>3658100</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>4520200</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>2785800</v>
       </c>
-      <c r="N49" s="3"/>
-    </row>
-    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O49" s="3"/>
+    </row>
+    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2091,9 +2204,12 @@
       <c r="M50" s="3">
         <v>0</v>
       </c>
-      <c r="N50" s="3"/>
-    </row>
-    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+      <c r="O50" s="3"/>
+    </row>
+    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2127,45 +2243,51 @@
       <c r="M51" s="3">
         <v>0</v>
       </c>
-      <c r="N51" s="3"/>
-    </row>
-    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+      <c r="O51" s="3"/>
+    </row>
+    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>971500</v>
+        <v>881300</v>
       </c>
       <c r="E52" s="3">
-        <v>854400</v>
+        <v>887300</v>
       </c>
       <c r="F52" s="3">
-        <v>1040800</v>
+        <v>780300</v>
       </c>
       <c r="G52" s="3">
-        <v>1071400</v>
+        <v>950500</v>
       </c>
       <c r="H52" s="3">
-        <v>1048300</v>
+        <v>978400</v>
       </c>
       <c r="I52" s="3">
-        <v>1063600</v>
+        <v>957400</v>
       </c>
       <c r="J52" s="3">
+        <v>971300</v>
+      </c>
+      <c r="K52" s="3">
         <v>1202500</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>1345400</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>6546100</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>833900</v>
       </c>
-      <c r="N52" s="3"/>
-    </row>
-    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O52" s="3"/>
+    </row>
+    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2199,45 +2321,51 @@
       <c r="M53" s="3">
         <v>0</v>
       </c>
-      <c r="N53" s="3"/>
-    </row>
-    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+      <c r="O53" s="3"/>
+    </row>
+    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>16103500</v>
+        <v>14436800</v>
       </c>
       <c r="E54" s="3">
-        <v>24461000</v>
+        <v>14706500</v>
       </c>
       <c r="F54" s="3">
-        <v>23245400</v>
+        <v>22339000</v>
       </c>
       <c r="G54" s="3">
-        <v>22528000</v>
+        <v>21228800</v>
       </c>
       <c r="H54" s="3">
-        <v>23536700</v>
+        <v>20573600</v>
       </c>
       <c r="I54" s="3">
-        <v>23683200</v>
+        <v>21494800</v>
       </c>
       <c r="J54" s="3">
+        <v>21628600</v>
+      </c>
+      <c r="K54" s="3">
         <v>23288700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>23785000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>21735700</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>20695800</v>
       </c>
-      <c r="N54" s="3"/>
-    </row>
-    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O54" s="3"/>
+    </row>
+    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2252,8 +2380,9 @@
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
-    </row>
-    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O55" s="3"/>
+    </row>
+    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2268,224 +2397,243 @@
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
-    </row>
-    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O56" s="3"/>
+    </row>
+    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>2449500</v>
+        <v>2091900</v>
       </c>
       <c r="E57" s="3">
-        <v>2098800</v>
+        <v>2237000</v>
       </c>
       <c r="F57" s="3">
-        <v>2611800</v>
+        <v>1916800</v>
       </c>
       <c r="G57" s="3">
-        <v>2565200</v>
+        <v>2385200</v>
       </c>
       <c r="H57" s="3">
-        <v>2523100</v>
+        <v>2342600</v>
       </c>
       <c r="I57" s="3">
-        <v>2440600</v>
+        <v>2304200</v>
       </c>
       <c r="J57" s="3">
+        <v>2228900</v>
+      </c>
+      <c r="K57" s="3">
         <v>2362700</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1965300</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>3862300</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>2175500</v>
       </c>
-      <c r="N57" s="3"/>
-    </row>
-    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O57" s="3"/>
+    </row>
+    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>923000</v>
+        <v>1067700</v>
       </c>
       <c r="E58" s="3">
-        <v>671500</v>
+        <v>842900</v>
       </c>
       <c r="F58" s="3">
-        <v>2277100</v>
+        <v>613200</v>
       </c>
       <c r="G58" s="3">
-        <v>1903800</v>
+        <v>2079600</v>
       </c>
       <c r="H58" s="3">
-        <v>1961400</v>
+        <v>1738700</v>
       </c>
       <c r="I58" s="3">
-        <v>2224200</v>
+        <v>1791300</v>
       </c>
       <c r="J58" s="3">
+        <v>2031300</v>
+      </c>
+      <c r="K58" s="3">
         <v>1894200</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>2489400</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>4128200</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>2061000</v>
       </c>
-      <c r="N58" s="3"/>
-    </row>
-    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O58" s="3"/>
+    </row>
+    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>2236100</v>
+        <v>2242400</v>
       </c>
       <c r="E59" s="3">
-        <v>10441700</v>
+        <v>2042100</v>
       </c>
       <c r="F59" s="3">
-        <v>2312100</v>
+        <v>9535900</v>
       </c>
       <c r="G59" s="3">
-        <v>2257100</v>
+        <v>2111500</v>
       </c>
       <c r="H59" s="3">
-        <v>2398600</v>
+        <v>2061300</v>
       </c>
       <c r="I59" s="3">
-        <v>2217700</v>
+        <v>2190500</v>
       </c>
       <c r="J59" s="3">
+        <v>2025300</v>
+      </c>
+      <c r="K59" s="3">
         <v>2329400</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>3200300</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>4746300</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>1847600</v>
       </c>
-      <c r="N59" s="3"/>
-    </row>
-    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O59" s="3"/>
+    </row>
+    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>5608600</v>
+        <v>5402000</v>
       </c>
       <c r="E60" s="3">
-        <v>13212100</v>
+        <v>5122000</v>
       </c>
       <c r="F60" s="3">
-        <v>7201000</v>
+        <v>12065900</v>
       </c>
       <c r="G60" s="3">
-        <v>6726100</v>
+        <v>6576300</v>
       </c>
       <c r="H60" s="3">
-        <v>6883100</v>
+        <v>6142600</v>
       </c>
       <c r="I60" s="3">
-        <v>6882600</v>
+        <v>6285900</v>
       </c>
       <c r="J60" s="3">
+        <v>6285500</v>
+      </c>
+      <c r="K60" s="3">
         <v>6586300</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>7654900</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>6370500</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>6084100</v>
       </c>
-      <c r="N60" s="3"/>
-    </row>
-    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O60" s="3"/>
+    </row>
+    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>1590100</v>
+        <v>1289100</v>
       </c>
       <c r="E61" s="3">
-        <v>1423800</v>
+        <v>1452200</v>
       </c>
       <c r="F61" s="3">
-        <v>5684900</v>
+        <v>1300300</v>
       </c>
       <c r="G61" s="3">
-        <v>5618800</v>
+        <v>5191700</v>
       </c>
       <c r="H61" s="3">
-        <v>5372200</v>
+        <v>5131300</v>
       </c>
       <c r="I61" s="3">
-        <v>5050100</v>
+        <v>4906100</v>
       </c>
       <c r="J61" s="3">
+        <v>4612000</v>
+      </c>
+      <c r="K61" s="3">
         <v>4849400</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>4143900</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>4314000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>4749900</v>
       </c>
-      <c r="N61" s="3"/>
-    </row>
-    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O61" s="3"/>
+    </row>
+    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1024300</v>
+        <v>689400</v>
       </c>
       <c r="E62" s="3">
-        <v>1222400</v>
+        <v>935500</v>
       </c>
       <c r="F62" s="3">
-        <v>1667500</v>
+        <v>1116400</v>
       </c>
       <c r="G62" s="3">
-        <v>1749000</v>
+        <v>1522800</v>
       </c>
       <c r="H62" s="3">
-        <v>1754500</v>
+        <v>1597300</v>
       </c>
       <c r="I62" s="3">
-        <v>1960100</v>
+        <v>1602300</v>
       </c>
       <c r="J62" s="3">
+        <v>1790000</v>
+      </c>
+      <c r="K62" s="3">
         <v>2006600</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>1961500</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>4245400</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>1915400</v>
       </c>
-      <c r="N62" s="3"/>
-    </row>
-    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O62" s="3"/>
+    </row>
+    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2519,9 +2667,12 @@
       <c r="M63" s="3">
         <v>0</v>
       </c>
-      <c r="N63" s="3"/>
-    </row>
-    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+      <c r="O63" s="3"/>
+    </row>
+    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2555,9 +2706,12 @@
       <c r="M64" s="3">
         <v>0</v>
       </c>
-      <c r="N64" s="3"/>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+      <c r="O64" s="3"/>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2591,45 +2745,51 @@
       <c r="M65" s="3">
         <v>0</v>
       </c>
-      <c r="N65" s="3"/>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+      <c r="O65" s="3"/>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>8253800</v>
+        <v>7409900</v>
       </c>
       <c r="E66" s="3">
-        <v>16610200</v>
+        <v>7537800</v>
       </c>
       <c r="F66" s="3">
-        <v>15290500</v>
+        <v>15169300</v>
       </c>
       <c r="G66" s="3">
-        <v>14769400</v>
+        <v>13964000</v>
       </c>
       <c r="H66" s="3">
-        <v>14647600</v>
+        <v>13488100</v>
       </c>
       <c r="I66" s="3">
-        <v>14489500</v>
+        <v>13376800</v>
       </c>
       <c r="J66" s="3">
+        <v>13232500</v>
+      </c>
+      <c r="K66" s="3">
         <v>14040700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>14355600</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>13430100</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>13258600</v>
       </c>
-      <c r="N66" s="3"/>
-    </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O66" s="3"/>
+    </row>
+    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2644,8 +2804,9 @@
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O67" s="3"/>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2679,9 +2840,12 @@
       <c r="M68" s="3">
         <v>0</v>
       </c>
-      <c r="N68" s="3"/>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+      <c r="O68" s="3"/>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2715,9 +2879,12 @@
       <c r="M69" s="3">
         <v>0</v>
       </c>
-      <c r="N69" s="3"/>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+      <c r="O69" s="3"/>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2751,9 +2918,12 @@
       <c r="M70" s="3">
         <v>0</v>
       </c>
-      <c r="N70" s="3"/>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+      <c r="O70" s="3"/>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2787,45 +2957,51 @@
       <c r="M71" s="3">
         <v>0</v>
       </c>
-      <c r="N71" s="3"/>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+      <c r="O71" s="3"/>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>4790300</v>
+        <v>3582300</v>
       </c>
       <c r="E72" s="3">
-        <v>5073100</v>
+        <v>4374700</v>
       </c>
       <c r="F72" s="3">
-        <v>4903700</v>
+        <v>4633000</v>
       </c>
       <c r="G72" s="3">
-        <v>4351300</v>
+        <v>4478300</v>
       </c>
       <c r="H72" s="3">
-        <v>5608000</v>
+        <v>3973800</v>
       </c>
       <c r="I72" s="3">
-        <v>5787000</v>
+        <v>5121500</v>
       </c>
       <c r="J72" s="3">
+        <v>5284900</v>
+      </c>
+      <c r="K72" s="3">
         <v>5514400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>5728100</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>12094900</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>6712600</v>
       </c>
-      <c r="N72" s="3"/>
-    </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O72" s="3"/>
+    </row>
+    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2859,9 +3035,12 @@
       <c r="M73" s="3">
         <v>0</v>
       </c>
-      <c r="N73" s="3"/>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+      <c r="O73" s="3"/>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2895,9 +3074,12 @@
       <c r="M74" s="3">
         <v>0</v>
       </c>
-      <c r="N74" s="3"/>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+      <c r="O74" s="3"/>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2931,45 +3113,51 @@
       <c r="M75" s="3">
         <v>0</v>
       </c>
-      <c r="N75" s="3"/>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+      <c r="O75" s="3"/>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>7849700</v>
+        <v>7026900</v>
       </c>
       <c r="E76" s="3">
-        <v>7850800</v>
+        <v>7168700</v>
       </c>
       <c r="F76" s="3">
-        <v>7954900</v>
+        <v>7169700</v>
       </c>
       <c r="G76" s="3">
-        <v>7758600</v>
+        <v>7264800</v>
       </c>
       <c r="H76" s="3">
-        <v>8889200</v>
+        <v>7085500</v>
       </c>
       <c r="I76" s="3">
-        <v>9193700</v>
+        <v>8118000</v>
       </c>
       <c r="J76" s="3">
+        <v>8396200</v>
+      </c>
+      <c r="K76" s="3">
         <v>9247900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>9429400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>8305600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>7437200</v>
       </c>
-      <c r="N76" s="3"/>
-    </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O76" s="3"/>
+    </row>
+    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3003,86 +3191,95 @@
       <c r="M77" s="3">
         <v>0</v>
       </c>
-      <c r="N77" s="3"/>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+      <c r="O77" s="3"/>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E80" s="2">
         <v>44286</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43921</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43555</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43190</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42825</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42460</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>42094</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>41729</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>41364</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>40999</v>
       </c>
-      <c r="N80" s="2"/>
-    </row>
-    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O80" s="2"/>
+    </row>
+    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-279200</v>
+        <v>236600</v>
       </c>
       <c r="E81" s="3">
-        <v>337300</v>
+        <v>-255000</v>
       </c>
       <c r="F81" s="3">
-        <v>422500</v>
+        <v>308100</v>
       </c>
       <c r="G81" s="3">
-        <v>-1154700</v>
+        <v>385800</v>
       </c>
       <c r="H81" s="3">
-        <v>29800</v>
+        <v>-1054500</v>
       </c>
       <c r="I81" s="3">
-        <v>537200</v>
+        <v>27200</v>
       </c>
       <c r="J81" s="3">
+        <v>490600</v>
+      </c>
+      <c r="K81" s="3">
         <v>584800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>667000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>309500</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-402800</v>
       </c>
-      <c r="N81" s="3"/>
-    </row>
-    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O81" s="3"/>
+    </row>
+    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3097,44 +3294,48 @@
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
-    </row>
-    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O82" s="3"/>
+    </row>
+    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>892400</v>
+        <v>704800</v>
       </c>
       <c r="E83" s="3">
-        <v>1029500</v>
+        <v>815000</v>
       </c>
       <c r="F83" s="3">
-        <v>804300</v>
+        <v>940200</v>
       </c>
       <c r="G83" s="3">
-        <v>924000</v>
+        <v>734500</v>
       </c>
       <c r="H83" s="3">
-        <v>911800</v>
+        <v>843900</v>
       </c>
       <c r="I83" s="3">
-        <v>915800</v>
+        <v>832700</v>
       </c>
       <c r="J83" s="3">
+        <v>836400</v>
+      </c>
+      <c r="K83" s="3">
         <v>919800</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>973100</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>871900</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>823900</v>
       </c>
-      <c r="N83" s="3"/>
-    </row>
-    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O83" s="3"/>
+    </row>
+    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3168,9 +3369,12 @@
       <c r="M84" s="3">
         <v>0</v>
       </c>
-      <c r="N84" s="3"/>
-    </row>
-    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+      <c r="O84" s="3"/>
+    </row>
+    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3204,9 +3408,12 @@
       <c r="M85" s="3">
         <v>0</v>
       </c>
-      <c r="N85" s="3"/>
-    </row>
-    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+      <c r="O85" s="3"/>
+    </row>
+    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3240,9 +3447,12 @@
       <c r="M86" s="3">
         <v>0</v>
       </c>
-      <c r="N86" s="3"/>
-    </row>
-    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+      <c r="O86" s="3"/>
+    </row>
+    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3276,9 +3486,12 @@
       <c r="M87" s="3">
         <v>0</v>
       </c>
-      <c r="N87" s="3"/>
-    </row>
-    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+      <c r="O87" s="3"/>
+    </row>
+    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3312,45 +3525,51 @@
       <c r="M88" s="3">
         <v>0</v>
       </c>
-      <c r="N88" s="3"/>
-    </row>
-    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+      <c r="O88" s="3"/>
+    </row>
+    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>1083000</v>
+        <v>642400</v>
       </c>
       <c r="E89" s="3">
-        <v>995500</v>
+        <v>989000</v>
       </c>
       <c r="F89" s="3">
-        <v>699000</v>
+        <v>909100</v>
       </c>
       <c r="G89" s="3">
-        <v>940800</v>
+        <v>638400</v>
       </c>
       <c r="H89" s="3">
-        <v>753200</v>
+        <v>859100</v>
       </c>
       <c r="I89" s="3">
-        <v>851800</v>
+        <v>687800</v>
       </c>
       <c r="J89" s="3">
+        <v>777900</v>
+      </c>
+      <c r="K89" s="3">
         <v>874700</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>1345500</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>1248200</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>101300</v>
       </c>
-      <c r="N89" s="3"/>
-    </row>
-    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O89" s="3"/>
+    </row>
+    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3365,44 +3584,48 @@
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
-    </row>
-    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O90" s="3"/>
+    </row>
+    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-359600</v>
+        <v>-291000</v>
       </c>
       <c r="E91" s="3">
-        <v>-738700</v>
+        <v>-328400</v>
       </c>
       <c r="F91" s="3">
-        <v>-618100</v>
+        <v>-674600</v>
       </c>
       <c r="G91" s="3">
-        <v>-616600</v>
+        <v>-564500</v>
       </c>
       <c r="H91" s="3">
-        <v>-643600</v>
+        <v>-563100</v>
       </c>
       <c r="I91" s="3">
-        <v>-714600</v>
+        <v>-587700</v>
       </c>
       <c r="J91" s="3">
+        <v>-652600</v>
+      </c>
+      <c r="K91" s="3">
         <v>-648100</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-668600</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-1507600</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-662400</v>
       </c>
-      <c r="N91" s="3"/>
-    </row>
-    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O91" s="3"/>
+    </row>
+    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3436,9 +3659,12 @@
       <c r="M92" s="3">
         <v>0</v>
       </c>
-      <c r="N92" s="3"/>
-    </row>
-    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+      <c r="O92" s="3"/>
+    </row>
+    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3472,45 +3698,51 @@
       <c r="M93" s="3">
         <v>0</v>
       </c>
-      <c r="N93" s="3"/>
-    </row>
-    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+      <c r="O93" s="3"/>
+    </row>
+    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-542200</v>
+        <v>-462400</v>
       </c>
       <c r="E94" s="3">
-        <v>-1404000</v>
+        <v>-495100</v>
       </c>
       <c r="F94" s="3">
-        <v>-391800</v>
+        <v>-1282200</v>
       </c>
       <c r="G94" s="3">
-        <v>-691600</v>
+        <v>-357800</v>
       </c>
       <c r="H94" s="3">
-        <v>-910300</v>
+        <v>-631600</v>
       </c>
       <c r="I94" s="3">
-        <v>-888300</v>
+        <v>-831300</v>
       </c>
       <c r="J94" s="3">
+        <v>-811200</v>
+      </c>
+      <c r="K94" s="3">
         <v>-1223700</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-1126100</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-1106600</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-1016500</v>
       </c>
-      <c r="N94" s="3"/>
-    </row>
-    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O94" s="3"/>
+    </row>
+    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3525,44 +3757,48 @@
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
-    </row>
-    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O95" s="3"/>
+    </row>
+    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-126700</v>
+        <v>-109500</v>
       </c>
       <c r="E96" s="3">
-        <v>-160700</v>
+        <v>-115700</v>
       </c>
       <c r="F96" s="3">
-        <v>-108200</v>
+        <v>-146800</v>
       </c>
       <c r="G96" s="3">
-        <v>-123700</v>
+        <v>-98800</v>
       </c>
       <c r="H96" s="3">
-        <v>-247300</v>
+        <v>-112900</v>
       </c>
       <c r="I96" s="3">
-        <v>-213300</v>
+        <v>-225900</v>
       </c>
       <c r="J96" s="3">
+        <v>-194800</v>
+      </c>
+      <c r="K96" s="3">
         <v>-207200</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-219200</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-138400</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-216400</v>
       </c>
-      <c r="N96" s="3"/>
-    </row>
-    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O96" s="3"/>
+    </row>
+    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3596,9 +3832,12 @@
       <c r="M97" s="3">
         <v>0</v>
       </c>
-      <c r="N97" s="3"/>
-    </row>
-    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+      <c r="O97" s="3"/>
+    </row>
+    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3632,9 +3871,12 @@
       <c r="M98" s="3">
         <v>0</v>
       </c>
-      <c r="N98" s="3"/>
-    </row>
-    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+      <c r="O98" s="3"/>
+    </row>
+    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3668,115 +3910,127 @@
       <c r="M99" s="3">
         <v>0</v>
       </c>
-      <c r="N99" s="3"/>
-    </row>
-    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+      <c r="O99" s="3"/>
+    </row>
+    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-34800</v>
+        <v>-1025800</v>
       </c>
       <c r="E100" s="3">
-        <v>646200</v>
+        <v>-31800</v>
       </c>
       <c r="F100" s="3">
-        <v>361900</v>
+        <v>590100</v>
       </c>
       <c r="G100" s="3">
-        <v>54700</v>
+        <v>330500</v>
       </c>
       <c r="H100" s="3">
-        <v>-169900</v>
+        <v>49900</v>
       </c>
       <c r="I100" s="3">
-        <v>364000</v>
+        <v>-155200</v>
       </c>
       <c r="J100" s="3">
+        <v>332400</v>
+      </c>
+      <c r="K100" s="3">
         <v>255400</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-84600</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-562100</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>793900</v>
       </c>
-      <c r="N100" s="3"/>
-    </row>
-    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O100" s="3"/>
+    </row>
+    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>62600</v>
+        <v>95500</v>
       </c>
       <c r="E101" s="3">
-        <v>-36500</v>
+        <v>57200</v>
       </c>
       <c r="F101" s="3">
-        <v>9300</v>
+        <v>-33300</v>
       </c>
       <c r="G101" s="3">
-        <v>-12600</v>
+        <v>8500</v>
       </c>
       <c r="H101" s="3">
-        <v>-23700</v>
+        <v>-11500</v>
       </c>
       <c r="I101" s="3">
-        <v>-73100</v>
+        <v>-21700</v>
       </c>
       <c r="J101" s="3">
+        <v>-66700</v>
+      </c>
+      <c r="K101" s="3">
         <v>73800</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>75800</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>64600</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-23500</v>
       </c>
-      <c r="N101" s="3"/>
-    </row>
-    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O101" s="3"/>
+    </row>
+    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>568600</v>
+        <v>-750400</v>
       </c>
       <c r="E102" s="3">
-        <v>201200</v>
+        <v>519300</v>
       </c>
       <c r="F102" s="3">
-        <v>678400</v>
+        <v>183800</v>
       </c>
       <c r="G102" s="3">
-        <v>291200</v>
+        <v>619500</v>
       </c>
       <c r="H102" s="3">
-        <v>-350700</v>
+        <v>265900</v>
       </c>
       <c r="I102" s="3">
-        <v>254400</v>
+        <v>-320300</v>
       </c>
       <c r="J102" s="3">
+        <v>232300</v>
+      </c>
+      <c r="K102" s="3">
         <v>-19800</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>210600</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-356000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-144700</v>
       </c>
-      <c r="N102" s="3"/>
+      <c r="O102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/RICOY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/RICOY_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="92">
   <si>
     <t>RICOY</t>
   </si>
@@ -723,25 +723,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>13699400</v>
+        <v>12890400</v>
       </c>
       <c r="E8" s="3">
-        <v>13103300</v>
+        <v>12329600</v>
       </c>
       <c r="F8" s="3">
-        <v>15646800</v>
+        <v>14722900</v>
       </c>
       <c r="G8" s="3">
-        <v>15683000</v>
+        <v>14757000</v>
       </c>
       <c r="H8" s="3">
-        <v>16073600</v>
+        <v>15124500</v>
       </c>
       <c r="I8" s="3">
-        <v>15805100</v>
+        <v>14871800</v>
       </c>
       <c r="J8" s="3">
-        <v>17208300</v>
+        <v>16192200</v>
       </c>
       <c r="K8" s="3">
         <v>18351500</v>
@@ -762,25 +762,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>8848800</v>
+        <v>8326300</v>
       </c>
       <c r="E9" s="3">
-        <v>8645000</v>
+        <v>8134600</v>
       </c>
       <c r="F9" s="3">
-        <v>10023900</v>
+        <v>9432000</v>
       </c>
       <c r="G9" s="3">
-        <v>9709000</v>
+        <v>9135700</v>
       </c>
       <c r="H9" s="3">
-        <v>9911700</v>
+        <v>9326400</v>
       </c>
       <c r="I9" s="3">
-        <v>9661700</v>
+        <v>9091200</v>
       </c>
       <c r="J9" s="3">
-        <v>10337800</v>
+        <v>9727400</v>
       </c>
       <c r="K9" s="3">
         <v>10615500</v>
@@ -801,25 +801,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>4850600</v>
+        <v>4564100</v>
       </c>
       <c r="E10" s="3">
-        <v>4458300</v>
+        <v>4195000</v>
       </c>
       <c r="F10" s="3">
-        <v>5622900</v>
+        <v>5290900</v>
       </c>
       <c r="G10" s="3">
-        <v>5974000</v>
+        <v>5621300</v>
       </c>
       <c r="H10" s="3">
-        <v>6161900</v>
+        <v>5798100</v>
       </c>
       <c r="I10" s="3">
-        <v>6143400</v>
+        <v>5780600</v>
       </c>
       <c r="J10" s="3">
-        <v>6870500</v>
+        <v>6464800</v>
       </c>
       <c r="K10" s="3">
         <v>7736000</v>
@@ -856,26 +856,26 @@
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D12" s="3" t="s">
-        <v>10</v>
+      <c r="D12" s="3">
+        <v>555100</v>
       </c>
       <c r="E12" s="3">
-        <v>616900</v>
+        <v>580500</v>
       </c>
       <c r="F12" s="3">
-        <v>687200</v>
+        <v>646700</v>
       </c>
       <c r="G12" s="3">
-        <v>732500</v>
+        <v>689200</v>
       </c>
       <c r="H12" s="3">
-        <v>732200</v>
+        <v>688900</v>
       </c>
       <c r="I12" s="3">
-        <v>782000</v>
+        <v>735800</v>
       </c>
       <c r="J12" s="3">
-        <v>794900</v>
+        <v>748000</v>
       </c>
       <c r="K12" s="3">
         <v>838400</v>
@@ -935,19 +935,19 @@
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>2400</v>
+        <v>14800</v>
       </c>
       <c r="E14" s="3">
-        <v>387800</v>
+        <v>364900</v>
       </c>
       <c r="F14" s="3">
-        <v>87700</v>
+        <v>82500</v>
       </c>
       <c r="G14" s="3">
-        <v>166900</v>
+        <v>157000</v>
       </c>
       <c r="H14" s="3">
-        <v>1571400</v>
+        <v>1478600</v>
       </c>
       <c r="I14" s="3" t="s">
         <v>10</v>
@@ -973,26 +973,26 @@
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="3" t="s">
-        <v>10</v>
+      <c r="D15" s="3">
+        <v>368900</v>
       </c>
       <c r="E15" s="3">
-        <v>423900</v>
+        <v>398900</v>
       </c>
       <c r="F15" s="3">
-        <v>415500</v>
+        <v>390900</v>
       </c>
       <c r="G15" s="3">
-        <v>193700</v>
+        <v>182300</v>
       </c>
       <c r="H15" s="3">
-        <v>312300</v>
+        <v>293900</v>
       </c>
       <c r="I15" s="3">
-        <v>313800</v>
+        <v>295300</v>
       </c>
       <c r="J15" s="3">
-        <v>289300</v>
+        <v>272200</v>
       </c>
       <c r="K15" s="3">
         <v>318200</v>
@@ -1027,25 +1027,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>13387400</v>
+        <v>12596900</v>
       </c>
       <c r="E17" s="3">
-        <v>13457200</v>
+        <v>12662600</v>
       </c>
       <c r="F17" s="3">
-        <v>15031100</v>
+        <v>14143500</v>
       </c>
       <c r="G17" s="3">
-        <v>15006600</v>
+        <v>14120400</v>
       </c>
       <c r="H17" s="3">
-        <v>16974700</v>
+        <v>15972400</v>
       </c>
       <c r="I17" s="3">
-        <v>15541200</v>
+        <v>14623500</v>
       </c>
       <c r="J17" s="3">
-        <v>16411500</v>
+        <v>15442400</v>
       </c>
       <c r="K17" s="3">
         <v>17364000</v>
@@ -1066,25 +1066,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>312000</v>
+        <v>293600</v>
       </c>
       <c r="E18" s="3">
-        <v>-353900</v>
+        <v>-333000</v>
       </c>
       <c r="F18" s="3">
-        <v>615700</v>
+        <v>579400</v>
       </c>
       <c r="G18" s="3">
-        <v>676500</v>
+        <v>636500</v>
       </c>
       <c r="H18" s="3">
-        <v>-901100</v>
+        <v>-847900</v>
       </c>
       <c r="I18" s="3">
-        <v>263900</v>
+        <v>248300</v>
       </c>
       <c r="J18" s="3">
-        <v>796900</v>
+        <v>749800</v>
       </c>
       <c r="K18" s="3">
         <v>987500</v>
@@ -1122,22 +1122,22 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>33800</v>
+        <v>55700</v>
       </c>
       <c r="E20" s="3">
-        <v>58000</v>
+        <v>54600</v>
       </c>
       <c r="F20" s="3">
-        <v>20400</v>
+        <v>19200</v>
       </c>
       <c r="G20" s="3">
-        <v>24100</v>
+        <v>22600</v>
       </c>
       <c r="H20" s="3">
-        <v>-13900</v>
+        <v>-13000</v>
       </c>
       <c r="I20" s="3">
-        <v>28300</v>
+        <v>26600</v>
       </c>
       <c r="J20" s="3">
         <v>-500</v>
@@ -1161,25 +1161,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>1041600</v>
+        <v>1008800</v>
       </c>
       <c r="E21" s="3">
-        <v>508600</v>
+        <v>484200</v>
       </c>
       <c r="F21" s="3">
-        <v>1564200</v>
+        <v>1478400</v>
       </c>
       <c r="G21" s="3">
-        <v>1425600</v>
+        <v>1346500</v>
       </c>
       <c r="H21" s="3">
-        <v>-81900</v>
+        <v>-71200</v>
       </c>
       <c r="I21" s="3">
-        <v>1114200</v>
+        <v>1054200</v>
       </c>
       <c r="J21" s="3">
-        <v>1622000</v>
+        <v>1532000</v>
       </c>
       <c r="K21" s="3">
         <v>1949200</v>
@@ -1199,26 +1199,26 @@
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3" t="s">
-        <v>10</v>
+      <c r="D22" s="3">
+        <v>23900</v>
       </c>
       <c r="E22" s="3">
-        <v>23700</v>
+        <v>22300</v>
       </c>
       <c r="F22" s="3">
-        <v>44900</v>
+        <v>42300</v>
       </c>
       <c r="G22" s="3">
-        <v>46500</v>
+        <v>43700</v>
       </c>
       <c r="H22" s="3">
-        <v>52400</v>
+        <v>49300</v>
       </c>
       <c r="I22" s="3">
-        <v>58800</v>
+        <v>55400</v>
       </c>
       <c r="J22" s="3">
-        <v>51000</v>
+        <v>48000</v>
       </c>
       <c r="K22" s="3">
         <v>60700</v>
@@ -1239,25 +1239,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>345800</v>
+        <v>325400</v>
       </c>
       <c r="E23" s="3">
-        <v>-319600</v>
+        <v>-300700</v>
       </c>
       <c r="F23" s="3">
-        <v>591200</v>
+        <v>556300</v>
       </c>
       <c r="G23" s="3">
-        <v>654100</v>
+        <v>615500</v>
       </c>
       <c r="H23" s="3">
-        <v>-967400</v>
+        <v>-910300</v>
       </c>
       <c r="I23" s="3">
-        <v>233300</v>
+        <v>219600</v>
       </c>
       <c r="J23" s="3">
-        <v>745400</v>
+        <v>701400</v>
       </c>
       <c r="K23" s="3">
         <v>957900</v>
@@ -1278,25 +1278,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>107200</v>
+        <v>100900</v>
       </c>
       <c r="E24" s="3">
-        <v>-65200</v>
+        <v>-61300</v>
       </c>
       <c r="F24" s="3">
-        <v>245200</v>
+        <v>230700</v>
       </c>
       <c r="G24" s="3">
-        <v>222700</v>
+        <v>209500</v>
       </c>
       <c r="H24" s="3">
-        <v>32300</v>
+        <v>30400</v>
       </c>
       <c r="I24" s="3">
-        <v>159800</v>
+        <v>150400</v>
       </c>
       <c r="J24" s="3">
-        <v>221100</v>
+        <v>208000</v>
       </c>
       <c r="K24" s="3">
         <v>329200</v>
@@ -1356,25 +1356,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>238600</v>
+        <v>224500</v>
       </c>
       <c r="E26" s="3">
-        <v>-254500</v>
+        <v>-239400</v>
       </c>
       <c r="F26" s="3">
-        <v>346000</v>
+        <v>325500</v>
       </c>
       <c r="G26" s="3">
-        <v>431400</v>
+        <v>405900</v>
       </c>
       <c r="H26" s="3">
-        <v>-999700</v>
+        <v>-940600</v>
       </c>
       <c r="I26" s="3">
-        <v>73500</v>
+        <v>69200</v>
       </c>
       <c r="J26" s="3">
-        <v>524300</v>
+        <v>493400</v>
       </c>
       <c r="K26" s="3">
         <v>628700</v>
@@ -1395,25 +1395,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>236600</v>
+        <v>222600</v>
       </c>
       <c r="E27" s="3">
-        <v>-255000</v>
+        <v>-239900</v>
       </c>
       <c r="F27" s="3">
-        <v>308100</v>
+        <v>289900</v>
       </c>
       <c r="G27" s="3">
-        <v>385800</v>
+        <v>363000</v>
       </c>
       <c r="H27" s="3">
-        <v>-1044300</v>
+        <v>-982700</v>
       </c>
       <c r="I27" s="3">
-        <v>27200</v>
+        <v>25600</v>
       </c>
       <c r="J27" s="3">
-        <v>490600</v>
+        <v>461600</v>
       </c>
       <c r="K27" s="3">
         <v>584800</v>
@@ -1485,7 +1485,7 @@
         <v>10</v>
       </c>
       <c r="H29" s="3">
-        <v>-10200</v>
+        <v>-9600</v>
       </c>
       <c r="I29" s="3" t="s">
         <v>10</v>
@@ -1590,22 +1590,22 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-33800</v>
+        <v>-55700</v>
       </c>
       <c r="E32" s="3">
-        <v>-58000</v>
+        <v>-54600</v>
       </c>
       <c r="F32" s="3">
-        <v>-20400</v>
+        <v>-19200</v>
       </c>
       <c r="G32" s="3">
-        <v>-24100</v>
+        <v>-22600</v>
       </c>
       <c r="H32" s="3">
-        <v>13900</v>
+        <v>13000</v>
       </c>
       <c r="I32" s="3">
-        <v>-28300</v>
+        <v>-26600</v>
       </c>
       <c r="J32" s="3">
         <v>500</v>
@@ -1629,25 +1629,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>236600</v>
+        <v>222600</v>
       </c>
       <c r="E33" s="3">
-        <v>-255000</v>
+        <v>-239900</v>
       </c>
       <c r="F33" s="3">
-        <v>308100</v>
+        <v>289900</v>
       </c>
       <c r="G33" s="3">
-        <v>385800</v>
+        <v>363000</v>
       </c>
       <c r="H33" s="3">
-        <v>-1054500</v>
+        <v>-992300</v>
       </c>
       <c r="I33" s="3">
-        <v>27200</v>
+        <v>25600</v>
       </c>
       <c r="J33" s="3">
-        <v>490600</v>
+        <v>461600</v>
       </c>
       <c r="K33" s="3">
         <v>584800</v>
@@ -1707,25 +1707,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>236600</v>
+        <v>222600</v>
       </c>
       <c r="E35" s="3">
-        <v>-255000</v>
+        <v>-239900</v>
       </c>
       <c r="F35" s="3">
-        <v>308100</v>
+        <v>289900</v>
       </c>
       <c r="G35" s="3">
-        <v>385800</v>
+        <v>363000</v>
       </c>
       <c r="H35" s="3">
-        <v>-1054500</v>
+        <v>-992300</v>
       </c>
       <c r="I35" s="3">
-        <v>27200</v>
+        <v>25600</v>
       </c>
       <c r="J35" s="3">
-        <v>490600</v>
+        <v>461600</v>
       </c>
       <c r="K35" s="3">
         <v>584800</v>
@@ -1824,25 +1824,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1872600</v>
+        <v>1762100</v>
       </c>
       <c r="E41" s="3">
-        <v>2610000</v>
+        <v>2455900</v>
       </c>
       <c r="F41" s="3">
-        <v>2047900</v>
+        <v>1926900</v>
       </c>
       <c r="G41" s="3">
-        <v>1870900</v>
+        <v>1760400</v>
       </c>
       <c r="H41" s="3">
-        <v>1251400</v>
+        <v>1177500</v>
       </c>
       <c r="I41" s="3">
-        <v>1052400</v>
+        <v>990200</v>
       </c>
       <c r="J41" s="3">
-        <v>1312800</v>
+        <v>1235300</v>
       </c>
       <c r="K41" s="3">
         <v>1182700</v>
@@ -1863,25 +1863,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>719000</v>
+        <v>676500</v>
       </c>
       <c r="E42" s="3">
-        <v>723100</v>
+        <v>680400</v>
       </c>
       <c r="F42" s="3">
-        <v>679500</v>
+        <v>639400</v>
       </c>
       <c r="G42" s="3">
-        <v>2293000</v>
+        <v>2157600</v>
       </c>
       <c r="H42" s="3">
-        <v>2703600</v>
+        <v>2544000</v>
       </c>
       <c r="I42" s="3">
-        <v>2154500</v>
+        <v>2027300</v>
       </c>
       <c r="J42" s="3">
-        <v>2121600</v>
+        <v>1996300</v>
       </c>
       <c r="K42" s="3">
         <v>2218300</v>
@@ -1902,25 +1902,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>3093800</v>
+        <v>2911100</v>
       </c>
       <c r="E43" s="3">
-        <v>3054700</v>
+        <v>2874300</v>
       </c>
       <c r="F43" s="3">
-        <v>3059800</v>
+        <v>2879100</v>
       </c>
       <c r="G43" s="3">
-        <v>4711400</v>
+        <v>4433200</v>
       </c>
       <c r="H43" s="3">
-        <v>4594100</v>
+        <v>4322800</v>
       </c>
       <c r="I43" s="3">
-        <v>4411600</v>
+        <v>4151100</v>
       </c>
       <c r="J43" s="3">
-        <v>4395100</v>
+        <v>4135600</v>
       </c>
       <c r="K43" s="3">
         <v>4721600</v>
@@ -1941,25 +1941,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>1811600</v>
+        <v>1704700</v>
       </c>
       <c r="E44" s="3">
-        <v>1495800</v>
+        <v>1407500</v>
       </c>
       <c r="F44" s="3">
-        <v>1567700</v>
+        <v>1475100</v>
       </c>
       <c r="G44" s="3">
-        <v>1618400</v>
+        <v>1522800</v>
       </c>
       <c r="H44" s="3">
-        <v>1406000</v>
+        <v>1322900</v>
       </c>
       <c r="I44" s="3">
-        <v>1577900</v>
+        <v>1484700</v>
       </c>
       <c r="J44" s="3">
-        <v>1613200</v>
+        <v>1518000</v>
       </c>
       <c r="K44" s="3">
         <v>1914800</v>
@@ -1980,25 +1980,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>389800</v>
+        <v>366700</v>
       </c>
       <c r="E45" s="3">
-        <v>364000</v>
+        <v>342500</v>
       </c>
       <c r="F45" s="3">
-        <v>9052100</v>
+        <v>8517500</v>
       </c>
       <c r="G45" s="3">
-        <v>332600</v>
+        <v>312900</v>
       </c>
       <c r="H45" s="3">
-        <v>389900</v>
+        <v>366900</v>
       </c>
       <c r="I45" s="3">
-        <v>457100</v>
+        <v>430100</v>
       </c>
       <c r="J45" s="3">
-        <v>475400</v>
+        <v>447400</v>
       </c>
       <c r="K45" s="3">
         <v>338300</v>
@@ -2019,25 +2019,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>7886800</v>
+        <v>7421100</v>
       </c>
       <c r="E46" s="3">
-        <v>8247600</v>
+        <v>7760600</v>
       </c>
       <c r="F46" s="3">
-        <v>16406900</v>
+        <v>15438100</v>
       </c>
       <c r="G46" s="3">
-        <v>10826200</v>
+        <v>10187000</v>
       </c>
       <c r="H46" s="3">
-        <v>10344900</v>
+        <v>9734100</v>
       </c>
       <c r="I46" s="3">
-        <v>9653500</v>
+        <v>9083400</v>
       </c>
       <c r="J46" s="3">
-        <v>9918200</v>
+        <v>9332500</v>
       </c>
       <c r="K46" s="3">
         <v>10375700</v>
@@ -2058,25 +2058,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>1729700</v>
+        <v>1627600</v>
       </c>
       <c r="E47" s="3">
-        <v>1823600</v>
+        <v>1716000</v>
       </c>
       <c r="F47" s="3">
-        <v>1312100</v>
+        <v>1234600</v>
       </c>
       <c r="G47" s="3">
-        <v>5790000</v>
+        <v>5448100</v>
       </c>
       <c r="H47" s="3">
-        <v>5611300</v>
+        <v>5279900</v>
       </c>
       <c r="I47" s="3">
-        <v>5747000</v>
+        <v>5407600</v>
       </c>
       <c r="J47" s="3">
-        <v>5361000</v>
+        <v>5044400</v>
       </c>
       <c r="K47" s="3">
         <v>5633900</v>
@@ -2097,25 +2097,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>1917700</v>
+        <v>1804400</v>
       </c>
       <c r="E48" s="3">
-        <v>1991200</v>
+        <v>1873700</v>
       </c>
       <c r="F48" s="3">
-        <v>2033100</v>
+        <v>1913100</v>
       </c>
       <c r="G48" s="3">
-        <v>1949700</v>
+        <v>1834600</v>
       </c>
       <c r="H48" s="3">
-        <v>1947500</v>
+        <v>1832500</v>
       </c>
       <c r="I48" s="3">
-        <v>2113100</v>
+        <v>1988300</v>
       </c>
       <c r="J48" s="3">
-        <v>2154300</v>
+        <v>2027100</v>
       </c>
       <c r="K48" s="3">
         <v>2359500</v>
@@ -2136,25 +2136,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>2021400</v>
+        <v>1902000</v>
       </c>
       <c r="E49" s="3">
-        <v>1756700</v>
+        <v>1653000</v>
       </c>
       <c r="F49" s="3">
-        <v>1806500</v>
+        <v>1699800</v>
       </c>
       <c r="G49" s="3">
-        <v>1712300</v>
+        <v>1611200</v>
       </c>
       <c r="H49" s="3">
-        <v>1691400</v>
+        <v>1591600</v>
       </c>
       <c r="I49" s="3">
-        <v>3023900</v>
+        <v>2845300</v>
       </c>
       <c r="J49" s="3">
-        <v>3223800</v>
+        <v>3033400</v>
       </c>
       <c r="K49" s="3">
         <v>3717000</v>
@@ -2253,25 +2253,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>881300</v>
+        <v>829300</v>
       </c>
       <c r="E52" s="3">
-        <v>887300</v>
+        <v>834900</v>
       </c>
       <c r="F52" s="3">
-        <v>780300</v>
+        <v>734200</v>
       </c>
       <c r="G52" s="3">
-        <v>950500</v>
+        <v>894400</v>
       </c>
       <c r="H52" s="3">
-        <v>978400</v>
+        <v>920600</v>
       </c>
       <c r="I52" s="3">
-        <v>957400</v>
+        <v>900800</v>
       </c>
       <c r="J52" s="3">
-        <v>971300</v>
+        <v>914000</v>
       </c>
       <c r="K52" s="3">
         <v>1202500</v>
@@ -2331,25 +2331,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>14436800</v>
+        <v>13584400</v>
       </c>
       <c r="E54" s="3">
-        <v>14706500</v>
+        <v>13838100</v>
       </c>
       <c r="F54" s="3">
-        <v>22339000</v>
+        <v>21019800</v>
       </c>
       <c r="G54" s="3">
-        <v>21228800</v>
+        <v>19975200</v>
       </c>
       <c r="H54" s="3">
-        <v>20573600</v>
+        <v>19358700</v>
       </c>
       <c r="I54" s="3">
-        <v>21494800</v>
+        <v>20225600</v>
       </c>
       <c r="J54" s="3">
-        <v>21628600</v>
+        <v>20351500</v>
       </c>
       <c r="K54" s="3">
         <v>23288700</v>
@@ -2404,25 +2404,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>2091900</v>
+        <v>1300200</v>
       </c>
       <c r="E57" s="3">
-        <v>2237000</v>
+        <v>1474800</v>
       </c>
       <c r="F57" s="3">
-        <v>1916800</v>
+        <v>1315200</v>
       </c>
       <c r="G57" s="3">
-        <v>2385200</v>
+        <v>1526400</v>
       </c>
       <c r="H57" s="3">
-        <v>2342600</v>
+        <v>1425000</v>
       </c>
       <c r="I57" s="3">
-        <v>2304200</v>
+        <v>1431000</v>
       </c>
       <c r="J57" s="3">
-        <v>2228900</v>
+        <v>1453300</v>
       </c>
       <c r="K57" s="3">
         <v>2362700</v>
@@ -2443,25 +2443,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>1067700</v>
+        <v>1004600</v>
       </c>
       <c r="E58" s="3">
-        <v>842900</v>
+        <v>793100</v>
       </c>
       <c r="F58" s="3">
-        <v>613200</v>
+        <v>577000</v>
       </c>
       <c r="G58" s="3">
-        <v>2079600</v>
+        <v>1956800</v>
       </c>
       <c r="H58" s="3">
-        <v>1738700</v>
+        <v>1636000</v>
       </c>
       <c r="I58" s="3">
-        <v>1791300</v>
+        <v>1685500</v>
       </c>
       <c r="J58" s="3">
-        <v>2031300</v>
+        <v>1911300</v>
       </c>
       <c r="K58" s="3">
         <v>1894200</v>
@@ -2482,25 +2482,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>2242400</v>
+        <v>2778200</v>
       </c>
       <c r="E59" s="3">
-        <v>2042100</v>
+        <v>2551700</v>
       </c>
       <c r="F59" s="3">
-        <v>9535900</v>
+        <v>9461100</v>
       </c>
       <c r="G59" s="3">
-        <v>2111500</v>
+        <v>2704800</v>
       </c>
       <c r="H59" s="3">
-        <v>2061300</v>
+        <v>2718800</v>
       </c>
       <c r="I59" s="3">
-        <v>2190500</v>
+        <v>2798300</v>
       </c>
       <c r="J59" s="3">
-        <v>2025300</v>
+        <v>2549700</v>
       </c>
       <c r="K59" s="3">
         <v>2329400</v>
@@ -2521,25 +2521,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>5402000</v>
+        <v>5083000</v>
       </c>
       <c r="E60" s="3">
-        <v>5122000</v>
+        <v>4819600</v>
       </c>
       <c r="F60" s="3">
-        <v>12065900</v>
+        <v>11353400</v>
       </c>
       <c r="G60" s="3">
-        <v>6576300</v>
+        <v>6188000</v>
       </c>
       <c r="H60" s="3">
-        <v>6142600</v>
+        <v>5779900</v>
       </c>
       <c r="I60" s="3">
-        <v>6285900</v>
+        <v>5914800</v>
       </c>
       <c r="J60" s="3">
-        <v>6285500</v>
+        <v>5914300</v>
       </c>
       <c r="K60" s="3">
         <v>6586300</v>
@@ -2560,25 +2560,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>1289100</v>
+        <v>1213000</v>
       </c>
       <c r="E61" s="3">
-        <v>1452200</v>
+        <v>1366400</v>
       </c>
       <c r="F61" s="3">
-        <v>1300300</v>
+        <v>1223500</v>
       </c>
       <c r="G61" s="3">
-        <v>5191700</v>
+        <v>4885200</v>
       </c>
       <c r="H61" s="3">
-        <v>5131300</v>
+        <v>4828300</v>
       </c>
       <c r="I61" s="3">
-        <v>4906100</v>
+        <v>4616400</v>
       </c>
       <c r="J61" s="3">
-        <v>4612000</v>
+        <v>4339700</v>
       </c>
       <c r="K61" s="3">
         <v>4849400</v>
@@ -2599,25 +2599,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>689400</v>
+        <v>648700</v>
       </c>
       <c r="E62" s="3">
-        <v>935500</v>
+        <v>880200</v>
       </c>
       <c r="F62" s="3">
-        <v>1116400</v>
+        <v>1050500</v>
       </c>
       <c r="G62" s="3">
-        <v>1522800</v>
+        <v>1432900</v>
       </c>
       <c r="H62" s="3">
-        <v>1597300</v>
+        <v>1503000</v>
       </c>
       <c r="I62" s="3">
-        <v>1602300</v>
+        <v>1507700</v>
       </c>
       <c r="J62" s="3">
-        <v>1790000</v>
+        <v>1684300</v>
       </c>
       <c r="K62" s="3">
         <v>2006600</v>
@@ -2755,25 +2755,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>7409900</v>
+        <v>6972400</v>
       </c>
       <c r="E66" s="3">
-        <v>7537800</v>
+        <v>7092700</v>
       </c>
       <c r="F66" s="3">
-        <v>15169300</v>
+        <v>14273500</v>
       </c>
       <c r="G66" s="3">
-        <v>13964000</v>
+        <v>13139400</v>
       </c>
       <c r="H66" s="3">
-        <v>13488100</v>
+        <v>12691600</v>
       </c>
       <c r="I66" s="3">
-        <v>13376800</v>
+        <v>12586900</v>
       </c>
       <c r="J66" s="3">
-        <v>13232500</v>
+        <v>12451100</v>
       </c>
       <c r="K66" s="3">
         <v>14040700</v>
@@ -2967,25 +2967,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>3582300</v>
+        <v>3370700</v>
       </c>
       <c r="E72" s="3">
-        <v>4374700</v>
+        <v>4116400</v>
       </c>
       <c r="F72" s="3">
-        <v>4633000</v>
+        <v>4359400</v>
       </c>
       <c r="G72" s="3">
-        <v>4478300</v>
+        <v>4213800</v>
       </c>
       <c r="H72" s="3">
-        <v>3973800</v>
+        <v>3739100</v>
       </c>
       <c r="I72" s="3">
-        <v>5121500</v>
+        <v>4819100</v>
       </c>
       <c r="J72" s="3">
-        <v>5284900</v>
+        <v>4972800</v>
       </c>
       <c r="K72" s="3">
         <v>5514400</v>
@@ -3123,25 +3123,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>7026900</v>
+        <v>6612000</v>
       </c>
       <c r="E76" s="3">
-        <v>7168700</v>
+        <v>6745400</v>
       </c>
       <c r="F76" s="3">
-        <v>7169700</v>
+        <v>6746300</v>
       </c>
       <c r="G76" s="3">
-        <v>7264800</v>
+        <v>6835800</v>
       </c>
       <c r="H76" s="3">
-        <v>7085500</v>
+        <v>6667100</v>
       </c>
       <c r="I76" s="3">
-        <v>8118000</v>
+        <v>7638600</v>
       </c>
       <c r="J76" s="3">
-        <v>8396200</v>
+        <v>7900400</v>
       </c>
       <c r="K76" s="3">
         <v>9247900</v>
@@ -3245,25 +3245,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>236600</v>
+        <v>222600</v>
       </c>
       <c r="E81" s="3">
-        <v>-255000</v>
+        <v>-239900</v>
       </c>
       <c r="F81" s="3">
-        <v>308100</v>
+        <v>289900</v>
       </c>
       <c r="G81" s="3">
-        <v>385800</v>
+        <v>363000</v>
       </c>
       <c r="H81" s="3">
-        <v>-1054500</v>
+        <v>-992300</v>
       </c>
       <c r="I81" s="3">
-        <v>27200</v>
+        <v>25600</v>
       </c>
       <c r="J81" s="3">
-        <v>490600</v>
+        <v>461600</v>
       </c>
       <c r="K81" s="3">
         <v>584800</v>
@@ -3301,25 +3301,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>704800</v>
+        <v>663200</v>
       </c>
       <c r="E83" s="3">
-        <v>815000</v>
+        <v>766800</v>
       </c>
       <c r="F83" s="3">
-        <v>940200</v>
+        <v>884600</v>
       </c>
       <c r="G83" s="3">
-        <v>734500</v>
+        <v>691100</v>
       </c>
       <c r="H83" s="3">
-        <v>843900</v>
+        <v>794000</v>
       </c>
       <c r="I83" s="3">
-        <v>832700</v>
+        <v>783500</v>
       </c>
       <c r="J83" s="3">
-        <v>836400</v>
+        <v>787000</v>
       </c>
       <c r="K83" s="3">
         <v>919800</v>
@@ -3535,25 +3535,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>642400</v>
+        <v>604400</v>
       </c>
       <c r="E89" s="3">
-        <v>989000</v>
+        <v>930600</v>
       </c>
       <c r="F89" s="3">
-        <v>909100</v>
+        <v>855400</v>
       </c>
       <c r="G89" s="3">
-        <v>638400</v>
+        <v>600700</v>
       </c>
       <c r="H89" s="3">
-        <v>859100</v>
+        <v>808400</v>
       </c>
       <c r="I89" s="3">
-        <v>687800</v>
+        <v>647200</v>
       </c>
       <c r="J89" s="3">
-        <v>777900</v>
+        <v>732000</v>
       </c>
       <c r="K89" s="3">
         <v>874700</v>
@@ -3591,25 +3591,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-291000</v>
+        <v>-273800</v>
       </c>
       <c r="E91" s="3">
-        <v>-328400</v>
+        <v>-309000</v>
       </c>
       <c r="F91" s="3">
-        <v>-674600</v>
+        <v>-634700</v>
       </c>
       <c r="G91" s="3">
-        <v>-564500</v>
+        <v>-531100</v>
       </c>
       <c r="H91" s="3">
-        <v>-563100</v>
+        <v>-529800</v>
       </c>
       <c r="I91" s="3">
-        <v>-587700</v>
+        <v>-553000</v>
       </c>
       <c r="J91" s="3">
-        <v>-652600</v>
+        <v>-614100</v>
       </c>
       <c r="K91" s="3">
         <v>-648100</v>
@@ -3708,25 +3708,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-462400</v>
+        <v>-435100</v>
       </c>
       <c r="E94" s="3">
-        <v>-495100</v>
+        <v>-465900</v>
       </c>
       <c r="F94" s="3">
-        <v>-1282200</v>
+        <v>-1206500</v>
       </c>
       <c r="G94" s="3">
-        <v>-357800</v>
+        <v>-336700</v>
       </c>
       <c r="H94" s="3">
-        <v>-631600</v>
+        <v>-594300</v>
       </c>
       <c r="I94" s="3">
-        <v>-831300</v>
+        <v>-782200</v>
       </c>
       <c r="J94" s="3">
-        <v>-811200</v>
+        <v>-763300</v>
       </c>
       <c r="K94" s="3">
         <v>-1223700</v>
@@ -3764,25 +3764,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-109500</v>
+        <v>-103000</v>
       </c>
       <c r="E96" s="3">
-        <v>-115700</v>
+        <v>-108900</v>
       </c>
       <c r="F96" s="3">
-        <v>-146800</v>
+        <v>-138100</v>
       </c>
       <c r="G96" s="3">
-        <v>-98800</v>
+        <v>-93000</v>
       </c>
       <c r="H96" s="3">
-        <v>-112900</v>
+        <v>-106300</v>
       </c>
       <c r="I96" s="3">
-        <v>-225900</v>
+        <v>-212500</v>
       </c>
       <c r="J96" s="3">
-        <v>-194800</v>
+        <v>-183300</v>
       </c>
       <c r="K96" s="3">
         <v>-207200</v>
@@ -3920,25 +3920,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-1025800</v>
+        <v>-965300</v>
       </c>
       <c r="E100" s="3">
-        <v>-31800</v>
+        <v>-29900</v>
       </c>
       <c r="F100" s="3">
-        <v>590100</v>
+        <v>555300</v>
       </c>
       <c r="G100" s="3">
-        <v>330500</v>
+        <v>311000</v>
       </c>
       <c r="H100" s="3">
-        <v>49900</v>
+        <v>47000</v>
       </c>
       <c r="I100" s="3">
-        <v>-155200</v>
+        <v>-146000</v>
       </c>
       <c r="J100" s="3">
-        <v>332400</v>
+        <v>312800</v>
       </c>
       <c r="K100" s="3">
         <v>255400</v>
@@ -3959,25 +3959,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>95500</v>
+        <v>89800</v>
       </c>
       <c r="E101" s="3">
-        <v>57200</v>
+        <v>53800</v>
       </c>
       <c r="F101" s="3">
-        <v>-33300</v>
+        <v>-31400</v>
       </c>
       <c r="G101" s="3">
-        <v>8500</v>
+        <v>8000</v>
       </c>
       <c r="H101" s="3">
-        <v>-11500</v>
+        <v>-10800</v>
       </c>
       <c r="I101" s="3">
-        <v>-21700</v>
+        <v>-20400</v>
       </c>
       <c r="J101" s="3">
-        <v>-66700</v>
+        <v>-62800</v>
       </c>
       <c r="K101" s="3">
         <v>73800</v>
@@ -3998,25 +3998,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-750400</v>
+        <v>-706100</v>
       </c>
       <c r="E102" s="3">
-        <v>519300</v>
+        <v>488600</v>
       </c>
       <c r="F102" s="3">
-        <v>183800</v>
+        <v>172900</v>
       </c>
       <c r="G102" s="3">
-        <v>619500</v>
+        <v>583000</v>
       </c>
       <c r="H102" s="3">
-        <v>265900</v>
+        <v>250200</v>
       </c>
       <c r="I102" s="3">
-        <v>-320300</v>
+        <v>-301400</v>
       </c>
       <c r="J102" s="3">
-        <v>232300</v>
+        <v>218600</v>
       </c>
       <c r="K102" s="3">
         <v>-19800</v>

--- a/AAII_Financials/Yearly/RICOY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/RICOY_YR_FIN.xlsx
@@ -723,25 +723,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>12890400</v>
+        <v>12468400</v>
       </c>
       <c r="E8" s="3">
-        <v>12329600</v>
+        <v>11925900</v>
       </c>
       <c r="F8" s="3">
-        <v>14722900</v>
+        <v>14240800</v>
       </c>
       <c r="G8" s="3">
-        <v>14757000</v>
+        <v>14273800</v>
       </c>
       <c r="H8" s="3">
-        <v>15124500</v>
+        <v>14629200</v>
       </c>
       <c r="I8" s="3">
-        <v>14871800</v>
+        <v>14384900</v>
       </c>
       <c r="J8" s="3">
-        <v>16192200</v>
+        <v>15662000</v>
       </c>
       <c r="K8" s="3">
         <v>18351500</v>
@@ -762,25 +762,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>8326300</v>
+        <v>8053700</v>
       </c>
       <c r="E9" s="3">
-        <v>8134600</v>
+        <v>7868200</v>
       </c>
       <c r="F9" s="3">
-        <v>9432000</v>
+        <v>9123200</v>
       </c>
       <c r="G9" s="3">
-        <v>9135700</v>
+        <v>8836600</v>
       </c>
       <c r="H9" s="3">
-        <v>9326400</v>
+        <v>9021000</v>
       </c>
       <c r="I9" s="3">
-        <v>9091200</v>
+        <v>8793500</v>
       </c>
       <c r="J9" s="3">
-        <v>9727400</v>
+        <v>9408900</v>
       </c>
       <c r="K9" s="3">
         <v>10615500</v>
@@ -801,25 +801,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>4564100</v>
+        <v>4414700</v>
       </c>
       <c r="E10" s="3">
-        <v>4195000</v>
+        <v>4057700</v>
       </c>
       <c r="F10" s="3">
-        <v>5290900</v>
+        <v>5117600</v>
       </c>
       <c r="G10" s="3">
-        <v>5621300</v>
+        <v>5437200</v>
       </c>
       <c r="H10" s="3">
-        <v>5798100</v>
+        <v>5608200</v>
       </c>
       <c r="I10" s="3">
-        <v>5780600</v>
+        <v>5591400</v>
       </c>
       <c r="J10" s="3">
-        <v>6464800</v>
+        <v>6253100</v>
       </c>
       <c r="K10" s="3">
         <v>7736000</v>
@@ -857,25 +857,25 @@
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>555100</v>
+        <v>536900</v>
       </c>
       <c r="E12" s="3">
-        <v>580500</v>
+        <v>561500</v>
       </c>
       <c r="F12" s="3">
-        <v>646700</v>
+        <v>625500</v>
       </c>
       <c r="G12" s="3">
-        <v>689200</v>
+        <v>666600</v>
       </c>
       <c r="H12" s="3">
-        <v>688900</v>
+        <v>666400</v>
       </c>
       <c r="I12" s="3">
-        <v>735800</v>
+        <v>711700</v>
       </c>
       <c r="J12" s="3">
-        <v>748000</v>
+        <v>723500</v>
       </c>
       <c r="K12" s="3">
         <v>838400</v>
@@ -935,19 +935,19 @@
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>14800</v>
+        <v>14300</v>
       </c>
       <c r="E14" s="3">
-        <v>364900</v>
+        <v>352900</v>
       </c>
       <c r="F14" s="3">
-        <v>82500</v>
+        <v>79800</v>
       </c>
       <c r="G14" s="3">
-        <v>157000</v>
+        <v>151900</v>
       </c>
       <c r="H14" s="3">
-        <v>1478600</v>
+        <v>1430200</v>
       </c>
       <c r="I14" s="3" t="s">
         <v>10</v>
@@ -974,25 +974,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>368900</v>
+        <v>356900</v>
       </c>
       <c r="E15" s="3">
-        <v>398900</v>
+        <v>385900</v>
       </c>
       <c r="F15" s="3">
-        <v>390900</v>
+        <v>378100</v>
       </c>
       <c r="G15" s="3">
-        <v>182300</v>
+        <v>176300</v>
       </c>
       <c r="H15" s="3">
-        <v>293900</v>
+        <v>284300</v>
       </c>
       <c r="I15" s="3">
-        <v>295300</v>
+        <v>285600</v>
       </c>
       <c r="J15" s="3">
-        <v>272200</v>
+        <v>263300</v>
       </c>
       <c r="K15" s="3">
         <v>318200</v>
@@ -1027,25 +1027,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>12596900</v>
+        <v>12184400</v>
       </c>
       <c r="E17" s="3">
-        <v>12662600</v>
+        <v>12248000</v>
       </c>
       <c r="F17" s="3">
-        <v>14143500</v>
+        <v>13680400</v>
       </c>
       <c r="G17" s="3">
-        <v>14120400</v>
+        <v>13658100</v>
       </c>
       <c r="H17" s="3">
-        <v>15972400</v>
+        <v>15449400</v>
       </c>
       <c r="I17" s="3">
-        <v>14623500</v>
+        <v>14144700</v>
       </c>
       <c r="J17" s="3">
-        <v>15442400</v>
+        <v>14936700</v>
       </c>
       <c r="K17" s="3">
         <v>17364000</v>
@@ -1066,25 +1066,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>293600</v>
+        <v>284000</v>
       </c>
       <c r="E18" s="3">
-        <v>-333000</v>
+        <v>-322100</v>
       </c>
       <c r="F18" s="3">
-        <v>579400</v>
+        <v>560400</v>
       </c>
       <c r="G18" s="3">
-        <v>636500</v>
+        <v>615700</v>
       </c>
       <c r="H18" s="3">
-        <v>-847900</v>
+        <v>-820100</v>
       </c>
       <c r="I18" s="3">
-        <v>248300</v>
+        <v>240200</v>
       </c>
       <c r="J18" s="3">
-        <v>749800</v>
+        <v>725300</v>
       </c>
       <c r="K18" s="3">
         <v>987500</v>
@@ -1122,22 +1122,22 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>55700</v>
+        <v>53800</v>
       </c>
       <c r="E20" s="3">
-        <v>54600</v>
+        <v>52800</v>
       </c>
       <c r="F20" s="3">
-        <v>19200</v>
+        <v>18600</v>
       </c>
       <c r="G20" s="3">
-        <v>22600</v>
+        <v>21900</v>
       </c>
       <c r="H20" s="3">
-        <v>-13000</v>
+        <v>-12600</v>
       </c>
       <c r="I20" s="3">
-        <v>26600</v>
+        <v>25700</v>
       </c>
       <c r="J20" s="3">
         <v>-500</v>
@@ -1161,25 +1161,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>1008800</v>
+        <v>955800</v>
       </c>
       <c r="E21" s="3">
-        <v>484200</v>
+        <v>445200</v>
       </c>
       <c r="F21" s="3">
-        <v>1478400</v>
+        <v>1403300</v>
       </c>
       <c r="G21" s="3">
-        <v>1346500</v>
+        <v>1281600</v>
       </c>
       <c r="H21" s="3">
-        <v>-71200</v>
+        <v>-92900</v>
       </c>
       <c r="I21" s="3">
-        <v>1054200</v>
+        <v>996000</v>
       </c>
       <c r="J21" s="3">
-        <v>1532000</v>
+        <v>1458100</v>
       </c>
       <c r="K21" s="3">
         <v>1949200</v>
@@ -1200,25 +1200,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>23900</v>
+        <v>23100</v>
       </c>
       <c r="E22" s="3">
-        <v>22300</v>
+        <v>21600</v>
       </c>
       <c r="F22" s="3">
+        <v>40900</v>
+      </c>
+      <c r="G22" s="3">
         <v>42300</v>
       </c>
-      <c r="G22" s="3">
-        <v>43700</v>
-      </c>
       <c r="H22" s="3">
-        <v>49300</v>
+        <v>47700</v>
       </c>
       <c r="I22" s="3">
-        <v>55400</v>
+        <v>53500</v>
       </c>
       <c r="J22" s="3">
-        <v>48000</v>
+        <v>46400</v>
       </c>
       <c r="K22" s="3">
         <v>60700</v>
@@ -1239,25 +1239,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>325400</v>
+        <v>314700</v>
       </c>
       <c r="E23" s="3">
-        <v>-300700</v>
+        <v>-290900</v>
       </c>
       <c r="F23" s="3">
-        <v>556300</v>
+        <v>538100</v>
       </c>
       <c r="G23" s="3">
-        <v>615500</v>
+        <v>595300</v>
       </c>
       <c r="H23" s="3">
-        <v>-910300</v>
+        <v>-880500</v>
       </c>
       <c r="I23" s="3">
-        <v>219600</v>
+        <v>212400</v>
       </c>
       <c r="J23" s="3">
-        <v>701400</v>
+        <v>678400</v>
       </c>
       <c r="K23" s="3">
         <v>957900</v>
@@ -1278,25 +1278,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>100900</v>
+        <v>97600</v>
       </c>
       <c r="E24" s="3">
-        <v>-61300</v>
+        <v>-59300</v>
       </c>
       <c r="F24" s="3">
-        <v>230700</v>
+        <v>223200</v>
       </c>
       <c r="G24" s="3">
-        <v>209500</v>
+        <v>202700</v>
       </c>
       <c r="H24" s="3">
-        <v>30400</v>
+        <v>29400</v>
       </c>
       <c r="I24" s="3">
-        <v>150400</v>
+        <v>145500</v>
       </c>
       <c r="J24" s="3">
-        <v>208000</v>
+        <v>201200</v>
       </c>
       <c r="K24" s="3">
         <v>329200</v>
@@ -1356,25 +1356,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>224500</v>
+        <v>217100</v>
       </c>
       <c r="E26" s="3">
-        <v>-239400</v>
+        <v>-231600</v>
       </c>
       <c r="F26" s="3">
-        <v>325500</v>
+        <v>314900</v>
       </c>
       <c r="G26" s="3">
-        <v>405900</v>
+        <v>392600</v>
       </c>
       <c r="H26" s="3">
-        <v>-940600</v>
+        <v>-909800</v>
       </c>
       <c r="I26" s="3">
-        <v>69200</v>
+        <v>66900</v>
       </c>
       <c r="J26" s="3">
-        <v>493400</v>
+        <v>477200</v>
       </c>
       <c r="K26" s="3">
         <v>628700</v>
@@ -1395,25 +1395,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>222600</v>
+        <v>215300</v>
       </c>
       <c r="E27" s="3">
-        <v>-239900</v>
+        <v>-232100</v>
       </c>
       <c r="F27" s="3">
-        <v>289900</v>
+        <v>280400</v>
       </c>
       <c r="G27" s="3">
-        <v>363000</v>
+        <v>351100</v>
       </c>
       <c r="H27" s="3">
-        <v>-982700</v>
+        <v>-950500</v>
       </c>
       <c r="I27" s="3">
-        <v>25600</v>
+        <v>24700</v>
       </c>
       <c r="J27" s="3">
-        <v>461600</v>
+        <v>446500</v>
       </c>
       <c r="K27" s="3">
         <v>584800</v>
@@ -1485,7 +1485,7 @@
         <v>10</v>
       </c>
       <c r="H29" s="3">
-        <v>-9600</v>
+        <v>-9300</v>
       </c>
       <c r="I29" s="3" t="s">
         <v>10</v>
@@ -1590,22 +1590,22 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-55700</v>
+        <v>-53800</v>
       </c>
       <c r="E32" s="3">
-        <v>-54600</v>
+        <v>-52800</v>
       </c>
       <c r="F32" s="3">
-        <v>-19200</v>
+        <v>-18600</v>
       </c>
       <c r="G32" s="3">
-        <v>-22600</v>
+        <v>-21900</v>
       </c>
       <c r="H32" s="3">
-        <v>13000</v>
+        <v>12600</v>
       </c>
       <c r="I32" s="3">
-        <v>-26600</v>
+        <v>-25700</v>
       </c>
       <c r="J32" s="3">
         <v>500</v>
@@ -1629,25 +1629,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>222600</v>
+        <v>215300</v>
       </c>
       <c r="E33" s="3">
-        <v>-239900</v>
+        <v>-232100</v>
       </c>
       <c r="F33" s="3">
-        <v>289900</v>
+        <v>280400</v>
       </c>
       <c r="G33" s="3">
-        <v>363000</v>
+        <v>351100</v>
       </c>
       <c r="H33" s="3">
-        <v>-992300</v>
+        <v>-959800</v>
       </c>
       <c r="I33" s="3">
-        <v>25600</v>
+        <v>24700</v>
       </c>
       <c r="J33" s="3">
-        <v>461600</v>
+        <v>446500</v>
       </c>
       <c r="K33" s="3">
         <v>584800</v>
@@ -1707,25 +1707,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>222600</v>
+        <v>215300</v>
       </c>
       <c r="E35" s="3">
-        <v>-239900</v>
+        <v>-232100</v>
       </c>
       <c r="F35" s="3">
-        <v>289900</v>
+        <v>280400</v>
       </c>
       <c r="G35" s="3">
-        <v>363000</v>
+        <v>351100</v>
       </c>
       <c r="H35" s="3">
-        <v>-992300</v>
+        <v>-959800</v>
       </c>
       <c r="I35" s="3">
-        <v>25600</v>
+        <v>24700</v>
       </c>
       <c r="J35" s="3">
-        <v>461600</v>
+        <v>446500</v>
       </c>
       <c r="K35" s="3">
         <v>584800</v>
@@ -1824,25 +1824,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1762100</v>
+        <v>1704400</v>
       </c>
       <c r="E41" s="3">
-        <v>2455900</v>
+        <v>2375500</v>
       </c>
       <c r="F41" s="3">
-        <v>1926900</v>
+        <v>1863800</v>
       </c>
       <c r="G41" s="3">
-        <v>1760400</v>
+        <v>1702800</v>
       </c>
       <c r="H41" s="3">
-        <v>1177500</v>
+        <v>1138900</v>
       </c>
       <c r="I41" s="3">
-        <v>990200</v>
+        <v>957800</v>
       </c>
       <c r="J41" s="3">
-        <v>1235300</v>
+        <v>1194800</v>
       </c>
       <c r="K41" s="3">
         <v>1182700</v>
@@ -1863,25 +1863,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>676500</v>
+        <v>654400</v>
       </c>
       <c r="E42" s="3">
-        <v>680400</v>
+        <v>658100</v>
       </c>
       <c r="F42" s="3">
-        <v>639400</v>
+        <v>618400</v>
       </c>
       <c r="G42" s="3">
-        <v>2157600</v>
+        <v>2086900</v>
       </c>
       <c r="H42" s="3">
-        <v>2544000</v>
+        <v>2460700</v>
       </c>
       <c r="I42" s="3">
-        <v>2027300</v>
+        <v>1960900</v>
       </c>
       <c r="J42" s="3">
-        <v>1996300</v>
+        <v>1930900</v>
       </c>
       <c r="K42" s="3">
         <v>2218300</v>
@@ -1902,25 +1902,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>2911100</v>
+        <v>2815800</v>
       </c>
       <c r="E43" s="3">
-        <v>2874300</v>
+        <v>2780200</v>
       </c>
       <c r="F43" s="3">
-        <v>2879100</v>
+        <v>2784800</v>
       </c>
       <c r="G43" s="3">
-        <v>4433200</v>
+        <v>4288100</v>
       </c>
       <c r="H43" s="3">
-        <v>4322800</v>
+        <v>4181300</v>
       </c>
       <c r="I43" s="3">
-        <v>4151100</v>
+        <v>4015200</v>
       </c>
       <c r="J43" s="3">
-        <v>4135600</v>
+        <v>4000200</v>
       </c>
       <c r="K43" s="3">
         <v>4721600</v>
@@ -1941,25 +1941,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>1704700</v>
+        <v>1648800</v>
       </c>
       <c r="E44" s="3">
-        <v>1407500</v>
+        <v>1361400</v>
       </c>
       <c r="F44" s="3">
-        <v>1475100</v>
+        <v>1426800</v>
       </c>
       <c r="G44" s="3">
-        <v>1522800</v>
+        <v>1472900</v>
       </c>
       <c r="H44" s="3">
-        <v>1322900</v>
+        <v>1279600</v>
       </c>
       <c r="I44" s="3">
-        <v>1484700</v>
+        <v>1436100</v>
       </c>
       <c r="J44" s="3">
-        <v>1518000</v>
+        <v>1468300</v>
       </c>
       <c r="K44" s="3">
         <v>1914800</v>
@@ -1980,25 +1980,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>366700</v>
+        <v>354700</v>
       </c>
       <c r="E45" s="3">
-        <v>342500</v>
+        <v>331300</v>
       </c>
       <c r="F45" s="3">
-        <v>8517500</v>
+        <v>8238700</v>
       </c>
       <c r="G45" s="3">
-        <v>312900</v>
+        <v>302700</v>
       </c>
       <c r="H45" s="3">
-        <v>366900</v>
+        <v>354900</v>
       </c>
       <c r="I45" s="3">
-        <v>430100</v>
+        <v>416100</v>
       </c>
       <c r="J45" s="3">
-        <v>447400</v>
+        <v>432700</v>
       </c>
       <c r="K45" s="3">
         <v>338300</v>
@@ -2019,25 +2019,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>7421100</v>
+        <v>7178100</v>
       </c>
       <c r="E46" s="3">
-        <v>7760600</v>
+        <v>7506500</v>
       </c>
       <c r="F46" s="3">
-        <v>15438100</v>
+        <v>14932600</v>
       </c>
       <c r="G46" s="3">
-        <v>10187000</v>
+        <v>9853400</v>
       </c>
       <c r="H46" s="3">
-        <v>9734100</v>
+        <v>9415400</v>
       </c>
       <c r="I46" s="3">
-        <v>9083400</v>
+        <v>8786000</v>
       </c>
       <c r="J46" s="3">
-        <v>9332500</v>
+        <v>9027000</v>
       </c>
       <c r="K46" s="3">
         <v>10375700</v>
@@ -2058,25 +2058,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>1627600</v>
+        <v>1574300</v>
       </c>
       <c r="E47" s="3">
-        <v>1716000</v>
+        <v>1659800</v>
       </c>
       <c r="F47" s="3">
-        <v>1234600</v>
+        <v>1194200</v>
       </c>
       <c r="G47" s="3">
-        <v>5448100</v>
+        <v>5269700</v>
       </c>
       <c r="H47" s="3">
-        <v>5279900</v>
+        <v>5107000</v>
       </c>
       <c r="I47" s="3">
-        <v>5407600</v>
+        <v>5230600</v>
       </c>
       <c r="J47" s="3">
-        <v>5044400</v>
+        <v>4879300</v>
       </c>
       <c r="K47" s="3">
         <v>5633900</v>
@@ -2097,25 +2097,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>1804400</v>
+        <v>1745300</v>
       </c>
       <c r="E48" s="3">
-        <v>1873700</v>
+        <v>1812300</v>
       </c>
       <c r="F48" s="3">
-        <v>1913100</v>
+        <v>1850400</v>
       </c>
       <c r="G48" s="3">
-        <v>1834600</v>
+        <v>1774500</v>
       </c>
       <c r="H48" s="3">
-        <v>1832500</v>
+        <v>1772500</v>
       </c>
       <c r="I48" s="3">
-        <v>1988300</v>
+        <v>1923200</v>
       </c>
       <c r="J48" s="3">
-        <v>2027100</v>
+        <v>1960700</v>
       </c>
       <c r="K48" s="3">
         <v>2359500</v>
@@ -2136,25 +2136,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>1902000</v>
+        <v>1839700</v>
       </c>
       <c r="E49" s="3">
-        <v>1653000</v>
+        <v>1598900</v>
       </c>
       <c r="F49" s="3">
-        <v>1699800</v>
+        <v>1644200</v>
       </c>
       <c r="G49" s="3">
-        <v>1611200</v>
+        <v>1558400</v>
       </c>
       <c r="H49" s="3">
-        <v>1591600</v>
+        <v>1539500</v>
       </c>
       <c r="I49" s="3">
-        <v>2845300</v>
+        <v>2752200</v>
       </c>
       <c r="J49" s="3">
-        <v>3033400</v>
+        <v>2934100</v>
       </c>
       <c r="K49" s="3">
         <v>3717000</v>
@@ -2253,25 +2253,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>829300</v>
+        <v>802100</v>
       </c>
       <c r="E52" s="3">
-        <v>834900</v>
+        <v>807500</v>
       </c>
       <c r="F52" s="3">
-        <v>734200</v>
+        <v>710200</v>
       </c>
       <c r="G52" s="3">
-        <v>894400</v>
+        <v>865100</v>
       </c>
       <c r="H52" s="3">
-        <v>920600</v>
+        <v>890500</v>
       </c>
       <c r="I52" s="3">
-        <v>900800</v>
+        <v>871300</v>
       </c>
       <c r="J52" s="3">
-        <v>914000</v>
+        <v>884000</v>
       </c>
       <c r="K52" s="3">
         <v>1202500</v>
@@ -2331,25 +2331,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>13584400</v>
+        <v>13139600</v>
       </c>
       <c r="E54" s="3">
-        <v>13838100</v>
+        <v>13385000</v>
       </c>
       <c r="F54" s="3">
-        <v>21019800</v>
+        <v>20331600</v>
       </c>
       <c r="G54" s="3">
-        <v>19975200</v>
+        <v>19321200</v>
       </c>
       <c r="H54" s="3">
-        <v>19358700</v>
+        <v>18724900</v>
       </c>
       <c r="I54" s="3">
-        <v>20225600</v>
+        <v>19563300</v>
       </c>
       <c r="J54" s="3">
-        <v>20351500</v>
+        <v>19685100</v>
       </c>
       <c r="K54" s="3">
         <v>23288700</v>
@@ -2404,25 +2404,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>1300200</v>
+        <v>1257600</v>
       </c>
       <c r="E57" s="3">
-        <v>1474800</v>
+        <v>1426500</v>
       </c>
       <c r="F57" s="3">
-        <v>1315200</v>
+        <v>1272200</v>
       </c>
       <c r="G57" s="3">
-        <v>1526400</v>
+        <v>1476400</v>
       </c>
       <c r="H57" s="3">
-        <v>1425000</v>
+        <v>1378400</v>
       </c>
       <c r="I57" s="3">
-        <v>1431000</v>
+        <v>1384100</v>
       </c>
       <c r="J57" s="3">
-        <v>1453300</v>
+        <v>1405800</v>
       </c>
       <c r="K57" s="3">
         <v>2362700</v>
@@ -2443,25 +2443,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>1004600</v>
+        <v>971800</v>
       </c>
       <c r="E58" s="3">
-        <v>793100</v>
+        <v>767200</v>
       </c>
       <c r="F58" s="3">
-        <v>577000</v>
+        <v>558100</v>
       </c>
       <c r="G58" s="3">
-        <v>1956800</v>
+        <v>1892700</v>
       </c>
       <c r="H58" s="3">
-        <v>1636000</v>
+        <v>1582400</v>
       </c>
       <c r="I58" s="3">
-        <v>1685500</v>
+        <v>1630300</v>
       </c>
       <c r="J58" s="3">
-        <v>1911300</v>
+        <v>1848800</v>
       </c>
       <c r="K58" s="3">
         <v>1894200</v>
@@ -2482,25 +2482,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>2778200</v>
+        <v>2687200</v>
       </c>
       <c r="E59" s="3">
-        <v>2551700</v>
+        <v>2468100</v>
       </c>
       <c r="F59" s="3">
-        <v>9461100</v>
+        <v>9151400</v>
       </c>
       <c r="G59" s="3">
-        <v>2704800</v>
+        <v>2616300</v>
       </c>
       <c r="H59" s="3">
-        <v>2718800</v>
+        <v>2629800</v>
       </c>
       <c r="I59" s="3">
-        <v>2798300</v>
+        <v>2706600</v>
       </c>
       <c r="J59" s="3">
-        <v>2549700</v>
+        <v>2466200</v>
       </c>
       <c r="K59" s="3">
         <v>2329400</v>
@@ -2521,25 +2521,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>5083000</v>
+        <v>4916500</v>
       </c>
       <c r="E60" s="3">
-        <v>4819600</v>
+        <v>4661800</v>
       </c>
       <c r="F60" s="3">
-        <v>11353400</v>
+        <v>10981700</v>
       </c>
       <c r="G60" s="3">
-        <v>6188000</v>
+        <v>5985400</v>
       </c>
       <c r="H60" s="3">
-        <v>5779900</v>
+        <v>5590600</v>
       </c>
       <c r="I60" s="3">
-        <v>5914800</v>
+        <v>5721100</v>
       </c>
       <c r="J60" s="3">
-        <v>5914300</v>
+        <v>5720700</v>
       </c>
       <c r="K60" s="3">
         <v>6586300</v>
@@ -2560,25 +2560,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>1213000</v>
+        <v>1173300</v>
       </c>
       <c r="E61" s="3">
-        <v>1366400</v>
+        <v>1321700</v>
       </c>
       <c r="F61" s="3">
-        <v>1223500</v>
+        <v>1183400</v>
       </c>
       <c r="G61" s="3">
-        <v>4885200</v>
+        <v>4725200</v>
       </c>
       <c r="H61" s="3">
-        <v>4828300</v>
+        <v>4670200</v>
       </c>
       <c r="I61" s="3">
-        <v>4616400</v>
+        <v>4465300</v>
       </c>
       <c r="J61" s="3">
-        <v>4339700</v>
+        <v>4197600</v>
       </c>
       <c r="K61" s="3">
         <v>4849400</v>
@@ -2599,25 +2599,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>648700</v>
+        <v>627400</v>
       </c>
       <c r="E62" s="3">
-        <v>880200</v>
+        <v>851400</v>
       </c>
       <c r="F62" s="3">
-        <v>1050500</v>
+        <v>1016100</v>
       </c>
       <c r="G62" s="3">
-        <v>1432900</v>
+        <v>1386000</v>
       </c>
       <c r="H62" s="3">
-        <v>1503000</v>
+        <v>1453800</v>
       </c>
       <c r="I62" s="3">
-        <v>1507700</v>
+        <v>1458300</v>
       </c>
       <c r="J62" s="3">
-        <v>1684300</v>
+        <v>1629200</v>
       </c>
       <c r="K62" s="3">
         <v>2006600</v>
@@ -2755,25 +2755,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>6972400</v>
+        <v>6744100</v>
       </c>
       <c r="E66" s="3">
-        <v>7092700</v>
+        <v>6860400</v>
       </c>
       <c r="F66" s="3">
-        <v>14273500</v>
+        <v>13806200</v>
       </c>
       <c r="G66" s="3">
-        <v>13139400</v>
+        <v>12709200</v>
       </c>
       <c r="H66" s="3">
-        <v>12691600</v>
+        <v>12276100</v>
       </c>
       <c r="I66" s="3">
-        <v>12586900</v>
+        <v>12174800</v>
       </c>
       <c r="J66" s="3">
-        <v>12451100</v>
+        <v>12043400</v>
       </c>
       <c r="K66" s="3">
         <v>14040700</v>
@@ -2967,25 +2967,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>3370700</v>
+        <v>3260400</v>
       </c>
       <c r="E72" s="3">
-        <v>4116400</v>
+        <v>3981600</v>
       </c>
       <c r="F72" s="3">
-        <v>4359400</v>
+        <v>4216600</v>
       </c>
       <c r="G72" s="3">
-        <v>4213800</v>
+        <v>4075900</v>
       </c>
       <c r="H72" s="3">
-        <v>3739100</v>
+        <v>3616700</v>
       </c>
       <c r="I72" s="3">
-        <v>4819100</v>
+        <v>4661300</v>
       </c>
       <c r="J72" s="3">
-        <v>4972800</v>
+        <v>4810000</v>
       </c>
       <c r="K72" s="3">
         <v>5514400</v>
@@ -3123,25 +3123,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>6395500</v>
+      </c>
+      <c r="E76" s="3">
+        <v>6524500</v>
+      </c>
+      <c r="F76" s="3">
+        <v>6525400</v>
+      </c>
+      <c r="G76" s="3">
         <v>6612000</v>
       </c>
-      <c r="E76" s="3">
-        <v>6745400</v>
-      </c>
-      <c r="F76" s="3">
-        <v>6746300</v>
-      </c>
-      <c r="G76" s="3">
-        <v>6835800</v>
-      </c>
       <c r="H76" s="3">
-        <v>6667100</v>
+        <v>6448800</v>
       </c>
       <c r="I76" s="3">
-        <v>7638600</v>
+        <v>7388500</v>
       </c>
       <c r="J76" s="3">
-        <v>7900400</v>
+        <v>7641700</v>
       </c>
       <c r="K76" s="3">
         <v>9247900</v>
@@ -3245,25 +3245,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>222600</v>
+        <v>215300</v>
       </c>
       <c r="E81" s="3">
-        <v>-239900</v>
+        <v>-232100</v>
       </c>
       <c r="F81" s="3">
-        <v>289900</v>
+        <v>280400</v>
       </c>
       <c r="G81" s="3">
-        <v>363000</v>
+        <v>351100</v>
       </c>
       <c r="H81" s="3">
-        <v>-992300</v>
+        <v>-959800</v>
       </c>
       <c r="I81" s="3">
-        <v>25600</v>
+        <v>24700</v>
       </c>
       <c r="J81" s="3">
-        <v>461600</v>
+        <v>446500</v>
       </c>
       <c r="K81" s="3">
         <v>584800</v>
@@ -3301,25 +3301,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>663200</v>
+        <v>641500</v>
       </c>
       <c r="E83" s="3">
-        <v>766800</v>
+        <v>741700</v>
       </c>
       <c r="F83" s="3">
-        <v>884600</v>
+        <v>855700</v>
       </c>
       <c r="G83" s="3">
-        <v>691100</v>
+        <v>668500</v>
       </c>
       <c r="H83" s="3">
-        <v>794000</v>
+        <v>768000</v>
       </c>
       <c r="I83" s="3">
-        <v>783500</v>
+        <v>757900</v>
       </c>
       <c r="J83" s="3">
-        <v>787000</v>
+        <v>761200</v>
       </c>
       <c r="K83" s="3">
         <v>919800</v>
@@ -3535,25 +3535,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>604400</v>
+        <v>584700</v>
       </c>
       <c r="E89" s="3">
-        <v>930600</v>
+        <v>900200</v>
       </c>
       <c r="F89" s="3">
-        <v>855400</v>
+        <v>827400</v>
       </c>
       <c r="G89" s="3">
-        <v>600700</v>
+        <v>581000</v>
       </c>
       <c r="H89" s="3">
-        <v>808400</v>
+        <v>781900</v>
       </c>
       <c r="I89" s="3">
-        <v>647200</v>
+        <v>626000</v>
       </c>
       <c r="J89" s="3">
-        <v>732000</v>
+        <v>708000</v>
       </c>
       <c r="K89" s="3">
         <v>874700</v>
@@ -3591,25 +3591,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-273800</v>
+        <v>-264900</v>
       </c>
       <c r="E91" s="3">
-        <v>-309000</v>
+        <v>-298900</v>
       </c>
       <c r="F91" s="3">
-        <v>-634700</v>
+        <v>-614000</v>
       </c>
       <c r="G91" s="3">
-        <v>-531100</v>
+        <v>-513800</v>
       </c>
       <c r="H91" s="3">
-        <v>-529800</v>
+        <v>-512500</v>
       </c>
       <c r="I91" s="3">
-        <v>-553000</v>
+        <v>-534900</v>
       </c>
       <c r="J91" s="3">
-        <v>-614100</v>
+        <v>-594000</v>
       </c>
       <c r="K91" s="3">
         <v>-648100</v>
@@ -3708,25 +3708,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-435100</v>
+        <v>-420800</v>
       </c>
       <c r="E94" s="3">
-        <v>-465900</v>
+        <v>-450600</v>
       </c>
       <c r="F94" s="3">
-        <v>-1206500</v>
+        <v>-1167000</v>
       </c>
       <c r="G94" s="3">
-        <v>-336700</v>
+        <v>-325700</v>
       </c>
       <c r="H94" s="3">
-        <v>-594300</v>
+        <v>-574800</v>
       </c>
       <c r="I94" s="3">
-        <v>-782200</v>
+        <v>-756600</v>
       </c>
       <c r="J94" s="3">
-        <v>-763300</v>
+        <v>-738300</v>
       </c>
       <c r="K94" s="3">
         <v>-1223700</v>
@@ -3764,25 +3764,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-103000</v>
+        <v>-99700</v>
       </c>
       <c r="E96" s="3">
-        <v>-108900</v>
+        <v>-105300</v>
       </c>
       <c r="F96" s="3">
-        <v>-138100</v>
+        <v>-133600</v>
       </c>
       <c r="G96" s="3">
-        <v>-93000</v>
+        <v>-89900</v>
       </c>
       <c r="H96" s="3">
-        <v>-106300</v>
+        <v>-102800</v>
       </c>
       <c r="I96" s="3">
-        <v>-212500</v>
+        <v>-205600</v>
       </c>
       <c r="J96" s="3">
-        <v>-183300</v>
+        <v>-177300</v>
       </c>
       <c r="K96" s="3">
         <v>-207200</v>
@@ -3920,25 +3920,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-965300</v>
+        <v>-933600</v>
       </c>
       <c r="E100" s="3">
-        <v>-29900</v>
+        <v>-29000</v>
       </c>
       <c r="F100" s="3">
-        <v>555300</v>
+        <v>537100</v>
       </c>
       <c r="G100" s="3">
-        <v>311000</v>
+        <v>300800</v>
       </c>
       <c r="H100" s="3">
-        <v>47000</v>
+        <v>45400</v>
       </c>
       <c r="I100" s="3">
-        <v>-146000</v>
+        <v>-141200</v>
       </c>
       <c r="J100" s="3">
-        <v>312800</v>
+        <v>302500</v>
       </c>
       <c r="K100" s="3">
         <v>255400</v>
@@ -3959,25 +3959,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>89800</v>
+        <v>86900</v>
       </c>
       <c r="E101" s="3">
-        <v>53800</v>
+        <v>52000</v>
       </c>
       <c r="F101" s="3">
-        <v>-31400</v>
+        <v>-30300</v>
       </c>
       <c r="G101" s="3">
-        <v>8000</v>
+        <v>7700</v>
       </c>
       <c r="H101" s="3">
-        <v>-10800</v>
+        <v>-10500</v>
       </c>
       <c r="I101" s="3">
-        <v>-20400</v>
+        <v>-19700</v>
       </c>
       <c r="J101" s="3">
-        <v>-62800</v>
+        <v>-60700</v>
       </c>
       <c r="K101" s="3">
         <v>73800</v>
@@ -3998,25 +3998,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-706100</v>
+        <v>-682900</v>
       </c>
       <c r="E102" s="3">
-        <v>488600</v>
+        <v>472600</v>
       </c>
       <c r="F102" s="3">
-        <v>172900</v>
+        <v>167200</v>
       </c>
       <c r="G102" s="3">
-        <v>583000</v>
+        <v>563900</v>
       </c>
       <c r="H102" s="3">
-        <v>250200</v>
+        <v>242000</v>
       </c>
       <c r="I102" s="3">
-        <v>-301400</v>
+        <v>-291500</v>
       </c>
       <c r="J102" s="3">
-        <v>218600</v>
+        <v>211500</v>
       </c>
       <c r="K102" s="3">
         <v>-19800</v>

--- a/AAII_Financials/Yearly/RICOY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/RICOY_YR_FIN.xlsx
@@ -723,25 +723,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>12468400</v>
+        <v>12925600</v>
       </c>
       <c r="E8" s="3">
-        <v>11925900</v>
+        <v>12363200</v>
       </c>
       <c r="F8" s="3">
-        <v>14240800</v>
+        <v>14763100</v>
       </c>
       <c r="G8" s="3">
-        <v>14273800</v>
+        <v>14797200</v>
       </c>
       <c r="H8" s="3">
-        <v>14629200</v>
+        <v>15165700</v>
       </c>
       <c r="I8" s="3">
-        <v>14384900</v>
+        <v>14912400</v>
       </c>
       <c r="J8" s="3">
-        <v>15662000</v>
+        <v>16236400</v>
       </c>
       <c r="K8" s="3">
         <v>18351500</v>
@@ -762,25 +762,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>8053700</v>
+        <v>8349000</v>
       </c>
       <c r="E9" s="3">
-        <v>7868200</v>
+        <v>8156800</v>
       </c>
       <c r="F9" s="3">
-        <v>9123200</v>
+        <v>9457800</v>
       </c>
       <c r="G9" s="3">
-        <v>8836600</v>
+        <v>9160600</v>
       </c>
       <c r="H9" s="3">
-        <v>9021000</v>
+        <v>9351800</v>
       </c>
       <c r="I9" s="3">
-        <v>8793500</v>
+        <v>9116000</v>
       </c>
       <c r="J9" s="3">
-        <v>9408900</v>
+        <v>9753900</v>
       </c>
       <c r="K9" s="3">
         <v>10615500</v>
@@ -801,25 +801,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>4414700</v>
+        <v>4576600</v>
       </c>
       <c r="E10" s="3">
-        <v>4057700</v>
+        <v>4206500</v>
       </c>
       <c r="F10" s="3">
-        <v>5117600</v>
+        <v>5305300</v>
       </c>
       <c r="G10" s="3">
-        <v>5437200</v>
+        <v>5636600</v>
       </c>
       <c r="H10" s="3">
-        <v>5608200</v>
+        <v>5813900</v>
       </c>
       <c r="I10" s="3">
-        <v>5591400</v>
+        <v>5796400</v>
       </c>
       <c r="J10" s="3">
-        <v>6253100</v>
+        <v>6482400</v>
       </c>
       <c r="K10" s="3">
         <v>7736000</v>
@@ -857,25 +857,25 @@
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>536900</v>
+        <v>556600</v>
       </c>
       <c r="E12" s="3">
-        <v>561500</v>
+        <v>582100</v>
       </c>
       <c r="F12" s="3">
-        <v>625500</v>
+        <v>648400</v>
       </c>
       <c r="G12" s="3">
-        <v>666600</v>
+        <v>691100</v>
       </c>
       <c r="H12" s="3">
-        <v>666400</v>
+        <v>690800</v>
       </c>
       <c r="I12" s="3">
-        <v>711700</v>
+        <v>737800</v>
       </c>
       <c r="J12" s="3">
-        <v>723500</v>
+        <v>750000</v>
       </c>
       <c r="K12" s="3">
         <v>838400</v>
@@ -935,19 +935,19 @@
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>14300</v>
+        <v>14900</v>
       </c>
       <c r="E14" s="3">
-        <v>352900</v>
+        <v>365900</v>
       </c>
       <c r="F14" s="3">
-        <v>79800</v>
+        <v>82700</v>
       </c>
       <c r="G14" s="3">
-        <v>151900</v>
+        <v>157500</v>
       </c>
       <c r="H14" s="3">
-        <v>1430200</v>
+        <v>1482600</v>
       </c>
       <c r="I14" s="3" t="s">
         <v>10</v>
@@ -974,25 +974,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>356900</v>
+        <v>370000</v>
       </c>
       <c r="E15" s="3">
-        <v>385900</v>
+        <v>400000</v>
       </c>
       <c r="F15" s="3">
-        <v>378100</v>
+        <v>392000</v>
       </c>
       <c r="G15" s="3">
-        <v>176300</v>
+        <v>182800</v>
       </c>
       <c r="H15" s="3">
-        <v>284300</v>
+        <v>294700</v>
       </c>
       <c r="I15" s="3">
-        <v>285600</v>
+        <v>296100</v>
       </c>
       <c r="J15" s="3">
-        <v>263300</v>
+        <v>273000</v>
       </c>
       <c r="K15" s="3">
         <v>318200</v>
@@ -1027,25 +1027,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>12184400</v>
+        <v>12631200</v>
       </c>
       <c r="E17" s="3">
-        <v>12248000</v>
+        <v>12697100</v>
       </c>
       <c r="F17" s="3">
-        <v>13680400</v>
+        <v>14182100</v>
       </c>
       <c r="G17" s="3">
-        <v>13658100</v>
+        <v>14159000</v>
       </c>
       <c r="H17" s="3">
-        <v>15449400</v>
+        <v>16015900</v>
       </c>
       <c r="I17" s="3">
-        <v>14144700</v>
+        <v>14663400</v>
       </c>
       <c r="J17" s="3">
-        <v>14936700</v>
+        <v>15484500</v>
       </c>
       <c r="K17" s="3">
         <v>17364000</v>
@@ -1066,25 +1066,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>284000</v>
+        <v>294400</v>
       </c>
       <c r="E18" s="3">
-        <v>-322100</v>
+        <v>-333900</v>
       </c>
       <c r="F18" s="3">
-        <v>560400</v>
+        <v>580900</v>
       </c>
       <c r="G18" s="3">
-        <v>615700</v>
+        <v>638300</v>
       </c>
       <c r="H18" s="3">
-        <v>-820100</v>
+        <v>-850200</v>
       </c>
       <c r="I18" s="3">
-        <v>240200</v>
+        <v>249000</v>
       </c>
       <c r="J18" s="3">
-        <v>725300</v>
+        <v>751900</v>
       </c>
       <c r="K18" s="3">
         <v>987500</v>
@@ -1122,22 +1122,22 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>53800</v>
+        <v>55800</v>
       </c>
       <c r="E20" s="3">
-        <v>52800</v>
+        <v>54700</v>
       </c>
       <c r="F20" s="3">
-        <v>18600</v>
+        <v>19300</v>
       </c>
       <c r="G20" s="3">
-        <v>21900</v>
+        <v>22700</v>
       </c>
       <c r="H20" s="3">
-        <v>-12600</v>
+        <v>-13100</v>
       </c>
       <c r="I20" s="3">
-        <v>25700</v>
+        <v>26700</v>
       </c>
       <c r="J20" s="3">
         <v>-500</v>
@@ -1161,25 +1161,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>955800</v>
+        <v>1008900</v>
       </c>
       <c r="E21" s="3">
-        <v>445200</v>
+        <v>482400</v>
       </c>
       <c r="F21" s="3">
-        <v>1403300</v>
+        <v>1478800</v>
       </c>
       <c r="G21" s="3">
-        <v>1281600</v>
+        <v>1347400</v>
       </c>
       <c r="H21" s="3">
-        <v>-92900</v>
+        <v>-74700</v>
       </c>
       <c r="I21" s="3">
-        <v>996000</v>
+        <v>1053800</v>
       </c>
       <c r="J21" s="3">
-        <v>1458100</v>
+        <v>1533000</v>
       </c>
       <c r="K21" s="3">
         <v>1949200</v>
@@ -1200,25 +1200,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>23100</v>
+        <v>24000</v>
       </c>
       <c r="E22" s="3">
-        <v>21600</v>
+        <v>22400</v>
       </c>
       <c r="F22" s="3">
-        <v>40900</v>
+        <v>42400</v>
       </c>
       <c r="G22" s="3">
-        <v>42300</v>
+        <v>43800</v>
       </c>
       <c r="H22" s="3">
-        <v>47700</v>
+        <v>49400</v>
       </c>
       <c r="I22" s="3">
-        <v>53500</v>
+        <v>55500</v>
       </c>
       <c r="J22" s="3">
-        <v>46400</v>
+        <v>48100</v>
       </c>
       <c r="K22" s="3">
         <v>60700</v>
@@ -1239,25 +1239,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>314700</v>
+        <v>326300</v>
       </c>
       <c r="E23" s="3">
-        <v>-290900</v>
+        <v>-301600</v>
       </c>
       <c r="F23" s="3">
-        <v>538100</v>
+        <v>557800</v>
       </c>
       <c r="G23" s="3">
-        <v>595300</v>
+        <v>617100</v>
       </c>
       <c r="H23" s="3">
-        <v>-880500</v>
+        <v>-912700</v>
       </c>
       <c r="I23" s="3">
-        <v>212400</v>
+        <v>220200</v>
       </c>
       <c r="J23" s="3">
-        <v>678400</v>
+        <v>703300</v>
       </c>
       <c r="K23" s="3">
         <v>957900</v>
@@ -1278,25 +1278,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>97600</v>
+        <v>101200</v>
       </c>
       <c r="E24" s="3">
-        <v>-59300</v>
+        <v>-61500</v>
       </c>
       <c r="F24" s="3">
-        <v>223200</v>
+        <v>231400</v>
       </c>
       <c r="G24" s="3">
-        <v>202700</v>
+        <v>210100</v>
       </c>
       <c r="H24" s="3">
-        <v>29400</v>
+        <v>30500</v>
       </c>
       <c r="I24" s="3">
-        <v>145500</v>
+        <v>150800</v>
       </c>
       <c r="J24" s="3">
-        <v>201200</v>
+        <v>208600</v>
       </c>
       <c r="K24" s="3">
         <v>329200</v>
@@ -1356,25 +1356,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>217100</v>
+        <v>225100</v>
       </c>
       <c r="E26" s="3">
-        <v>-231600</v>
+        <v>-240100</v>
       </c>
       <c r="F26" s="3">
-        <v>314900</v>
+        <v>326400</v>
       </c>
       <c r="G26" s="3">
-        <v>392600</v>
+        <v>407000</v>
       </c>
       <c r="H26" s="3">
-        <v>-909800</v>
+        <v>-943200</v>
       </c>
       <c r="I26" s="3">
-        <v>66900</v>
+        <v>69400</v>
       </c>
       <c r="J26" s="3">
-        <v>477200</v>
+        <v>494700</v>
       </c>
       <c r="K26" s="3">
         <v>628700</v>
@@ -1395,25 +1395,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>215300</v>
+        <v>223200</v>
       </c>
       <c r="E27" s="3">
-        <v>-232100</v>
+        <v>-240600</v>
       </c>
       <c r="F27" s="3">
-        <v>280400</v>
+        <v>290700</v>
       </c>
       <c r="G27" s="3">
-        <v>351100</v>
+        <v>364000</v>
       </c>
       <c r="H27" s="3">
-        <v>-950500</v>
+        <v>-985300</v>
       </c>
       <c r="I27" s="3">
-        <v>24700</v>
+        <v>25600</v>
       </c>
       <c r="J27" s="3">
-        <v>446500</v>
+        <v>462900</v>
       </c>
       <c r="K27" s="3">
         <v>584800</v>
@@ -1485,7 +1485,7 @@
         <v>10</v>
       </c>
       <c r="H29" s="3">
-        <v>-9300</v>
+        <v>-9600</v>
       </c>
       <c r="I29" s="3" t="s">
         <v>10</v>
@@ -1590,22 +1590,22 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-53800</v>
+        <v>-55800</v>
       </c>
       <c r="E32" s="3">
-        <v>-52800</v>
+        <v>-54700</v>
       </c>
       <c r="F32" s="3">
-        <v>-18600</v>
+        <v>-19300</v>
       </c>
       <c r="G32" s="3">
-        <v>-21900</v>
+        <v>-22700</v>
       </c>
       <c r="H32" s="3">
-        <v>12600</v>
+        <v>13100</v>
       </c>
       <c r="I32" s="3">
-        <v>-25700</v>
+        <v>-26700</v>
       </c>
       <c r="J32" s="3">
         <v>500</v>
@@ -1629,25 +1629,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>215300</v>
+        <v>223200</v>
       </c>
       <c r="E33" s="3">
-        <v>-232100</v>
+        <v>-240600</v>
       </c>
       <c r="F33" s="3">
-        <v>280400</v>
+        <v>290700</v>
       </c>
       <c r="G33" s="3">
-        <v>351100</v>
+        <v>364000</v>
       </c>
       <c r="H33" s="3">
-        <v>-959800</v>
+        <v>-995000</v>
       </c>
       <c r="I33" s="3">
-        <v>24700</v>
+        <v>25600</v>
       </c>
       <c r="J33" s="3">
-        <v>446500</v>
+        <v>462900</v>
       </c>
       <c r="K33" s="3">
         <v>584800</v>
@@ -1707,25 +1707,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>215300</v>
+        <v>223200</v>
       </c>
       <c r="E35" s="3">
-        <v>-232100</v>
+        <v>-240600</v>
       </c>
       <c r="F35" s="3">
-        <v>280400</v>
+        <v>290700</v>
       </c>
       <c r="G35" s="3">
-        <v>351100</v>
+        <v>364000</v>
       </c>
       <c r="H35" s="3">
-        <v>-959800</v>
+        <v>-995000</v>
       </c>
       <c r="I35" s="3">
-        <v>24700</v>
+        <v>25600</v>
       </c>
       <c r="J35" s="3">
-        <v>446500</v>
+        <v>462900</v>
       </c>
       <c r="K35" s="3">
         <v>584800</v>
@@ -1824,25 +1824,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1704400</v>
+        <v>1766900</v>
       </c>
       <c r="E41" s="3">
-        <v>2375500</v>
+        <v>2462600</v>
       </c>
       <c r="F41" s="3">
-        <v>1863800</v>
+        <v>1932200</v>
       </c>
       <c r="G41" s="3">
-        <v>1702800</v>
+        <v>1765200</v>
       </c>
       <c r="H41" s="3">
-        <v>1138900</v>
+        <v>1180700</v>
       </c>
       <c r="I41" s="3">
-        <v>957800</v>
+        <v>992900</v>
       </c>
       <c r="J41" s="3">
-        <v>1194800</v>
+        <v>1238600</v>
       </c>
       <c r="K41" s="3">
         <v>1182700</v>
@@ -1863,25 +1863,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>654400</v>
+        <v>678400</v>
       </c>
       <c r="E42" s="3">
-        <v>658100</v>
+        <v>682200</v>
       </c>
       <c r="F42" s="3">
-        <v>618400</v>
+        <v>641100</v>
       </c>
       <c r="G42" s="3">
-        <v>2086900</v>
+        <v>2163500</v>
       </c>
       <c r="H42" s="3">
-        <v>2460700</v>
+        <v>2550900</v>
       </c>
       <c r="I42" s="3">
-        <v>1960900</v>
+        <v>2032800</v>
       </c>
       <c r="J42" s="3">
-        <v>1930900</v>
+        <v>2001800</v>
       </c>
       <c r="K42" s="3">
         <v>2218300</v>
@@ -1902,25 +1902,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>2815800</v>
+        <v>2919000</v>
       </c>
       <c r="E43" s="3">
-        <v>2780200</v>
+        <v>2882200</v>
       </c>
       <c r="F43" s="3">
-        <v>2784800</v>
+        <v>2886900</v>
       </c>
       <c r="G43" s="3">
-        <v>4288100</v>
+        <v>4445300</v>
       </c>
       <c r="H43" s="3">
-        <v>4181300</v>
+        <v>4334600</v>
       </c>
       <c r="I43" s="3">
-        <v>4015200</v>
+        <v>4162400</v>
       </c>
       <c r="J43" s="3">
-        <v>4000200</v>
+        <v>4146900</v>
       </c>
       <c r="K43" s="3">
         <v>4721600</v>
@@ -1941,25 +1941,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>1648800</v>
+        <v>1709300</v>
       </c>
       <c r="E44" s="3">
-        <v>1361400</v>
+        <v>1411300</v>
       </c>
       <c r="F44" s="3">
-        <v>1426800</v>
+        <v>1479200</v>
       </c>
       <c r="G44" s="3">
-        <v>1472900</v>
+        <v>1526900</v>
       </c>
       <c r="H44" s="3">
-        <v>1279600</v>
+        <v>1326600</v>
       </c>
       <c r="I44" s="3">
-        <v>1436100</v>
+        <v>1488700</v>
       </c>
       <c r="J44" s="3">
-        <v>1468300</v>
+        <v>1522100</v>
       </c>
       <c r="K44" s="3">
         <v>1914800</v>
@@ -1980,25 +1980,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>354700</v>
+        <v>367700</v>
       </c>
       <c r="E45" s="3">
-        <v>331300</v>
+        <v>343400</v>
       </c>
       <c r="F45" s="3">
-        <v>8238700</v>
+        <v>8540800</v>
       </c>
       <c r="G45" s="3">
-        <v>302700</v>
+        <v>313800</v>
       </c>
       <c r="H45" s="3">
-        <v>354900</v>
+        <v>367900</v>
       </c>
       <c r="I45" s="3">
-        <v>416100</v>
+        <v>431300</v>
       </c>
       <c r="J45" s="3">
-        <v>432700</v>
+        <v>448600</v>
       </c>
       <c r="K45" s="3">
         <v>338300</v>
@@ -2019,25 +2019,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>7178100</v>
+        <v>7441300</v>
       </c>
       <c r="E46" s="3">
-        <v>7506500</v>
+        <v>7781800</v>
       </c>
       <c r="F46" s="3">
-        <v>14932600</v>
+        <v>15480200</v>
       </c>
       <c r="G46" s="3">
-        <v>9853400</v>
+        <v>10214800</v>
       </c>
       <c r="H46" s="3">
-        <v>9415400</v>
+        <v>9760600</v>
       </c>
       <c r="I46" s="3">
-        <v>8786000</v>
+        <v>9108200</v>
       </c>
       <c r="J46" s="3">
-        <v>9027000</v>
+        <v>9358000</v>
       </c>
       <c r="K46" s="3">
         <v>10375700</v>
@@ -2058,25 +2058,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>1574300</v>
+        <v>1632000</v>
       </c>
       <c r="E47" s="3">
-        <v>1659800</v>
+        <v>1720600</v>
       </c>
       <c r="F47" s="3">
-        <v>1194200</v>
+        <v>1238000</v>
       </c>
       <c r="G47" s="3">
-        <v>5269700</v>
+        <v>5463000</v>
       </c>
       <c r="H47" s="3">
-        <v>5107000</v>
+        <v>5294300</v>
       </c>
       <c r="I47" s="3">
-        <v>5230600</v>
+        <v>5422400</v>
       </c>
       <c r="J47" s="3">
-        <v>4879300</v>
+        <v>5058200</v>
       </c>
       <c r="K47" s="3">
         <v>5633900</v>
@@ -2097,25 +2097,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>1745300</v>
+        <v>1809300</v>
       </c>
       <c r="E48" s="3">
-        <v>1812300</v>
+        <v>1878800</v>
       </c>
       <c r="F48" s="3">
-        <v>1850400</v>
+        <v>1918300</v>
       </c>
       <c r="G48" s="3">
-        <v>1774500</v>
+        <v>1839600</v>
       </c>
       <c r="H48" s="3">
-        <v>1772500</v>
+        <v>1837500</v>
       </c>
       <c r="I48" s="3">
-        <v>1923200</v>
+        <v>1993700</v>
       </c>
       <c r="J48" s="3">
-        <v>1960700</v>
+        <v>2032600</v>
       </c>
       <c r="K48" s="3">
         <v>2359500</v>
@@ -2136,25 +2136,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>1839700</v>
+        <v>1907200</v>
       </c>
       <c r="E49" s="3">
-        <v>1598900</v>
+        <v>1657500</v>
       </c>
       <c r="F49" s="3">
-        <v>1644200</v>
+        <v>1704500</v>
       </c>
       <c r="G49" s="3">
-        <v>1558400</v>
+        <v>1615600</v>
       </c>
       <c r="H49" s="3">
-        <v>1539500</v>
+        <v>1595900</v>
       </c>
       <c r="I49" s="3">
-        <v>2752200</v>
+        <v>2853100</v>
       </c>
       <c r="J49" s="3">
-        <v>2934100</v>
+        <v>3041700</v>
       </c>
       <c r="K49" s="3">
         <v>3717000</v>
@@ -2253,25 +2253,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>802100</v>
+        <v>831500</v>
       </c>
       <c r="E52" s="3">
-        <v>807500</v>
+        <v>837100</v>
       </c>
       <c r="F52" s="3">
-        <v>710200</v>
+        <v>736200</v>
       </c>
       <c r="G52" s="3">
-        <v>865100</v>
+        <v>896800</v>
       </c>
       <c r="H52" s="3">
-        <v>890500</v>
+        <v>923200</v>
       </c>
       <c r="I52" s="3">
-        <v>871300</v>
+        <v>903300</v>
       </c>
       <c r="J52" s="3">
-        <v>884000</v>
+        <v>916500</v>
       </c>
       <c r="K52" s="3">
         <v>1202500</v>
@@ -2331,25 +2331,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>13139600</v>
+        <v>13621400</v>
       </c>
       <c r="E54" s="3">
-        <v>13385000</v>
+        <v>13875800</v>
       </c>
       <c r="F54" s="3">
-        <v>20331600</v>
+        <v>21077200</v>
       </c>
       <c r="G54" s="3">
-        <v>19321200</v>
+        <v>20029700</v>
       </c>
       <c r="H54" s="3">
-        <v>18724900</v>
+        <v>19411600</v>
       </c>
       <c r="I54" s="3">
-        <v>19563300</v>
+        <v>20280800</v>
       </c>
       <c r="J54" s="3">
-        <v>19685100</v>
+        <v>20407000</v>
       </c>
       <c r="K54" s="3">
         <v>23288700</v>
@@ -2404,25 +2404,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>1257600</v>
+        <v>1303700</v>
       </c>
       <c r="E57" s="3">
-        <v>1426500</v>
+        <v>1478800</v>
       </c>
       <c r="F57" s="3">
-        <v>1272200</v>
+        <v>1318800</v>
       </c>
       <c r="G57" s="3">
-        <v>1476400</v>
+        <v>1530500</v>
       </c>
       <c r="H57" s="3">
-        <v>1378400</v>
+        <v>1428900</v>
       </c>
       <c r="I57" s="3">
-        <v>1384100</v>
+        <v>1434900</v>
       </c>
       <c r="J57" s="3">
-        <v>1405800</v>
+        <v>1457300</v>
       </c>
       <c r="K57" s="3">
         <v>2362700</v>
@@ -2443,25 +2443,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>971800</v>
+        <v>1007400</v>
       </c>
       <c r="E58" s="3">
-        <v>767200</v>
+        <v>795300</v>
       </c>
       <c r="F58" s="3">
-        <v>558100</v>
+        <v>578600</v>
       </c>
       <c r="G58" s="3">
-        <v>1892700</v>
+        <v>1962100</v>
       </c>
       <c r="H58" s="3">
-        <v>1582400</v>
+        <v>1640500</v>
       </c>
       <c r="I58" s="3">
-        <v>1630300</v>
+        <v>1690100</v>
       </c>
       <c r="J58" s="3">
-        <v>1848800</v>
+        <v>1916500</v>
       </c>
       <c r="K58" s="3">
         <v>1894200</v>
@@ -2482,25 +2482,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>2687200</v>
+        <v>2785800</v>
       </c>
       <c r="E59" s="3">
-        <v>2468100</v>
+        <v>2558600</v>
       </c>
       <c r="F59" s="3">
-        <v>9151400</v>
+        <v>9486900</v>
       </c>
       <c r="G59" s="3">
-        <v>2616300</v>
+        <v>2712200</v>
       </c>
       <c r="H59" s="3">
-        <v>2629800</v>
+        <v>2726200</v>
       </c>
       <c r="I59" s="3">
-        <v>2706600</v>
+        <v>2805900</v>
       </c>
       <c r="J59" s="3">
-        <v>2466200</v>
+        <v>2556600</v>
       </c>
       <c r="K59" s="3">
         <v>2329400</v>
@@ -2521,25 +2521,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>4916500</v>
+        <v>5096800</v>
       </c>
       <c r="E60" s="3">
-        <v>4661800</v>
+        <v>4832700</v>
       </c>
       <c r="F60" s="3">
-        <v>10981700</v>
+        <v>11384400</v>
       </c>
       <c r="G60" s="3">
-        <v>5985400</v>
+        <v>6204900</v>
       </c>
       <c r="H60" s="3">
-        <v>5590600</v>
+        <v>5795600</v>
       </c>
       <c r="I60" s="3">
-        <v>5721100</v>
+        <v>5930900</v>
       </c>
       <c r="J60" s="3">
-        <v>5720700</v>
+        <v>5930500</v>
       </c>
       <c r="K60" s="3">
         <v>6586300</v>
@@ -2560,25 +2560,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>1173300</v>
+        <v>1216300</v>
       </c>
       <c r="E61" s="3">
-        <v>1321700</v>
+        <v>1370100</v>
       </c>
       <c r="F61" s="3">
-        <v>1183400</v>
+        <v>1226800</v>
       </c>
       <c r="G61" s="3">
-        <v>4725200</v>
+        <v>4898500</v>
       </c>
       <c r="H61" s="3">
-        <v>4670200</v>
+        <v>4841500</v>
       </c>
       <c r="I61" s="3">
-        <v>4465300</v>
+        <v>4629000</v>
       </c>
       <c r="J61" s="3">
-        <v>4197600</v>
+        <v>4351500</v>
       </c>
       <c r="K61" s="3">
         <v>4849400</v>
@@ -2599,25 +2599,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>627400</v>
+        <v>650400</v>
       </c>
       <c r="E62" s="3">
-        <v>851400</v>
+        <v>882600</v>
       </c>
       <c r="F62" s="3">
-        <v>1016100</v>
+        <v>1053300</v>
       </c>
       <c r="G62" s="3">
-        <v>1386000</v>
+        <v>1436800</v>
       </c>
       <c r="H62" s="3">
-        <v>1453800</v>
+        <v>1507100</v>
       </c>
       <c r="I62" s="3">
-        <v>1458300</v>
+        <v>1511800</v>
       </c>
       <c r="J62" s="3">
-        <v>1629200</v>
+        <v>1688900</v>
       </c>
       <c r="K62" s="3">
         <v>2006600</v>
@@ -2755,25 +2755,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>6744100</v>
+        <v>6991400</v>
       </c>
       <c r="E66" s="3">
-        <v>6860400</v>
+        <v>7112000</v>
       </c>
       <c r="F66" s="3">
-        <v>13806200</v>
+        <v>14312500</v>
       </c>
       <c r="G66" s="3">
-        <v>12709200</v>
+        <v>13175300</v>
       </c>
       <c r="H66" s="3">
-        <v>12276100</v>
+        <v>12726300</v>
       </c>
       <c r="I66" s="3">
-        <v>12174800</v>
+        <v>12621300</v>
       </c>
       <c r="J66" s="3">
-        <v>12043400</v>
+        <v>12485100</v>
       </c>
       <c r="K66" s="3">
         <v>14040700</v>
@@ -2967,25 +2967,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>3260400</v>
+        <v>3379900</v>
       </c>
       <c r="E72" s="3">
-        <v>3981600</v>
+        <v>4127600</v>
       </c>
       <c r="F72" s="3">
-        <v>4216600</v>
+        <v>4371300</v>
       </c>
       <c r="G72" s="3">
-        <v>4075900</v>
+        <v>4225300</v>
       </c>
       <c r="H72" s="3">
-        <v>3616700</v>
+        <v>3749300</v>
       </c>
       <c r="I72" s="3">
-        <v>4661300</v>
+        <v>4832200</v>
       </c>
       <c r="J72" s="3">
-        <v>4810000</v>
+        <v>4986400</v>
       </c>
       <c r="K72" s="3">
         <v>5514400</v>
@@ -3123,25 +3123,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>6395500</v>
+        <v>6630000</v>
       </c>
       <c r="E76" s="3">
-        <v>6524500</v>
+        <v>6763800</v>
       </c>
       <c r="F76" s="3">
-        <v>6525400</v>
+        <v>6764700</v>
       </c>
       <c r="G76" s="3">
-        <v>6612000</v>
+        <v>6854400</v>
       </c>
       <c r="H76" s="3">
-        <v>6448800</v>
+        <v>6685300</v>
       </c>
       <c r="I76" s="3">
-        <v>7388500</v>
+        <v>7659500</v>
       </c>
       <c r="J76" s="3">
-        <v>7641700</v>
+        <v>7921900</v>
       </c>
       <c r="K76" s="3">
         <v>9247900</v>
@@ -3245,25 +3245,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>215300</v>
+        <v>223200</v>
       </c>
       <c r="E81" s="3">
-        <v>-232100</v>
+        <v>-240600</v>
       </c>
       <c r="F81" s="3">
-        <v>280400</v>
+        <v>290700</v>
       </c>
       <c r="G81" s="3">
-        <v>351100</v>
+        <v>364000</v>
       </c>
       <c r="H81" s="3">
-        <v>-959800</v>
+        <v>-995000</v>
       </c>
       <c r="I81" s="3">
-        <v>24700</v>
+        <v>25600</v>
       </c>
       <c r="J81" s="3">
-        <v>446500</v>
+        <v>462900</v>
       </c>
       <c r="K81" s="3">
         <v>584800</v>
@@ -3301,25 +3301,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>641500</v>
+        <v>665000</v>
       </c>
       <c r="E83" s="3">
-        <v>741700</v>
+        <v>768900</v>
       </c>
       <c r="F83" s="3">
-        <v>855700</v>
+        <v>887100</v>
       </c>
       <c r="G83" s="3">
-        <v>668500</v>
+        <v>693000</v>
       </c>
       <c r="H83" s="3">
-        <v>768000</v>
+        <v>796200</v>
       </c>
       <c r="I83" s="3">
-        <v>757900</v>
+        <v>785600</v>
       </c>
       <c r="J83" s="3">
-        <v>761200</v>
+        <v>789100</v>
       </c>
       <c r="K83" s="3">
         <v>919800</v>
@@ -3535,25 +3535,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>584700</v>
+        <v>606100</v>
       </c>
       <c r="E89" s="3">
-        <v>900200</v>
+        <v>933200</v>
       </c>
       <c r="F89" s="3">
-        <v>827400</v>
+        <v>857800</v>
       </c>
       <c r="G89" s="3">
-        <v>581000</v>
+        <v>602300</v>
       </c>
       <c r="H89" s="3">
-        <v>781900</v>
+        <v>810600</v>
       </c>
       <c r="I89" s="3">
-        <v>626000</v>
+        <v>649000</v>
       </c>
       <c r="J89" s="3">
-        <v>708000</v>
+        <v>734000</v>
       </c>
       <c r="K89" s="3">
         <v>874700</v>
@@ -3591,25 +3591,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-264900</v>
+        <v>-274600</v>
       </c>
       <c r="E91" s="3">
-        <v>-298900</v>
+        <v>-309800</v>
       </c>
       <c r="F91" s="3">
-        <v>-614000</v>
+        <v>-636500</v>
       </c>
       <c r="G91" s="3">
-        <v>-513800</v>
+        <v>-532600</v>
       </c>
       <c r="H91" s="3">
-        <v>-512500</v>
+        <v>-531300</v>
       </c>
       <c r="I91" s="3">
-        <v>-534900</v>
+        <v>-554500</v>
       </c>
       <c r="J91" s="3">
-        <v>-594000</v>
+        <v>-615800</v>
       </c>
       <c r="K91" s="3">
         <v>-648100</v>
@@ -3708,25 +3708,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-420800</v>
+        <v>-436300</v>
       </c>
       <c r="E94" s="3">
-        <v>-450600</v>
+        <v>-467200</v>
       </c>
       <c r="F94" s="3">
-        <v>-1167000</v>
+        <v>-1209700</v>
       </c>
       <c r="G94" s="3">
-        <v>-325700</v>
+        <v>-337600</v>
       </c>
       <c r="H94" s="3">
-        <v>-574800</v>
+        <v>-595900</v>
       </c>
       <c r="I94" s="3">
-        <v>-756600</v>
+        <v>-784400</v>
       </c>
       <c r="J94" s="3">
-        <v>-738300</v>
+        <v>-765400</v>
       </c>
       <c r="K94" s="3">
         <v>-1223700</v>
@@ -3764,25 +3764,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-99700</v>
+        <v>-103300</v>
       </c>
       <c r="E96" s="3">
-        <v>-105300</v>
+        <v>-109200</v>
       </c>
       <c r="F96" s="3">
-        <v>-133600</v>
+        <v>-138500</v>
       </c>
       <c r="G96" s="3">
-        <v>-89900</v>
+        <v>-93200</v>
       </c>
       <c r="H96" s="3">
-        <v>-102800</v>
+        <v>-106600</v>
       </c>
       <c r="I96" s="3">
-        <v>-205600</v>
+        <v>-213100</v>
       </c>
       <c r="J96" s="3">
-        <v>-177300</v>
+        <v>-183800</v>
       </c>
       <c r="K96" s="3">
         <v>-207200</v>
@@ -3920,25 +3920,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-933600</v>
+        <v>-967900</v>
       </c>
       <c r="E100" s="3">
-        <v>-29000</v>
+        <v>-30000</v>
       </c>
       <c r="F100" s="3">
-        <v>537100</v>
+        <v>556800</v>
       </c>
       <c r="G100" s="3">
-        <v>300800</v>
+        <v>311800</v>
       </c>
       <c r="H100" s="3">
-        <v>45400</v>
+        <v>47100</v>
       </c>
       <c r="I100" s="3">
-        <v>-141200</v>
+        <v>-146400</v>
       </c>
       <c r="J100" s="3">
-        <v>302500</v>
+        <v>313600</v>
       </c>
       <c r="K100" s="3">
         <v>255400</v>
@@ -3959,25 +3959,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>86900</v>
+        <v>90100</v>
       </c>
       <c r="E101" s="3">
-        <v>52000</v>
+        <v>53900</v>
       </c>
       <c r="F101" s="3">
-        <v>-30300</v>
+        <v>-31400</v>
       </c>
       <c r="G101" s="3">
-        <v>7700</v>
+        <v>8000</v>
       </c>
       <c r="H101" s="3">
-        <v>-10500</v>
+        <v>-10900</v>
       </c>
       <c r="I101" s="3">
-        <v>-19700</v>
+        <v>-20400</v>
       </c>
       <c r="J101" s="3">
-        <v>-60700</v>
+        <v>-62900</v>
       </c>
       <c r="K101" s="3">
         <v>73800</v>
@@ -3998,25 +3998,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-682900</v>
+        <v>-708000</v>
       </c>
       <c r="E102" s="3">
-        <v>472600</v>
+        <v>489900</v>
       </c>
       <c r="F102" s="3">
-        <v>167200</v>
+        <v>173400</v>
       </c>
       <c r="G102" s="3">
-        <v>563900</v>
+        <v>584600</v>
       </c>
       <c r="H102" s="3">
-        <v>242000</v>
+        <v>250900</v>
       </c>
       <c r="I102" s="3">
-        <v>-291500</v>
+        <v>-302200</v>
       </c>
       <c r="J102" s="3">
-        <v>211500</v>
+        <v>219200</v>
       </c>
       <c r="K102" s="3">
         <v>-19800</v>

--- a/AAII_Financials/Yearly/RICOY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/RICOY_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="92">
   <si>
     <t>RICOY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:O102"/>
+  <dimension ref="A5:P102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,177 +665,189 @@
     <col min="1" max="1" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E7" s="2">
         <v>44651</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44286</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43921</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43555</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43190</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42825</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>42460</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>42094</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>41729</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>41364</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>40999</v>
       </c>
-      <c r="O7" s="2"/>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P7" s="2"/>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>12925600</v>
+        <v>15387400</v>
       </c>
       <c r="E8" s="3">
-        <v>12363200</v>
+        <v>12679400</v>
       </c>
       <c r="F8" s="3">
-        <v>14763100</v>
+        <v>12127700</v>
       </c>
       <c r="G8" s="3">
-        <v>14797200</v>
+        <v>14481900</v>
       </c>
       <c r="H8" s="3">
-        <v>15165700</v>
+        <v>14515400</v>
       </c>
       <c r="I8" s="3">
-        <v>14912400</v>
+        <v>14876800</v>
       </c>
       <c r="J8" s="3">
+        <v>14628400</v>
+      </c>
+      <c r="K8" s="3">
         <v>16236400</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>18351500</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>20112600</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>17143700</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>17207400</v>
       </c>
-      <c r="O8" s="3"/>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P8" s="3"/>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>8349000</v>
+        <v>10012900</v>
       </c>
       <c r="E9" s="3">
-        <v>8156800</v>
+        <v>8190000</v>
       </c>
       <c r="F9" s="3">
-        <v>9457800</v>
+        <v>8001400</v>
       </c>
       <c r="G9" s="3">
-        <v>9160600</v>
+        <v>9277600</v>
       </c>
       <c r="H9" s="3">
-        <v>9351800</v>
+        <v>8986100</v>
       </c>
       <c r="I9" s="3">
-        <v>9116000</v>
+        <v>9173700</v>
       </c>
       <c r="J9" s="3">
+        <v>8942400</v>
+      </c>
+      <c r="K9" s="3">
         <v>9753900</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>10615500</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>12113800</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>20836800</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>10403700</v>
       </c>
-      <c r="O9" s="3"/>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P9" s="3"/>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>4576600</v>
+        <v>5374500</v>
       </c>
       <c r="E10" s="3">
-        <v>4206500</v>
+        <v>4489400</v>
       </c>
       <c r="F10" s="3">
-        <v>5305300</v>
+        <v>4126300</v>
       </c>
       <c r="G10" s="3">
-        <v>5636600</v>
+        <v>5204300</v>
       </c>
       <c r="H10" s="3">
-        <v>5813900</v>
+        <v>5529200</v>
       </c>
       <c r="I10" s="3">
-        <v>5796400</v>
+        <v>5703200</v>
       </c>
       <c r="J10" s="3">
+        <v>5686000</v>
+      </c>
+      <c r="K10" s="3">
         <v>6482400</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>7736000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>7998700</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>-3693100</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>6803700</v>
       </c>
-      <c r="O10" s="3"/>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P10" s="3"/>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -851,47 +863,51 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D12" s="3">
-        <v>556600</v>
+      <c r="D12" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="E12" s="3">
-        <v>582100</v>
+        <v>546000</v>
       </c>
       <c r="F12" s="3">
-        <v>648400</v>
+        <v>571000</v>
       </c>
       <c r="G12" s="3">
-        <v>691100</v>
+        <v>636100</v>
       </c>
       <c r="H12" s="3">
-        <v>690800</v>
+        <v>677900</v>
       </c>
       <c r="I12" s="3">
-        <v>737800</v>
+        <v>677700</v>
       </c>
       <c r="J12" s="3">
+        <v>723800</v>
+      </c>
+      <c r="K12" s="3">
         <v>750000</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>838400</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>864400</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>1831000</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>1076000</v>
       </c>
-      <c r="O12" s="3"/>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P12" s="3"/>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -928,87 +944,96 @@
       <c r="N13" s="3">
         <v>0</v>
       </c>
-      <c r="O13" s="3"/>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+      <c r="P13" s="3"/>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>14900</v>
+        <v>500</v>
       </c>
       <c r="E14" s="3">
-        <v>365900</v>
+        <v>14600</v>
       </c>
       <c r="F14" s="3">
-        <v>82700</v>
+        <v>358900</v>
       </c>
       <c r="G14" s="3">
-        <v>157500</v>
+        <v>81200</v>
       </c>
       <c r="H14" s="3">
-        <v>1482600</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>10</v>
+        <v>154500</v>
+      </c>
+      <c r="I14" s="3">
+        <v>1454400</v>
       </c>
       <c r="J14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="K14" s="3">
+      <c r="K14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L14" s="3">
         <v>8600</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>103700</v>
       </c>
-      <c r="M14" s="3">
-        <v>0</v>
-      </c>
       <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3">
         <v>293800</v>
       </c>
-      <c r="O14" s="3"/>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P14" s="3"/>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="3">
-        <v>370000</v>
+      <c r="D15" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="E15" s="3">
-        <v>400000</v>
+        <v>362900</v>
       </c>
       <c r="F15" s="3">
-        <v>392000</v>
+        <v>392400</v>
       </c>
       <c r="G15" s="3">
-        <v>182800</v>
+        <v>384500</v>
       </c>
       <c r="H15" s="3">
-        <v>294700</v>
+        <v>179300</v>
       </c>
       <c r="I15" s="3">
-        <v>296100</v>
+        <v>289100</v>
       </c>
       <c r="J15" s="3">
+        <v>290500</v>
+      </c>
+      <c r="K15" s="3">
         <v>273000</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>318200</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>339900</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>321800</v>
       </c>
-      <c r="N15" s="3" t="s">
+      <c r="O15" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="O15" s="3"/>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P15" s="3"/>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1021,86 +1046,93 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
-    </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>12631200</v>
+        <v>14819700</v>
       </c>
       <c r="E17" s="3">
-        <v>12697100</v>
+        <v>12390600</v>
       </c>
       <c r="F17" s="3">
-        <v>14182100</v>
+        <v>12455300</v>
       </c>
       <c r="G17" s="3">
-        <v>14159000</v>
+        <v>13912000</v>
       </c>
       <c r="H17" s="3">
-        <v>16015900</v>
+        <v>13889300</v>
       </c>
       <c r="I17" s="3">
-        <v>14663400</v>
+        <v>15710900</v>
       </c>
       <c r="J17" s="3">
+        <v>14384100</v>
+      </c>
+      <c r="K17" s="3">
         <v>15484500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>17364000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>19010200</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>16475100</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>17416100</v>
       </c>
-      <c r="O17" s="3"/>
-    </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P17" s="3"/>
+    </row>
+    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>294400</v>
+        <v>567700</v>
       </c>
       <c r="E18" s="3">
-        <v>-333900</v>
+        <v>288800</v>
       </c>
       <c r="F18" s="3">
-        <v>580900</v>
+        <v>-327500</v>
       </c>
       <c r="G18" s="3">
-        <v>638300</v>
+        <v>569900</v>
       </c>
       <c r="H18" s="3">
-        <v>-850200</v>
+        <v>626100</v>
       </c>
       <c r="I18" s="3">
-        <v>249000</v>
+        <v>-834000</v>
       </c>
       <c r="J18" s="3">
+        <v>244300</v>
+      </c>
+      <c r="K18" s="3">
         <v>751900</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>987500</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>1102400</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>668600</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-208600</v>
       </c>
-      <c r="O18" s="3"/>
-    </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P18" s="3"/>
+    </row>
+    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1116,203 +1148,219 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
-    </row>
-    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>55800</v>
+        <v>18500</v>
       </c>
       <c r="E20" s="3">
-        <v>54700</v>
+        <v>54800</v>
       </c>
       <c r="F20" s="3">
-        <v>19300</v>
+        <v>53700</v>
       </c>
       <c r="G20" s="3">
-        <v>22700</v>
+        <v>18900</v>
       </c>
       <c r="H20" s="3">
-        <v>-13100</v>
+        <v>22300</v>
       </c>
       <c r="I20" s="3">
-        <v>26700</v>
+        <v>-12800</v>
       </c>
       <c r="J20" s="3">
+        <v>26200</v>
+      </c>
+      <c r="K20" s="3">
         <v>-500</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>31100</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>47400</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>84400</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-17000</v>
       </c>
-      <c r="O20" s="3"/>
-    </row>
-    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P20" s="3"/>
+    </row>
+    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>1008900</v>
+        <v>1293800</v>
       </c>
       <c r="E21" s="3">
-        <v>482400</v>
+        <v>1000400</v>
       </c>
       <c r="F21" s="3">
-        <v>1478800</v>
+        <v>485700</v>
       </c>
       <c r="G21" s="3">
-        <v>1347400</v>
+        <v>1465000</v>
       </c>
       <c r="H21" s="3">
-        <v>-74700</v>
+        <v>1332900</v>
       </c>
       <c r="I21" s="3">
-        <v>1053800</v>
+        <v>-60400</v>
       </c>
       <c r="J21" s="3">
+        <v>1046400</v>
+      </c>
+      <c r="K21" s="3">
         <v>1533000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>1949200</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>2127000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>1626800</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>599200</v>
       </c>
-      <c r="O21" s="3"/>
-    </row>
-    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P21" s="3"/>
+    </row>
+    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3">
-        <v>24000</v>
+      <c r="D22" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="E22" s="3">
-        <v>22400</v>
+        <v>23500</v>
       </c>
       <c r="F22" s="3">
-        <v>42400</v>
+        <v>21900</v>
       </c>
       <c r="G22" s="3">
-        <v>43800</v>
+        <v>41600</v>
       </c>
       <c r="H22" s="3">
-        <v>49400</v>
+        <v>43000</v>
       </c>
       <c r="I22" s="3">
-        <v>55500</v>
+        <v>48500</v>
       </c>
       <c r="J22" s="3">
+        <v>54400</v>
+      </c>
+      <c r="K22" s="3">
         <v>48100</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>60700</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>68300</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>134100</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>63100</v>
       </c>
-      <c r="O22" s="3"/>
-    </row>
-    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P22" s="3"/>
+    </row>
+    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>326300</v>
+        <v>586200</v>
       </c>
       <c r="E23" s="3">
-        <v>-301600</v>
+        <v>320000</v>
       </c>
       <c r="F23" s="3">
-        <v>557800</v>
+        <v>-295800</v>
       </c>
       <c r="G23" s="3">
-        <v>617100</v>
+        <v>547200</v>
       </c>
       <c r="H23" s="3">
-        <v>-912700</v>
+        <v>605400</v>
       </c>
       <c r="I23" s="3">
-        <v>220200</v>
+        <v>-895400</v>
       </c>
       <c r="J23" s="3">
+        <v>216000</v>
+      </c>
+      <c r="K23" s="3">
         <v>703300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>957900</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>1081500</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>618900</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-288700</v>
       </c>
-      <c r="O23" s="3"/>
-    </row>
-    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P23" s="3"/>
+    </row>
+    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>101200</v>
+        <v>185100</v>
       </c>
       <c r="E24" s="3">
-        <v>-61500</v>
+        <v>99200</v>
       </c>
       <c r="F24" s="3">
-        <v>231400</v>
+        <v>-60300</v>
       </c>
       <c r="G24" s="3">
-        <v>210100</v>
+        <v>227000</v>
       </c>
       <c r="H24" s="3">
-        <v>30500</v>
+        <v>206100</v>
       </c>
       <c r="I24" s="3">
-        <v>150800</v>
+        <v>29900</v>
       </c>
       <c r="J24" s="3">
+        <v>147900</v>
+      </c>
+      <c r="K24" s="3">
         <v>208600</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>329200</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>362800</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>220600</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>74300</v>
       </c>
-      <c r="O24" s="3"/>
-    </row>
-    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P24" s="3"/>
+    </row>
+    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1349,87 +1397,96 @@
       <c r="N25" s="3">
         <v>0</v>
       </c>
-      <c r="O25" s="3"/>
-    </row>
-    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+      <c r="P25" s="3"/>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>225100</v>
+        <v>401200</v>
       </c>
       <c r="E26" s="3">
-        <v>-240100</v>
+        <v>220800</v>
       </c>
       <c r="F26" s="3">
-        <v>326400</v>
+        <v>-235500</v>
       </c>
       <c r="G26" s="3">
-        <v>407000</v>
+        <v>320200</v>
       </c>
       <c r="H26" s="3">
-        <v>-943200</v>
+        <v>399300</v>
       </c>
       <c r="I26" s="3">
-        <v>69400</v>
+        <v>-925200</v>
       </c>
       <c r="J26" s="3">
+        <v>68000</v>
+      </c>
+      <c r="K26" s="3">
         <v>494700</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>628700</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>718600</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>398300</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-363000</v>
       </c>
-      <c r="O26" s="3"/>
-    </row>
-    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P26" s="3"/>
+    </row>
+    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>223200</v>
+        <v>392000</v>
       </c>
       <c r="E27" s="3">
-        <v>-240600</v>
+        <v>219000</v>
       </c>
       <c r="F27" s="3">
-        <v>290700</v>
+        <v>-236000</v>
       </c>
       <c r="G27" s="3">
-        <v>364000</v>
+        <v>285100</v>
       </c>
       <c r="H27" s="3">
-        <v>-985300</v>
+        <v>357100</v>
       </c>
       <c r="I27" s="3">
-        <v>25600</v>
+        <v>-966600</v>
       </c>
       <c r="J27" s="3">
+        <v>25200</v>
+      </c>
+      <c r="K27" s="3">
         <v>462900</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>584800</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>667000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>309500</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-402800</v>
       </c>
-      <c r="O27" s="3"/>
-    </row>
-    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P27" s="3"/>
+    </row>
+    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1466,9 +1523,12 @@
       <c r="N28" s="3">
         <v>0</v>
       </c>
-      <c r="O28" s="3"/>
-    </row>
-    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+      <c r="P28" s="3"/>
+    </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1484,11 +1544,11 @@
       <c r="G29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H29" s="3">
-        <v>-9600</v>
-      </c>
-      <c r="I29" s="3" t="s">
+      <c r="H29" s="3" t="s">
         <v>10</v>
+      </c>
+      <c r="I29" s="3">
+        <v>-9500</v>
       </c>
       <c r="J29" s="3" t="s">
         <v>10</v>
@@ -1505,9 +1565,12 @@
       <c r="N29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="O29" s="3"/>
-    </row>
-    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O29" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="P29" s="3"/>
+    </row>
+    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1544,9 +1607,12 @@
       <c r="N30" s="3">
         <v>0</v>
       </c>
-      <c r="O30" s="3"/>
-    </row>
-    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+      <c r="P30" s="3"/>
+    </row>
+    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1583,87 +1649,96 @@
       <c r="N31" s="3">
         <v>0</v>
       </c>
-      <c r="O31" s="3"/>
-    </row>
-    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+      <c r="P31" s="3"/>
+    </row>
+    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-55800</v>
+        <v>-18500</v>
       </c>
       <c r="E32" s="3">
-        <v>-54700</v>
+        <v>-54800</v>
       </c>
       <c r="F32" s="3">
-        <v>-19300</v>
+        <v>-53700</v>
       </c>
       <c r="G32" s="3">
-        <v>-22700</v>
+        <v>-18900</v>
       </c>
       <c r="H32" s="3">
-        <v>13100</v>
+        <v>-22300</v>
       </c>
       <c r="I32" s="3">
-        <v>-26700</v>
+        <v>12800</v>
       </c>
       <c r="J32" s="3">
+        <v>-26200</v>
+      </c>
+      <c r="K32" s="3">
         <v>500</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-31100</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-47400</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-84400</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>17000</v>
       </c>
-      <c r="O32" s="3"/>
-    </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P32" s="3"/>
+    </row>
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>223200</v>
+        <v>392000</v>
       </c>
       <c r="E33" s="3">
-        <v>-240600</v>
+        <v>219000</v>
       </c>
       <c r="F33" s="3">
-        <v>290700</v>
+        <v>-236000</v>
       </c>
       <c r="G33" s="3">
-        <v>364000</v>
+        <v>285100</v>
       </c>
       <c r="H33" s="3">
-        <v>-995000</v>
+        <v>357100</v>
       </c>
       <c r="I33" s="3">
-        <v>25600</v>
+        <v>-976000</v>
       </c>
       <c r="J33" s="3">
+        <v>25200</v>
+      </c>
+      <c r="K33" s="3">
         <v>462900</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>584800</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>667000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>309500</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-402800</v>
       </c>
-      <c r="O33" s="3"/>
-    </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P33" s="3"/>
+    </row>
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1700,92 +1775,101 @@
       <c r="N34" s="3">
         <v>0</v>
       </c>
-      <c r="O34" s="3"/>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+      <c r="P34" s="3"/>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>223200</v>
+        <v>392000</v>
       </c>
       <c r="E35" s="3">
-        <v>-240600</v>
+        <v>219000</v>
       </c>
       <c r="F35" s="3">
-        <v>290700</v>
+        <v>-236000</v>
       </c>
       <c r="G35" s="3">
-        <v>364000</v>
+        <v>285100</v>
       </c>
       <c r="H35" s="3">
-        <v>-995000</v>
+        <v>357100</v>
       </c>
       <c r="I35" s="3">
-        <v>25600</v>
+        <v>-976000</v>
       </c>
       <c r="J35" s="3">
+        <v>25200</v>
+      </c>
+      <c r="K35" s="3">
         <v>462900</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>584800</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>667000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>309500</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-402800</v>
       </c>
-      <c r="O35" s="3"/>
-    </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P35" s="3"/>
+    </row>
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E38" s="2">
         <v>44651</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44286</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43921</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43555</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43190</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42825</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>42460</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>42094</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>41729</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>41364</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>40999</v>
       </c>
-      <c r="O38" s="2"/>
-    </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P38" s="2"/>
+    </row>
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1801,8 +1885,9 @@
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P39" s="3"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1818,359 +1903,387 @@
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P40" s="3"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1766900</v>
+        <v>1601300</v>
       </c>
       <c r="E41" s="3">
-        <v>2462600</v>
+        <v>1733200</v>
       </c>
       <c r="F41" s="3">
-        <v>1932200</v>
+        <v>2415700</v>
       </c>
       <c r="G41" s="3">
-        <v>1765200</v>
+        <v>1895400</v>
       </c>
       <c r="H41" s="3">
-        <v>1180700</v>
+        <v>1731600</v>
       </c>
       <c r="I41" s="3">
-        <v>992900</v>
+        <v>1158200</v>
       </c>
       <c r="J41" s="3">
+        <v>974000</v>
+      </c>
+      <c r="K41" s="3">
         <v>1238600</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1182700</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1320000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>2187600</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>1412100</v>
       </c>
-      <c r="O41" s="3"/>
-    </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P41" s="3"/>
+    </row>
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>678400</v>
+        <v>677100</v>
       </c>
       <c r="E42" s="3">
-        <v>682200</v>
+        <v>665400</v>
       </c>
       <c r="F42" s="3">
-        <v>641100</v>
+        <v>669300</v>
       </c>
       <c r="G42" s="3">
-        <v>2163500</v>
+        <v>628900</v>
       </c>
       <c r="H42" s="3">
-        <v>2550900</v>
+        <v>2122300</v>
       </c>
       <c r="I42" s="3">
-        <v>2032800</v>
+        <v>2502300</v>
       </c>
       <c r="J42" s="3">
+        <v>1994100</v>
+      </c>
+      <c r="K42" s="3">
         <v>2001800</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>2218300</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>2287100</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>2103200</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>22200</v>
       </c>
-      <c r="O42" s="3"/>
-    </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P42" s="3"/>
+    </row>
+    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>2919000</v>
+        <v>3435100</v>
       </c>
       <c r="E43" s="3">
-        <v>2882200</v>
+        <v>2863400</v>
       </c>
       <c r="F43" s="3">
-        <v>2886900</v>
+        <v>2827300</v>
       </c>
       <c r="G43" s="3">
-        <v>4445300</v>
+        <v>2831900</v>
       </c>
       <c r="H43" s="3">
-        <v>4334600</v>
+        <v>4360600</v>
       </c>
       <c r="I43" s="3">
-        <v>4162400</v>
+        <v>4252000</v>
       </c>
       <c r="J43" s="3">
+        <v>4083100</v>
+      </c>
+      <c r="K43" s="3">
         <v>4146900</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>4721600</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>9979400</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>8964400</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>6209800</v>
       </c>
-      <c r="O43" s="3"/>
-    </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P43" s="3"/>
+    </row>
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>1709300</v>
+        <v>2266600</v>
       </c>
       <c r="E44" s="3">
-        <v>1411300</v>
+        <v>1676700</v>
       </c>
       <c r="F44" s="3">
-        <v>1479200</v>
+        <v>1384400</v>
       </c>
       <c r="G44" s="3">
-        <v>1526900</v>
+        <v>1451000</v>
       </c>
       <c r="H44" s="3">
-        <v>1326600</v>
+        <v>1497900</v>
       </c>
       <c r="I44" s="3">
-        <v>1488700</v>
+        <v>1301300</v>
       </c>
       <c r="J44" s="3">
+        <v>1460400</v>
+      </c>
+      <c r="K44" s="3">
         <v>1522100</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>1914800</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>1778600</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>3563900</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>1762900</v>
       </c>
-      <c r="O44" s="3"/>
-    </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P44" s="3"/>
+    </row>
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>367700</v>
+        <v>493900</v>
       </c>
       <c r="E45" s="3">
-        <v>343400</v>
+        <v>360700</v>
       </c>
       <c r="F45" s="3">
-        <v>8540800</v>
+        <v>336900</v>
       </c>
       <c r="G45" s="3">
-        <v>313800</v>
+        <v>8378100</v>
       </c>
       <c r="H45" s="3">
-        <v>367900</v>
+        <v>307800</v>
       </c>
       <c r="I45" s="3">
-        <v>431300</v>
+        <v>360900</v>
       </c>
       <c r="J45" s="3">
+        <v>423100</v>
+      </c>
+      <c r="K45" s="3">
         <v>448600</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>338300</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>314300</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>3011200</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>595700</v>
       </c>
-      <c r="O45" s="3"/>
-    </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P45" s="3"/>
+    </row>
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>7441300</v>
+        <v>8473900</v>
       </c>
       <c r="E46" s="3">
-        <v>7781800</v>
+        <v>7299600</v>
       </c>
       <c r="F46" s="3">
-        <v>15480200</v>
+        <v>7633500</v>
       </c>
       <c r="G46" s="3">
-        <v>10214800</v>
+        <v>15185300</v>
       </c>
       <c r="H46" s="3">
-        <v>9760600</v>
+        <v>10020200</v>
       </c>
       <c r="I46" s="3">
-        <v>9108200</v>
+        <v>9574700</v>
       </c>
       <c r="J46" s="3">
+        <v>8934700</v>
+      </c>
+      <c r="K46" s="3">
         <v>9358000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>10375700</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>10689700</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>9593000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>10002800</v>
       </c>
-      <c r="O46" s="3"/>
-    </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P46" s="3"/>
+    </row>
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>1632000</v>
+        <v>1716300</v>
       </c>
       <c r="E47" s="3">
-        <v>1720600</v>
+        <v>1601000</v>
       </c>
       <c r="F47" s="3">
-        <v>1238000</v>
+        <v>1687900</v>
       </c>
       <c r="G47" s="3">
-        <v>5463000</v>
+        <v>1214400</v>
       </c>
       <c r="H47" s="3">
-        <v>5294300</v>
+        <v>5358900</v>
       </c>
       <c r="I47" s="3">
-        <v>5422400</v>
+        <v>5193500</v>
       </c>
       <c r="J47" s="3">
+        <v>5319100</v>
+      </c>
+      <c r="K47" s="3">
         <v>5058200</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>5633900</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>5612200</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>5473000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>4645800</v>
       </c>
-      <c r="O47" s="3"/>
-    </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P47" s="3"/>
+    </row>
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>1809300</v>
+        <v>1827800</v>
       </c>
       <c r="E48" s="3">
-        <v>1878800</v>
+        <v>1774900</v>
       </c>
       <c r="F48" s="3">
-        <v>1918300</v>
+        <v>1843000</v>
       </c>
       <c r="G48" s="3">
-        <v>1839600</v>
+        <v>1881800</v>
       </c>
       <c r="H48" s="3">
-        <v>1837500</v>
+        <v>1804600</v>
       </c>
       <c r="I48" s="3">
-        <v>1993700</v>
+        <v>1802500</v>
       </c>
       <c r="J48" s="3">
+        <v>1955800</v>
+      </c>
+      <c r="K48" s="3">
         <v>2032600</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>2359500</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>2894700</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>5065200</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>2427500</v>
       </c>
-      <c r="O48" s="3"/>
-    </row>
-    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P48" s="3"/>
+    </row>
+    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>1907200</v>
+        <v>2641700</v>
       </c>
       <c r="E49" s="3">
-        <v>1657500</v>
+        <v>1870900</v>
       </c>
       <c r="F49" s="3">
-        <v>1704500</v>
+        <v>1625900</v>
       </c>
       <c r="G49" s="3">
-        <v>1615600</v>
+        <v>1672000</v>
       </c>
       <c r="H49" s="3">
-        <v>1595900</v>
+        <v>1584800</v>
       </c>
       <c r="I49" s="3">
-        <v>2853100</v>
+        <v>1565500</v>
       </c>
       <c r="J49" s="3">
+        <v>2798800</v>
+      </c>
+      <c r="K49" s="3">
         <v>3041700</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>3717000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>3658100</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>4520200</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>2785800</v>
       </c>
-      <c r="O49" s="3"/>
-    </row>
-    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P49" s="3"/>
+    </row>
+    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2207,9 +2320,12 @@
       <c r="N50" s="3">
         <v>0</v>
       </c>
-      <c r="O50" s="3"/>
-    </row>
-    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+      <c r="P50" s="3"/>
+    </row>
+    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2246,48 +2362,54 @@
       <c r="N51" s="3">
         <v>0</v>
       </c>
-      <c r="O51" s="3"/>
-    </row>
-    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+      <c r="P51" s="3"/>
+    </row>
+    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>831500</v>
+        <v>841400</v>
       </c>
       <c r="E52" s="3">
-        <v>837100</v>
+        <v>815700</v>
       </c>
       <c r="F52" s="3">
-        <v>736200</v>
+        <v>821200</v>
       </c>
       <c r="G52" s="3">
-        <v>896800</v>
+        <v>722200</v>
       </c>
       <c r="H52" s="3">
-        <v>923200</v>
+        <v>879700</v>
       </c>
       <c r="I52" s="3">
-        <v>903300</v>
+        <v>905600</v>
       </c>
       <c r="J52" s="3">
+        <v>886100</v>
+      </c>
+      <c r="K52" s="3">
         <v>916500</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>1202500</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>1345400</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>6546100</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>833900</v>
       </c>
-      <c r="O52" s="3"/>
-    </row>
-    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P52" s="3"/>
+    </row>
+    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2324,48 +2446,54 @@
       <c r="N53" s="3">
         <v>0</v>
       </c>
-      <c r="O53" s="3"/>
-    </row>
-    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+      <c r="P53" s="3"/>
+    </row>
+    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>13621400</v>
+        <v>15501200</v>
       </c>
       <c r="E54" s="3">
-        <v>13875800</v>
+        <v>13362000</v>
       </c>
       <c r="F54" s="3">
-        <v>21077200</v>
+        <v>13611500</v>
       </c>
       <c r="G54" s="3">
-        <v>20029700</v>
+        <v>20675700</v>
       </c>
       <c r="H54" s="3">
-        <v>19411600</v>
+        <v>19648200</v>
       </c>
       <c r="I54" s="3">
-        <v>20280800</v>
+        <v>19041800</v>
       </c>
       <c r="J54" s="3">
+        <v>19894500</v>
+      </c>
+      <c r="K54" s="3">
         <v>20407000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>23288700</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>23785000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>21735700</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>20695800</v>
       </c>
-      <c r="O54" s="3"/>
-    </row>
-    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P54" s="3"/>
+    </row>
+    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2381,8 +2509,9 @@
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
-    </row>
-    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P55" s="3"/>
+    </row>
+    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2398,242 +2527,261 @@
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
-    </row>
-    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P56" s="3"/>
+    </row>
+    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>1303700</v>
+        <v>2252600</v>
       </c>
       <c r="E57" s="3">
-        <v>1478800</v>
+        <v>1278900</v>
       </c>
       <c r="F57" s="3">
-        <v>1318800</v>
+        <v>1450600</v>
       </c>
       <c r="G57" s="3">
-        <v>1530500</v>
+        <v>1293700</v>
       </c>
       <c r="H57" s="3">
-        <v>1428900</v>
+        <v>1501400</v>
       </c>
       <c r="I57" s="3">
-        <v>1434900</v>
+        <v>1401700</v>
       </c>
       <c r="J57" s="3">
+        <v>1407600</v>
+      </c>
+      <c r="K57" s="3">
         <v>1457300</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>2362700</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>1965300</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>3862300</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>2175500</v>
       </c>
-      <c r="O57" s="3"/>
-    </row>
-    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P57" s="3"/>
+    </row>
+    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>1007400</v>
+        <v>1326700</v>
       </c>
       <c r="E58" s="3">
-        <v>795300</v>
+        <v>988200</v>
       </c>
       <c r="F58" s="3">
-        <v>578600</v>
+        <v>780200</v>
       </c>
       <c r="G58" s="3">
-        <v>1962100</v>
+        <v>567600</v>
       </c>
       <c r="H58" s="3">
-        <v>1640500</v>
+        <v>1924800</v>
       </c>
       <c r="I58" s="3">
-        <v>1690100</v>
+        <v>1609200</v>
       </c>
       <c r="J58" s="3">
+        <v>1657900</v>
+      </c>
+      <c r="K58" s="3">
         <v>1916500</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>1894200</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>2489400</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>4128200</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>2061000</v>
       </c>
-      <c r="O58" s="3"/>
-    </row>
-    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P58" s="3"/>
+    </row>
+    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>2785800</v>
+        <v>2398600</v>
       </c>
       <c r="E59" s="3">
-        <v>2558600</v>
+        <v>2732700</v>
       </c>
       <c r="F59" s="3">
-        <v>9486900</v>
+        <v>2509900</v>
       </c>
       <c r="G59" s="3">
-        <v>2712200</v>
+        <v>9306200</v>
       </c>
       <c r="H59" s="3">
-        <v>2726200</v>
+        <v>2660500</v>
       </c>
       <c r="I59" s="3">
-        <v>2805900</v>
+        <v>2674300</v>
       </c>
       <c r="J59" s="3">
+        <v>2752500</v>
+      </c>
+      <c r="K59" s="3">
         <v>2556600</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>2329400</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>3200300</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>4746300</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>1847600</v>
       </c>
-      <c r="O59" s="3"/>
-    </row>
-    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P59" s="3"/>
+    </row>
+    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>5096800</v>
+        <v>5977900</v>
       </c>
       <c r="E60" s="3">
-        <v>4832700</v>
+        <v>4999800</v>
       </c>
       <c r="F60" s="3">
-        <v>11384400</v>
+        <v>4740700</v>
       </c>
       <c r="G60" s="3">
-        <v>6204900</v>
+        <v>11167500</v>
       </c>
       <c r="H60" s="3">
-        <v>5795600</v>
+        <v>6086700</v>
       </c>
       <c r="I60" s="3">
-        <v>5930900</v>
+        <v>5685200</v>
       </c>
       <c r="J60" s="3">
+        <v>5817900</v>
+      </c>
+      <c r="K60" s="3">
         <v>5930500</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>6586300</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>7654900</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>6370500</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>6084100</v>
       </c>
-      <c r="O60" s="3"/>
-    </row>
-    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P60" s="3"/>
+    </row>
+    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>1216300</v>
+        <v>1753900</v>
       </c>
       <c r="E61" s="3">
-        <v>1370100</v>
+        <v>1193200</v>
       </c>
       <c r="F61" s="3">
-        <v>1226800</v>
+        <v>1344000</v>
       </c>
       <c r="G61" s="3">
-        <v>4898500</v>
+        <v>1203400</v>
       </c>
       <c r="H61" s="3">
-        <v>4841500</v>
+        <v>4805200</v>
       </c>
       <c r="I61" s="3">
-        <v>4629000</v>
+        <v>4749300</v>
       </c>
       <c r="J61" s="3">
+        <v>4540900</v>
+      </c>
+      <c r="K61" s="3">
         <v>4351500</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>4849400</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>4143900</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>4314000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>4749900</v>
       </c>
-      <c r="O61" s="3"/>
-    </row>
-    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P61" s="3"/>
+    </row>
+    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>650400</v>
+        <v>861600</v>
       </c>
       <c r="E62" s="3">
-        <v>882600</v>
+        <v>638000</v>
       </c>
       <c r="F62" s="3">
-        <v>1053300</v>
+        <v>865800</v>
       </c>
       <c r="G62" s="3">
-        <v>1436800</v>
+        <v>1033300</v>
       </c>
       <c r="H62" s="3">
-        <v>1507100</v>
+        <v>1409400</v>
       </c>
       <c r="I62" s="3">
-        <v>1511800</v>
+        <v>1478400</v>
       </c>
       <c r="J62" s="3">
+        <v>1483000</v>
+      </c>
+      <c r="K62" s="3">
         <v>1688900</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>2006600</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>1961500</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>4245400</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>1915400</v>
       </c>
-      <c r="O62" s="3"/>
-    </row>
-    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P62" s="3"/>
+    </row>
+    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2670,9 +2818,12 @@
       <c r="N63" s="3">
         <v>0</v>
       </c>
-      <c r="O63" s="3"/>
-    </row>
-    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+      <c r="P63" s="3"/>
+    </row>
+    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2709,9 +2860,12 @@
       <c r="N64" s="3">
         <v>0</v>
       </c>
-      <c r="O64" s="3"/>
-    </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+      <c r="P64" s="3"/>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2748,48 +2902,54 @@
       <c r="N65" s="3">
         <v>0</v>
       </c>
-      <c r="O65" s="3"/>
-    </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+      <c r="P65" s="3"/>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>6991400</v>
+        <v>8784700</v>
       </c>
       <c r="E66" s="3">
-        <v>7112000</v>
+        <v>6858200</v>
       </c>
       <c r="F66" s="3">
-        <v>14312500</v>
+        <v>6976600</v>
       </c>
       <c r="G66" s="3">
-        <v>13175300</v>
+        <v>14039800</v>
       </c>
       <c r="H66" s="3">
-        <v>12726300</v>
+        <v>12924300</v>
       </c>
       <c r="I66" s="3">
-        <v>12621300</v>
+        <v>12483900</v>
       </c>
       <c r="J66" s="3">
+        <v>12380900</v>
+      </c>
+      <c r="K66" s="3">
         <v>12485100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>14040700</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>14355600</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>13430100</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>13258600</v>
       </c>
-      <c r="O66" s="3"/>
-    </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P66" s="3"/>
+    </row>
+    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2805,8 +2965,9 @@
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
-    </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P67" s="3"/>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2843,9 +3004,12 @@
       <c r="N68" s="3">
         <v>0</v>
       </c>
-      <c r="O68" s="3"/>
-    </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+      <c r="P68" s="3"/>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2882,9 +3046,12 @@
       <c r="N69" s="3">
         <v>0</v>
       </c>
-      <c r="O69" s="3"/>
-    </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+      <c r="P69" s="3"/>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2921,9 +3088,12 @@
       <c r="N70" s="3">
         <v>0</v>
       </c>
-      <c r="O70" s="3"/>
-    </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+      <c r="P70" s="3"/>
+    </row>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2960,48 +3130,54 @@
       <c r="N71" s="3">
         <v>0</v>
       </c>
-      <c r="O71" s="3"/>
-    </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+      <c r="P71" s="3"/>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>3379900</v>
+        <v>3393900</v>
       </c>
       <c r="E72" s="3">
-        <v>4127600</v>
+        <v>3315600</v>
       </c>
       <c r="F72" s="3">
-        <v>4371300</v>
+        <v>4049000</v>
       </c>
       <c r="G72" s="3">
-        <v>4225300</v>
+        <v>4288000</v>
       </c>
       <c r="H72" s="3">
-        <v>3749300</v>
+        <v>4144900</v>
       </c>
       <c r="I72" s="3">
-        <v>4832200</v>
+        <v>3677900</v>
       </c>
       <c r="J72" s="3">
+        <v>4740200</v>
+      </c>
+      <c r="K72" s="3">
         <v>4986400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>5514400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>5728100</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>12094900</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>6712600</v>
       </c>
-      <c r="O72" s="3"/>
-    </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P72" s="3"/>
+    </row>
+    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3038,9 +3214,12 @@
       <c r="N73" s="3">
         <v>0</v>
       </c>
-      <c r="O73" s="3"/>
-    </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+      <c r="P73" s="3"/>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3077,9 +3256,12 @@
       <c r="N74" s="3">
         <v>0</v>
       </c>
-      <c r="O74" s="3"/>
-    </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+      <c r="P74" s="3"/>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3116,48 +3298,54 @@
       <c r="N75" s="3">
         <v>0</v>
       </c>
-      <c r="O75" s="3"/>
-    </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+      <c r="P75" s="3"/>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>6630000</v>
+        <v>6716500</v>
       </c>
       <c r="E76" s="3">
-        <v>6763800</v>
+        <v>6503700</v>
       </c>
       <c r="F76" s="3">
-        <v>6764700</v>
+        <v>6635000</v>
       </c>
       <c r="G76" s="3">
-        <v>6854400</v>
+        <v>6635900</v>
       </c>
       <c r="H76" s="3">
-        <v>6685300</v>
+        <v>6723900</v>
       </c>
       <c r="I76" s="3">
-        <v>7659500</v>
+        <v>6558000</v>
       </c>
       <c r="J76" s="3">
+        <v>7513600</v>
+      </c>
+      <c r="K76" s="3">
         <v>7921900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>9247900</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>9429400</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>8305600</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>7437200</v>
       </c>
-      <c r="O76" s="3"/>
-    </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P76" s="3"/>
+    </row>
+    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3194,92 +3382,101 @@
       <c r="N77" s="3">
         <v>0</v>
       </c>
-      <c r="O77" s="3"/>
-    </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+      <c r="P77" s="3"/>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E80" s="2">
         <v>44651</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44286</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43921</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43555</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43190</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42825</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>42460</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>42094</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>41729</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>41364</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>40999</v>
       </c>
-      <c r="O80" s="2"/>
-    </row>
-    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P80" s="2"/>
+    </row>
+    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>223200</v>
+        <v>392000</v>
       </c>
       <c r="E81" s="3">
-        <v>-240600</v>
+        <v>219000</v>
       </c>
       <c r="F81" s="3">
-        <v>290700</v>
+        <v>-236000</v>
       </c>
       <c r="G81" s="3">
-        <v>364000</v>
+        <v>285100</v>
       </c>
       <c r="H81" s="3">
-        <v>-995000</v>
+        <v>357100</v>
       </c>
       <c r="I81" s="3">
-        <v>25600</v>
+        <v>-976000</v>
       </c>
       <c r="J81" s="3">
+        <v>25200</v>
+      </c>
+      <c r="K81" s="3">
         <v>462900</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>584800</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>667000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>309500</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-402800</v>
       </c>
-      <c r="O81" s="3"/>
-    </row>
-    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P81" s="3"/>
+    </row>
+    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3295,47 +3492,51 @@
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
-    </row>
-    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P82" s="3"/>
+    </row>
+    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>665000</v>
+        <v>702700</v>
       </c>
       <c r="E83" s="3">
-        <v>768900</v>
+        <v>652400</v>
       </c>
       <c r="F83" s="3">
-        <v>887100</v>
+        <v>754300</v>
       </c>
       <c r="G83" s="3">
-        <v>693000</v>
+        <v>870200</v>
       </c>
       <c r="H83" s="3">
-        <v>796200</v>
+        <v>679800</v>
       </c>
       <c r="I83" s="3">
-        <v>785600</v>
+        <v>781000</v>
       </c>
       <c r="J83" s="3">
+        <v>770700</v>
+      </c>
+      <c r="K83" s="3">
         <v>789100</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>919800</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>973100</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>871900</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>823900</v>
       </c>
-      <c r="O83" s="3"/>
-    </row>
-    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P83" s="3"/>
+    </row>
+    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3372,9 +3573,12 @@
       <c r="N84" s="3">
         <v>0</v>
       </c>
-      <c r="O84" s="3"/>
-    </row>
-    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+      <c r="P84" s="3"/>
+    </row>
+    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3411,9 +3615,12 @@
       <c r="N85" s="3">
         <v>0</v>
       </c>
-      <c r="O85" s="3"/>
-    </row>
-    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+      <c r="P85" s="3"/>
+    </row>
+    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3450,9 +3657,12 @@
       <c r="N86" s="3">
         <v>0</v>
       </c>
-      <c r="O86" s="3"/>
-    </row>
-    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+      <c r="P86" s="3"/>
+    </row>
+    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3489,9 +3699,12 @@
       <c r="N87" s="3">
         <v>0</v>
       </c>
-      <c r="O87" s="3"/>
-    </row>
-    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+      <c r="P87" s="3"/>
+    </row>
+    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3528,48 +3741,54 @@
       <c r="N88" s="3">
         <v>0</v>
       </c>
-      <c r="O88" s="3"/>
-    </row>
-    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+      <c r="P88" s="3"/>
+    </row>
+    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>606100</v>
+        <v>481000</v>
       </c>
       <c r="E89" s="3">
-        <v>933200</v>
+        <v>594600</v>
       </c>
       <c r="F89" s="3">
-        <v>857800</v>
+        <v>915400</v>
       </c>
       <c r="G89" s="3">
-        <v>602300</v>
+        <v>841400</v>
       </c>
       <c r="H89" s="3">
-        <v>810600</v>
+        <v>590800</v>
       </c>
       <c r="I89" s="3">
-        <v>649000</v>
+        <v>795200</v>
       </c>
       <c r="J89" s="3">
+        <v>636600</v>
+      </c>
+      <c r="K89" s="3">
         <v>734000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>874700</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>1345500</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>1248200</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>101300</v>
       </c>
-      <c r="O89" s="3"/>
-    </row>
-    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P89" s="3"/>
+    </row>
+    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3585,47 +3804,51 @@
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
-    </row>
-    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P90" s="3"/>
+    </row>
+    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-274600</v>
+        <v>-327800</v>
       </c>
       <c r="E91" s="3">
-        <v>-309800</v>
+        <v>-269400</v>
       </c>
       <c r="F91" s="3">
-        <v>-636500</v>
+        <v>-303900</v>
       </c>
       <c r="G91" s="3">
-        <v>-532600</v>
+        <v>-624400</v>
       </c>
       <c r="H91" s="3">
-        <v>-531300</v>
+        <v>-522500</v>
       </c>
       <c r="I91" s="3">
-        <v>-554500</v>
+        <v>-521200</v>
       </c>
       <c r="J91" s="3">
+        <v>-544000</v>
+      </c>
+      <c r="K91" s="3">
         <v>-615800</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-648100</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-668600</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-1507600</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-662400</v>
       </c>
-      <c r="O91" s="3"/>
-    </row>
-    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P91" s="3"/>
+    </row>
+    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3662,9 +3885,12 @@
       <c r="N92" s="3">
         <v>0</v>
       </c>
-      <c r="O92" s="3"/>
-    </row>
-    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+      <c r="P92" s="3"/>
+    </row>
+    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3701,48 +3927,54 @@
       <c r="N93" s="3">
         <v>0</v>
       </c>
-      <c r="O93" s="3"/>
-    </row>
-    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+      <c r="P93" s="3"/>
+    </row>
+    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-436300</v>
+        <v>-965700</v>
       </c>
       <c r="E94" s="3">
-        <v>-467200</v>
+        <v>-427900</v>
       </c>
       <c r="F94" s="3">
-        <v>-1209700</v>
+        <v>-458300</v>
       </c>
       <c r="G94" s="3">
-        <v>-337600</v>
+        <v>-1186700</v>
       </c>
       <c r="H94" s="3">
-        <v>-595900</v>
+        <v>-331200</v>
       </c>
       <c r="I94" s="3">
-        <v>-784400</v>
+        <v>-584600</v>
       </c>
       <c r="J94" s="3">
+        <v>-769400</v>
+      </c>
+      <c r="K94" s="3">
         <v>-765400</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-1223700</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-1126100</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-1106600</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-1016500</v>
       </c>
-      <c r="O94" s="3"/>
-    </row>
-    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P94" s="3"/>
+    </row>
+    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3758,47 +3990,51 @@
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
-    </row>
-    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P95" s="3"/>
+    </row>
+    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-103300</v>
+        <v>-134400</v>
       </c>
       <c r="E96" s="3">
-        <v>-109200</v>
+        <v>-101400</v>
       </c>
       <c r="F96" s="3">
-        <v>-138500</v>
+        <v>-107100</v>
       </c>
       <c r="G96" s="3">
-        <v>-93200</v>
+        <v>-135800</v>
       </c>
       <c r="H96" s="3">
-        <v>-106600</v>
+        <v>-91500</v>
       </c>
       <c r="I96" s="3">
-        <v>-213100</v>
+        <v>-104500</v>
       </c>
       <c r="J96" s="3">
+        <v>-209100</v>
+      </c>
+      <c r="K96" s="3">
         <v>-183800</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-207200</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-219200</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-138400</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-216400</v>
       </c>
-      <c r="O96" s="3"/>
-    </row>
-    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P96" s="3"/>
+    </row>
+    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3835,9 +4071,12 @@
       <c r="N97" s="3">
         <v>0</v>
       </c>
-      <c r="O97" s="3"/>
-    </row>
-    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+      <c r="P97" s="3"/>
+    </row>
+    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3874,9 +4113,12 @@
       <c r="N98" s="3">
         <v>0</v>
       </c>
-      <c r="O98" s="3"/>
-    </row>
-    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+      <c r="P98" s="3"/>
+    </row>
+    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3913,124 +4155,136 @@
       <c r="N99" s="3">
         <v>0</v>
       </c>
-      <c r="O99" s="3"/>
-    </row>
-    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+      <c r="P99" s="3"/>
+    </row>
+    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-967900</v>
+        <v>255600</v>
       </c>
       <c r="E100" s="3">
-        <v>-30000</v>
+        <v>-949400</v>
       </c>
       <c r="F100" s="3">
-        <v>556800</v>
+        <v>-29500</v>
       </c>
       <c r="G100" s="3">
-        <v>311800</v>
+        <v>546200</v>
       </c>
       <c r="H100" s="3">
-        <v>47100</v>
+        <v>305900</v>
       </c>
       <c r="I100" s="3">
-        <v>-146400</v>
+        <v>46200</v>
       </c>
       <c r="J100" s="3">
+        <v>-143600</v>
+      </c>
+      <c r="K100" s="3">
         <v>313600</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>255400</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-84600</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-562100</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>793900</v>
       </c>
-      <c r="O100" s="3"/>
-    </row>
-    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P100" s="3"/>
+    </row>
+    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>90100</v>
+        <v>62300</v>
       </c>
       <c r="E101" s="3">
-        <v>53900</v>
+        <v>88400</v>
       </c>
       <c r="F101" s="3">
-        <v>-31400</v>
+        <v>52900</v>
       </c>
       <c r="G101" s="3">
-        <v>8000</v>
+        <v>-30800</v>
       </c>
       <c r="H101" s="3">
-        <v>-10900</v>
+        <v>7900</v>
       </c>
       <c r="I101" s="3">
-        <v>-20400</v>
+        <v>-10700</v>
       </c>
       <c r="J101" s="3">
+        <v>-20100</v>
+      </c>
+      <c r="K101" s="3">
         <v>-62900</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>73800</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>75800</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>64600</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-23500</v>
       </c>
-      <c r="O101" s="3"/>
-    </row>
-    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P101" s="3"/>
+    </row>
+    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-708000</v>
+        <v>-166800</v>
       </c>
       <c r="E102" s="3">
-        <v>489900</v>
+        <v>-694500</v>
       </c>
       <c r="F102" s="3">
-        <v>173400</v>
+        <v>480600</v>
       </c>
       <c r="G102" s="3">
-        <v>584600</v>
+        <v>170100</v>
       </c>
       <c r="H102" s="3">
-        <v>250900</v>
+        <v>573400</v>
       </c>
       <c r="I102" s="3">
-        <v>-302200</v>
+        <v>246100</v>
       </c>
       <c r="J102" s="3">
+        <v>-296500</v>
+      </c>
+      <c r="K102" s="3">
         <v>219200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-19800</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>210600</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-356000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-144700</v>
       </c>
-      <c r="O102" s="3"/>
+      <c r="P102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/RICOY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/RICOY_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="92">
   <si>
     <t>RICOY</t>
   </si>
@@ -726,25 +726,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>15387400</v>
+        <v>14661800</v>
       </c>
       <c r="E8" s="3">
-        <v>12679400</v>
+        <v>12081500</v>
       </c>
       <c r="F8" s="3">
-        <v>12127700</v>
+        <v>11555800</v>
       </c>
       <c r="G8" s="3">
-        <v>14481900</v>
+        <v>13798900</v>
       </c>
       <c r="H8" s="3">
-        <v>14515400</v>
+        <v>13830900</v>
       </c>
       <c r="I8" s="3">
-        <v>14876800</v>
+        <v>14175300</v>
       </c>
       <c r="J8" s="3">
-        <v>14628400</v>
+        <v>13938500</v>
       </c>
       <c r="K8" s="3">
         <v>16236400</v>
@@ -768,25 +768,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>10012900</v>
+        <v>9540800</v>
       </c>
       <c r="E9" s="3">
-        <v>8190000</v>
+        <v>7803800</v>
       </c>
       <c r="F9" s="3">
-        <v>8001400</v>
+        <v>7624100</v>
       </c>
       <c r="G9" s="3">
-        <v>9277600</v>
+        <v>8840100</v>
       </c>
       <c r="H9" s="3">
-        <v>8986100</v>
+        <v>8562400</v>
       </c>
       <c r="I9" s="3">
-        <v>9173700</v>
+        <v>8741100</v>
       </c>
       <c r="J9" s="3">
-        <v>8942400</v>
+        <v>8520700</v>
       </c>
       <c r="K9" s="3">
         <v>9753900</v>
@@ -810,25 +810,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>5374500</v>
+        <v>5121000</v>
       </c>
       <c r="E10" s="3">
-        <v>4489400</v>
+        <v>4277700</v>
       </c>
       <c r="F10" s="3">
-        <v>4126300</v>
+        <v>3931700</v>
       </c>
       <c r="G10" s="3">
-        <v>5204300</v>
+        <v>4958800</v>
       </c>
       <c r="H10" s="3">
-        <v>5529200</v>
+        <v>5268500</v>
       </c>
       <c r="I10" s="3">
-        <v>5703200</v>
+        <v>5434200</v>
       </c>
       <c r="J10" s="3">
-        <v>5686000</v>
+        <v>5417900</v>
       </c>
       <c r="K10" s="3">
         <v>6482400</v>
@@ -869,26 +869,26 @@
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D12" s="3" t="s">
-        <v>10</v>
+      <c r="D12" s="3">
+        <v>586100</v>
       </c>
       <c r="E12" s="3">
-        <v>546000</v>
+        <v>520200</v>
       </c>
       <c r="F12" s="3">
-        <v>571000</v>
+        <v>544100</v>
       </c>
       <c r="G12" s="3">
-        <v>636100</v>
+        <v>606100</v>
       </c>
       <c r="H12" s="3">
-        <v>677900</v>
+        <v>646000</v>
       </c>
       <c r="I12" s="3">
-        <v>677700</v>
+        <v>645700</v>
       </c>
       <c r="J12" s="3">
-        <v>723800</v>
+        <v>689600</v>
       </c>
       <c r="K12" s="3">
         <v>750000</v>
@@ -954,22 +954,22 @@
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>500</v>
+        <v>-4800</v>
       </c>
       <c r="E14" s="3">
-        <v>14600</v>
+        <v>13900</v>
       </c>
       <c r="F14" s="3">
-        <v>358900</v>
+        <v>342000</v>
       </c>
       <c r="G14" s="3">
-        <v>81200</v>
+        <v>77300</v>
       </c>
       <c r="H14" s="3">
-        <v>154500</v>
+        <v>147200</v>
       </c>
       <c r="I14" s="3">
-        <v>1454400</v>
+        <v>1385800</v>
       </c>
       <c r="J14" s="3" t="s">
         <v>10</v>
@@ -995,26 +995,26 @@
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="3" t="s">
-        <v>10</v>
+      <c r="D15" s="3">
+        <v>389800</v>
       </c>
       <c r="E15" s="3">
-        <v>362900</v>
+        <v>345800</v>
       </c>
       <c r="F15" s="3">
-        <v>392400</v>
+        <v>373900</v>
       </c>
       <c r="G15" s="3">
-        <v>384500</v>
+        <v>366400</v>
       </c>
       <c r="H15" s="3">
-        <v>179300</v>
+        <v>170800</v>
       </c>
       <c r="I15" s="3">
-        <v>289100</v>
+        <v>275400</v>
       </c>
       <c r="J15" s="3">
-        <v>290500</v>
+        <v>276800</v>
       </c>
       <c r="K15" s="3">
         <v>273000</v>
@@ -1053,25 +1053,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>14819700</v>
+        <v>14120900</v>
       </c>
       <c r="E17" s="3">
-        <v>12390600</v>
+        <v>11806300</v>
       </c>
       <c r="F17" s="3">
-        <v>12455300</v>
+        <v>11867900</v>
       </c>
       <c r="G17" s="3">
-        <v>13912000</v>
+        <v>13255900</v>
       </c>
       <c r="H17" s="3">
-        <v>13889300</v>
+        <v>13234300</v>
       </c>
       <c r="I17" s="3">
-        <v>15710900</v>
+        <v>14970000</v>
       </c>
       <c r="J17" s="3">
-        <v>14384100</v>
+        <v>13705800</v>
       </c>
       <c r="K17" s="3">
         <v>15484500</v>
@@ -1095,25 +1095,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>567700</v>
+        <v>540900</v>
       </c>
       <c r="E18" s="3">
-        <v>288800</v>
+        <v>275200</v>
       </c>
       <c r="F18" s="3">
-        <v>-327500</v>
+        <v>-312100</v>
       </c>
       <c r="G18" s="3">
-        <v>569900</v>
+        <v>543000</v>
       </c>
       <c r="H18" s="3">
-        <v>626100</v>
+        <v>596600</v>
       </c>
       <c r="I18" s="3">
-        <v>-834000</v>
+        <v>-794700</v>
       </c>
       <c r="J18" s="3">
-        <v>244300</v>
+        <v>232800</v>
       </c>
       <c r="K18" s="3">
         <v>751900</v>
@@ -1155,25 +1155,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>18500</v>
+        <v>59000</v>
       </c>
       <c r="E20" s="3">
-        <v>54800</v>
+        <v>52200</v>
       </c>
       <c r="F20" s="3">
-        <v>53700</v>
+        <v>51100</v>
       </c>
       <c r="G20" s="3">
-        <v>18900</v>
+        <v>18000</v>
       </c>
       <c r="H20" s="3">
-        <v>22300</v>
+        <v>21200</v>
       </c>
       <c r="I20" s="3">
-        <v>-12800</v>
+        <v>-12200</v>
       </c>
       <c r="J20" s="3">
-        <v>26200</v>
+        <v>24900</v>
       </c>
       <c r="K20" s="3">
         <v>-500</v>
@@ -1197,25 +1197,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>1293800</v>
+        <v>1269500</v>
       </c>
       <c r="E21" s="3">
-        <v>1000400</v>
+        <v>948900</v>
       </c>
       <c r="F21" s="3">
-        <v>485700</v>
+        <v>457800</v>
       </c>
       <c r="G21" s="3">
-        <v>1465000</v>
+        <v>1390100</v>
       </c>
       <c r="H21" s="3">
-        <v>1332900</v>
+        <v>1265600</v>
       </c>
       <c r="I21" s="3">
-        <v>-60400</v>
+        <v>-62700</v>
       </c>
       <c r="J21" s="3">
-        <v>1046400</v>
+        <v>992000</v>
       </c>
       <c r="K21" s="3">
         <v>1533000</v>
@@ -1238,26 +1238,26 @@
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3" t="s">
-        <v>10</v>
+      <c r="D22" s="3">
+        <v>41300</v>
       </c>
       <c r="E22" s="3">
-        <v>23500</v>
+        <v>22400</v>
       </c>
       <c r="F22" s="3">
-        <v>21900</v>
+        <v>20900</v>
       </c>
       <c r="G22" s="3">
-        <v>41600</v>
+        <v>39600</v>
       </c>
       <c r="H22" s="3">
-        <v>43000</v>
+        <v>41000</v>
       </c>
       <c r="I22" s="3">
-        <v>48500</v>
+        <v>46200</v>
       </c>
       <c r="J22" s="3">
-        <v>54400</v>
+        <v>51900</v>
       </c>
       <c r="K22" s="3">
         <v>48100</v>
@@ -1281,25 +1281,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>586200</v>
+        <v>558600</v>
       </c>
       <c r="E23" s="3">
-        <v>320000</v>
+        <v>304900</v>
       </c>
       <c r="F23" s="3">
-        <v>-295800</v>
+        <v>-281900</v>
       </c>
       <c r="G23" s="3">
-        <v>547200</v>
+        <v>521400</v>
       </c>
       <c r="H23" s="3">
-        <v>605400</v>
+        <v>576800</v>
       </c>
       <c r="I23" s="3">
-        <v>-895400</v>
+        <v>-853100</v>
       </c>
       <c r="J23" s="3">
-        <v>216000</v>
+        <v>205800</v>
       </c>
       <c r="K23" s="3">
         <v>703300</v>
@@ -1323,25 +1323,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>185100</v>
+        <v>176300</v>
       </c>
       <c r="E24" s="3">
-        <v>99200</v>
+        <v>94600</v>
       </c>
       <c r="F24" s="3">
-        <v>-60300</v>
+        <v>-57500</v>
       </c>
       <c r="G24" s="3">
-        <v>227000</v>
+        <v>216300</v>
       </c>
       <c r="H24" s="3">
-        <v>206100</v>
+        <v>196400</v>
       </c>
       <c r="I24" s="3">
-        <v>29900</v>
+        <v>28500</v>
       </c>
       <c r="J24" s="3">
-        <v>147900</v>
+        <v>141000</v>
       </c>
       <c r="K24" s="3">
         <v>208600</v>
@@ -1407,25 +1407,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>401200</v>
+        <v>382300</v>
       </c>
       <c r="E26" s="3">
-        <v>220800</v>
+        <v>210400</v>
       </c>
       <c r="F26" s="3">
-        <v>-235500</v>
+        <v>-224400</v>
       </c>
       <c r="G26" s="3">
-        <v>320200</v>
+        <v>305100</v>
       </c>
       <c r="H26" s="3">
-        <v>399300</v>
+        <v>380400</v>
       </c>
       <c r="I26" s="3">
-        <v>-925200</v>
+        <v>-881600</v>
       </c>
       <c r="J26" s="3">
-        <v>68000</v>
+        <v>64800</v>
       </c>
       <c r="K26" s="3">
         <v>494700</v>
@@ -1449,25 +1449,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>392000</v>
+        <v>373500</v>
       </c>
       <c r="E27" s="3">
-        <v>219000</v>
+        <v>208600</v>
       </c>
       <c r="F27" s="3">
-        <v>-236000</v>
+        <v>-224900</v>
       </c>
       <c r="G27" s="3">
-        <v>285100</v>
+        <v>271700</v>
       </c>
       <c r="H27" s="3">
-        <v>357100</v>
+        <v>340200</v>
       </c>
       <c r="I27" s="3">
-        <v>-966600</v>
+        <v>-921000</v>
       </c>
       <c r="J27" s="3">
-        <v>25200</v>
+        <v>24000</v>
       </c>
       <c r="K27" s="3">
         <v>462900</v>
@@ -1548,7 +1548,7 @@
         <v>10</v>
       </c>
       <c r="I29" s="3">
-        <v>-9500</v>
+        <v>-9000</v>
       </c>
       <c r="J29" s="3" t="s">
         <v>10</v>
@@ -1659,25 +1659,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-18500</v>
+        <v>-59000</v>
       </c>
       <c r="E32" s="3">
-        <v>-54800</v>
+        <v>-52200</v>
       </c>
       <c r="F32" s="3">
-        <v>-53700</v>
+        <v>-51100</v>
       </c>
       <c r="G32" s="3">
-        <v>-18900</v>
+        <v>-18000</v>
       </c>
       <c r="H32" s="3">
-        <v>-22300</v>
+        <v>-21200</v>
       </c>
       <c r="I32" s="3">
-        <v>12800</v>
+        <v>12200</v>
       </c>
       <c r="J32" s="3">
-        <v>-26200</v>
+        <v>-24900</v>
       </c>
       <c r="K32" s="3">
         <v>500</v>
@@ -1701,25 +1701,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>392000</v>
+        <v>373500</v>
       </c>
       <c r="E33" s="3">
-        <v>219000</v>
+        <v>208600</v>
       </c>
       <c r="F33" s="3">
-        <v>-236000</v>
+        <v>-224900</v>
       </c>
       <c r="G33" s="3">
-        <v>285100</v>
+        <v>271700</v>
       </c>
       <c r="H33" s="3">
-        <v>357100</v>
+        <v>340200</v>
       </c>
       <c r="I33" s="3">
-        <v>-976000</v>
+        <v>-930000</v>
       </c>
       <c r="J33" s="3">
-        <v>25200</v>
+        <v>24000</v>
       </c>
       <c r="K33" s="3">
         <v>462900</v>
@@ -1785,25 +1785,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>392000</v>
+        <v>373500</v>
       </c>
       <c r="E35" s="3">
-        <v>219000</v>
+        <v>208600</v>
       </c>
       <c r="F35" s="3">
-        <v>-236000</v>
+        <v>-224900</v>
       </c>
       <c r="G35" s="3">
-        <v>285100</v>
+        <v>271700</v>
       </c>
       <c r="H35" s="3">
-        <v>357100</v>
+        <v>340200</v>
       </c>
       <c r="I35" s="3">
-        <v>-976000</v>
+        <v>-930000</v>
       </c>
       <c r="J35" s="3">
-        <v>25200</v>
+        <v>24000</v>
       </c>
       <c r="K35" s="3">
         <v>462900</v>
@@ -1910,25 +1910,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1601300</v>
+        <v>1524400</v>
       </c>
       <c r="E41" s="3">
-        <v>1733200</v>
+        <v>1650900</v>
       </c>
       <c r="F41" s="3">
-        <v>2415700</v>
+        <v>2300100</v>
       </c>
       <c r="G41" s="3">
-        <v>1895400</v>
+        <v>1805700</v>
       </c>
       <c r="H41" s="3">
-        <v>1731600</v>
+        <v>1649500</v>
       </c>
       <c r="I41" s="3">
-        <v>1158200</v>
+        <v>1103100</v>
       </c>
       <c r="J41" s="3">
-        <v>974000</v>
+        <v>868600</v>
       </c>
       <c r="K41" s="3">
         <v>1238600</v>
@@ -1952,25 +1952,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>677100</v>
+        <v>646600</v>
       </c>
       <c r="E42" s="3">
-        <v>665400</v>
+        <v>634600</v>
       </c>
       <c r="F42" s="3">
-        <v>669300</v>
+        <v>639300</v>
       </c>
       <c r="G42" s="3">
-        <v>628900</v>
+        <v>599600</v>
       </c>
       <c r="H42" s="3">
-        <v>2122300</v>
+        <v>2022700</v>
       </c>
       <c r="I42" s="3">
-        <v>2502300</v>
+        <v>2384800</v>
       </c>
       <c r="J42" s="3">
-        <v>1994100</v>
+        <v>1959600</v>
       </c>
       <c r="K42" s="3">
         <v>2001800</v>
@@ -1994,25 +1994,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>3435100</v>
+        <v>3273100</v>
       </c>
       <c r="E43" s="3">
-        <v>2863400</v>
+        <v>2728400</v>
       </c>
       <c r="F43" s="3">
-        <v>2827300</v>
+        <v>2693900</v>
       </c>
       <c r="G43" s="3">
-        <v>2831900</v>
+        <v>2698400</v>
       </c>
       <c r="H43" s="3">
-        <v>4360600</v>
+        <v>4155000</v>
       </c>
       <c r="I43" s="3">
-        <v>4252000</v>
+        <v>4051500</v>
       </c>
       <c r="J43" s="3">
-        <v>4083100</v>
+        <v>3890600</v>
       </c>
       <c r="K43" s="3">
         <v>4146900</v>
@@ -2036,25 +2036,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>2266600</v>
+        <v>2159700</v>
       </c>
       <c r="E44" s="3">
-        <v>1676700</v>
+        <v>1597700</v>
       </c>
       <c r="F44" s="3">
-        <v>1384400</v>
+        <v>1319100</v>
       </c>
       <c r="G44" s="3">
-        <v>1451000</v>
+        <v>1382600</v>
       </c>
       <c r="H44" s="3">
-        <v>1497900</v>
+        <v>1427200</v>
       </c>
       <c r="I44" s="3">
-        <v>1301300</v>
+        <v>1239900</v>
       </c>
       <c r="J44" s="3">
-        <v>1460400</v>
+        <v>1391500</v>
       </c>
       <c r="K44" s="3">
         <v>1522100</v>
@@ -2078,25 +2078,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>493900</v>
+        <v>470600</v>
       </c>
       <c r="E45" s="3">
-        <v>360700</v>
+        <v>343700</v>
       </c>
       <c r="F45" s="3">
-        <v>336900</v>
+        <v>321000</v>
       </c>
       <c r="G45" s="3">
-        <v>8378100</v>
+        <v>7983000</v>
       </c>
       <c r="H45" s="3">
-        <v>307800</v>
+        <v>293300</v>
       </c>
       <c r="I45" s="3">
-        <v>360900</v>
+        <v>343900</v>
       </c>
       <c r="J45" s="3">
-        <v>423100</v>
+        <v>403100</v>
       </c>
       <c r="K45" s="3">
         <v>448600</v>
@@ -2120,25 +2120,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>8473900</v>
+        <v>8074300</v>
       </c>
       <c r="E46" s="3">
-        <v>7299600</v>
+        <v>6955300</v>
       </c>
       <c r="F46" s="3">
-        <v>7633500</v>
+        <v>7273600</v>
       </c>
       <c r="G46" s="3">
-        <v>15185300</v>
+        <v>14469200</v>
       </c>
       <c r="H46" s="3">
-        <v>10020200</v>
+        <v>9547700</v>
       </c>
       <c r="I46" s="3">
-        <v>9574700</v>
+        <v>9123200</v>
       </c>
       <c r="J46" s="3">
-        <v>8934700</v>
+        <v>8513400</v>
       </c>
       <c r="K46" s="3">
         <v>9358000</v>
@@ -2162,25 +2162,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>1716300</v>
+        <v>1635400</v>
       </c>
       <c r="E47" s="3">
-        <v>1601000</v>
+        <v>1525500</v>
       </c>
       <c r="F47" s="3">
-        <v>1687900</v>
+        <v>1608300</v>
       </c>
       <c r="G47" s="3">
-        <v>1214400</v>
+        <v>1157200</v>
       </c>
       <c r="H47" s="3">
-        <v>5358900</v>
+        <v>5106200</v>
       </c>
       <c r="I47" s="3">
-        <v>5193500</v>
+        <v>4948600</v>
       </c>
       <c r="J47" s="3">
-        <v>5319100</v>
+        <v>5068300</v>
       </c>
       <c r="K47" s="3">
         <v>5058200</v>
@@ -2204,25 +2204,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>1827800</v>
+        <v>1741600</v>
       </c>
       <c r="E48" s="3">
-        <v>1774900</v>
+        <v>1691200</v>
       </c>
       <c r="F48" s="3">
-        <v>1843000</v>
+        <v>1756100</v>
       </c>
       <c r="G48" s="3">
-        <v>1881800</v>
+        <v>1793000</v>
       </c>
       <c r="H48" s="3">
-        <v>1804600</v>
+        <v>1719500</v>
       </c>
       <c r="I48" s="3">
-        <v>1802500</v>
+        <v>1717500</v>
       </c>
       <c r="J48" s="3">
-        <v>1955800</v>
+        <v>1863500</v>
       </c>
       <c r="K48" s="3">
         <v>2032600</v>
@@ -2246,25 +2246,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>2641700</v>
+        <v>2517100</v>
       </c>
       <c r="E49" s="3">
-        <v>1870900</v>
+        <v>1782600</v>
       </c>
       <c r="F49" s="3">
-        <v>1625900</v>
+        <v>1549300</v>
       </c>
       <c r="G49" s="3">
-        <v>1672000</v>
+        <v>1593100</v>
       </c>
       <c r="H49" s="3">
-        <v>1584800</v>
+        <v>1510100</v>
       </c>
       <c r="I49" s="3">
-        <v>1565500</v>
+        <v>1491700</v>
       </c>
       <c r="J49" s="3">
-        <v>2798800</v>
+        <v>2666800</v>
       </c>
       <c r="K49" s="3">
         <v>3041700</v>
@@ -2372,25 +2372,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>841400</v>
+        <v>801700</v>
       </c>
       <c r="E52" s="3">
-        <v>815700</v>
+        <v>777200</v>
       </c>
       <c r="F52" s="3">
-        <v>821200</v>
+        <v>782500</v>
       </c>
       <c r="G52" s="3">
-        <v>722200</v>
+        <v>688200</v>
       </c>
       <c r="H52" s="3">
-        <v>879700</v>
+        <v>838300</v>
       </c>
       <c r="I52" s="3">
-        <v>905600</v>
+        <v>862900</v>
       </c>
       <c r="J52" s="3">
-        <v>886100</v>
+        <v>844300</v>
       </c>
       <c r="K52" s="3">
         <v>916500</v>
@@ -2456,25 +2456,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>15501200</v>
+        <v>14770200</v>
       </c>
       <c r="E54" s="3">
-        <v>13362000</v>
+        <v>12731900</v>
       </c>
       <c r="F54" s="3">
-        <v>13611500</v>
+        <v>12969700</v>
       </c>
       <c r="G54" s="3">
-        <v>20675700</v>
+        <v>19700700</v>
       </c>
       <c r="H54" s="3">
-        <v>19648200</v>
+        <v>18721700</v>
       </c>
       <c r="I54" s="3">
-        <v>19041800</v>
+        <v>18143900</v>
       </c>
       <c r="J54" s="3">
-        <v>19894500</v>
+        <v>18956300</v>
       </c>
       <c r="K54" s="3">
         <v>20407000</v>
@@ -2534,25 +2534,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>2252600</v>
+        <v>1498200</v>
       </c>
       <c r="E57" s="3">
-        <v>1278900</v>
+        <v>1218600</v>
       </c>
       <c r="F57" s="3">
-        <v>1450600</v>
+        <v>1382200</v>
       </c>
       <c r="G57" s="3">
-        <v>1293700</v>
+        <v>1232700</v>
       </c>
       <c r="H57" s="3">
-        <v>1501400</v>
+        <v>1430600</v>
       </c>
       <c r="I57" s="3">
-        <v>1401700</v>
+        <v>1335600</v>
       </c>
       <c r="J57" s="3">
-        <v>1407600</v>
+        <v>1341200</v>
       </c>
       <c r="K57" s="3">
         <v>1457300</v>
@@ -2576,25 +2576,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>1326700</v>
+        <v>1264200</v>
       </c>
       <c r="E58" s="3">
-        <v>988200</v>
+        <v>941600</v>
       </c>
       <c r="F58" s="3">
-        <v>780200</v>
+        <v>743400</v>
       </c>
       <c r="G58" s="3">
-        <v>567600</v>
+        <v>540800</v>
       </c>
       <c r="H58" s="3">
-        <v>1924800</v>
+        <v>1834000</v>
       </c>
       <c r="I58" s="3">
-        <v>1609200</v>
+        <v>1533300</v>
       </c>
       <c r="J58" s="3">
-        <v>1657900</v>
+        <v>1579700</v>
       </c>
       <c r="K58" s="3">
         <v>1916500</v>
@@ -2618,25 +2618,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>2398600</v>
+        <v>2933600</v>
       </c>
       <c r="E59" s="3">
-        <v>2732700</v>
+        <v>2603800</v>
       </c>
       <c r="F59" s="3">
-        <v>2509900</v>
+        <v>2391600</v>
       </c>
       <c r="G59" s="3">
-        <v>9306200</v>
+        <v>8867400</v>
       </c>
       <c r="H59" s="3">
-        <v>2660500</v>
+        <v>2535100</v>
       </c>
       <c r="I59" s="3">
-        <v>2674300</v>
+        <v>2548200</v>
       </c>
       <c r="J59" s="3">
-        <v>2752500</v>
+        <v>2622700</v>
       </c>
       <c r="K59" s="3">
         <v>2556600</v>
@@ -2660,25 +2660,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>5977900</v>
+        <v>5696000</v>
       </c>
       <c r="E60" s="3">
-        <v>4999800</v>
+        <v>4764000</v>
       </c>
       <c r="F60" s="3">
-        <v>4740700</v>
+        <v>4517100</v>
       </c>
       <c r="G60" s="3">
-        <v>11167500</v>
+        <v>10640900</v>
       </c>
       <c r="H60" s="3">
-        <v>6086700</v>
+        <v>5799600</v>
       </c>
       <c r="I60" s="3">
-        <v>5685200</v>
+        <v>5417100</v>
       </c>
       <c r="J60" s="3">
-        <v>5817900</v>
+        <v>5543600</v>
       </c>
       <c r="K60" s="3">
         <v>5930500</v>
@@ -2702,25 +2702,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>1753900</v>
+        <v>1671200</v>
       </c>
       <c r="E61" s="3">
-        <v>1193200</v>
+        <v>1136900</v>
       </c>
       <c r="F61" s="3">
-        <v>1344000</v>
+        <v>1280700</v>
       </c>
       <c r="G61" s="3">
-        <v>1203400</v>
+        <v>1146700</v>
       </c>
       <c r="H61" s="3">
-        <v>4805200</v>
+        <v>4578600</v>
       </c>
       <c r="I61" s="3">
-        <v>4749300</v>
+        <v>4525300</v>
       </c>
       <c r="J61" s="3">
-        <v>4540900</v>
+        <v>4326700</v>
       </c>
       <c r="K61" s="3">
         <v>4351500</v>
@@ -2744,25 +2744,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>861600</v>
+        <v>821000</v>
       </c>
       <c r="E62" s="3">
-        <v>638000</v>
+        <v>608000</v>
       </c>
       <c r="F62" s="3">
-        <v>865800</v>
+        <v>825000</v>
       </c>
       <c r="G62" s="3">
-        <v>1033300</v>
+        <v>984500</v>
       </c>
       <c r="H62" s="3">
-        <v>1409400</v>
+        <v>1343000</v>
       </c>
       <c r="I62" s="3">
-        <v>1478400</v>
+        <v>1408700</v>
       </c>
       <c r="J62" s="3">
-        <v>1483000</v>
+        <v>1413100</v>
       </c>
       <c r="K62" s="3">
         <v>1688900</v>
@@ -2912,25 +2912,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>8784700</v>
+        <v>8370400</v>
       </c>
       <c r="E66" s="3">
-        <v>6858200</v>
+        <v>6534800</v>
       </c>
       <c r="F66" s="3">
-        <v>6976600</v>
+        <v>6647600</v>
       </c>
       <c r="G66" s="3">
-        <v>14039800</v>
+        <v>13377800</v>
       </c>
       <c r="H66" s="3">
-        <v>12924300</v>
+        <v>12314900</v>
       </c>
       <c r="I66" s="3">
-        <v>12483900</v>
+        <v>11895200</v>
       </c>
       <c r="J66" s="3">
-        <v>12380900</v>
+        <v>11797000</v>
       </c>
       <c r="K66" s="3">
         <v>12485100</v>
@@ -3140,25 +3140,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>3393900</v>
+        <v>3233900</v>
       </c>
       <c r="E72" s="3">
-        <v>3315600</v>
+        <v>3159200</v>
       </c>
       <c r="F72" s="3">
-        <v>4049000</v>
+        <v>3858000</v>
       </c>
       <c r="G72" s="3">
-        <v>4288000</v>
+        <v>4085800</v>
       </c>
       <c r="H72" s="3">
-        <v>4144900</v>
+        <v>3949400</v>
       </c>
       <c r="I72" s="3">
-        <v>3677900</v>
+        <v>3504500</v>
       </c>
       <c r="J72" s="3">
-        <v>4740200</v>
+        <v>4516600</v>
       </c>
       <c r="K72" s="3">
         <v>4986400</v>
@@ -3308,25 +3308,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>6716500</v>
+        <v>6399800</v>
       </c>
       <c r="E76" s="3">
-        <v>6503700</v>
+        <v>6197000</v>
       </c>
       <c r="F76" s="3">
-        <v>6635000</v>
+        <v>6322100</v>
       </c>
       <c r="G76" s="3">
-        <v>6635900</v>
+        <v>6322900</v>
       </c>
       <c r="H76" s="3">
-        <v>6723900</v>
+        <v>6406800</v>
       </c>
       <c r="I76" s="3">
-        <v>6558000</v>
+        <v>6248700</v>
       </c>
       <c r="J76" s="3">
-        <v>7513600</v>
+        <v>7159300</v>
       </c>
       <c r="K76" s="3">
         <v>7921900</v>
@@ -3439,25 +3439,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>392000</v>
+        <v>373500</v>
       </c>
       <c r="E81" s="3">
-        <v>219000</v>
+        <v>208600</v>
       </c>
       <c r="F81" s="3">
-        <v>-236000</v>
+        <v>-224900</v>
       </c>
       <c r="G81" s="3">
-        <v>285100</v>
+        <v>271700</v>
       </c>
       <c r="H81" s="3">
-        <v>357100</v>
+        <v>340200</v>
       </c>
       <c r="I81" s="3">
-        <v>-976000</v>
+        <v>-930000</v>
       </c>
       <c r="J81" s="3">
-        <v>25200</v>
+        <v>24000</v>
       </c>
       <c r="K81" s="3">
         <v>462900</v>
@@ -3499,25 +3499,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>702700</v>
+        <v>669600</v>
       </c>
       <c r="E83" s="3">
-        <v>652400</v>
+        <v>621600</v>
       </c>
       <c r="F83" s="3">
-        <v>754300</v>
+        <v>718700</v>
       </c>
       <c r="G83" s="3">
-        <v>870200</v>
+        <v>829100</v>
       </c>
       <c r="H83" s="3">
-        <v>679800</v>
+        <v>647800</v>
       </c>
       <c r="I83" s="3">
-        <v>781000</v>
+        <v>744200</v>
       </c>
       <c r="J83" s="3">
-        <v>770700</v>
+        <v>734300</v>
       </c>
       <c r="K83" s="3">
         <v>789100</v>
@@ -3751,25 +3751,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>481000</v>
+        <v>458300</v>
       </c>
       <c r="E89" s="3">
-        <v>594600</v>
+        <v>566500</v>
       </c>
       <c r="F89" s="3">
-        <v>915400</v>
+        <v>872200</v>
       </c>
       <c r="G89" s="3">
-        <v>841400</v>
+        <v>801700</v>
       </c>
       <c r="H89" s="3">
-        <v>590800</v>
+        <v>563000</v>
       </c>
       <c r="I89" s="3">
-        <v>795200</v>
+        <v>757700</v>
       </c>
       <c r="J89" s="3">
-        <v>636600</v>
+        <v>606600</v>
       </c>
       <c r="K89" s="3">
         <v>734000</v>
@@ -3811,25 +3811,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-327800</v>
+        <v>-312300</v>
       </c>
       <c r="E91" s="3">
-        <v>-269400</v>
+        <v>-256700</v>
       </c>
       <c r="F91" s="3">
-        <v>-303900</v>
+        <v>-289600</v>
       </c>
       <c r="G91" s="3">
-        <v>-624400</v>
+        <v>-594900</v>
       </c>
       <c r="H91" s="3">
-        <v>-522500</v>
+        <v>-497800</v>
       </c>
       <c r="I91" s="3">
-        <v>-521200</v>
+        <v>-496600</v>
       </c>
       <c r="J91" s="3">
-        <v>-544000</v>
+        <v>-518300</v>
       </c>
       <c r="K91" s="3">
         <v>-615800</v>
@@ -3937,25 +3937,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-965700</v>
+        <v>-920200</v>
       </c>
       <c r="E94" s="3">
-        <v>-427900</v>
+        <v>-407800</v>
       </c>
       <c r="F94" s="3">
-        <v>-458300</v>
+        <v>-436700</v>
       </c>
       <c r="G94" s="3">
-        <v>-1186700</v>
+        <v>-1130700</v>
       </c>
       <c r="H94" s="3">
-        <v>-331200</v>
+        <v>-315500</v>
       </c>
       <c r="I94" s="3">
-        <v>-584600</v>
+        <v>-557000</v>
       </c>
       <c r="J94" s="3">
-        <v>-769400</v>
+        <v>-733100</v>
       </c>
       <c r="K94" s="3">
         <v>-765400</v>
@@ -3997,25 +3997,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-134400</v>
+        <v>-128000</v>
       </c>
       <c r="E96" s="3">
-        <v>-101400</v>
+        <v>-96600</v>
       </c>
       <c r="F96" s="3">
-        <v>-107100</v>
+        <v>-102000</v>
       </c>
       <c r="G96" s="3">
-        <v>-135800</v>
+        <v>-129400</v>
       </c>
       <c r="H96" s="3">
-        <v>-91500</v>
+        <v>-87100</v>
       </c>
       <c r="I96" s="3">
-        <v>-104500</v>
+        <v>-99600</v>
       </c>
       <c r="J96" s="3">
-        <v>-209100</v>
+        <v>-199200</v>
       </c>
       <c r="K96" s="3">
         <v>-183800</v>
@@ -4165,25 +4165,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>255600</v>
+        <v>243600</v>
       </c>
       <c r="E100" s="3">
-        <v>-949400</v>
+        <v>-904700</v>
       </c>
       <c r="F100" s="3">
-        <v>-29500</v>
+        <v>-28100</v>
       </c>
       <c r="G100" s="3">
-        <v>546200</v>
+        <v>520500</v>
       </c>
       <c r="H100" s="3">
-        <v>305900</v>
+        <v>291500</v>
       </c>
       <c r="I100" s="3">
-        <v>46200</v>
+        <v>44000</v>
       </c>
       <c r="J100" s="3">
-        <v>-143600</v>
+        <v>-136900</v>
       </c>
       <c r="K100" s="3">
         <v>313600</v>
@@ -4207,25 +4207,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>62300</v>
+        <v>59400</v>
       </c>
       <c r="E101" s="3">
-        <v>88400</v>
+        <v>84200</v>
       </c>
       <c r="F101" s="3">
-        <v>52900</v>
+        <v>50400</v>
       </c>
       <c r="G101" s="3">
-        <v>-30800</v>
+        <v>-29400</v>
       </c>
       <c r="H101" s="3">
-        <v>7900</v>
+        <v>7500</v>
       </c>
       <c r="I101" s="3">
-        <v>-10700</v>
+        <v>-10200</v>
       </c>
       <c r="J101" s="3">
-        <v>-20100</v>
+        <v>-19100</v>
       </c>
       <c r="K101" s="3">
         <v>-62900</v>
@@ -4249,25 +4249,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-166800</v>
+        <v>-158900</v>
       </c>
       <c r="E102" s="3">
-        <v>-694500</v>
+        <v>-661700</v>
       </c>
       <c r="F102" s="3">
-        <v>480600</v>
+        <v>457900</v>
       </c>
       <c r="G102" s="3">
-        <v>170100</v>
+        <v>162100</v>
       </c>
       <c r="H102" s="3">
-        <v>573400</v>
+        <v>546400</v>
       </c>
       <c r="I102" s="3">
-        <v>246100</v>
+        <v>234500</v>
       </c>
       <c r="J102" s="3">
-        <v>-296500</v>
+        <v>-282500</v>
       </c>
       <c r="K102" s="3">
         <v>219200</v>

--- a/AAII_Financials/Yearly/RICOY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/RICOY_YR_FIN.xlsx
@@ -726,25 +726,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>14661800</v>
+        <v>14171000</v>
       </c>
       <c r="E8" s="3">
-        <v>12081500</v>
+        <v>11677000</v>
       </c>
       <c r="F8" s="3">
-        <v>11555800</v>
+        <v>11168900</v>
       </c>
       <c r="G8" s="3">
-        <v>13798900</v>
+        <v>13337000</v>
       </c>
       <c r="H8" s="3">
-        <v>13830900</v>
+        <v>13367800</v>
       </c>
       <c r="I8" s="3">
-        <v>14175300</v>
+        <v>13700700</v>
       </c>
       <c r="J8" s="3">
-        <v>13938500</v>
+        <v>13471900</v>
       </c>
       <c r="K8" s="3">
         <v>16236400</v>
@@ -768,25 +768,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>9540800</v>
+        <v>9221400</v>
       </c>
       <c r="E9" s="3">
-        <v>7803800</v>
+        <v>7542500</v>
       </c>
       <c r="F9" s="3">
-        <v>7624100</v>
+        <v>7368800</v>
       </c>
       <c r="G9" s="3">
-        <v>8840100</v>
+        <v>8544100</v>
       </c>
       <c r="H9" s="3">
-        <v>8562400</v>
+        <v>8275700</v>
       </c>
       <c r="I9" s="3">
-        <v>8741100</v>
+        <v>8448500</v>
       </c>
       <c r="J9" s="3">
-        <v>8520700</v>
+        <v>8235400</v>
       </c>
       <c r="K9" s="3">
         <v>9753900</v>
@@ -810,25 +810,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>5121000</v>
+        <v>4949600</v>
       </c>
       <c r="E10" s="3">
-        <v>4277700</v>
+        <v>4134500</v>
       </c>
       <c r="F10" s="3">
-        <v>3931700</v>
+        <v>3800100</v>
       </c>
       <c r="G10" s="3">
-        <v>4958800</v>
+        <v>4792800</v>
       </c>
       <c r="H10" s="3">
-        <v>5268500</v>
+        <v>5092100</v>
       </c>
       <c r="I10" s="3">
-        <v>5434200</v>
+        <v>5252300</v>
       </c>
       <c r="J10" s="3">
-        <v>5417900</v>
+        <v>5236500</v>
       </c>
       <c r="K10" s="3">
         <v>6482400</v>
@@ -870,25 +870,25 @@
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>586100</v>
+        <v>566500</v>
       </c>
       <c r="E12" s="3">
-        <v>520200</v>
+        <v>502800</v>
       </c>
       <c r="F12" s="3">
-        <v>544100</v>
+        <v>525800</v>
       </c>
       <c r="G12" s="3">
-        <v>606100</v>
+        <v>585800</v>
       </c>
       <c r="H12" s="3">
-        <v>646000</v>
+        <v>624300</v>
       </c>
       <c r="I12" s="3">
-        <v>645700</v>
+        <v>624100</v>
       </c>
       <c r="J12" s="3">
-        <v>689600</v>
+        <v>666600</v>
       </c>
       <c r="K12" s="3">
         <v>750000</v>
@@ -954,22 +954,22 @@
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>-4800</v>
+        <v>-4700</v>
       </c>
       <c r="E14" s="3">
-        <v>13900</v>
+        <v>13400</v>
       </c>
       <c r="F14" s="3">
-        <v>342000</v>
+        <v>330500</v>
       </c>
       <c r="G14" s="3">
-        <v>77300</v>
+        <v>74800</v>
       </c>
       <c r="H14" s="3">
-        <v>147200</v>
+        <v>142200</v>
       </c>
       <c r="I14" s="3">
-        <v>1385800</v>
+        <v>1339400</v>
       </c>
       <c r="J14" s="3" t="s">
         <v>10</v>
@@ -996,25 +996,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>389800</v>
+        <v>376700</v>
       </c>
       <c r="E15" s="3">
-        <v>345800</v>
+        <v>334200</v>
       </c>
       <c r="F15" s="3">
-        <v>373900</v>
+        <v>361400</v>
       </c>
       <c r="G15" s="3">
-        <v>366400</v>
+        <v>354100</v>
       </c>
       <c r="H15" s="3">
-        <v>170800</v>
+        <v>165100</v>
       </c>
       <c r="I15" s="3">
-        <v>275400</v>
+        <v>266200</v>
       </c>
       <c r="J15" s="3">
-        <v>276800</v>
+        <v>267500</v>
       </c>
       <c r="K15" s="3">
         <v>273000</v>
@@ -1053,25 +1053,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>14120900</v>
+        <v>13648100</v>
       </c>
       <c r="E17" s="3">
-        <v>11806300</v>
+        <v>11411100</v>
       </c>
       <c r="F17" s="3">
-        <v>11867900</v>
+        <v>11470600</v>
       </c>
       <c r="G17" s="3">
-        <v>13255900</v>
+        <v>12812100</v>
       </c>
       <c r="H17" s="3">
-        <v>13234300</v>
+        <v>12791200</v>
       </c>
       <c r="I17" s="3">
-        <v>14970000</v>
+        <v>14468800</v>
       </c>
       <c r="J17" s="3">
-        <v>13705800</v>
+        <v>13246900</v>
       </c>
       <c r="K17" s="3">
         <v>15484500</v>
@@ -1095,25 +1095,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>540900</v>
+        <v>522800</v>
       </c>
       <c r="E18" s="3">
-        <v>275200</v>
+        <v>265900</v>
       </c>
       <c r="F18" s="3">
-        <v>-312100</v>
+        <v>-301600</v>
       </c>
       <c r="G18" s="3">
-        <v>543000</v>
+        <v>524800</v>
       </c>
       <c r="H18" s="3">
-        <v>596600</v>
+        <v>576600</v>
       </c>
       <c r="I18" s="3">
-        <v>-794700</v>
+        <v>-768100</v>
       </c>
       <c r="J18" s="3">
-        <v>232800</v>
+        <v>225000</v>
       </c>
       <c r="K18" s="3">
         <v>751900</v>
@@ -1155,25 +1155,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>59000</v>
+        <v>57000</v>
       </c>
       <c r="E20" s="3">
-        <v>52200</v>
+        <v>50400</v>
       </c>
       <c r="F20" s="3">
-        <v>51100</v>
+        <v>49400</v>
       </c>
       <c r="G20" s="3">
-        <v>18000</v>
+        <v>17400</v>
       </c>
       <c r="H20" s="3">
-        <v>21200</v>
+        <v>20500</v>
       </c>
       <c r="I20" s="3">
-        <v>-12200</v>
+        <v>-11800</v>
       </c>
       <c r="J20" s="3">
-        <v>24900</v>
+        <v>24100</v>
       </c>
       <c r="K20" s="3">
         <v>-500</v>
@@ -1197,25 +1197,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>1269500</v>
+        <v>1224100</v>
       </c>
       <c r="E21" s="3">
-        <v>948900</v>
+        <v>914400</v>
       </c>
       <c r="F21" s="3">
-        <v>457800</v>
+        <v>439300</v>
       </c>
       <c r="G21" s="3">
-        <v>1390100</v>
+        <v>1340000</v>
       </c>
       <c r="H21" s="3">
-        <v>1265600</v>
+        <v>1220400</v>
       </c>
       <c r="I21" s="3">
-        <v>-62700</v>
+        <v>-63900</v>
       </c>
       <c r="J21" s="3">
-        <v>992000</v>
+        <v>955600</v>
       </c>
       <c r="K21" s="3">
         <v>1533000</v>
@@ -1239,25 +1239,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>41300</v>
+        <v>39900</v>
       </c>
       <c r="E22" s="3">
-        <v>22400</v>
+        <v>21600</v>
       </c>
       <c r="F22" s="3">
-        <v>20900</v>
+        <v>20200</v>
       </c>
       <c r="G22" s="3">
+        <v>38300</v>
+      </c>
+      <c r="H22" s="3">
         <v>39600</v>
       </c>
-      <c r="H22" s="3">
-        <v>41000</v>
-      </c>
       <c r="I22" s="3">
-        <v>46200</v>
+        <v>44700</v>
       </c>
       <c r="J22" s="3">
-        <v>51900</v>
+        <v>50100</v>
       </c>
       <c r="K22" s="3">
         <v>48100</v>
@@ -1281,25 +1281,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>558600</v>
+        <v>539900</v>
       </c>
       <c r="E23" s="3">
-        <v>304900</v>
+        <v>294700</v>
       </c>
       <c r="F23" s="3">
-        <v>-281900</v>
+        <v>-272400</v>
       </c>
       <c r="G23" s="3">
-        <v>521400</v>
+        <v>503900</v>
       </c>
       <c r="H23" s="3">
-        <v>576800</v>
+        <v>557500</v>
       </c>
       <c r="I23" s="3">
-        <v>-853100</v>
+        <v>-824600</v>
       </c>
       <c r="J23" s="3">
-        <v>205800</v>
+        <v>198900</v>
       </c>
       <c r="K23" s="3">
         <v>703300</v>
@@ -1323,25 +1323,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>176300</v>
+        <v>170400</v>
       </c>
       <c r="E24" s="3">
-        <v>94600</v>
+        <v>91400</v>
       </c>
       <c r="F24" s="3">
-        <v>-57500</v>
+        <v>-55500</v>
       </c>
       <c r="G24" s="3">
-        <v>216300</v>
+        <v>209000</v>
       </c>
       <c r="H24" s="3">
-        <v>196400</v>
+        <v>189800</v>
       </c>
       <c r="I24" s="3">
-        <v>28500</v>
+        <v>27500</v>
       </c>
       <c r="J24" s="3">
-        <v>141000</v>
+        <v>136200</v>
       </c>
       <c r="K24" s="3">
         <v>208600</v>
@@ -1407,25 +1407,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>382300</v>
+        <v>369500</v>
       </c>
       <c r="E26" s="3">
-        <v>210400</v>
+        <v>203400</v>
       </c>
       <c r="F26" s="3">
-        <v>-224400</v>
+        <v>-216900</v>
       </c>
       <c r="G26" s="3">
-        <v>305100</v>
+        <v>294900</v>
       </c>
       <c r="H26" s="3">
-        <v>380400</v>
+        <v>367700</v>
       </c>
       <c r="I26" s="3">
-        <v>-881600</v>
+        <v>-852100</v>
       </c>
       <c r="J26" s="3">
-        <v>64800</v>
+        <v>62700</v>
       </c>
       <c r="K26" s="3">
         <v>494700</v>
@@ -1449,25 +1449,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>373500</v>
+        <v>361000</v>
       </c>
       <c r="E27" s="3">
-        <v>208600</v>
+        <v>201700</v>
       </c>
       <c r="F27" s="3">
-        <v>-224900</v>
+        <v>-217300</v>
       </c>
       <c r="G27" s="3">
-        <v>271700</v>
+        <v>262600</v>
       </c>
       <c r="H27" s="3">
-        <v>340200</v>
+        <v>328900</v>
       </c>
       <c r="I27" s="3">
-        <v>-921000</v>
+        <v>-890200</v>
       </c>
       <c r="J27" s="3">
-        <v>24000</v>
+        <v>23200</v>
       </c>
       <c r="K27" s="3">
         <v>462900</v>
@@ -1548,7 +1548,7 @@
         <v>10</v>
       </c>
       <c r="I29" s="3">
-        <v>-9000</v>
+        <v>-8700</v>
       </c>
       <c r="J29" s="3" t="s">
         <v>10</v>
@@ -1659,25 +1659,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-59000</v>
+        <v>-57000</v>
       </c>
       <c r="E32" s="3">
-        <v>-52200</v>
+        <v>-50400</v>
       </c>
       <c r="F32" s="3">
-        <v>-51100</v>
+        <v>-49400</v>
       </c>
       <c r="G32" s="3">
-        <v>-18000</v>
+        <v>-17400</v>
       </c>
       <c r="H32" s="3">
-        <v>-21200</v>
+        <v>-20500</v>
       </c>
       <c r="I32" s="3">
-        <v>12200</v>
+        <v>11800</v>
       </c>
       <c r="J32" s="3">
-        <v>-24900</v>
+        <v>-24100</v>
       </c>
       <c r="K32" s="3">
         <v>500</v>
@@ -1701,25 +1701,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>373500</v>
+        <v>361000</v>
       </c>
       <c r="E33" s="3">
-        <v>208600</v>
+        <v>201700</v>
       </c>
       <c r="F33" s="3">
-        <v>-224900</v>
+        <v>-217300</v>
       </c>
       <c r="G33" s="3">
-        <v>271700</v>
+        <v>262600</v>
       </c>
       <c r="H33" s="3">
-        <v>340200</v>
+        <v>328900</v>
       </c>
       <c r="I33" s="3">
-        <v>-930000</v>
+        <v>-898900</v>
       </c>
       <c r="J33" s="3">
-        <v>24000</v>
+        <v>23200</v>
       </c>
       <c r="K33" s="3">
         <v>462900</v>
@@ -1785,25 +1785,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>373500</v>
+        <v>361000</v>
       </c>
       <c r="E35" s="3">
-        <v>208600</v>
+        <v>201700</v>
       </c>
       <c r="F35" s="3">
-        <v>-224900</v>
+        <v>-217300</v>
       </c>
       <c r="G35" s="3">
-        <v>271700</v>
+        <v>262600</v>
       </c>
       <c r="H35" s="3">
-        <v>340200</v>
+        <v>328900</v>
       </c>
       <c r="I35" s="3">
-        <v>-930000</v>
+        <v>-898900</v>
       </c>
       <c r="J35" s="3">
-        <v>24000</v>
+        <v>23200</v>
       </c>
       <c r="K35" s="3">
         <v>462900</v>
@@ -1910,25 +1910,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1524400</v>
+        <v>1473300</v>
       </c>
       <c r="E41" s="3">
-        <v>1650900</v>
+        <v>1595600</v>
       </c>
       <c r="F41" s="3">
-        <v>2300100</v>
+        <v>2223100</v>
       </c>
       <c r="G41" s="3">
-        <v>1805700</v>
+        <v>1745200</v>
       </c>
       <c r="H41" s="3">
-        <v>1649500</v>
+        <v>1594300</v>
       </c>
       <c r="I41" s="3">
-        <v>1103100</v>
+        <v>1066200</v>
       </c>
       <c r="J41" s="3">
-        <v>868600</v>
+        <v>839500</v>
       </c>
       <c r="K41" s="3">
         <v>1238600</v>
@@ -1952,25 +1952,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>646600</v>
+        <v>624900</v>
       </c>
       <c r="E42" s="3">
-        <v>634600</v>
+        <v>613400</v>
       </c>
       <c r="F42" s="3">
-        <v>639300</v>
+        <v>617900</v>
       </c>
       <c r="G42" s="3">
-        <v>599600</v>
+        <v>579500</v>
       </c>
       <c r="H42" s="3">
-        <v>2022700</v>
+        <v>1955000</v>
       </c>
       <c r="I42" s="3">
-        <v>2384800</v>
+        <v>2305000</v>
       </c>
       <c r="J42" s="3">
-        <v>1959600</v>
+        <v>1894000</v>
       </c>
       <c r="K42" s="3">
         <v>2001800</v>
@@ -1994,25 +1994,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>3273100</v>
+        <v>3163500</v>
       </c>
       <c r="E43" s="3">
-        <v>2728400</v>
+        <v>2637100</v>
       </c>
       <c r="F43" s="3">
-        <v>2693900</v>
+        <v>2603800</v>
       </c>
       <c r="G43" s="3">
-        <v>2698400</v>
+        <v>2608100</v>
       </c>
       <c r="H43" s="3">
-        <v>4155000</v>
+        <v>4015900</v>
       </c>
       <c r="I43" s="3">
-        <v>4051500</v>
+        <v>3915900</v>
       </c>
       <c r="J43" s="3">
-        <v>3890600</v>
+        <v>3760300</v>
       </c>
       <c r="K43" s="3">
         <v>4146900</v>
@@ -2036,25 +2036,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>2159700</v>
+        <v>2087400</v>
       </c>
       <c r="E44" s="3">
-        <v>1597700</v>
+        <v>1544200</v>
       </c>
       <c r="F44" s="3">
-        <v>1319100</v>
+        <v>1275000</v>
       </c>
       <c r="G44" s="3">
-        <v>1382600</v>
+        <v>1336300</v>
       </c>
       <c r="H44" s="3">
-        <v>1427200</v>
+        <v>1379400</v>
       </c>
       <c r="I44" s="3">
-        <v>1239900</v>
+        <v>1198400</v>
       </c>
       <c r="J44" s="3">
-        <v>1391500</v>
+        <v>1344900</v>
       </c>
       <c r="K44" s="3">
         <v>1522100</v>
@@ -2078,25 +2078,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>470600</v>
+        <v>454800</v>
       </c>
       <c r="E45" s="3">
-        <v>343700</v>
+        <v>332200</v>
       </c>
       <c r="F45" s="3">
-        <v>321000</v>
+        <v>310300</v>
       </c>
       <c r="G45" s="3">
-        <v>7983000</v>
+        <v>7715700</v>
       </c>
       <c r="H45" s="3">
-        <v>293300</v>
+        <v>283500</v>
       </c>
       <c r="I45" s="3">
-        <v>343900</v>
+        <v>332300</v>
       </c>
       <c r="J45" s="3">
-        <v>403100</v>
+        <v>389600</v>
       </c>
       <c r="K45" s="3">
         <v>448600</v>
@@ -2120,25 +2120,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>8074300</v>
+        <v>7804000</v>
       </c>
       <c r="E46" s="3">
-        <v>6955300</v>
+        <v>6722500</v>
       </c>
       <c r="F46" s="3">
-        <v>7273600</v>
+        <v>7030100</v>
       </c>
       <c r="G46" s="3">
-        <v>14469200</v>
+        <v>13984800</v>
       </c>
       <c r="H46" s="3">
-        <v>9547700</v>
+        <v>9228000</v>
       </c>
       <c r="I46" s="3">
-        <v>9123200</v>
+        <v>8817800</v>
       </c>
       <c r="J46" s="3">
-        <v>8513400</v>
+        <v>8228400</v>
       </c>
       <c r="K46" s="3">
         <v>9358000</v>
@@ -2162,25 +2162,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>1635400</v>
+        <v>1580600</v>
       </c>
       <c r="E47" s="3">
-        <v>1525500</v>
+        <v>1474400</v>
       </c>
       <c r="F47" s="3">
-        <v>1608300</v>
+        <v>1554400</v>
       </c>
       <c r="G47" s="3">
-        <v>1157200</v>
+        <v>1118400</v>
       </c>
       <c r="H47" s="3">
-        <v>5106200</v>
+        <v>4935200</v>
       </c>
       <c r="I47" s="3">
-        <v>4948600</v>
+        <v>4782900</v>
       </c>
       <c r="J47" s="3">
-        <v>5068300</v>
+        <v>4898600</v>
       </c>
       <c r="K47" s="3">
         <v>5058200</v>
@@ -2204,25 +2204,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>1741600</v>
+        <v>1683300</v>
       </c>
       <c r="E48" s="3">
-        <v>1691200</v>
+        <v>1634600</v>
       </c>
       <c r="F48" s="3">
-        <v>1756100</v>
+        <v>1697300</v>
       </c>
       <c r="G48" s="3">
-        <v>1793000</v>
+        <v>1733000</v>
       </c>
       <c r="H48" s="3">
-        <v>1719500</v>
+        <v>1661900</v>
       </c>
       <c r="I48" s="3">
-        <v>1717500</v>
+        <v>1660000</v>
       </c>
       <c r="J48" s="3">
-        <v>1863500</v>
+        <v>1801100</v>
       </c>
       <c r="K48" s="3">
         <v>2032600</v>
@@ -2246,25 +2246,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>2517100</v>
+        <v>2432900</v>
       </c>
       <c r="E49" s="3">
-        <v>1782600</v>
+        <v>1723000</v>
       </c>
       <c r="F49" s="3">
-        <v>1549300</v>
+        <v>1497400</v>
       </c>
       <c r="G49" s="3">
-        <v>1593100</v>
+        <v>1539800</v>
       </c>
       <c r="H49" s="3">
-        <v>1510100</v>
+        <v>1459500</v>
       </c>
       <c r="I49" s="3">
-        <v>1491700</v>
+        <v>1441700</v>
       </c>
       <c r="J49" s="3">
-        <v>2666800</v>
+        <v>2577500</v>
       </c>
       <c r="K49" s="3">
         <v>3041700</v>
@@ -2372,25 +2372,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>801700</v>
+        <v>774900</v>
       </c>
       <c r="E52" s="3">
-        <v>777200</v>
+        <v>751200</v>
       </c>
       <c r="F52" s="3">
-        <v>782500</v>
+        <v>756300</v>
       </c>
       <c r="G52" s="3">
-        <v>688200</v>
+        <v>665100</v>
       </c>
       <c r="H52" s="3">
-        <v>838300</v>
+        <v>810200</v>
       </c>
       <c r="I52" s="3">
-        <v>862900</v>
+        <v>834000</v>
       </c>
       <c r="J52" s="3">
-        <v>844300</v>
+        <v>816000</v>
       </c>
       <c r="K52" s="3">
         <v>916500</v>
@@ -2456,25 +2456,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>14770200</v>
+        <v>14275700</v>
       </c>
       <c r="E54" s="3">
-        <v>12731900</v>
+        <v>12305600</v>
       </c>
       <c r="F54" s="3">
-        <v>12969700</v>
+        <v>12535400</v>
       </c>
       <c r="G54" s="3">
-        <v>19700700</v>
+        <v>19041200</v>
       </c>
       <c r="H54" s="3">
-        <v>18721700</v>
+        <v>18094900</v>
       </c>
       <c r="I54" s="3">
-        <v>18143900</v>
+        <v>17536400</v>
       </c>
       <c r="J54" s="3">
-        <v>18956300</v>
+        <v>18321700</v>
       </c>
       <c r="K54" s="3">
         <v>20407000</v>
@@ -2534,25 +2534,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>1498200</v>
+        <v>1448100</v>
       </c>
       <c r="E57" s="3">
-        <v>1218600</v>
+        <v>1177800</v>
       </c>
       <c r="F57" s="3">
-        <v>1382200</v>
+        <v>1335900</v>
       </c>
       <c r="G57" s="3">
-        <v>1232700</v>
+        <v>1191400</v>
       </c>
       <c r="H57" s="3">
-        <v>1430600</v>
+        <v>1382700</v>
       </c>
       <c r="I57" s="3">
-        <v>1335600</v>
+        <v>1290900</v>
       </c>
       <c r="J57" s="3">
-        <v>1341200</v>
+        <v>1296300</v>
       </c>
       <c r="K57" s="3">
         <v>1457300</v>
@@ -2576,25 +2576,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>1264200</v>
+        <v>1221800</v>
       </c>
       <c r="E58" s="3">
-        <v>941600</v>
+        <v>910100</v>
       </c>
       <c r="F58" s="3">
-        <v>743400</v>
+        <v>718500</v>
       </c>
       <c r="G58" s="3">
-        <v>540800</v>
+        <v>522700</v>
       </c>
       <c r="H58" s="3">
-        <v>1834000</v>
+        <v>1772600</v>
       </c>
       <c r="I58" s="3">
-        <v>1533300</v>
+        <v>1482000</v>
       </c>
       <c r="J58" s="3">
-        <v>1579700</v>
+        <v>1526800</v>
       </c>
       <c r="K58" s="3">
         <v>1916500</v>
@@ -2618,25 +2618,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>2933600</v>
+        <v>2835400</v>
       </c>
       <c r="E59" s="3">
-        <v>2603800</v>
+        <v>2516700</v>
       </c>
       <c r="F59" s="3">
-        <v>2391600</v>
+        <v>2311500</v>
       </c>
       <c r="G59" s="3">
-        <v>8867400</v>
+        <v>8570500</v>
       </c>
       <c r="H59" s="3">
-        <v>2535100</v>
+        <v>2450200</v>
       </c>
       <c r="I59" s="3">
-        <v>2548200</v>
+        <v>2462900</v>
       </c>
       <c r="J59" s="3">
-        <v>2622700</v>
+        <v>2534900</v>
       </c>
       <c r="K59" s="3">
         <v>2556600</v>
@@ -2660,25 +2660,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>5696000</v>
+        <v>5505300</v>
       </c>
       <c r="E60" s="3">
-        <v>4764000</v>
+        <v>4604500</v>
       </c>
       <c r="F60" s="3">
-        <v>4517100</v>
+        <v>4365900</v>
       </c>
       <c r="G60" s="3">
-        <v>10640900</v>
+        <v>10284700</v>
       </c>
       <c r="H60" s="3">
-        <v>5799600</v>
+        <v>5605500</v>
       </c>
       <c r="I60" s="3">
-        <v>5417100</v>
+        <v>5235800</v>
       </c>
       <c r="J60" s="3">
-        <v>5543600</v>
+        <v>5358000</v>
       </c>
       <c r="K60" s="3">
         <v>5930500</v>
@@ -2702,25 +2702,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>1671200</v>
+        <v>1615200</v>
       </c>
       <c r="E61" s="3">
-        <v>1136900</v>
+        <v>1098800</v>
       </c>
       <c r="F61" s="3">
-        <v>1280700</v>
+        <v>1237800</v>
       </c>
       <c r="G61" s="3">
-        <v>1146700</v>
+        <v>1108300</v>
       </c>
       <c r="H61" s="3">
-        <v>4578600</v>
+        <v>4425300</v>
       </c>
       <c r="I61" s="3">
-        <v>4525300</v>
+        <v>4373800</v>
       </c>
       <c r="J61" s="3">
-        <v>4326700</v>
+        <v>4181900</v>
       </c>
       <c r="K61" s="3">
         <v>4351500</v>
@@ -2744,25 +2744,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>821000</v>
+        <v>793500</v>
       </c>
       <c r="E62" s="3">
-        <v>608000</v>
+        <v>587600</v>
       </c>
       <c r="F62" s="3">
-        <v>825000</v>
+        <v>797400</v>
       </c>
       <c r="G62" s="3">
-        <v>984500</v>
+        <v>951600</v>
       </c>
       <c r="H62" s="3">
-        <v>1343000</v>
+        <v>1298000</v>
       </c>
       <c r="I62" s="3">
-        <v>1408700</v>
+        <v>1361500</v>
       </c>
       <c r="J62" s="3">
-        <v>1413100</v>
+        <v>1365800</v>
       </c>
       <c r="K62" s="3">
         <v>1688900</v>
@@ -2912,25 +2912,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>8370400</v>
+        <v>8090200</v>
       </c>
       <c r="E66" s="3">
-        <v>6534800</v>
+        <v>6316000</v>
       </c>
       <c r="F66" s="3">
-        <v>6647600</v>
+        <v>6425000</v>
       </c>
       <c r="G66" s="3">
-        <v>13377800</v>
+        <v>12929900</v>
       </c>
       <c r="H66" s="3">
-        <v>12314900</v>
+        <v>11902600</v>
       </c>
       <c r="I66" s="3">
-        <v>11895200</v>
+        <v>11496900</v>
       </c>
       <c r="J66" s="3">
-        <v>11797000</v>
+        <v>11402100</v>
       </c>
       <c r="K66" s="3">
         <v>12485100</v>
@@ -3140,25 +3140,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>3233900</v>
+        <v>3125600</v>
       </c>
       <c r="E72" s="3">
-        <v>3159200</v>
+        <v>3053400</v>
       </c>
       <c r="F72" s="3">
-        <v>3858000</v>
+        <v>3728900</v>
       </c>
       <c r="G72" s="3">
-        <v>4085800</v>
+        <v>3949000</v>
       </c>
       <c r="H72" s="3">
-        <v>3949400</v>
+        <v>3817200</v>
       </c>
       <c r="I72" s="3">
-        <v>3504500</v>
+        <v>3387200</v>
       </c>
       <c r="J72" s="3">
-        <v>4516600</v>
+        <v>4365400</v>
       </c>
       <c r="K72" s="3">
         <v>4986400</v>
@@ -3308,25 +3308,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>6399800</v>
+        <v>6185500</v>
       </c>
       <c r="E76" s="3">
-        <v>6197000</v>
+        <v>5989600</v>
       </c>
       <c r="F76" s="3">
-        <v>6322100</v>
+        <v>6110400</v>
       </c>
       <c r="G76" s="3">
-        <v>6322900</v>
+        <v>6111300</v>
       </c>
       <c r="H76" s="3">
-        <v>6406800</v>
+        <v>6192300</v>
       </c>
       <c r="I76" s="3">
-        <v>6248700</v>
+        <v>6039500</v>
       </c>
       <c r="J76" s="3">
-        <v>7159300</v>
+        <v>6919600</v>
       </c>
       <c r="K76" s="3">
         <v>7921900</v>
@@ -3439,25 +3439,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>373500</v>
+        <v>361000</v>
       </c>
       <c r="E81" s="3">
-        <v>208600</v>
+        <v>201700</v>
       </c>
       <c r="F81" s="3">
-        <v>-224900</v>
+        <v>-217300</v>
       </c>
       <c r="G81" s="3">
-        <v>271700</v>
+        <v>262600</v>
       </c>
       <c r="H81" s="3">
-        <v>340200</v>
+        <v>328900</v>
       </c>
       <c r="I81" s="3">
-        <v>-930000</v>
+        <v>-898900</v>
       </c>
       <c r="J81" s="3">
-        <v>24000</v>
+        <v>23200</v>
       </c>
       <c r="K81" s="3">
         <v>462900</v>
@@ -3499,25 +3499,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>669600</v>
+        <v>647200</v>
       </c>
       <c r="E83" s="3">
-        <v>621600</v>
+        <v>600800</v>
       </c>
       <c r="F83" s="3">
-        <v>718700</v>
+        <v>694700</v>
       </c>
       <c r="G83" s="3">
-        <v>829100</v>
+        <v>801400</v>
       </c>
       <c r="H83" s="3">
-        <v>647800</v>
+        <v>626100</v>
       </c>
       <c r="I83" s="3">
-        <v>744200</v>
+        <v>719300</v>
       </c>
       <c r="J83" s="3">
-        <v>734300</v>
+        <v>709700</v>
       </c>
       <c r="K83" s="3">
         <v>789100</v>
@@ -3751,25 +3751,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>458300</v>
+        <v>442900</v>
       </c>
       <c r="E89" s="3">
-        <v>566500</v>
+        <v>547500</v>
       </c>
       <c r="F89" s="3">
-        <v>872200</v>
+        <v>843000</v>
       </c>
       <c r="G89" s="3">
-        <v>801700</v>
+        <v>774900</v>
       </c>
       <c r="H89" s="3">
-        <v>563000</v>
+        <v>544100</v>
       </c>
       <c r="I89" s="3">
-        <v>757700</v>
+        <v>732300</v>
       </c>
       <c r="J89" s="3">
-        <v>606600</v>
+        <v>586300</v>
       </c>
       <c r="K89" s="3">
         <v>734000</v>
@@ -3811,25 +3811,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-312300</v>
+        <v>-301800</v>
       </c>
       <c r="E91" s="3">
-        <v>-256700</v>
+        <v>-248100</v>
       </c>
       <c r="F91" s="3">
-        <v>-289600</v>
+        <v>-279900</v>
       </c>
       <c r="G91" s="3">
-        <v>-594900</v>
+        <v>-575000</v>
       </c>
       <c r="H91" s="3">
-        <v>-497800</v>
+        <v>-481100</v>
       </c>
       <c r="I91" s="3">
-        <v>-496600</v>
+        <v>-480000</v>
       </c>
       <c r="J91" s="3">
-        <v>-518300</v>
+        <v>-501000</v>
       </c>
       <c r="K91" s="3">
         <v>-615800</v>
@@ -3937,25 +3937,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-920200</v>
+        <v>-889400</v>
       </c>
       <c r="E94" s="3">
-        <v>-407800</v>
+        <v>-394100</v>
       </c>
       <c r="F94" s="3">
-        <v>-436700</v>
+        <v>-422000</v>
       </c>
       <c r="G94" s="3">
-        <v>-1130700</v>
+        <v>-1092900</v>
       </c>
       <c r="H94" s="3">
-        <v>-315500</v>
+        <v>-305000</v>
       </c>
       <c r="I94" s="3">
-        <v>-557000</v>
+        <v>-538400</v>
       </c>
       <c r="J94" s="3">
-        <v>-733100</v>
+        <v>-708600</v>
       </c>
       <c r="K94" s="3">
         <v>-765400</v>
@@ -3997,25 +3997,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-128000</v>
+        <v>-123700</v>
       </c>
       <c r="E96" s="3">
-        <v>-96600</v>
+        <v>-93300</v>
       </c>
       <c r="F96" s="3">
-        <v>-102000</v>
+        <v>-98600</v>
       </c>
       <c r="G96" s="3">
-        <v>-129400</v>
+        <v>-125100</v>
       </c>
       <c r="H96" s="3">
-        <v>-87100</v>
+        <v>-84200</v>
       </c>
       <c r="I96" s="3">
-        <v>-99600</v>
+        <v>-96300</v>
       </c>
       <c r="J96" s="3">
-        <v>-199200</v>
+        <v>-192500</v>
       </c>
       <c r="K96" s="3">
         <v>-183800</v>
@@ -4165,25 +4165,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>243600</v>
+        <v>235400</v>
       </c>
       <c r="E100" s="3">
-        <v>-904700</v>
+        <v>-874400</v>
       </c>
       <c r="F100" s="3">
-        <v>-28100</v>
+        <v>-27100</v>
       </c>
       <c r="G100" s="3">
-        <v>520500</v>
+        <v>503000</v>
       </c>
       <c r="H100" s="3">
-        <v>291500</v>
+        <v>281700</v>
       </c>
       <c r="I100" s="3">
-        <v>44000</v>
+        <v>42500</v>
       </c>
       <c r="J100" s="3">
-        <v>-136900</v>
+        <v>-132300</v>
       </c>
       <c r="K100" s="3">
         <v>313600</v>
@@ -4207,25 +4207,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>59400</v>
+        <v>57400</v>
       </c>
       <c r="E101" s="3">
-        <v>84200</v>
+        <v>81400</v>
       </c>
       <c r="F101" s="3">
-        <v>50400</v>
+        <v>48700</v>
       </c>
       <c r="G101" s="3">
-        <v>-29400</v>
+        <v>-28400</v>
       </c>
       <c r="H101" s="3">
-        <v>7500</v>
+        <v>7200</v>
       </c>
       <c r="I101" s="3">
-        <v>-10200</v>
+        <v>-9800</v>
       </c>
       <c r="J101" s="3">
-        <v>-19100</v>
+        <v>-18500</v>
       </c>
       <c r="K101" s="3">
         <v>-62900</v>
@@ -4249,25 +4249,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-158900</v>
+        <v>-153600</v>
       </c>
       <c r="E102" s="3">
-        <v>-661700</v>
+        <v>-639600</v>
       </c>
       <c r="F102" s="3">
-        <v>457900</v>
+        <v>442600</v>
       </c>
       <c r="G102" s="3">
-        <v>162100</v>
+        <v>156600</v>
       </c>
       <c r="H102" s="3">
-        <v>546400</v>
+        <v>528100</v>
       </c>
       <c r="I102" s="3">
-        <v>234500</v>
+        <v>226700</v>
       </c>
       <c r="J102" s="3">
-        <v>-282500</v>
+        <v>-273000</v>
       </c>
       <c r="K102" s="3">
         <v>219200</v>
